--- a/data/retipi.xlsx
+++ b/data/retipi.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F7C0B8-6703-DB4A-B20B-1B5E74D33A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE0974E-BA0D-F54D-8826-D3B3F14F699D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3500" windowWidth="27640" windowHeight="16940" xr2:uid="{CA7074CC-EAD8-9149-8008-9ADB2596020E}"/>
+    <workbookView xWindow="9540" yWindow="2440" windowWidth="28040" windowHeight="17440" xr2:uid="{F805F82F-47AC-7645-9DBD-AAF65A6E36C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="tipificacion__1" localSheetId="0">Sheet1!$A$1:$C$1629</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,6 +38,20 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{6A74CA6E-C7B5-C346-84D3-2BA93B72FA73}" name="tipificacion (1)" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/admin/Downloads/tipificacion (1).csv" decimal="," thousands="." semicolon="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="2986">
   <si>
@@ -50,7 +67,7 @@
     <t>MDM-PQR-35424371</t>
   </si>
   <si>
-    <t>SG//LT: 6016133556 cuenta 12054410753// cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia RF-001295307 del d√≠a 08/11/2022 reteniendo al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la pol√≠tica de exoneraci√≥n VALOR DE RECONEXI√ìN POR MORA. Se realiz√≥ ajuste en menos de los 6 meses, bajo MDM-PQR-34247845  06/10/2022 ya se hab√≠a realizado ajuste por este concepto.</t>
+    <t>SG//LT: 6016133556 cuenta 12054410753// cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia RF-001295307 del día 08/11/2022 reteniendo al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la política de exoneración VALOR DE RECONEXIÓN POR MORA. Se realizó ajuste en menos de los 6 meses, bajo MDM-PQR-34247845  06/10/2022 ya se había realizado ajuste por este concepto.</t>
   </si>
   <si>
     <t>INCREMENTO DE TARIFA</t>
@@ -59,19 +76,19 @@
     <t>MDM-PQR-35424385</t>
   </si>
   <si>
-    <t>SG//LT: 6017257398 cuenta 12054364769// cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia RF-001301521 del d√≠a 13/11/2022 reteniendo al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017257398 cuenta 12054364769// cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia RF-001301521 del día 13/11/2022 reteniendo al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35424468</t>
   </si>
   <si>
-    <t>SG//LT: 6013835268 cuenta 12053820540// cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia RF-001300651 del d√≠a 12/11/2022 reteniendo al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $29,000 incluido IVA. VALOR REAL AJUSTE: $29,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013835268 cuenta 12053820540// cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia RF-001300651 del día 12/11/2022 reteniendo al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $29,000 incluido IVA. VALOR REAL AJUSTE: $29,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35425107</t>
   </si>
   <si>
-    <t>L√≠nea: 6016456888 Nombre de quien se comunica: JEASSON CASTA√ëEDA  C√©dula: 1013599900 N√∫mero de contacto: 3227745939   Email: stevencafi74@gmail.com   Direcci√≥n: KR 20 29 34 SUR Motivo de la llamada: cliente se comunica porque le llego cobro de hbo max</t>
+    <t>Línea: 6016456888 Nombre de quien se comunica: JEASSON CASTAÑEDA  Cédula: 1013599900 Número de contacto: 3227745939   Email: stevencafi74@gmail.com   Dirección: KR 20 29 34 SUR Motivo de la llamada: cliente se comunica porque le llego cobro de hbo max</t>
   </si>
   <si>
     <t>SVAS</t>
@@ -89,13 +106,13 @@
     <t>MDM-PQR-35428540</t>
   </si>
   <si>
-    <t>L√≠nea: 6017723627  Nombre de quien se comunica: MARIA CLEMENTINA CUETO VIGIL   C√©dula: 41600647   N√∫mero de contacto: 3102973778   Email: mccueto@gmail.com   Direcci√≥n: CL 77 10 21 AP 202 Motivo de la llamada: CLEITNE SE COMUNCIA INDCIANDO QUE LE ESTAN GENRANDO COBRO DE HBO Y QUE ELLA NO LO SOLICITO</t>
+    <t>Línea: 6017723627  Nombre de quien se comunica: MARIA CLEMENTINA CUETO VIGIL   Cédula: 41600647   Número de contacto: 3102973778   Email: mccueto@gmail.com   Dirección: CL 77 10 21 AP 202 Motivo de la llamada: CLEITNE SE COMUNCIA INDCIANDO QUE LE ESTAN GENRANDO COBRO DE HBO Y QUE ELLA NO LO SOLICITO</t>
   </si>
   <si>
     <t>MDM-PQR-35431381</t>
   </si>
   <si>
-    <t>ASEG// LT 6017185707//NO APLICACI√ìN TARIFA DE RETENCI√ìN, el 08/07/2022 se ofrece bajo RF-001122454, oferta b√°sica por valor de $85.000, no obstante el 20/09/2022 bajo la orden MDM-FIBRA-009914276, se ingresa cambio de plan, inactivando la oferta b√°sica en revchain, cliente indica que no solicit√≥ este cambio de plan. SOLUCI√ìN DE ASEGURAMIENTO: El 28/10/2022, bajo CUN 4347-22-0004187326, escrita realiza cierre de ciclo, aplica descuento del 35% activo en revchain desde el 02/11/2022, factura del mes de noviembre, se cobran servicios del 01 al 30 nov por valor de $88.984. Se cierra caso. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $54.340 incluido IVA, VALOR REAL AJUSTE: $54.980 incluido IVA DIFERENCIA: $-640/ AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6017185707//NO APLICACIÓN TARIFA DE RETENCIÓN, el 08/07/2022 se ofrece bajo RF-001122454, oferta básica por valor de $85.000, no obstante el 20/09/2022 bajo la orden MDM-FIBRA-009914276, se ingresa cambio de plan, inactivando la oferta básica en revchain, cliente indica que no solicitó este cambio de plan. SOLUCIÓN DE ASEGURAMIENTO: El 28/10/2022, bajo CUN 4347-22-0004187326, escrita realiza cierre de ciclo, aplica descuento del 35% activo en revchain desde el 02/11/2022, factura del mes de noviembre, se cobran servicios del 01 al 30 nov por valor de $88.984. Se cierra caso. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $54.340 incluido IVA, VALOR REAL AJUSTE: $54.980 incluido IVA DIFERENCIA: $-640/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>ASEGURAMIENTO</t>
@@ -104,7 +121,7 @@
     <t>MDM-PQR-35435622</t>
   </si>
   <si>
-    <t>NOMBRE:DAVID ALEJANDRO GARZON CORTES   CEDULA:1024536352   CORREO:acortes965@gmail.com   CELULAR:3042906917   DIRECCI√ìN:KR 67 57V 09 SUR TO 1 AP 203 MOTIVO DE LLAMADA: Cliente se comunica indicando que su factura le llego m√°s costosa de lo normal y adicional este mes ten√≠a el 50% de descuento y no se lo aplicaron.</t>
+    <t>NOMBRE:DAVID ALEJANDRO GARZON CORTES   CEDULA:1024536352   CORREO:acortes965@gmail.com   CELULAR:3042906917   DIRECCIÓN:KR 67 57V 09 SUR TO 1 AP 203 MOTIVO DE LLAMADA: Cliente se comunica indicando que su factura le llego más costosa de lo normal y adicional este mes tenía el 50% de descuento y no se lo aplicaron.</t>
   </si>
   <si>
     <t>MDM-PQR-35435631</t>
@@ -128,7 +145,7 @@
     <t>MDM-PQR-35441533</t>
   </si>
   <si>
-    <t>L√≠nea:  6016318233 Nombre de quien se comunica: LUZ ELENA MARULANDA LOPEZ  C√©dula: 24757003 N√∫mero de contacto:  3053122950 Email:  ivan.marulandal2017@gmail.com   Direcci√≥n: KR 16A 78 75 OF 403 Motivo de la llamada:  CLIENTE SE COMUNICA PARA CONFRIMAR LA FECHA DE FINALIZACI√ìN DE LA CLAUSULA DE PERMANENCIA</t>
+    <t>Línea:  6016318233 Nombre de quien se comunica: LUZ ELENA MARULANDA LOPEZ  Cédula: 24757003 Número de contacto:  3053122950 Email:  ivan.marulandal2017@gmail.com   Dirección: KR 16A 78 75 OF 403 Motivo de la llamada:  CLIENTE SE COMUNICA PARA CONFRIMAR LA FECHA DE FINALIZACIÓN DE LA CLAUSULA DE PERMANENCIA</t>
   </si>
   <si>
     <t>MDM-PQR-35442526</t>
@@ -140,7 +157,7 @@
     <t>MDM-PQR-35443130</t>
   </si>
   <si>
-    <t>ASEG// LT 6014110941// cliente reclama por cobro de reconexi√≥n de servicios //SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso aplica ajuste, ya que se evidencia que se ajust√≥ por retenci√≥n bajo RF- 001290583. //JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $26.000 incluido IVA VALOR REAL AJUSTE: $26.000 incluido IVA DIFERENCIA $0 / AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6014110941// cliente reclama por cobro de reconexión de servicios //SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso aplica ajuste, ya que se evidencia que se ajustó por retención bajo RF- 001290583. //JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $26.000 incluido IVA VALOR REAL AJUSTE: $26.000 incluido IVA DIFERENCIA $0 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35443227</t>
@@ -149,7 +166,7 @@
     <t>DELIO ALEXANDER DIAZ BERMUDEZ 1073326389 CC 6012182845 3206268681 marybermudez190@gmail.com  Motivo de llamada:compensacion por fallas</t>
   </si>
   <si>
-    <t>compensación</t>
+    <t>compensacin</t>
   </si>
   <si>
     <t>MDM-PQR-35443980</t>
@@ -161,19 +178,19 @@
     <t>MDM-PQR-35444255</t>
   </si>
   <si>
-    <t>L√≠nea: SR-32459363 Nombre:  NICOLAS POVEDA  REY C√©dula: 1192782833 Celular:3193367017 Correo: NIKOLAXPOVE18@GMAIL.COM   Direcci√≥n: KR 1A ESTE 22B 15 SUR  Motivo: MEDIANETE LLAMADA TITULAR MANIFIESTA QUE SE PASO UN DIA  POR INCONVENIENTES QUE TUVO Y SE LE GENERO UN COBRO POR RECONEXION PIDE POR FAVOR NO VOLVER A GENERAR ESTE COBRO YA QUE EL NO VISUALIZO QUE SE HAYA GENERADO UNA SUSUPENSION PIDE AJUSTE PARA SU PROXIMA FACTURA</t>
+    <t>Línea: SR-32459363 Nombre:  NICOLAS POVEDA  REY Cédula: 1192782833 Celular:3193367017 Correo: NIKOLAXPOVE18@GMAIL.COM   Dirección: KR 1A ESTE 22B 15 SUR  Motivo: MEDIANETE LLAMADA TITULAR MANIFIESTA QUE SE PASO UN DIA  POR INCONVENIENTES QUE TUVO Y SE LE GENERO UN COBRO POR RECONEXION PIDE POR FAVOR NO VOLVER A GENERAR ESTE COBRO YA QUE EL NO VISUALIZO QUE SE HAYA GENERADO UNA SUSUPENSION PIDE AJUSTE PARA SU PROXIMA FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-35444986</t>
   </si>
   <si>
-    <t>Nombre:diana  cc:1031132427 direccion:CL 31F SUR 21A 11 AP 101 correo:dianacosob@gmail.com   telf:3006172723   motivo: hace vario tiempo solicito la cancelacion del servicio pero le sigue llegando facturacion , le dijeron que la iban a llamar para la retoma de equipos y el repetidor de se√±al</t>
+    <t>Nombre:diana  cc:1031132427 direccion:CL 31F SUR 21A 11 AP 101 correo:dianacosob@gmail.com   telf:3006172723   motivo: hace vario tiempo solicito la cancelacion del servicio pero le sigue llegando facturacion , le dijeron que la iban a llamar para la retoma de equipos y el repetidor de señal</t>
   </si>
   <si>
     <t>MDM-PQR-35446212</t>
   </si>
   <si>
-    <t>"L√≠nea:6012167591 ¬† Nombre de quien se comunica:AMANDA REYES DEL CARMEN ¬† C√©dula:24110476 N√∫mero de contacto:3103047234 ¬† Email:suarez_amanda@hotmail.com ¬† Direcci√≥n:KR 7A 145 41 AP 606¬† Motivo de la llamada: cliente inconforme con facturaci√≥n ya que le brindaron oferta en $110,000 pero factura se genera por otro valor."</t>
+    <t>"Línea:6012167591   Nombre de quien se comunica:AMANDA REYES DEL CARMEN   Cédula:24110476 Número de contacto:3103047234   Email:suarez_amanda@hotmail.com   Dirección:KR 7A 145 41 AP 606  Motivo de la llamada: cliente inconforme con facturación ya que le brindaron oferta en $110,000 pero factura se genera por otro valor."</t>
   </si>
   <si>
     <t>BENEFICIO DE RETENCION</t>
@@ -188,61 +205,61 @@
     <t>MDM-PQR-35447070</t>
   </si>
   <si>
-    <t>SG//LT: 6012859772 cuenta 12053914439//Cliente solicita ajuste de la factura, ya que el 01/07/2022 bajo MDM-PQR-31877544 solicita el retiro del servicio de tv ya que no lo utiliza. SOLUCI√ìN DE ASEGURAMIENTO: Se deja caso en seguimiento 01/12/2022, ya que se evidencia el d√≠a 01/07/2022 bajo MDM-PQR-31877544 se realiza cambio de plan de TRIO 100M HOG DOWNGRADE DUO 200M HOG por valor de $84,900, se evidencia cargos aprovisionados en revchain desde 25/10/2022 por valor de $84,900 fuera de adicionales, se evidencia servicio de Plan HBOMAX desde el d√≠as 25/10/2022 por valor de $19,900 IVA incluido, se realiza comunicaci√≥n con titular Sra LAURA MANUELA TRUJILLO D√çAZ al m√≥vil 3132203301 no hay contacto . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $74,920 incluido IVA. VALOR REAL AJUSTE: $47,900 incluido IVA. DIFERENCIA $27,020/ MAYOR VALOR AJUSTADO.//se penaliza asesor no realiza gesti√≥n para dar cierre de ciclo.</t>
+    <t>SG//LT: 6012859772 cuenta 12053914439//Cliente solicita ajuste de la factura, ya que el 01/07/2022 bajo MDM-PQR-31877544 solicita el retiro del servicio de tv ya que no lo utiliza. SOLUCIÓN DE ASEGURAMIENTO: Se deja caso en seguimiento 01/12/2022, ya que se evidencia el día 01/07/2022 bajo MDM-PQR-31877544 se realiza cambio de plan de TRIO 100M HOG DOWNGRADE DUO 200M HOG por valor de $84,900, se evidencia cargos aprovisionados en revchain desde 25/10/2022 por valor de $84,900 fuera de adicionales, se evidencia servicio de Plan HBOMAX desde el días 25/10/2022 por valor de $19,900 IVA incluido, se realiza comunicación con titular Sra LAURA MANUELA TRUJILLO DÍAZ al móvil 3132203301 no hay contacto . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $74,920 incluido IVA. VALOR REAL AJUSTE: $47,900 incluido IVA. DIFERENCIA $27,020/ MAYOR VALOR AJUSTADO.//se penaliza asesor no realiza gestión para dar cierre de ciclo.</t>
   </si>
   <si>
     <t>MDM-PQR-35448194</t>
   </si>
   <si>
-    <t>SG//LT: 6012648374 cuenta 12054019144// Cliente radica queja el 23/10/2022 bajo CUN 4347220004485892, solicita ajuste de la factura, 1. Env√≠o de llamada, donde se ofreci√≥ descuento y 2. Ajuste de factura . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $11,880, incluido IVA, VALOR REAL AJUSTE $11,880, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012648374 cuenta 12054019144// Cliente radica queja el 23/10/2022 bajo CUN 4347220004485892, solicita ajuste de la factura, 1. Envío de llamada, donde se ofreció descuento y 2. Ajuste de factura . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $11,880, incluido IVA, VALOR REAL AJUSTE $11,880, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35448443</t>
   </si>
   <si>
-    <t>SG//LT: SR-29886845 cuenta 12054343970// Cliente radica queja el 01/11/2022 bajo CUN 4347220004563158, solicita ajuste de la factura, queja relacionada con el servicio SR-29886845 Cuenta No. 12054343970, donde solicita grabaci√≥n de llamada, Sin embargo, si se logra evidencia contacto el d√≠a 27 de julio de 2022 solicitando el retiro del HBO MAX, de acuerdo con lo anterior se procedi√≥ a ajustar la factura del mes de septiembre de 2022 y el valor de $19.900 IVA incluido . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $19,900, incluido IVA, VALOR REAL AJUSTE $19,900, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: SR-29886845 cuenta 12054343970// Cliente radica queja el 01/11/2022 bajo CUN 4347220004563158, solicita ajuste de la factura, queja relacionada con el servicio SR-29886845 Cuenta No. 12054343970, donde solicita grabación de llamada, Sin embargo, si se logra evidencia contacto el día 27 de julio de 2022 solicitando el retiro del HBO MAX, de acuerdo con lo anterior se procedió a ajustar la factura del mes de septiembre de 2022 y el valor de $19.900 IVA incluido . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $19,900, incluido IVA, VALOR REAL AJUSTE $19,900, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35449106</t>
   </si>
   <si>
-    <t>SG//LT: 6016336520 cuenta 12053619954// Cliente radica queja el 10/10/2022 bajo CUN 4347220004377154, solicita ajuste de la factura, 1. Devoluci√≥n del dinero por el cobro de las llamadas a larga distancia que se le genero en el mes de SEPTIEMBRE y OCTUBRE y 2. Que se le genere el cobro de plan a larga distancia ilimitadas . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $21,420, incluido IVA, VALOR REAL AJUSTE $21,420, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016336520 cuenta 12053619954// Cliente radica queja el 10/10/2022 bajo CUN 4347220004377154, solicita ajuste de la factura, 1. Devolución del dinero por el cobro de las llamadas a larga distancia que se le genero en el mes de SEPTIEMBRE y OCTUBRE y 2. Que se le genere el cobro de plan a larga distancia ilimitadas . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $21,420, incluido IVA, VALOR REAL AJUSTE $21,420, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35449397</t>
   </si>
   <si>
-    <t>SG//LT: 6016758444 cuenta 12054388410// cliente solicita ajuste de la factura, ya que bajo  MDM-PQR-34311269 de reclamaci√≥n realizada el d√≠a 10/11/2022  donde el usuario quer√≠a que no se le volviera a cobrar los servicios de SVA HBOMAX y SVA PARAMOUNT. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain los servicios de SVA HBOMAX y SVA PARAMOUNT retirados desde 24/11/2022 y se le realizo ajuste bajo LEY DE FAVORABILIDAD . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016758444 cuenta 12054388410// cliente solicita ajuste de la factura, ya que bajo  MDM-PQR-34311269 de reclamación realizada el día 10/11/2022  donde el usuario quería que no se le volviera a cobrar los servicios de SVA HBOMAX y SVA PARAMOUNT. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain los servicios de SVA HBOMAX y SVA PARAMOUNT retirados desde 24/11/2022 y se le realizo ajuste bajo LEY DE FAVORABILIDAD . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35449902</t>
   </si>
   <si>
-    <t>SG//LT: 6017711423 cuenta 12051657921// Cliente radica queja el 02/11/2022 bajo CUN 4347220004576165, solicita ajuste de la factura, 1. Solicita la grabaci√≥n de la llamada correspondiente a la suspensi√≥n temporal de la l√≠nea el 07 de octubre de 2022 y 2. Que le ajusten la facturaci√≥n . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $44,980, incluido IVA, VALOR REAL AJUSTE $44,980, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017711423 cuenta 12051657921// Cliente radica queja el 02/11/2022 bajo CUN 4347220004576165, solicita ajuste de la factura, 1. Solicita la grabación de la llamada correspondiente a la suspensión temporal de la línea el 07 de octubre de 2022 y 2. Que le ajusten la facturación . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $44,980, incluido IVA, VALOR REAL AJUSTE $44,980, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35450399</t>
   </si>
   <si>
-    <t>ASEG// LT 6013109198// NO APLICACI√ìN TARIFA DE RETENCI√ìN, el 11/07/2022 se ofrece bajo RF- 001125421,¬†oferta b√°sica por valor de $50.000, cargos DS sincronizados en revchain de acuerdo con la oferta b√°sica</t>
+    <t>ASEG// LT 6013109198// NO APLICACIÓN TARIFA DE RETENCIÓN, el 11/07/2022 se ofrece bajo RF- 001125421, oferta básica por valor de $50.000, cargos DS sincronizados en revchain de acuerdo con la oferta básica</t>
   </si>
   <si>
     <t>MDM-PQR-35450549</t>
   </si>
   <si>
-    <t>ASEG//LT 6013579450// Cliente sol√≠cita ajuste de la factura por cobro de reconexi√≥n de servicios //SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, asesor realiza ajuste bajo la pol√≠tica de FAVORABILIDAD //JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $26.000 IVA INCLUIDO VALOR REAL AJUSTE: $26.000 DIFERENCIA: $0 /AJUSTE CORRECTO.</t>
+    <t>ASEG//LT 6013579450// Cliente solícita ajuste de la factura por cobro de reconexión de servicios //SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, asesor realiza ajuste bajo la política de FAVORABILIDAD //JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $26.000 IVA INCLUIDO VALOR REAL AJUSTE: $26.000 DIFERENCIA: $0 /AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35451091</t>
   </si>
   <si>
-    <t>ASEG//LT SR-26912419/ AJUSTE RECONEXI√ìN. Cliente radica queja el 25/10/2022 bajo CUN 4347220004509457, solicitando ajuste por el cobro de reconexi√≥n de servicios. ¬†SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, gestionado por el √°rea de escrita. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $26.000 incluido IVA VALOR REAL AJUSTE: $26.000 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG//LT SR-26912419/ AJUSTE RECONEXIÓN. Cliente radica queja el 25/10/2022 bajo CUN 4347220004509457, solicitando ajuste por el cobro de reconexión de servicios.  SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, gestionado por el área de escrita. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $26.000 incluido IVA VALOR REAL AJUSTE: $26.000 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35451149</t>
   </si>
   <si>
-    <t>ASEG// LT¬†6013659537// cliente reclama por cobro de reconexi√≥n de servicios //SOLUCI√ìN DE ASEGURAMIENTO: Se penaliza ajuste servicios suspendidos del 13 al 14 octubre del 2022, asesor ingresa RF-001289954</t>
+    <t>ASEG// LT 6013659537// cliente reclama por cobro de reconexión de servicios //SOLUCIÓN DE ASEGURAMIENTO: Se penaliza ajuste servicios suspendidos del 13 al 14 octubre del 2022, asesor ingresa RF-001289954</t>
   </si>
   <si>
     <t>MDM-PQR-35452256</t>
@@ -296,7 +313,7 @@
     <t>MDM-PQR-35464298</t>
   </si>
   <si>
-    <t>DIVA GONZALEZ 38253180   6012695479  3174456373  algomur@yahoo.es  TV 4 43 85 AP 301 cliente maneja descuento de retenci√≥n el cual se le esta aplicando pero maneja un Deco adicional que no ingresa dentro del descuento</t>
+    <t>DIVA GONZALEZ 38253180   6012695479  3174456373  algomur@yahoo.es  TV 4 43 85 AP 301 cliente maneja descuento de retención el cual se le esta aplicando pero maneja un Deco adicional que no ingresa dentro del descuento</t>
   </si>
   <si>
     <t>MDM-PQR-35465166</t>
@@ -308,7 +325,7 @@
     <t>MDM-PQR-35465170</t>
   </si>
   <si>
-    <t>L√≠nea:  SR-32342103  Nombre de quien se comunica: ANDRES RICARDO GONZALEZ CONTRERAS   C√©dula: 1030664054   N√∫mero de contacto: 3059086373   Email: andresimgonzalez@gmail.com   Direcci√≥n: KR 74 7B 11 CA 18 Motivo de la llamada:."  CLIENTE DICE QUE CANCELO HBO MAX Y SE LO ESTAN COBRANDO</t>
+    <t>Línea:  SR-32342103  Nombre de quien se comunica: ANDRES RICARDO GONZALEZ CONTRERAS   Cédula: 1030664054   Número de contacto: 3059086373   Email: andresimgonzalez@gmail.com   Dirección: KR 74 7B 11 CA 18 Motivo de la llamada:."  CLIENTE DICE QUE CANCELO HBO MAX Y SE LO ESTAN COBRANDO</t>
   </si>
   <si>
     <t>MDM-PQR-35466396</t>
@@ -326,13 +343,13 @@
     <t>MDM-PQR-35471017</t>
   </si>
   <si>
-    <t>ASEG// LT 6017265521// ORDEN NO SINCRONIZA, cliente solicita cancelaci√≥n del SVA WINSPORTS + HBO PACK y DIRECTV FULL el 29/08/2022, orden ingresada MDM-FIBRA-009671444, completa, pero no sincronizo en revchain. SOLUCI√ìN DE ASEGURAMIENTO: El 07/11/2022 se realiz√≥ escalamiento a gestor solicitando sincronizar orden SVA inactivos en revchain desde el 08/11/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $85.400 incluido IVA, VALOR REAL AJUSTE: $94.790 incluido IVA DIFERENCIA: $-9.390/ MENOR VALOR AJUSTADO.</t>
+    <t>ASEG// LT 6017265521// ORDEN NO SINCRONIZA, cliente solicita cancelación del SVA WINSPORTS + HBO PACK y DIRECTV FULL el 29/08/2022, orden ingresada MDM-FIBRA-009671444, completa, pero no sincronizo en revchain. SOLUCIÓN DE ASEGURAMIENTO: El 07/11/2022 se realizó escalamiento a gestor solicitando sincronizar orden SVA inactivos en revchain desde el 08/11/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $85.400 incluido IVA, VALOR REAL AJUSTE: $94.790 incluido IVA DIFERENCIA: $-9.390/ MENOR VALOR AJUSTADO.</t>
   </si>
   <si>
     <t>MDM-PQR-35478665</t>
   </si>
   <si>
-    <t>ASEG//LT 6016739350 / ORDEN NO INGRESADA. Cliente radica queja el 27/10/2022 bajo CUN 4347220004530699, solicitando ajuste por el cobro del SVA DTV GO, indica que el 22/09/2022 solicit√≥ el retiro, asesor no ingres√≥ tr√°mite. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, caso gestionado por el √°rea de escrita. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $131.470 incluido IVA VALOR REAL AJUSTE: $131.470 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG//LT 6016739350 / ORDEN NO INGRESADA. Cliente radica queja el 27/10/2022 bajo CUN 4347220004530699, solicitando ajuste por el cobro del SVA DTV GO, indica que el 22/09/2022 solicitó el retiro, asesor no ingresó trámite. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, caso gestionado por el área de escrita. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $131.470 incluido IVA VALOR REAL AJUSTE: $131.470 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35479459</t>
@@ -344,19 +361,19 @@
     <t>MDM-PQR-35480017</t>
   </si>
   <si>
-    <t>ASG//LT: 6014556114// COMPENSACI√ìN. Cliente solicita ajuste por compensaci√≥n, indisponibilidad del servicio por falla t√©cnica, Se evidencia reporte de fallas en el mes de octubre del 2022, bajo MDM-PQR-34431336, MDM-PQR-34437039. SOLUCI√ìN DE ASEGURAMIENTO/ Se cierra caso ajuste realizado por compensaci√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $12.080 incluido VALOR REAL AJUSTE: $12.080 incluido IVA, diferencia $0 / AJUSTE CORRECTO.</t>
+    <t>ASG//LT: 6014556114// COMPENSACIÓN. Cliente solicita ajuste por compensación, indisponibilidad del servicio por falla técnica, Se evidencia reporte de fallas en el mes de octubre del 2022, bajo MDM-PQR-34431336, MDM-PQR-34437039. SOLUCIÓN DE ASEGURAMIENTO/ Se cierra caso ajuste realizado por compensación. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $12.080 incluido VALOR REAL AJUSTE: $12.080 incluido IVA, diferencia $0 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35480939</t>
   </si>
   <si>
-    <t>ASEG// LT 6016738773// COBRO CL√ÅUSULA / VENTA CARRUSEL cliente solicita ajuste de la factura por cobro de terminaci√≥n anticipada, el 11/10/2022 bajo CUN 4347-22-0004366553, se accede a cancelaci√≥n del servicio, por venta carrusel. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, aplica ajuste. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $ 1.375.000 incluido IVA, VALOR REAL AJUSTE: $ 1.375.000 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6016738773// COBRO CLÁUSULA / VENTA CARRUSEL cliente solicita ajuste de la factura por cobro de terminación anticipada, el 11/10/2022 bajo CUN 4347-22-0004366553, se accede a cancelación del servicio, por venta carrusel. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, aplica ajuste. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $ 1.375.000 incluido IVA, VALOR REAL AJUSTE: $ 1.375.000 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35482207</t>
   </si>
   <si>
-    <t>ASEG//LT 6017734910/ COMPENSACI√ìN. Cliente radica queja el 04/11/2022 bajo CUN 4347220004589743, solicitando ajuste por compensaci√≥n y por cobro de cl√°usula de permanencia. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, caso gestionado por el √°rea de escrita. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $36.000 incluido IVA VALOR REAL AJUSTE: $36.000 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG//LT 6017734910/ COMPENSACIÓN. Cliente radica queja el 04/11/2022 bajo CUN 4347220004589743, solicitando ajuste por compensación y por cobro de cláusula de permanencia. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, caso gestionado por el área de escrita. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $36.000 incluido IVA VALOR REAL AJUSTE: $36.000 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35482400</t>
@@ -368,13 +385,13 @@
     <t>MDM-PQR-35483183</t>
   </si>
   <si>
-    <t>ASEG// LT 6017907042// ORDEN NO SINCRONIZA, cliente solicita cancelaci√≥n del SVA WIN SPORTS EMPAQUETADO el 07/09/2022 con la orden MDM-FIBRA-009786528, completa, pero no sincronizo en revchain. SOLUCI√ìN DE ASEGURAMIENTO: el 11/11/2022 se realiz√≥ escalamiento a gestor solicitando sincronizar orden, SVA inactivo. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $15.000 incluido IVA, VALOR REAL AJUSTE: $15.000 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6017907042// ORDEN NO SINCRONIZA, cliente solicita cancelación del SVA WIN SPORTS EMPAQUETADO el 07/09/2022 con la orden MDM-FIBRA-009786528, completa, pero no sincronizo en revchain. SOLUCIÓN DE ASEGURAMIENTO: el 11/11/2022 se realizó escalamiento a gestor solicitando sincronizar orden, SVA inactivo. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $15.000 incluido IVA, VALOR REAL AJUSTE: $15.000 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35492424</t>
   </si>
   <si>
-    <t>L√≠nea:6013088235 Nombre de quien se comunica: RICHARD HERNANDO MORALES ALVAREZ C√©dula:79649088 39797489 N√∫mero de contacto:3229769859 3123347452 Email:richardmorales49@hotmail.com Direcci√≥n: CL 42A SUR 72H 74 Motivo de la llamada: Retencion no plicada</t>
+    <t>Línea:6013088235 Nombre de quien se comunica: RICHARD HERNANDO MORALES ALVAREZ Cédula:79649088 39797489 Número de contacto:3229769859 3123347452 Email:richardmorales49@hotmail.com Dirección: CL 42A SUR 72H 74 Motivo de la llamada: Retencion no plicada</t>
   </si>
   <si>
     <t>MDM-PQR-35493316</t>
@@ -398,13 +415,13 @@
     <t>MDM-PQR-35500697</t>
   </si>
   <si>
-    <t>ASEG// LT 6012667419// ORDEN INGRESADA / CANCELADA, cliente solicita cancelaci√≥n del SVA DTV GO el 03/06/2022 se evidencia que se ingres√≥ varias √≥rdenes de retiro en estado cancelado. SOLUCI√ìN DE ASEGURAMIENTO: el 26/10/2022 se da cierre de ciclo ingresando la orden MDM-FIBRA-010298106, completa y sincronizada en revchain. ¬†JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $48.900 incluido IVA, VALOR REAL AJUSTE: $48.899 incluido IVA DIFERENCIA: $1/ AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6012667419// ORDEN INGRESADA / CANCELADA, cliente solicita cancelación del SVA DTV GO el 03/06/2022 se evidencia que se ingresó varias órdenes de retiro en estado cancelado. SOLUCIÓN DE ASEGURAMIENTO: el 26/10/2022 se da cierre de ciclo ingresando la orden MDM-FIBRA-010298106, completa y sincronizada en revchain.  JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $48.900 incluido IVA, VALOR REAL AJUSTE: $48.899 incluido IVA DIFERENCIA: $1/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35503745</t>
   </si>
   <si>
-    <t>"L√≠nea:6017651823 ¬† Nombre de quien se comunica:LUIS JACINTO FERRUCHO CAMARGO ¬† C√©dula:19373267 ¬† N√∫mero de contacto:3104781037 Email:asocontable@hotmail.com ¬† Direcci√≥n:KR 13C 165 86 CA 41 Motivo de la llamada:no llega factura."</t>
+    <t>"Línea:6017651823   Nombre de quien se comunica:LUIS JACINTO FERRUCHO CAMARGO   Cédula:19373267   Número de contacto:3104781037 Email:asocontable@hotmail.com   Dirección:KR 13C 165 86 CA 41 Motivo de la llamada:no llega factura."</t>
   </si>
   <si>
     <t>MDM-PQR-35503802</t>
@@ -416,7 +433,7 @@
     <t>MDM-PQR-35504344</t>
   </si>
   <si>
-    <t>SG//LT: 6012403926 cuenta 2592776// Cliente radica queja el 19/10/2022 bajo CUN 4347220004449788, solicita ajuste de la factura, 1. Grabaci√≥n de llamada del d√≠a 19 de septiembre de 2022, donde consta que se le aplic√≥ un ajuste y no un recobro , 2. Garantizar la tarifa de $50189, 3. Ajuste de la factura para poder realizar el pago y 4. No generar suspensi√≥n del servicio por falta de pago teniendo en cuenta las inconsistencias en la factura. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $11,560, incluido IVA, VALOR REAL AJUSTE $11,560, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012403926 cuenta 2592776// Cliente radica queja el 19/10/2022 bajo CUN 4347220004449788, solicita ajuste de la factura, 1. Grabación de llamada del día 19 de septiembre de 2022, donde consta que se le aplicó un ajuste y no un recobro , 2. Garantizar la tarifa de $50189, 3. Ajuste de la factura para poder realizar el pago y 4. No generar suspensión del servicio por falta de pago teniendo en cuenta las inconsistencias en la factura. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $11,560, incluido IVA, VALOR REAL AJUSTE $11,560, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35505657</t>
@@ -428,31 +445,31 @@
     <t>MDM-PQR-35508293</t>
   </si>
   <si>
-    <t>Cliente se comunica desde el 2911 porque pago su servicio y no ha tenido reconexi√≥n.</t>
+    <t>Cliente se comunica desde el 2911 porque pago su servicio y no ha tenido reconexión.</t>
   </si>
   <si>
     <t>MDM-PQR-35509115</t>
   </si>
   <si>
-    <t>Cliente JUAN FELIPE TORRES MEJIA C√©dula de Ciudadan√≠a 1020835574 Id PQR MDM-PQR-35509115 L√≠nea: 6017735260 Cuenta de Facturaci√≥n: 12054268121 ID Servicio: SR-28051245</t>
+    <t>Cliente JUAN FELIPE TORRES MEJIA Cédula de Ciudadanía 1020835574 Id PQR MDM-PQR-35509115 Línea: 6017735260 Cuenta de Facturación: 12054268121 ID Servicio: SR-28051245</t>
   </si>
   <si>
     <t>MDM-PQR-35509437</t>
   </si>
   <si>
-    <t>ASEG// LT 6017153315// ORDEN NO INGRESADA, cliente solicit√≥ retiro de los SVA DTV WINSPORTS, HBO MAX Y PARAMOUNT el 25/07/2022, por pol√≠ticas de la herramienta, no se podr√≠a ingresar el retiro en la misma orden. SOLUCI√ìN DE ASEGURAMIENTO: asesor brinda favorabilidad a reclamaci√≥n, realiza ajuste de cobro generado por DTV WINSPORTS he ingresa cancelaci√≥n del SVA, con la orden MDM-FIBRA-010351337, completa y sincronizada en revchain. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $29.900 incluido IVA, VALOR REAL AJUSTE: $29.900 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6017153315// ORDEN NO INGRESADA, cliente solicitó retiro de los SVA DTV WINSPORTS, HBO MAX Y PARAMOUNT el 25/07/2022, por políticas de la herramienta, no se podría ingresar el retiro en la misma orden. SOLUCIÓN DE ASEGURAMIENTO: asesor brinda favorabilidad a reclamación, realiza ajuste de cobro generado por DTV WINSPORTS he ingresa cancelación del SVA, con la orden MDM-FIBRA-010351337, completa y sincronizada en revchain. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $29.900 incluido IVA, VALOR REAL AJUSTE: $29.900 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35510856</t>
   </si>
   <si>
-    <t>L√≠nea: Nombre de quien se comunica: ANDREA BERNATE / BRANDON CORTES   C√©dula:  NIT  1013641351 N√∫mero de contacto:  3173468079   Email:  jacki_21214@hotmail.com   Direcci√≥n:  KR 12F 30 15 SUR IN 6 AP 506 Motivo de la llamada:."          CANCELACION DEL SERVICIO    FECHA DE CORTE 8  DE CADA MES   FECHA  DE NOVEDAD</t>
+    <t>Línea: Nombre de quien se comunica: ANDREA BERNATE / BRANDON CORTES   Cédula:  NIT  1013641351 Número de contacto:  3173468079   Email:  jacki_21214@hotmail.com   Dirección:  KR 12F 30 15 SUR IN 6 AP 506 Motivo de la llamada:."          CANCELACION DEL SERVICIO    FECHA DE CORTE 8  DE CADA MES   FECHA  DE NOVEDAD</t>
   </si>
   <si>
     <t>MDM-PQR-35513651</t>
   </si>
   <si>
-    <t>L√≠nea: 6012719584 Nombre:ANGELA MARIA BERNAL SILVA   C√©dula: 51623070 Celular: 3112599619   Correo:ambernal27@hotmail.com   Direcci√≥n:KR 56D 128B 65 AP 302 Petici√≥n: Indica que tiene un descuento de 20.000 pesos</t>
+    <t>Línea: 6012719584 Nombre:ANGELA MARIA BERNAL SILVA   Cédula: 51623070 Celular: 3112599619   Correo:ambernal27@hotmail.com   Dirección:KR 56D 128B 65 AP 302 Petición: Indica que tiene un descuento de 20.000 pesos</t>
   </si>
   <si>
     <t>MDM-PQR-35514068</t>
@@ -464,25 +481,25 @@
     <t>MDM-PQR-35515280</t>
   </si>
   <si>
-    <t>cc: 79528221   nombre: VICTOR MANUEL TRIVI√ëO     telefono:   3024393290   correo:  ventas.etb.70@gmail.com direccion: KR 38 10 60 IN 2  descripcion:   le iban a enviar la factura pero no le llego</t>
+    <t>cc: 79528221   nombre: VICTOR MANUEL TRIVIÑO     telefono:   3024393290   correo:  ventas.etb.70@gmail.com direccion: KR 38 10 60 IN 2  descripcion:   le iban a enviar la factura pero no le llego</t>
   </si>
   <si>
     <t>MDM-PQR-35515658</t>
   </si>
   <si>
-    <t>L√≠nea: 6013222882 Nombre de quien se comunica: ANTARESC I SAS C√©dula: 79312582 - 900806004 N√∫mero de contacto:  3208403259  Email: admon@capella-sas.com  Direcci√≥n: AK 20 88 32 AP 502 Motivo de la llamada: hizo la cancelacion del servicio y quiere el paz y salvo</t>
+    <t>Línea: 6013222882 Nombre de quien se comunica: ANTARESC I SAS Cédula: 79312582 - 900806004 Número de contacto:  3208403259  Email: admon@capella-sas.com  Dirección: AK 20 88 32 AP 502 Motivo de la llamada: hizo la cancelacion del servicio y quiere el paz y salvo</t>
   </si>
   <si>
     <t>MDM-PQR-35518703</t>
   </si>
   <si>
-    <t xml:space="preserve"> L√≠nea: 6016484085 Nombre de quien se comunica: LILIANA ANDREA DIAZ DELGADO   C√©dula: 52886223 N√∫mero de contacto: 3138126622   Email: lilianaandreadiaz10@gmail.com   Direcci√≥n: KR 95 92 04 Motivo de la llamada: Cliente solicita traslado, le indicaban que no tenia cobertura de fibra , solicito la cancelacion y ahora le llega cobro de clausula de permanencia</t>
+    <t xml:space="preserve"> Línea: 6016484085 Nombre de quien se comunica: LILIANA ANDREA DIAZ DELGADO   Cédula: 52886223 Número de contacto: 3138126622   Email: lilianaandreadiaz10@gmail.com   Dirección: KR 95 92 04 Motivo de la llamada: Cliente solicita traslado, le indicaban que no tenia cobertura de fibra , solicito la cancelacion y ahora le llega cobro de clausula de permanencia</t>
   </si>
   <si>
     <t>MDM-PQR-35520509</t>
   </si>
   <si>
-    <t>"L√≠nea:6017814656 ¬† Nombre de quien se comunica:PEDRO MANUEL ACERO LINARES ¬† C√©dula:79317993 N√∫mero de contacto:3103156843 ¬† Email:catarsasarqing@gmail.com ¬† Direcci√≥n:CL 22D 85 65 IN 19¬† Motivo de la llamada: CLIENTE INCONFORME CON INCREMENTO DE FACTURAS</t>
+    <t>"Línea:6017814656   Nombre de quien se comunica:PEDRO MANUEL ACERO LINARES   Cédula:79317993 Número de contacto:3103156843   Email:catarsasarqing@gmail.com   Dirección:CL 22D 85 65 IN 19  Motivo de la llamada: CLIENTE INCONFORME CON INCREMENTO DE FACTURAS</t>
   </si>
   <si>
     <t>MDM-PQR-35520913</t>
@@ -500,19 +517,19 @@
     <t>MDM-PQR-35525394</t>
   </si>
   <si>
-    <t>SG//LT: 6016223497 cuenta 12053570581// cliente solicita ajuste de la factura, ya que no solicito el servicio de SVA HBOMAX . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia servicio adicionales retirado en revchain el servicio de SVA HBOMAX retirado desde el d√≠a 08/11/2022 .JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016223497 cuenta 12053570581// cliente solicita ajuste de la factura, ya que no solicito el servicio de SVA HBOMAX . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia servicio adicionales retirado en revchain el servicio de SVA HBOMAX retirado desde el día 08/11/2022 .JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35527304</t>
   </si>
   <si>
-    <t>SG//LT: 6016560196 cuenta 12054065908// cliente solicita ajuste de la factura, ya que el 11/07/2022  bajo MDM-PQR-32156515 se le ofrece oferta b√°sica por valor de $50,000. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain cargos por valor de $50,000 y en la facturaci√≥n de mes de noviembre se evidencia la oferta por valor de $50,000 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $16,660,24 incluido IVA. VALOR REAL AJUSTE: $ 16,660,24 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016560196 cuenta 12054065908// cliente solicita ajuste de la factura, ya que el 11/07/2022  bajo MDM-PQR-32156515 se le ofrece oferta básica por valor de $50,000. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain cargos por valor de $50,000 y en la facturación de mes de noviembre se evidencia la oferta por valor de $50,000 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $16,660,24 incluido IVA. VALOR REAL AJUSTE: $ 16,660,24 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35528535</t>
   </si>
   <si>
-    <t>ASEG// LT 6017926580// NO APLICACI√ìN TARIFAS DE RETENCI√ìN, el 06/10/2022 se ofrece bajo RF-001253621,¬†oferta b√°sica por valor de $50.000,¬†cargos DS sincronizados en revchain de acuerdo a tarifa ofrecida</t>
+    <t>ASEG// LT 6017926580// NO APLICACIÓN TARIFAS DE RETENCIÓN, el 06/10/2022 se ofrece bajo RF-001253621, oferta básica por valor de $50.000, cargos DS sincronizados en revchain de acuerdo a tarifa ofrecida</t>
   </si>
   <si>
     <t>MDM-PQR-35529127</t>
@@ -524,19 +541,19 @@
     <t>MDM-PQR-35529136</t>
   </si>
   <si>
-    <t>SG//LT: 6013685184 cuenta 12053691955//Cliente solicita ajuste de la factura, ya que el 31/08/2022 bajo RF-001202958 se ofrece OFERTA DE RETENCI√ìN B√ÅSICA / $85.000 / PERMANENTE. SOLUCI√ìN DE ASEGURAMIENTO: Se deja caso en seguimiento 05/12/2022, ya que se evidencia en revchain cargos correctos bajo la RF lo que le aumente el cargo al usuario son los servicios adicionales los cuales no est√°n incluidos en la retenci√≥n que son GRABADOR PVR 1 $10.300 IVA incluido , PAUSA EN VIVO TSTV $15.400 IVA incluido y ARRIENDO DECO 1 $10.000 IVA incluido, se tiene comunicaci√≥n con titular Sr. PEDRO ANTONIO PAGOTES CASTANEDA al m√≥vil 3168587862 no ay contacto. . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $35,020 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $35,020 / AJUSTE INCORRECTO. // NO APLICA AJUSTE, SE PENALIZA ASESOR YA QUE NO TIENE EN CUENTA LOS CARGOS ADICIONALES DE GRABADOR PVR 1 $10.300 IVA incluido , PAUSA EN VIVO TSTV $15.400 IVA incluido y ARRIENDO DECO 1 $10.000 IVA incluido Y NO DA CIERRE DE CICLO .</t>
+    <t>SG//LT: 6013685184 cuenta 12053691955//Cliente solicita ajuste de la factura, ya que el 31/08/2022 bajo RF-001202958 se ofrece OFERTA DE RETENCIÓN BÁSICA / $85.000 / PERMANENTE. SOLUCIÓN DE ASEGURAMIENTO: Se deja caso en seguimiento 05/12/2022, ya que se evidencia en revchain cargos correctos bajo la RF lo que le aumente el cargo al usuario son los servicios adicionales los cuales no están incluidos en la retención que son GRABADOR PVR 1 $10.300 IVA incluido , PAUSA EN VIVO TSTV $15.400 IVA incluido y ARRIENDO DECO 1 $10.000 IVA incluido, se tiene comunicación con titular Sr. PEDRO ANTONIO PAGOTES CASTANEDA al móvil 3168587862 no ay contacto. . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $35,020 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $35,020 / AJUSTE INCORRECTO. // NO APLICA AJUSTE, SE PENALIZA ASESOR YA QUE NO TIENE EN CUENTA LOS CARGOS ADICIONALES DE GRABADOR PVR 1 $10.300 IVA incluido , PAUSA EN VIVO TSTV $15.400 IVA incluido y ARRIENDO DECO 1 $10.000 IVA incluido Y NO DA CIERRE DE CICLO .</t>
   </si>
   <si>
     <t>MDM-PQR-35529202</t>
   </si>
   <si>
-    <t>SG//LT: 6017165861 cuenta 12054071167// Cliente radica queja el 31/10/2022 bajo CUN 4347220004555474, solicita ajuste de la factura, 1. Escucha de llama del 5 de mayo de 2022 , 2. Escucha de la llamada bajo radicado 4347-22-0004287078, donde se realiz√≥ ajuste en factura de septiembre de 2022 , 3. Ajuste de factura , 4. Cumplimiento de tarifa ofrecida. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $30,000, incluido IVA, VALOR REAL AJUSTE $30,000, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017165861 cuenta 12054071167// Cliente radica queja el 31/10/2022 bajo CUN 4347220004555474, solicita ajuste de la factura, 1. Escucha de llama del 5 de mayo de 2022 , 2. Escucha de la llamada bajo radicado 4347-22-0004287078, donde se realizó ajuste en factura de septiembre de 2022 , 3. Ajuste de factura , 4. Cumplimiento de tarifa ofrecida. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $30,000, incluido IVA, VALOR REAL AJUSTE $30,000, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35529551</t>
   </si>
   <si>
-    <t>SG//LT: 6013206939 cuenta 12053932754//Cliente solicita ajuste de la factura, ya que el 20/04/2022 bajo RF-000990243 se ofrece TRIO 100M HOG SILVER 1 DECO V6 158900 / OFERTA DE RETENCI√ìN B√ÅSICA / VALOR OFERTA: 100,000 / TIEMPO: PERMANENTE. SOLUCI√ìN DE ASEGURAMIENTO: Se deja caso en seguimiento 05/12/2022, ya que se evidencia  nueva RF-001285047 del d√≠a 31/10/2022 donde se ofrece OFERTA DE RETENCI√ìN B√ÅSICA / $85000 / PERMANENTE sin servicios adicionales como GRABADOR PVR 1 $10.300 IVA incluido , PAUSA EN VIVO TSTV $15.400 y ARRIENDO 1 DECO $10.000 IVA incluido los cuales no se incluyen en la RF . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $35,700 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $35,700/ AJUSTE INCORRECTO.// AJUSTE NO APLICA, SE PENALIZA ASESOR YA QUE NO TIENEN EN CUENTA LOS ADICIONALES QUE TIENE EL TITULAR QUE NO EST√ÅN INCLUIDO EN LA RF.</t>
+    <t>SG//LT: 6013206939 cuenta 12053932754//Cliente solicita ajuste de la factura, ya que el 20/04/2022 bajo RF-000990243 se ofrece TRIO 100M HOG SILVER 1 DECO V6 158900 / OFERTA DE RETENCIÓN BÁSICA / VALOR OFERTA: 100,000 / TIEMPO: PERMANENTE. SOLUCIÓN DE ASEGURAMIENTO: Se deja caso en seguimiento 05/12/2022, ya que se evidencia  nueva RF-001285047 del día 31/10/2022 donde se ofrece OFERTA DE RETENCIÓN BÁSICA / $85000 / PERMANENTE sin servicios adicionales como GRABADOR PVR 1 $10.300 IVA incluido , PAUSA EN VIVO TSTV $15.400 y ARRIENDO 1 DECO $10.000 IVA incluido los cuales no se incluyen en la RF . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $35,700 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $35,700/ AJUSTE INCORRECTO.// AJUSTE NO APLICA, SE PENALIZA ASESOR YA QUE NO TIENEN EN CUENTA LOS ADICIONALES QUE TIENE EL TITULAR QUE NO ESTÁN INCLUIDO EN LA RF.</t>
   </si>
   <si>
     <t>MDM-PQR-35530380</t>
@@ -548,19 +565,19 @@
     <t>MDM-PQR-35531596</t>
   </si>
   <si>
-    <t>SG//LT: 6013736910 cuenta 12054436238// cliente solicita ajuste de la factura, ya que el 11/08/2022  bajo MDM-FIBRA-009497059 solicito el retiro del servicio de WIFI PLUS TIPO 1. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, porque se evidencia el retiro del servicio de WIFI PLUS TIPO 1 desde 31/08/2022 en revchain, usuario reclama porque en la facturaci√≥n del mes de noviembre se le genera cobro de WI-FI_COBRO_RETIRO_ANT_CNR se le realiza ajuste a la factura por este concepto. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $319,630 incluido IVA. VALOR REAL AJUSTE: $319,630 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013736910 cuenta 12054436238// cliente solicita ajuste de la factura, ya que el 11/08/2022  bajo MDM-FIBRA-009497059 solicito el retiro del servicio de WIFI PLUS TIPO 1. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, porque se evidencia el retiro del servicio de WIFI PLUS TIPO 1 desde 31/08/2022 en revchain, usuario reclama porque en la facturación del mes de noviembre se le genera cobro de WI-FI_COBRO_RETIRO_ANT_CNR se le realiza ajuste a la factura por este concepto. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $319,630 incluido IVA. VALOR REAL AJUSTE: $319,630 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35532684</t>
   </si>
   <si>
-    <t>SG//LT: 6016425682 cuenta 12052960624// cliente solicita ajuste de la factura, ya que el 25/10/2022 bajo MDM-FIBRA-006474862 solicito TRASLADO (TRAS). SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia en la orden de TRASLADO (TRAS) se pas√≥ de DUO 15M a TR√çO 80M HOG BRONZE LITE SIMETRICO V1 donde el servicio de TV se activ√≥ desde el d√≠a 04/11/2022 con cl√°usula de permanencia por 12 meses el cual se venc√≠a el d√≠a 31/10/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $125,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $125,000/ AJUSTE INCORRECTO. // AJUSTE NO APLICA, SE PENALIZA ASESOR, YA QUE NO TIENE ENCENTA EN EL TRASLADO PASO DE DUO a TR√çO, POR TANTO, EL COBRO DE LA CL√ÅUSULA DE PERMANENCIA EN EL SERVICIO DE TV</t>
+    <t>SG//LT: 6016425682 cuenta 12052960624// cliente solicita ajuste de la factura, ya que el 25/10/2022 bajo MDM-FIBRA-006474862 solicito TRASLADO (TRAS). SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia en la orden de TRASLADO (TRAS) se pasó de DUO 15M a TRÍO 80M HOG BRONZE LITE SIMETRICO V1 donde el servicio de TV se activó desde el día 04/11/2022 con cláusula de permanencia por 12 meses el cual se vencía el día 31/10/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $125,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $125,000/ AJUSTE INCORRECTO. // AJUSTE NO APLICA, SE PENALIZA ASESOR, YA QUE NO TIENE ENCENTA EN EL TRASLADO PASO DE DUO a TRÍO, POR TANTO, EL COBRO DE LA CLÁUSULA DE PERMANENCIA EN EL SERVICIO DE TV</t>
   </si>
   <si>
     <t>MDM-PQR-35533472</t>
   </si>
   <si>
-    <t>SG//LT: 6013657961 cuenta 12054057732// cliente solicita ajuste de la factura, ya que el 12/09/2022 bajo MDM-PQR-33685380 se ofreci√≥ OFERTA DE RETENCI√ìN B√ÅSICA / $50.00,/ PERMANENTE bajo RF-001218204 . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia retiro de los servicios de SVA PARAMOUNT y SVA HBOMAX desde el 24/11/2022 y se evidencia facturaci√≥n de mes de noviembre correcta bajo la oferta b√°sica de $50,000. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013657961 cuenta 12054057732// cliente solicita ajuste de la factura, ya que el 12/09/2022 bajo MDM-PQR-33685380 se ofreció OFERTA DE RETENCIÓN BÁSICA / $50.00,/ PERMANENTE bajo RF-001218204 . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia retiro de los servicios de SVA PARAMOUNT y SVA HBOMAX desde el 24/11/2022 y se evidencia facturación de mes de noviembre correcta bajo la oferta básica de $50,000. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35533939</t>
@@ -572,13 +589,13 @@
     <t>MDM-PQR-35535265</t>
   </si>
   <si>
-    <t>"L√≠nea: 6017566049 Nombre de quien se comunica: SANDRA RUBIO C√©dula: 52023754 N√∫mero de contacto: 3187069196 Email: sandrirub@hotmail.com Direcci√≥n: KR 51 183 17 ET 1 IN 52 Motivo de la llamada: cliente se queja porque desde el mes pasado solicito el retiro de HBOPACk MDM-FIBRA-010404827  y a la fecha se lo siguen cobrando."                                                                                                   "Accede pol√≠tica de favorabilidad: NO Fecha inicio:  Fecha fin:  Pedido O MDM soporte probatorio: MDM-FIBRA-010404827   Escalamiento:  Gesti√≥n de llamada: Se realiza ajuste en saaw y se escala por CRM."                                                                                          L√≠nea: 6017566049 Nombre: SANDRA RUBIO C√©dula: 52023754 E-mail: sandrirub@hotmail.com   Celular: 3187069196   Direcci√≥n: KR 51 183 17 ET 1 IN 52 Motivo: Cliente solicita confirmar porque se le cobra HBOPACK si ella ya solicito la cancelaci√≥n con el radicado 4347220004830686</t>
+    <t>"Línea: 6017566049 Nombre de quien se comunica: SANDRA RUBIO Cédula: 52023754 Número de contacto: 3187069196 Email: sandrirub@hotmail.com Dirección: KR 51 183 17 ET 1 IN 52 Motivo de la llamada: cliente se queja porque desde el mes pasado solicito el retiro de HBOPACk MDM-FIBRA-010404827  y a la fecha se lo siguen cobrando."                                                                                                   "Accede política de favorabilidad: NO Fecha inicio:  Fecha fin:  Pedido O MDM soporte probatorio: MDM-FIBRA-010404827   Escalamiento:  Gestión de llamada: Se realiza ajuste en saaw y se escala por CRM."                                                                                          Línea: 6017566049 Nombre: SANDRA RUBIO Cédula: 52023754 E-mail: sandrirub@hotmail.com   Celular: 3187069196   Dirección: KR 51 183 17 ET 1 IN 52 Motivo: Cliente solicita confirmar porque se le cobra HBOPACK si ella ya solicito la cancelación con el radicado 4347220004830686</t>
   </si>
   <si>
     <t>MDM-PQR-35535374</t>
   </si>
   <si>
-    <t>"L√≠nea:  6014498870   Nombre de quien se comunica:   RAFAEL ANTONIO MURCIA VILLANUEVA   C√©dula:   11339233 N√∫mero de contacto:   3007000803   Email:   rafaelantoniomurcia@hotmail.com   Direcci√≥n:  KR 89 22B 96 BQ 6 IN 5 AP 310 Motivo de la llamada:."         facturacion   CLIENTE  NO DE ACUERDO,  DICE   QUE  DIRECTV SE LEO  HABIAN  DADO CON DESCUENTO  Y VARIOS MESES  GRATIS   ....</t>
+    <t>"Línea:  6014498870   Nombre de quien se comunica:   RAFAEL ANTONIO MURCIA VILLANUEVA   Cédula:   11339233 Número de contacto:   3007000803   Email:   rafaelantoniomurcia@hotmail.com   Dirección:  KR 89 22B 96 BQ 6 IN 5 AP 310 Motivo de la llamada:."         facturacion   CLIENTE  NO DE ACUERDO,  DICE   QUE  DIRECTV SE LEO  HABIAN  DADO CON DESCUENTO  Y VARIOS MESES  GRATIS   ....</t>
   </si>
   <si>
     <t>MDM-PQR-35536440</t>
@@ -590,25 +607,25 @@
     <t>MDM-PQR-35536744</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica:  SEBEDA MARIN   C√©dula:  24129814 N√∫mero de contacto:   3208053308   Email: yohandaza12@hotmail.com   Direcci√≥n: yohandaza12@hotmail.com   Motivo de la llamada:  cliente indica que cancelo los sva de hbo max el dia 30/11/2022 y se generaron en la factura.</t>
+    <t>Nombre de quien se comunica:  SEBEDA MARIN   Cédula:  24129814 Número de contacto:   3208053308   Email: yohandaza12@hotmail.com   Dirección: yohandaza12@hotmail.com   Motivo de la llamada:  cliente indica que cancelo los sva de hbo max el dia 30/11/2022 y se generaron en la factura.</t>
   </si>
   <si>
     <t>MDM-PQR-35538836</t>
   </si>
   <si>
-    <t>SG//LT: 6016471630 cuenta 12053582354//Cliente pide ajuste de la factura, indica que el 16/06/2022 bajo RF-001089030 se le ofreci√≥ CLIENTE OBTIENE 30% DE DESCUENTO / $59360 / PERMANENTE. SOLUCI√ìN DE ASEGURAMIENTO: Se hace escalamiento a gestor solicitando aplicar descuento manual del 20%  bajo RF-001323984 del d√≠a 29/11/2022 donde se ofrece DESCUENTO_20% / $59,920/ Permanente as√≠ garantizar la oferta , ya que no se evidencia descuento en revchain y tampoco se evidencia promocionales. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. //se penaliza asesor no realiza gesti√≥n para dar cierre de ciclo.</t>
+    <t>SG//LT: 6016471630 cuenta 12053582354//Cliente pide ajuste de la factura, indica que el 16/06/2022 bajo RF-001089030 se le ofreció CLIENTE OBTIENE 30% DE DESCUENTO / $59360 / PERMANENTE. SOLUCIÓN DE ASEGURAMIENTO: Se hace escalamiento a gestor solicitando aplicar descuento manual del 20%  bajo RF-001323984 del día 29/11/2022 donde se ofrece DESCUENTO_20% / $59,920/ Permanente así garantizar la oferta , ya que no se evidencia descuento en revchain y tampoco se evidencia promocionales. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. //se penaliza asesor no realiza gestión para dar cierre de ciclo.</t>
   </si>
   <si>
     <t>MDM-PQR-35541029</t>
   </si>
   <si>
-    <t>SG//LT: SR-29333451 cuenta 12054323534//Cliente solicita ajuste de la factura, ya que usuario ya hab√≠a solicitado el retiro del servicio de DirecTV GO . SOLUCI√ìN DE ASEGURAMIENTO: Se deja caso en seguimiento 05/12/2022, ya que se evidencia servicio de DirecTV GO aun se encuentra activo en revchain no se evidencia ning√∫n tipo de soporte que indique usuario solicito el retiro de DirecTV GO, se realiza comunicaci√≥n con titular Sr. JUAN DAVID PEDRAZA ESPINEL al m√≥vil 3112892327 pero no hay contacto se deja en seguimiento, ya que el ajuste de factura que realizo el asesor waltpen1 no es procedente ya que no ay soporte de dicha solicitud, del d√≠a 03/08/2022 bajo MDM-PQR-32836034 se evidencia usuario reclama por que cobro de servicio adicional si ya hab√≠a solicitado el retiro pero no se evidencia soporte de dicha solicitud. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $6,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $6,000/ AJUSTE INCORRECTO.// AJUSTE NO APLICA, SE PENALIZA ASESOR YA QUE NO SE EVIDENCIA SOPORTE DE SOLICITUD DE RETIRO DE SERVICIO DE  DirecTV GO Y SE EVIDENCIA NO REALIZA GESTI√ìN PARA DAR CIERRE DE CICLO.</t>
+    <t>SG//LT: SR-29333451 cuenta 12054323534//Cliente solicita ajuste de la factura, ya que usuario ya había solicitado el retiro del servicio de DirecTV GO . SOLUCIÓN DE ASEGURAMIENTO: Se deja caso en seguimiento 05/12/2022, ya que se evidencia servicio de DirecTV GO aun se encuentra activo en revchain no se evidencia ningún tipo de soporte que indique usuario solicito el retiro de DirecTV GO, se realiza comunicación con titular Sr. JUAN DAVID PEDRAZA ESPINEL al móvil 3112892327 pero no hay contacto se deja en seguimiento, ya que el ajuste de factura que realizo el asesor waltpen1 no es procedente ya que no ay soporte de dicha solicitud, del día 03/08/2022 bajo MDM-PQR-32836034 se evidencia usuario reclama por que cobro de servicio adicional si ya había solicitado el retiro pero no se evidencia soporte de dicha solicitud. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $6,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $6,000/ AJUSTE INCORRECTO.// AJUSTE NO APLICA, SE PENALIZA ASESOR YA QUE NO SE EVIDENCIA SOPORTE DE SOLICITUD DE RETIRO DE SERVICIO DE  DirecTV GO Y SE EVIDENCIA NO REALIZA GESTIÓN PARA DAR CIERRE DE CICLO.</t>
   </si>
   <si>
     <t>MDM-PQR-35541289</t>
   </si>
   <si>
-    <t>L√≠nea: 3152436604 Nombre de quien se comunica: VIRGILIO WILLIAM TICORA MEDINA   C√©dula: 79292261   N√∫mero de contacto: 3152436604 Email:  marpili12@hotmail.com   Direcci√≥n: KR 71 2A 66 IN 12 AP 202 Motivo de la llamada:. CLIENTE DICE QUE HIZO UN ACUERDO PARA PAGAR SOLO 50.000 Y LA FACTURA LE LLEGO POR VALOR DE  $ 97.620,</t>
+    <t>Línea: 3152436604 Nombre de quien se comunica: VIRGILIO WILLIAM TICORA MEDINA   Cédula: 79292261   Número de contacto: 3152436604 Email:  marpili12@hotmail.com   Dirección: KR 71 2A 66 IN 12 AP 202 Motivo de la llamada:. CLIENTE DICE QUE HIZO UN ACUERDO PARA PAGAR SOLO 50.000 Y LA FACTURA LE LLEGO POR VALOR DE  $ 97.620,</t>
   </si>
   <si>
     <t>MDM-PQR-35542703</t>
@@ -620,13 +637,13 @@
     <t>MDM-PQR-35544216</t>
   </si>
   <si>
-    <t>ASEG// LT 6014412226// CAMBIO DE PLAN NO CUMPLIDO, cliente solicita cambio de plan el 14/12/2022, DUO 50M HOGARES FIDELIZACION por valor de $70.000 pedido 1-57320239036, completo, pero no sincronizo en revchain.  SOLUCI√ìN DE ASEGURAMIENTO: ya cuenta con cierre de ciclo, se evidencia descuento manual en revchain 52.2740% activo desde el 01/11/2022.  factura del mes de noviembre se cobran servicios por valor de $69.880. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $64.060 incluido IVA, VALOR REAL AJUSTE: $63.910 incluido IVA DIFERENCIA: $150/ AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6014412226// CAMBIO DE PLAN NO CUMPLIDO, cliente solicita cambio de plan el 14/12/2022, DUO 50M HOGARES FIDELIZACION por valor de $70.000 pedido 1-57320239036, completo, pero no sincronizo en revchain.  SOLUCIÓN DE ASEGURAMIENTO: ya cuenta con cierre de ciclo, se evidencia descuento manual en revchain 52.2740% activo desde el 01/11/2022.  factura del mes de noviembre se cobran servicios por valor de $69.880. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $64.060 incluido IVA, VALOR REAL AJUSTE: $63.910 incluido IVA DIFERENCIA: $150/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35548238</t>
   </si>
   <si>
-    <t>SG//LT: 6017316832 cuenta 12054389560// cliente solicita ajuste de la factura, ya que el 04/10/2022 bajo MDM-FIBRA-010070973 solicita el retiro de los servicios de SVA HBO MAX y SVA PARAMOUNT . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia servicios de SVA HBO MAX y SVA PARAMOUNT retirados desde 24/11/2022 en revchain y se evidencia MDM-FIBRA-010070973 del d√≠a 04/10/2022 solicitud de retiro de los servicios SVA . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017316832 cuenta 12054389560// cliente solicita ajuste de la factura, ya que el 04/10/2022 bajo MDM-FIBRA-010070973 solicita el retiro de los servicios de SVA HBO MAX y SVA PARAMOUNT . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia servicios de SVA HBO MAX y SVA PARAMOUNT retirados desde 24/11/2022 en revchain y se evidencia MDM-FIBRA-010070973 del día 04/10/2022 solicitud de retiro de los servicios SVA . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35548813</t>
@@ -638,85 +655,85 @@
     <t>MDM-PQR-35548891</t>
   </si>
   <si>
-    <t>ASEG//LT 6014336763/ COMPENSACI√ìN. Cliente radica queja el 19/10/2022 bajo CUN 4347220003927822, solicitando ajuste por cambio de plan no cumplido. SOLUCI√ìN DE ASEGURAMIENTO: No se realiza gesti√≥n, caso gestionado por el √°rea de escrita. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $325.960 incluido IVA VALOR REAL AJUSTE: $325.960 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG//LT 6014336763/ COMPENSACIÓN. Cliente radica queja el 19/10/2022 bajo CUN 4347220003927822, solicitando ajuste por cambio de plan no cumplido. SOLUCIÓN DE ASEGURAMIENTO: No se realiza gestión, caso gestionado por el área de escrita. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $325.960 incluido IVA VALOR REAL AJUSTE: $325.960 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35549253</t>
   </si>
   <si>
-    <t>SG//LT: 6017643537 cuenta 12054356220//Cliente pide ajuste de la factura,ya que el 20/05/2022 bajo MDM-FIBRA-008581439 se ofreci√≥ DUO 200M HOG FTTH V1 $74,900 OFERTA DE PLANTA CON PROMOCI√ìN CAPTURA + 50% MESES 1,3,6,9 FTTH ESCALONADA . SOLUCI√ìN DE ASEGURAMIENTO: se deja caso en seguimiento, ya que la oferta le queda el ultimo mes que seria el 9 mes (25 Ene - 24 Feb) por valor de $37,450 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $37,450 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $37,450/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE REALIZA AJUSTE DE BAJO MDM-PQR-34871956 FACTURA DE (25 Sep - 24 Oct), DONDE EN LA FACTURA DE OCTUBRE (25 Oct - 24 Nov) SE LE GENERA EL COBRO DE LA PROMO DEL 50% POR VALOR DE $37,450 FACTURA 308564542.</t>
+    <t>SG//LT: 6017643537 cuenta 12054356220//Cliente pide ajuste de la factura,ya que el 20/05/2022 bajo MDM-FIBRA-008581439 se ofreció DUO 200M HOG FTTH V1 $74,900 OFERTA DE PLANTA CON PROMOCIÓN CAPTURA + 50% MESES 1,3,6,9 FTTH ESCALONADA . SOLUCIÓN DE ASEGURAMIENTO: se deja caso en seguimiento, ya que la oferta le queda el ultimo mes que seria el 9 mes (25 Ene - 24 Feb) por valor de $37,450 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $37,450 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $37,450/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE REALIZA AJUSTE DE BAJO MDM-PQR-34871956 FACTURA DE (25 Sep - 24 Oct), DONDE EN LA FACTURA DE OCTUBRE (25 Oct - 24 Nov) SE LE GENERA EL COBRO DE LA PROMO DEL 50% POR VALOR DE $37,450 FACTURA 308564542.</t>
   </si>
   <si>
     <t>MDM-PQR-35549776</t>
   </si>
   <si>
-    <t>ASEG//LT 6017627965/ SERVICIO NO SOLICITADO. Cliente radica queja el 21/10/2022 bajo CUN 4347220004468827, solicitando ajuste por el corbo generado por el servicio de PARAMOUNT. Indica que no lo solicito. SOLUCI√ìN DE ASEGURAMIENTO: No se realiza gesti√≥n, caso gestionado por el √°rea de escrita. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $19.000 incluido IVA VALOR REAL AJUSTE: $19.000 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG//LT 6017627965/ SERVICIO NO SOLICITADO. Cliente radica queja el 21/10/2022 bajo CUN 4347220004468827, solicitando ajuste por el corbo generado por el servicio de PARAMOUNT. Indica que no lo solicito. SOLUCIÓN DE ASEGURAMIENTO: No se realiza gestión, caso gestionado por el área de escrita. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $19.000 incluido IVA VALOR REAL AJUSTE: $19.000 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35550129</t>
   </si>
   <si>
-    <t>SR-28423650//YAZMIN ALMANZAR//14324591//CLIENTE SE COMUNICA PARA SOLICITA COMPENSACI√ìN POR FALLAS</t>
+    <t>SR-28423650//YAZMIN ALMANZAR//14324591//CLIENTE SE COMUNICA PARA SOLICITA COMPENSACIÓN POR FALLAS</t>
   </si>
   <si>
     <t>MDM-PQR-35551143</t>
   </si>
   <si>
-    <t>WhatsApp  // LT 6017922660 LINDA YESSENYA SALAMANCA, solicitud  cancelaci√≥n de plan por costos,  se realiza  escalera  de retenci√≥n (Cliente obtiene 20% de descuento sobre su plan contratado), acepta</t>
+    <t>WhatsApp  // LT 6017922660 LINDA YESSENYA SALAMANCA, solicitud  cancelación de plan por costos,  se realiza  escalera  de retención (Cliente obtiene 20% de descuento sobre su plan contratado), acepta</t>
   </si>
   <si>
     <t>MDM-PQR-35551732</t>
   </si>
   <si>
-    <t>L√≠nea: SR-30356576 Nombre de quien se comunica: YENNY ALICIA MAHECHA NI√ëO C√©dula: 53095284 N√∫mero de contacto: 3133461359   Email: jennymahecha@outlook.com   Direcci√≥n: CL 37 SUR 68H 25 Motivo de la llamada: CLIENTE REALIZO EL RETIRO DEL SERVICIO YA QUE AL LUGAR DONDE SE TRASLADO NO TEN√çA COBERTURA, PERO EN ESTE MOMENTO LE ESTAN GENERANDO EL COBRO DE CLAUSULA DE PERMANENCIA</t>
+    <t>Línea: SR-30356576 Nombre de quien se comunica: YENNY ALICIA MAHECHA NIÑO Cédula: 53095284 Número de contacto: 3133461359   Email: jennymahecha@outlook.com   Dirección: CL 37 SUR 68H 25 Motivo de la llamada: CLIENTE REALIZO EL RETIRO DEL SERVICIO YA QUE AL LUGAR DONDE SE TRASLADO NO TENÍA COBERTURA, PERO EN ESTE MOMENTO LE ESTAN GENERANDO EL COBRO DE CLAUSULA DE PERMANENCIA</t>
   </si>
   <si>
     <t>MDM-PQR-35553787</t>
   </si>
   <si>
-    <t>ASEG// LT 6017628479// ORDEN INGRESADA, cliente solicita cancelaci√≥n del HBO MAX, PARAMOUNT y HOT GO el 21/08/2022 bajo MDM-PQR-33195567, por pol√≠tica de producto no es posible ingresar el retiro de los SVA en la misma orden, asesor da prioridad al retiro de HBO y PARAMOUNT, con la orden MDM-FIBRA-009593993. No obstante, debi√≥ garantizar que el retiro del SVA se ingresara en el mes de septiembre del 2022. ¬†SOLUCI√ìN DE ASEGURAMIENTO: Caso con cierre de ciclo HOT GO inactivo desde el 31/10/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $21.900 incluido IVA, VALOR REAL AJUSTE: $12.084 incluido IVA DIFERENCIA: $9.816 / MAYOR VALOR AJUSTADO.</t>
+    <t>ASEG// LT 6017628479// ORDEN INGRESADA, cliente solicita cancelación del HBO MAX, PARAMOUNT y HOT GO el 21/08/2022 bajo MDM-PQR-33195567, por política de producto no es posible ingresar el retiro de los SVA en la misma orden, asesor da prioridad al retiro de HBO y PARAMOUNT, con la orden MDM-FIBRA-009593993. No obstante, debió garantizar que el retiro del SVA se ingresara en el mes de septiembre del 2022.  SOLUCIÓN DE ASEGURAMIENTO: Caso con cierre de ciclo HOT GO inactivo desde el 31/10/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $21.900 incluido IVA, VALOR REAL AJUSTE: $12.084 incluido IVA DIFERENCIA: $9.816 / MAYOR VALOR AJUSTADO.</t>
   </si>
   <si>
     <t>MDM-PQR-35554202</t>
   </si>
   <si>
-    <t>ASEG// LT SR-26940757// ORDEN NO INGRESADA, cliente solicita cancelaci√≥n del DIRECTV WIN SPORTS Y DTV HBO PACK el 17/08/2022 bajo MDM-PQR-33101956, en esta misma gesti√≥n se ofrece cambio de plan a SINGLE INTERNET 150M HOG FTTH V1, asesor ingres√≥ orden MDM-FIBRA-009552225, no obstante, no desmarco los SVA. SOLUCI√ìN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo DIRECTV WIN SPORTS Y DTV HBO PACK inactivo desde el 31/10/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $49.800 incluido IVA, VALOR REAL AJUSTE: $49.800 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
+    <t>ASEG// LT SR-26940757// ORDEN NO INGRESADA, cliente solicita cancelación del DIRECTV WIN SPORTS Y DTV HBO PACK el 17/08/2022 bajo MDM-PQR-33101956, en esta misma gestión se ofrece cambio de plan a SINGLE INTERNET 150M HOG FTTH V1, asesor ingresó orden MDM-FIBRA-009552225, no obstante, no desmarco los SVA. SOLUCIÓN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo DIRECTV WIN SPORTS Y DTV HBO PACK inactivo desde el 31/10/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $49.800 incluido IVA, VALOR REAL AJUSTE: $49.800 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35554219</t>
   </si>
   <si>
-    <t>SG//LT: 6017632264 cuenta 12054166416// cliente solicita ajuste de la factura, ya que el 29/08/2022 bajo MDM-FIBRA-009676889 solicitud de retiro de DIRECTV GO B√ÅSICO, DTV HBO PACK y DTV WIN SPORTS. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia en revchain el retiro de los servicios adicionales DIRECTV GO B√ÅSICO, DTV HBO PACK y DTV WIN SPORTS desde el d√≠a 24/11/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $86,470 incluido IVA. VALOR REAL AJUSTE: $86,470 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017632264 cuenta 12054166416// cliente solicita ajuste de la factura, ya que el 29/08/2022 bajo MDM-FIBRA-009676889 solicitud de retiro de DIRECTV GO BÁSICO, DTV HBO PACK y DTV WIN SPORTS. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia en revchain el retiro de los servicios adicionales DIRECTV GO BÁSICO, DTV HBO PACK y DTV WIN SPORTS desde el día 24/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $86,470 incluido IVA. VALOR REAL AJUSTE: $86,470 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35554559</t>
   </si>
   <si>
-    <t>ASEG// LT 6017323320// cliente solicita ajuste de la factura por el cobro de los SVA HBO MAX y PARAMOUNT, solicito el retiro el 16/07/2022 con la orden MDM-FIBRA-009203928 completa, pero no sincroniz√≥ en revchain SOLUCI√ìN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 08/11/2022 se escala a gestor solicitando sincronizar orden, SVA inactivos en revchain el 08/11/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $33.790 incluido IVA, VALOR REAL AJUSTE: $33.790 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6017323320// cliente solicita ajuste de la factura por el cobro de los SVA HBO MAX y PARAMOUNT, solicito el retiro el 16/07/2022 con la orden MDM-FIBRA-009203928 completa, pero no sincronizó en revchain SOLUCIÓN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 08/11/2022 se escala a gestor solicitando sincronizar orden, SVA inactivos en revchain el 08/11/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $33.790 incluido IVA, VALOR REAL AJUSTE: $33.790 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35556341</t>
   </si>
   <si>
-    <t>SG//LT: 6017711041 cuenta 12054361432// cliente solicita ajuste de la factura, ya que el 04/10/2022 bajo MDM-PQR-34186472  solicitud de retiro de SVA PARAMOUNT y SVA   HBO MAX. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia en revchain el retiro de los servicios adicionales SVA PARAMOUNT y SVA   HBO MAX desde el d√≠a 30/11/2022 bajo la orden  MDM-FIBRA-010483500 del d√≠a 17/11/2022 RETIRO_BUNDLE_AUXILIAR (RBA) . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017711041 cuenta 12054361432// cliente solicita ajuste de la factura, ya que el 04/10/2022 bajo MDM-PQR-34186472  solicitud de retiro de SVA PARAMOUNT y SVA   HBO MAX. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia en revchain el retiro de los servicios adicionales SVA PARAMOUNT y SVA   HBO MAX desde el día 30/11/2022 bajo la orden  MDM-FIBRA-010483500 del día 17/11/2022 RETIRO_BUNDLE_AUXILIAR (RBA) . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35556883</t>
   </si>
   <si>
-    <t>ASEG// LT 6017680237// cliente solicita ajuste de la factura por el cobro de los SVA HBO MAX, solicito el retiro el 25/05/2022 con la orden MDM-FIBRA-6017680237 completa, pero no sincroniz√≥ en revchain. SOLUCI√ìN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 15/11/2022 se escala a gestor solicitando sincronizar orden, SVA inactivos en revchain el 17/11/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $19.900 incluido IVA, VALOR REAL AJUSTE: $19.900 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6017680237// cliente solicita ajuste de la factura por el cobro de los SVA HBO MAX, solicito el retiro el 25/05/2022 con la orden MDM-FIBRA-6017680237 completa, pero no sincronizó en revchain. SOLUCIÓN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 15/11/2022 se escala a gestor solicitando sincronizar orden, SVA inactivos en revchain el 17/11/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $19.900 incluido IVA, VALOR REAL AJUSTE: $19.900 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35560082</t>
   </si>
   <si>
-    <t>ASEG// LT 6017261171// cliente solicita cancelaci√≥n de DTV GO el 11/08/2022 bajo MDM-PQR-33101956, se ingres√≥ orden MDM-FIBRA-009501422, en estado cancelado.  SOLUCI√ìN DE ASEGURAMIENTO: Caso ya cuenta con cierre de ciclo DTV GO inactivo desde el 24/11/2022.  JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $78.800 incluido IVA, VALOR REAL AJUSTE: $78.800 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO</t>
+    <t>ASEG// LT 6017261171// cliente solicita cancelación de DTV GO el 11/08/2022 bajo MDM-PQR-33101956, se ingresó orden MDM-FIBRA-009501422, en estado cancelado.  SOLUCIÓN DE ASEGURAMIENTO: Caso ya cuenta con cierre de ciclo DTV GO inactivo desde el 24/11/2022.  JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $78.800 incluido IVA, VALOR REAL AJUSTE: $78.800 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO</t>
   </si>
   <si>
     <t>MDM-PQR-35560112</t>
   </si>
   <si>
-    <t>SG//LT: 6014169388 cuenta 12053313698// cliente solicita ajuste de la factura, ya que el 30/09/2022 bajo MDM-PQR-34100921  solicitud de retiro de SVA PARAMOUNT y SVA HBO MAX . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia en revchain el retiro de los servicios adicionales SVA PARAMOUNT el d√≠a 30/09/2022 bajo MDM-FIBRA-010020985¬†pero servicio de  SVA HBO MAX no se retiro y continuo facturando hasta el d√≠a 01/11/2022 bajo MDM-FIBRA-010356586 el retiro del servicio de SVA HBO MAX cumplido el retiro en revchain desde 30/11/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6014169388 cuenta 12053313698// cliente solicita ajuste de la factura, ya que el 30/09/2022 bajo MDM-PQR-34100921  solicitud de retiro de SVA PARAMOUNT y SVA HBO MAX . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia en revchain el retiro de los servicios adicionales SVA PARAMOUNT el día 30/09/2022 bajo MDM-FIBRA-010020985 pero servicio de  SVA HBO MAX no se retiro y continuo facturando hasta el día 01/11/2022 bajo MDM-FIBRA-010356586 el retiro del servicio de SVA HBO MAX cumplido el retiro en revchain desde 30/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35560666</t>
@@ -728,19 +745,19 @@
     <t>MDM-PQR-35560737</t>
   </si>
   <si>
-    <t>SG//LT: 6017632697 cuenta 12054376824// Cliente radica queja el 02/11/2022 bajo CUN 4347220004569696, solicita ajuste de la factura, queja de los servicios de la l√≠nea telef√≥nica No. 6017632697 en donde solicita que se realice el ajuste del servicio de Winsports + debido a que sustenta que el d√≠a 05 de agosto del 2022 bajo CUN 4347-22- 0003761432 solicit√≥ el retiro del mismo, por lo que solicita que se abone el cobro que se a generado del mismo . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $50,000, incluido IVA, VALOR REAL AJUSTE $50,000, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017632697 cuenta 12054376824// Cliente radica queja el 02/11/2022 bajo CUN 4347220004569696, solicita ajuste de la factura, queja de los servicios de la línea telefónica No. 6017632697 en donde solicita que se realice el ajuste del servicio de Winsports + debido a que sustenta que el día 05 de agosto del 2022 bajo CUN 4347-22- 0003761432 solicitó el retiro del mismo, por lo que solicita que se abone el cobro que se a generado del mismo . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $50,000, incluido IVA, VALOR REAL AJUSTE $50,000, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35560788</t>
   </si>
   <si>
-    <t>L√≠nea: 6013350275 Nombre titular: DIEGO IOVANY GUZMAN PI√ëEROS   C√©dula: 80010049   C√©dula correcta: 80010049   Fecha de expedici√≥n:  6 Noviembre 1997 Sistema: SUMA Tecnolog√≠a: FTTH N√∫mero de contacto: 3153479998 Pedido - Orden: N.A Direcci√≥n actual: KR 96F 23 49 TO 2 AP 608 Direcci√≥n que indica el cliente: KR 96F 23 49 TO 2 AP 608 Ciudad: BOGOTA D.C.   Plan ofrecido: RETENCI√ìN 30% DE DESCUENTO Cuenta de facturaci√≥n:  12053686096 Error presentado</t>
+    <t>Línea: 6013350275 Nombre titular: DIEGO IOVANY GUZMAN PIÑEROS   Cédula: 80010049   Cédula correcta: 80010049   Fecha de expedición:  6 Noviembre 1997 Sistema: SUMA Tecnología: FTTH Número de contacto: 3153479998 Pedido - Orden: N.A Dirección actual: KR 96F 23 49 TO 2 AP 608 Dirección que indica el cliente: KR 96F 23 49 TO 2 AP 608 Ciudad: BOGOTA D.C.   Plan ofrecido: RETENCIÓN 30% DE DESCUENTO Cuenta de facturación:  12053686096 Error presentado</t>
   </si>
   <si>
     <t>MDM-PQR-35562900</t>
   </si>
   <si>
-    <t>SG//LT: 6017814716 cuenta 12054357392// cliente solicita ajuste de la factura, ya que  usuario ya hab√≠a solicitado el retiro del servicio de SVA DTV HBO PACK  .SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia solicitud de RETIRO_SVA (RSER) bajo MDM-FIBRA-010401011 del d√≠a 08/11/2022 y se evidencia en revchain el retiro del servicio SVA DTV HBO PACK desde el d√≠a 24/11/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $18,850 incluido IVA. VALOR REAL AJUSTE: $18,850 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017814716 cuenta 12054357392// cliente solicita ajuste de la factura, ya que  usuario ya había solicitado el retiro del servicio de SVA DTV HBO PACK  .SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia solicitud de RETIRO_SVA (RSER) bajo MDM-FIBRA-010401011 del día 08/11/2022 y se evidencia en revchain el retiro del servicio SVA DTV HBO PACK desde el día 24/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $18,850 incluido IVA. VALOR REAL AJUSTE: $18,850 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35563046</t>
@@ -752,7 +769,7 @@
     <t>MDM-PQR-35563505</t>
   </si>
   <si>
-    <t>SG//LT: 6017308401 cuenta 12054358588// cliente solicita ajuste de la factura, ya que  usuario ya hab√≠a solicitado el retiro del servicio de Sva DTV HBO PACK y Sva DTV WINSPORTS   .SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia solicitud de RETIRO_BUNDLE_AUXILIAR (RBA) bajo MDM-FIBRA-010420508 del d√≠a 09/11/2022 y se evidencia en revchain el retiro del servicio Sva DTV HBO PACK y Sva DTV WINSPORTS  desde el d√≠a 24/11/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $49,800 incluido IVA. VALOR REAL AJUSTE: $49,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017308401 cuenta 12054358588// cliente solicita ajuste de la factura, ya que  usuario ya había solicitado el retiro del servicio de Sva DTV HBO PACK y Sva DTV WINSPORTS   .SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, puesto que se evidencia solicitud de RETIRO_BUNDLE_AUXILIAR (RBA) bajo MDM-FIBRA-010420508 del día 09/11/2022 y se evidencia en revchain el retiro del servicio Sva DTV HBO PACK y Sva DTV WINSPORTS  desde el día 24/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $49,800 incluido IVA. VALOR REAL AJUSTE: $49,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35564205</t>
@@ -764,37 +781,37 @@
     <t>MDM-PQR-35565639</t>
   </si>
   <si>
-    <t>ASEG// LT¬†6013081226// cliente reclama por cobro de reconexi√≥n de servicios //SOLUCI√ìN DE ASEGURAMIENTO: se penaliza ajuste servicios suspendidos del 05 al 06 octubre del 2022, no se evidencia RF que justifique el ajuste. //JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $21.850 incluido IVA VALOR REAL AJUSTE: $0 incluido IVA DIFERENCIA $21.850 / AJUSTE INCORRECTO.</t>
+    <t>ASEG// LT 6013081226// cliente reclama por cobro de reconexión de servicios //SOLUCIÓN DE ASEGURAMIENTO: se penaliza ajuste servicios suspendidos del 05 al 06 octubre del 2022, no se evidencia RF que justifique el ajuste. //JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $21.850 incluido IVA VALOR REAL AJUSTE: $0 incluido IVA DIFERENCIA $21.850 / AJUSTE INCORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35566009</t>
   </si>
   <si>
-    <t>ASEG// LT 6012212292// POL√çTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura, indica que no solicit√≥ el servicio de HBO MAX, nunca lo uso. SOLUCI√ìN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la pol√≠tica de favorabilidad, adicional ingresa retiro con la orden MDM-FIBRA-010425307, completa y sincronizada en revchain. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $19.900 incluido IVA, VALOR REAL AJUSTE: $19.950 incluido IVA DIFERENCIA: $-50/AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6012212292// POLÍTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura, indica que no solicitó el servicio de HBO MAX, nunca lo uso. SOLUCIÓN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la política de favorabilidad, adicional ingresa retiro con la orden MDM-FIBRA-010425307, completa y sincronizada en revchain. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $19.900 incluido IVA, VALOR REAL AJUSTE: $19.950 incluido IVA DIFERENCIA: $-50/AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35566741</t>
   </si>
   <si>
-    <t>SG//LT: 6014558332 cuenta 12054434521// cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de reconexion. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ajuste no a plica, servicios suspendidos por no pago del 20/10/22 Suspensi√≥n por Pago al 20/10/2022 se Reconexi√≥n por Pago . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // SE PENALIZA ASESOR YA QUE AJUSTE NO APLICA YA QUE USUARIO SI ESTUVO SUSPENDIDO POR NO PAGO.</t>
+    <t>SG//LT: 6014558332 cuenta 12054434521// cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de reconexion. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ajuste no a plica, servicios suspendidos por no pago del 20/10/22 Suspensión por Pago al 20/10/2022 se Reconexión por Pago . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // SE PENALIZA ASESOR YA QUE AJUSTE NO APLICA YA QUE USUARIO SI ESTUVO SUSPENDIDO POR NO PAGO.</t>
   </si>
   <si>
     <t>MDM-PQR-35568213</t>
   </si>
   <si>
-    <t>ASEG// LT 6017615139// cliente solicita suspensi√≥n del servicio el 19/10/2022 se ingres√≥ tr√°mite con la orden MDM-FIBRA-010211204, completa, pero no sincronizo en revchain.  SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que el cliente solicit√≥ cancelaci√≥n del servicio el 26/10/2022, orden MDM-FIBRA-010294001, completa y sincronizada en revchain, servicios inactivos el 16/11/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $101.450 incluido IVA, VALOR REAL AJUSTE: $94.706 incluido IVA DIFERENCIA: $6.744 / MAYOR VALOR AJUSTADO.</t>
+    <t>ASEG// LT 6017615139// cliente solicita suspensión del servicio el 19/10/2022 se ingresó trámite con la orden MDM-FIBRA-010211204, completa, pero no sincronizo en revchain.  SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que el cliente solicitó cancelación del servicio el 26/10/2022, orden MDM-FIBRA-010294001, completa y sincronizada en revchain, servicios inactivos el 16/11/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $101.450 incluido IVA, VALOR REAL AJUSTE: $94.706 incluido IVA DIFERENCIA: $6.744 / MAYOR VALOR AJUSTADO.</t>
   </si>
   <si>
     <t>MDM-PQR-35568868</t>
   </si>
   <si>
-    <t>ASEG// LT 6017655899// cliente reclama por cobro de reconexi√≥n de servicios //SOLUCI√ìN DE ASEGURAMIENTO: se penaliza ajuste servicios suspendidos en el mes de septiembre del 2022, no se evidencia RF que justifique el ajuste. //JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $26.000 incluido IVA VALOR REAL AJUSTE: $0 incluido IVA DIFERENCIA $26.000 / AJUSTE INCORRECTO.</t>
+    <t>ASEG// LT 6017655899// cliente reclama por cobro de reconexión de servicios //SOLUCIÓN DE ASEGURAMIENTO: se penaliza ajuste servicios suspendidos en el mes de septiembre del 2022, no se evidencia RF que justifique el ajuste. //JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $26.000 incluido IVA VALOR REAL AJUSTE: $0 incluido IVA DIFERENCIA $26.000 / AJUSTE INCORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35569106</t>
   </si>
   <si>
-    <t>SG//LT: 6012177405 cuenta 12054392008// Cliente radica queja el 21/10/2022 bajo CUN 4347220004472205, solicita ajuste de la factura, 1. Ajuste de los servicios en menci√≥n , 2. No cobro de WNSPORTS en la siguiente factura y cancelaci√≥n . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $30,000, incluido IVA, VALOR REAL AJUSTE $30,000, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012177405 cuenta 12054392008// Cliente radica queja el 21/10/2022 bajo CUN 4347220004472205, solicita ajuste de la factura, 1. Ajuste de los servicios en mención , 2. No cobro de WNSPORTS en la siguiente factura y cancelación . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $30,000, incluido IVA, VALOR REAL AJUSTE $30,000, incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35569735</t>
@@ -806,13 +823,13 @@
     <t>MDM-PQR-35570221</t>
   </si>
   <si>
-    <t>ASEG// LT 6014576694// POL√çTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura, por el cobro realizado de los SVA PARAMOUNT y HBO MAX, solicit√≥ el retiro el 01/11/2022, no est√° de acuerdo con el cobro. SOLUCI√ìN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la pol√≠tica de favorabilidad, orden MDM-FIBRA-010352560, completa y sincronizada en revchain. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $33.800 incluido IVA, VALOR REAL AJUSTE: $33.830 incluido IVA DIFERENCIA: $-30/AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6014576694// POLÍTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura, por el cobro realizado de los SVA PARAMOUNT y HBO MAX, solicitó el retiro el 01/11/2022, no está de acuerdo con el cobro. SOLUCIÓN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la política de favorabilidad, orden MDM-FIBRA-010352560, completa y sincronizada en revchain. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $33.800 incluido IVA, VALOR REAL AJUSTE: $33.830 incluido IVA DIFERENCIA: $-30/AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35570686</t>
   </si>
   <si>
-    <t>ASEG// LT 6017292226// cliente solicita ajuste de la factura por el cobro de los SVA HBO MAX y DTV GO, se ingres√≥ el retiro del HBO MAX el 02/08/2022 con la orden MDM-FIBRA-009389504 y con la orden MDM-FIBRA-008378045 el retiro del DTV GO, las dos √≥rdenes se completaron, pero no sincronizaron en revchain. SOLUCI√ìN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 02/11/2022 se escala a gestor solicitando sincronizar orden, SVA inactivos en revchain el 03/11/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $89.660 incluido IVA, VALOR REAL AJUSTE: $114.238 incluido IVA DIFERENCIA: $-24.258 / MENOR VALOR AJUSTADO.</t>
+    <t>ASEG// LT 6017292226// cliente solicita ajuste de la factura por el cobro de los SVA HBO MAX y DTV GO, se ingresó el retiro del HBO MAX el 02/08/2022 con la orden MDM-FIBRA-009389504 y con la orden MDM-FIBRA-008378045 el retiro del DTV GO, las dos órdenes se completaron, pero no sincronizaron en revchain. SOLUCIÓN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 02/11/2022 se escala a gestor solicitando sincronizar orden, SVA inactivos en revchain el 03/11/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $89.660 incluido IVA, VALOR REAL AJUSTE: $114.238 incluido IVA DIFERENCIA: $-24.258 / MENOR VALOR AJUSTADO.</t>
   </si>
   <si>
     <t>MDM-PQR-35570887</t>
@@ -824,49 +841,49 @@
     <t>MDM-PQR-35571003</t>
   </si>
   <si>
-    <t>ASEG// LT 6012488453// cliente solicita ajuste de la factura por el cobro de los SVA HBO MAX y PARAMOUNT, solicito retiro de los SVA el 13/06/2022 con la orden MDM-FIBRA-008852276, completa, pero no sincronizo en revchain. ¬†SOLUCI√ìN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 02/12/2022 se escala a gestor solicitando sincronizar orden, SVA inactivos en revchain el 02/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $33.800 incluido IVA, VALOR REAL AJUSTE: $33.800 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6012488453// cliente solicita ajuste de la factura por el cobro de los SVA HBO MAX y PARAMOUNT, solicito retiro de los SVA el 13/06/2022 con la orden MDM-FIBRA-008852276, completa, pero no sincronizo en revchain.  SOLUCIÓN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 02/12/2022 se escala a gestor solicitando sincronizar orden, SVA inactivos en revchain el 02/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $33.800 incluido IVA, VALOR REAL AJUSTE: $33.800 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35571220</t>
   </si>
   <si>
-    <t>ASEG// LT 6017128784// POL√çTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura, por el cobro realizado de los SVA PARAMOUNT y HBO MAX, solicit√≥ el retiro el 02/11/2022, no est√° de acuerdo con el cobro. SOLUCI√ìN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la pol√≠tica de favorabilidad, orden MDM-FIBRA- 010364093, completa y sincronizada en revchain. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $33.800 incluido IVA, VALOR REAL AJUSTE: $33.800 incluido IVA DIFERENCIA: $0/AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6017128784// POLÍTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura, por el cobro realizado de los SVA PARAMOUNT y HBO MAX, solicitó el retiro el 02/11/2022, no está de acuerdo con el cobro. SOLUCIÓN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la política de favorabilidad, orden MDM-FIBRA- 010364093, completa y sincronizada en revchain. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $33.800 incluido IVA, VALOR REAL AJUSTE: $33.800 incluido IVA DIFERENCIA: $0/AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35571412</t>
   </si>
   <si>
-    <t>ASEG// LT 6012488811// cliente solicita ajuste de la factura ya que el 17/05/2022 se realiza cambio de tecnolog√≠a DUO 80M HOGARES FTTH CAMBIO DE TECNOLOG√çA por valor de $62.596, orden MDM-FIBRA-008557176, completa pero no sincronizo en revchain.  SOLUCI√ìN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 10/11/2022 se escala a gestor solicitando sincronizar orden. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $86.340 incluido IVA, VALOR REAL AJUSTE: $86.340 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6012488811// cliente solicita ajuste de la factura ya que el 17/05/2022 se realiza cambio de tecnología DUO 80M HOGARES FTTH CAMBIO DE TECNOLOGÍA por valor de $62.596, orden MDM-FIBRA-008557176, completa pero no sincronizo en revchain.  SOLUCIÓN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 10/11/2022 se escala a gestor solicitando sincronizar orden. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $86.340 incluido IVA, VALOR REAL AJUSTE: $86.340 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35571795</t>
   </si>
   <si>
-    <t>ASEG// LT 6016333173 // cliente solicita ajuste de la factura, ya que el 22/08/2022 se realiza cambio de plan DUO 300M HOG FTTH V1 por valor de $94.900, retirando los SVA empaquetados WIN SPORTS, HBOMAX, orden MDM-FIBRA-009600130, completa, pero no sincronizo en revchain. ¬†SOLUCI√ìN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 04/11/2022 se escala a gestor solicitando sincronizar orden. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $32.280 incluido IVA, VALOR REAL AJUSTE: $29.929 incluido IVA DIFERENCIA: $2.351 / MAYOR VALOR AJUSTADO.</t>
+    <t>ASEG// LT 6016333173 // cliente solicita ajuste de la factura, ya que el 22/08/2022 se realiza cambio de plan DUO 300M HOG FTTH V1 por valor de $94.900, retirando los SVA empaquetados WIN SPORTS, HBOMAX, orden MDM-FIBRA-009600130, completa, pero no sincronizo en revchain.  SOLUCIÓN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 04/11/2022 se escala a gestor solicitando sincronizar orden. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $32.280 incluido IVA, VALOR REAL AJUSTE: $29.929 incluido IVA DIFERENCIA: $2.351 / MAYOR VALOR AJUSTADO.</t>
   </si>
   <si>
     <t>MDM-PQR-35572330</t>
   </si>
   <si>
-    <t>Whatsapp // Cliente indica que le llega un valor m√°s alta del que tiene contratado.</t>
+    <t>Whatsapp // Cliente indica que le llega un valor más alta del que tiene contratado.</t>
   </si>
   <si>
     <t>MDM-PQR-35572651</t>
   </si>
   <si>
-    <t>AUMENTO  DE   FACTURA   POR  LO  SIGUIENTE:  . Paquete internet y voz (25 Nov - 24 Dic) $ 42.016 pro lo que le sube el valor es . Reconexi√≥n servicios $ 21.848 + . IVA 19% $ 12.143 solo es que pagues esta factura por el valor que te llego y para la pr√≥xima ya te llegara el valor normal de la factura de 50.000</t>
+    <t>AUMENTO  DE   FACTURA   POR  LO  SIGUIENTE:  . Paquete internet y voz (25 Nov - 24 Dic) $ 42.016 pro lo que le sube el valor es . Reconexión servicios $ 21.848 + . IVA 19% $ 12.143 solo es que pagues esta factura por el valor que te llego y para la próxima ya te llegara el valor normal de la factura de 50.000</t>
   </si>
   <si>
     <t>MDM-PQR-35574350</t>
   </si>
   <si>
-    <t xml:space="preserve"> Linea:      6013652671  Nombre de quien se comunica:    ELIANA MARITZA CHACON ENCISO    Cedula:     52423197    Numero de contacto:     3103072072    Email:       elianamche@gmail.com                Direcci√≥n:      CL 63F 72 55 IN 4 AP 301  Motivo:       La llamaron a ofrecele un plan desea ingresar a hbo max</t>
+    <t xml:space="preserve"> Linea:      6013652671  Nombre de quien se comunica:    ELIANA MARITZA CHACON ENCISO    Cedula:     52423197    Numero de contacto:     3103072072    Email:       elianamche@gmail.com                Dirección:      CL 63F 72 55 IN 4 AP 301  Motivo:       La llamaron a ofrecele un plan desea ingresar a hbo max</t>
   </si>
   <si>
     <t>MDM-PQR-35577628</t>
   </si>
   <si>
-    <t>CHATBOT//SR-33912080//Cliente desea se corrija facturaci√≤n ya que indica el valor del plan es de $66.900</t>
+    <t>CHATBOT//SR-33912080//Cliente desea se corrija facturaciòn ya que indica el valor del plan es de $66.900</t>
   </si>
   <si>
     <t>MDM-PQR-35578991</t>
@@ -884,19 +901,19 @@
     <t>MDM-PQR-35585279</t>
   </si>
   <si>
-    <t>"L√≠nea:6013682092 Nombre de quien se comunica:RUTH PAOLA CORTES HERRERA ¬† C√©dula:1026256782 ¬† N√∫mero de contacto:3125549848 ¬† Email:pao-cortes@hotmail.com ¬† Direcci√≥n:CL 97 70 90 IN 2 AP 903 Motivo de la llamada:." inconforme con cobro de factura ya que le brindaron oferta en noviembre y no se esta aplicando</t>
+    <t>"Línea:6013682092 Nombre de quien se comunica:RUTH PAOLA CORTES HERRERA   Cédula:1026256782   Número de contacto:3125549848   Email:pao-cortes@hotmail.com   Dirección:CL 97 70 90 IN 2 AP 903 Motivo de la llamada:." inconforme con cobro de factura ya que le brindaron oferta en noviembre y no se esta aplicando</t>
   </si>
   <si>
     <t>MDM-PQR-35587823</t>
   </si>
   <si>
-    <t>ASEG//LT 6016451677/ Cliente radica queja el 18/11/2022 bajo CUN 4347220004693261, solicitando ajuste de la factura debido a que solicit√≥ cancelaci√≥n del servicio en julio de 2022, servicios inactivos el 30/11/2022. SOLUCI√ìN DE ASEGURAMIENTO: No se realiza gesti√≥n, caso gestionado por el √°rea de escrita. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $229.837 incluido IVA VALOR REAL AJUSTE: $229.837 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG//LT 6016451677/ Cliente radica queja el 18/11/2022 bajo CUN 4347220004693261, solicitando ajuste de la factura debido a que solicitó cancelación del servicio en julio de 2022, servicios inactivos el 30/11/2022. SOLUCIÓN DE ASEGURAMIENTO: No se realiza gestión, caso gestionado por el área de escrita. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $229.837 incluido IVA VALOR REAL AJUSTE: $229.837 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35588820</t>
   </si>
   <si>
-    <t>ASEG//LT 6013109895/ Cliente radica queja el 24/11/2022 bajo CUN 4347220004576644, solicitando devoluci√≥n de saldo a favor.  SOLUCI√ìN DE ASEGURAMIENTO: No se realiza gesti√≥n, caso gestionado por el √°rea de escrita. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $108.279 incluido IVA VALOR REAL AJUSTE: $108.279 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG//LT 6013109895/ Cliente radica queja el 24/11/2022 bajo CUN 4347220004576644, solicitando devolución de saldo a favor.  SOLUCIÓN DE ASEGURAMIENTO: No se realiza gestión, caso gestionado por el área de escrita. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $108.279 incluido IVA VALOR REAL AJUSTE: $108.279 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35589589</t>
@@ -908,73 +925,73 @@
     <t>MDM-PQR-35589736</t>
   </si>
   <si>
-    <t>ASEG// LT 6017912166// POL√çTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura, por el cobro realizado del SVA DTV GO, indica que solicit√≥ el retiro el 21/09/2022, no est√° de acuerdo con el cobro. SOLUCI√ìN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la pol√≠tica de favorabilidad, se ingres√≥ retiro el 23/11/2022 con la orden MDM-FIBRA-010536949, SVA inactivo en revchain el 08/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $29.990 incluido IVA, VALOR REAL AJUSTE: $29.990 incluido IVA DIFERENCIA: $0/AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6017912166// POLÍTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura, por el cobro realizado del SVA DTV GO, indica que solicitó el retiro el 21/09/2022, no está de acuerdo con el cobro. SOLUCIÓN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la política de favorabilidad, se ingresó retiro el 23/11/2022 con la orden MDM-FIBRA-010536949, SVA inactivo en revchain el 08/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $29.990 incluido IVA, VALOR REAL AJUSTE: $29.990 incluido IVA DIFERENCIA: $0/AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35591694</t>
   </si>
   <si>
-    <t>ASEG//LT 6012831305/ Cliente radica queja el 16/11/2022 bajo CUN 4347220004672132, solicitando ajuste de la factura, por las fallas presentadas en el mes de noviembre del 2022. SOLUCI√ìN DE ASEGURAMIENTO: No se realiza gesti√≥n, caso gestionado por el √°rea de escrita. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $46.560 incluido IVA VALOR REAL AJUSTE: $46.560 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG//LT 6012831305/ Cliente radica queja el 16/11/2022 bajo CUN 4347220004672132, solicitando ajuste de la factura, por las fallas presentadas en el mes de noviembre del 2022. SOLUCIÓN DE ASEGURAMIENTO: No se realiza gestión, caso gestionado por el área de escrita. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $46.560 incluido IVA VALOR REAL AJUSTE: $46.560 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35593458</t>
   </si>
   <si>
-    <t>ASEG// LT 6012933221// cliente reclama por cobro de reconexi√≥n de servicios, no est√° de acuerdo con el cobro. Se puede evidenciar suspensi√≥n en collecti√≥n del 05 al 10 octubre del 2022. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso ajuste no aplica.¬†JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $26.000 incluido IVA VALOR REAL AJUSTE: $0 incluido IVA DIFERENCIA: $26.000 / AJUSTE INCORRECTO.</t>
+    <t>ASEG// LT 6012933221// cliente reclama por cobro de reconexión de servicios, no está de acuerdo con el cobro. Se puede evidenciar suspensión en collectión del 05 al 10 octubre del 2022. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso ajuste no aplica. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $26.000 incluido IVA VALOR REAL AJUSTE: $0 incluido IVA DIFERENCIA: $26.000 / AJUSTE INCORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35594237</t>
   </si>
   <si>
-    <t>ASEG// LT 6013784112// POL√çTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura, por el cobro realizado por el servicio de DTV GO, indica que en el mes de noviembre el servicio no funciono por lo cual no est√° de acuerdo con el cobro. SOLUCI√ìN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la pol√≠tica de favorabilidad. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $49.980 incluido IVA, VALOR REAL AJUSTE: $49.980 incluido IVA DIFERENCIA: $0/AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6013784112// POLÍTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura, por el cobro realizado por el servicio de DTV GO, indica que en el mes de noviembre el servicio no funciono por lo cual no está de acuerdo con el cobro. SOLUCIÓN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la política de favorabilidad. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $49.980 incluido IVA, VALOR REAL AJUSTE: $49.980 incluido IVA DIFERENCIA: $0/AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35595367</t>
   </si>
   <si>
-    <t>L√≠nea: 6016565497 Nombre de quien se comunica: SILVIA TERESA GALAN VARGAS C√©dula: 52351841 N√∫mero de contacto: 3105380511    Email: pssilvia@gmail.com   Direcci√≥n: CL 72A BIS A 70 25  Motivo de la llamada: CLIENTE INCONFORME CON EL COBRO DE HBO PACK YA QUE INDICA QUE LO TEN√çA ESTE SERVICIO A CERO COSTO</t>
+    <t>Línea: 6016565497 Nombre de quien se comunica: SILVIA TERESA GALAN VARGAS Cédula: 52351841 Número de contacto: 3105380511    Email: pssilvia@gmail.com   Dirección: CL 72A BIS A 70 25  Motivo de la llamada: CLIENTE INCONFORME CON EL COBRO DE HBO PACK YA QUE INDICA QUE LO TENÍA ESTE SERVICIO A CERO COSTO</t>
   </si>
   <si>
     <t>MDM-PQR-35595555</t>
   </si>
   <si>
-    <t>ASEG// LT 6017262557// POL√çTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura por el cobro realizado de los SVA DTV GO, HBO MAX, PARAMOUNT, indica que no pudo acceder a las plataformas por lo cual no est√° de acuerdo con el cobro. SOLUCI√ìN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la pol√≠tica de favorabilidad</t>
+    <t>ASEG// LT 6017262557// POLÍTICA DE FAVORABILIDAD, cliente solicita ajuste de la factura por el cobro realizado de los SVA DTV GO, HBO MAX, PARAMOUNT, indica que no pudo acceder a las plataformas por lo cual no está de acuerdo con el cobro. SOLUCIÓN DE ASEGURAMIENTO: Asesor accede a realizar ajuste bajo la política de favorabilidad</t>
   </si>
   <si>
     <t>MDM-PQR-35597500</t>
   </si>
   <si>
-    <t>ASEG// LT 6012694139// cliente solicita ajuste de la factura por el cobro de los SVA HBO MAX y PARAMOUNT, solicito retiro de los SVA el 16/08/2022 con la orden MDM-FIBRA-009543504, completa pero no sincronizo en revchain.  SOLUCI√ìN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 24/11/2022 se escala a gestor solicitando sincronizar orden, SVA inactivos en revchain el 24/11/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $33.800 incluido IVA, VALOR REAL AJUSTE: $33.800 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6012694139// cliente solicita ajuste de la factura por el cobro de los SVA HBO MAX y PARAMOUNT, solicito retiro de los SVA el 16/08/2022 con la orden MDM-FIBRA-009543504, completa pero no sincronizo en revchain.  SOLUCIÓN DE ASEGURAMIENTO: Caso ya tiene cierre de ciclo, el 24/11/2022 se escala a gestor solicitando sincronizar orden, SVA inactivos en revchain el 24/11/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $33.800 incluido IVA, VALOR REAL AJUSTE: $33.800 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35603008</t>
   </si>
   <si>
-    <t>ASEG// LT 6012888351 // Cliente solicita ajuste de la factura debido a que se cobra servicio de HBO MAX Empaquetado, se evidencia que desde el mes de¬†junio 2022, est√° solicitando el ajuste y retiro de este servicio. SOLUCI√ìN DE ASEGURAMIENTO: Se realiza cambio de plan con la orden MDM-FIBRA-010668591, ya que es la √∫nica forma de quitar un SVA empaquetado, se completa orden y se vuelve a dejar con el plan que ten√≠a DUO 200M HOG FTTH V1 con la orden MDM-FIBRA-007357981, cliente fue retenido el 16/10/2022 con la oferta b√°sica por valor de $50.000, se escala a gestor aplicar descuento manual con el fin de garantizar tarifa b√°sica.¬†¬†JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $14.920 incluido IVA, VALOR REAL AJUSTE: $14.920 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6012888351 // Cliente solicita ajuste de la factura debido a que se cobra servicio de HBO MAX Empaquetado, se evidencia que desde el mes de junio 2022, está solicitando el ajuste y retiro de este servicio. SOLUCIÓN DE ASEGURAMIENTO: Se realiza cambio de plan con la orden MDM-FIBRA-010668591, ya que es la única forma de quitar un SVA empaquetado, se completa orden y se vuelve a dejar con el plan que tenía DUO 200M HOG FTTH V1 con la orden MDM-FIBRA-007357981, cliente fue retenido el 16/10/2022 con la oferta básica por valor de $50.000, se escala a gestor aplicar descuento manual con el fin de garantizar tarifa básica.  JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $14.920 incluido IVA, VALOR REAL AJUSTE: $14.920 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35603284</t>
   </si>
   <si>
-    <t>ASEG// LT 6017653605// cliente solicita ajuste de la factura por el cobro de los SVA DTV GO, HBO MAX y PARAMOUNT, solicit√≥ retiro de los SVA el 08/06/2022 con la orden MDM-FIBRA- 008801188, completa pero no sincronizo en revchain.  SOLUCI√ìN DE ASEGURAMIENTO: Se escala a gestor solicitando sincronizar orden. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $73.790 incluido IVA, VALOR REAL AJUSTE: $73.790 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6017653605// cliente solicita ajuste de la factura por el cobro de los SVA DTV GO, HBO MAX y PARAMOUNT, solicitó retiro de los SVA el 08/06/2022 con la orden MDM-FIBRA- 008801188, completa pero no sincronizo en revchain.  SOLUCIÓN DE ASEGURAMIENTO: Se escala a gestor solicitando sincronizar orden. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $73.790 incluido IVA, VALOR REAL AJUSTE: $73.790 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35607094</t>
   </si>
   <si>
-    <t>WHATSAPP// CLIENTE SE COMNICA PARA INDICAR QUE EL SOLICITO LA CANCELACI√ìN DEL SERVICIO Y AHORA SE LE ESTA COBRANDO UNA FACTURA QUE TIENE PENDIENTE</t>
+    <t>WHATSAPP// CLIENTE SE COMNICA PARA INDICAR QUE EL SOLICITO LA CANCELACIÓN DEL SERVICIO Y AHORA SE LE ESTA COBRANDO UNA FACTURA QUE TIENE PENDIENTE</t>
   </si>
   <si>
     <t>MDM-PQR-35608207</t>
   </si>
   <si>
-    <t>Linea:      6014557421   Nombre de quien se comunica:    MANUEL LUIS ITURRALDE GILMARTIN    Cedula:    84175    Numero de contacto:     3204924365    Email:          iturraldemanuel@hotmail.com         Direcci√≥n:      CL 127B 7B 42 AP 301  Motivo:      sim hace 4 dias no esta activa</t>
+    <t>Linea:      6014557421   Nombre de quien se comunica:    MANUEL LUIS ITURRALDE GILMARTIN    Cedula:    84175    Numero de contacto:     3204924365    Email:          iturraldemanuel@hotmail.com         Dirección:      CL 127B 7B 42 AP 301  Motivo:      sim hace 4 dias no esta activa</t>
   </si>
   <si>
     <t>MDM-PQR-35609967</t>
   </si>
   <si>
-    <t>ASEG// LT 6016195704 // NO APLICACI√ìN TARIFAS DE RETENCI√ìN, el 27/05/2022 se ofrece bajo RF-001060538,¬†tarifa permanente de $57.000 para 1 PLAY VOZ LOCAL ILIMITADA NEG V1, asesor no tiene en cuenta que se factura adicional Larga Distancia VU. SOLUCI√ìN DE ASEGURAMIENTO: Se realiza escalamiento a gestor solicitado aplicar descuento manual 61.7794%, con el fin de garantizar tarifa de $57.000, incluido Larga Distancia VU. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $11.900 incluido IVA, VALOR REAL AJUSTE: $11.900 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6016195704 // NO APLICACIÓN TARIFAS DE RETENCIÓN, el 27/05/2022 se ofrece bajo RF-001060538, tarifa permanente de $57.000 para 1 PLAY VOZ LOCAL ILIMITADA NEG V1, asesor no tiene en cuenta que se factura adicional Larga Distancia VU. SOLUCIÓN DE ASEGURAMIENTO: Se realiza escalamiento a gestor solicitado aplicar descuento manual 61.7794%, con el fin de garantizar tarifa de $57.000, incluido Larga Distancia VU. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $11.900 incluido IVA, VALOR REAL AJUSTE: $11.900 incluido IVA DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35610922</t>
@@ -983,13 +1000,13 @@
     <t>MDM-PQR-35618697</t>
   </si>
   <si>
-    <t>Linea:6016785761  Nombre de quien se comunica: HERNANDO RODRIGUEZ ZAMBRANO   C√©dula: 11331837 N√∫mero de contacto: 3108162550   Email:    HRZ07@YAHOO.COM   Direcci√≥n:CL 187 46 55 IN 62  Motivo de la llamada: cliente se comunica que porque motivo  incremento de su factura</t>
+    <t>Linea:6016785761  Nombre de quien se comunica: HERNANDO RODRIGUEZ ZAMBRANO   Cédula: 11331837 Número de contacto: 3108162550   Email:    HRZ07@YAHOO.COM   Dirección:CL 187 46 55 IN 62  Motivo de la llamada: cliente se comunica que porque motivo  incremento de su factura</t>
   </si>
   <si>
     <t>MDM-PQR-35626977</t>
   </si>
   <si>
-    <t xml:space="preserve"> L√≠nea:6016795231   Nombre:ESPERANZA BAUTISTA AVILA   C√©dula: 52322283 Celular: 3193943932   Correo:esperanzab193@gmail.com   Direcci√≥n: KR 115 16 11 PI 2  Motivo: mediante llamada titular manifiesta que su factura llego muy costosa y que tiene oferta de retencion con RF-001304075</t>
+    <t xml:space="preserve"> Línea:6016795231   Nombre:ESPERANZA BAUTISTA AVILA   Cédula: 52322283 Celular: 3193943932   Correo:esperanzab193@gmail.com   Dirección: KR 115 16 11 PI 2  Motivo: mediante llamada titular manifiesta que su factura llego muy costosa y que tiene oferta de retencion con RF-001304075</t>
   </si>
   <si>
     <t>MDM-PQR-35628742</t>
@@ -1001,13 +1018,13 @@
     <t>MDM-PQR-35634074</t>
   </si>
   <si>
-    <t xml:space="preserve"> Linea:     31250541      Nombre de quien se comunica:   CARLOS ARTURO PINEDA VILLANUEVA    Cedula:     93404104    Numero de contacto:     3133088428    Email:        cpclok2003@yahoo.com     Direcci√≥n:     DG 81H 72C 27  Motivo:     Lellego mensaje apartir del otro mes cobrandole hbo max</t>
+    <t xml:space="preserve"> Linea:     31250541      Nombre de quien se comunica:   CARLOS ARTURO PINEDA VILLANUEVA    Cedula:     93404104    Numero de contacto:     3133088428    Email:        cpclok2003@yahoo.com     Dirección:     DG 81H 72C 27  Motivo:     Lellego mensaje apartir del otro mes cobrandole hbo max</t>
   </si>
   <si>
     <t>MDM-PQR-35634220</t>
   </si>
   <si>
-    <t>L√≠nea: 6016272577 Nombre de quien se comunica: HERNAN ALONSO ZULUAGA ALEAN   C√©dula: 79629542   N√∫mero de contacto: 3192481346   Email: alonzuluaga@hotmail.com   Direcci√≥n: KR 116B 77 97 IN 4 AP 302  Motivo de la llamada: CLIENTE SOLICITO LA CANCELACION DEL SWRVICIO Y LE ESTAN COBRANDO LA FACTURA</t>
+    <t>Línea: 6016272577 Nombre de quien se comunica: HERNAN ALONSO ZULUAGA ALEAN   Cédula: 79629542   Número de contacto: 3192481346   Email: alonzuluaga@hotmail.com   Dirección: KR 116B 77 97 IN 4 AP 302  Motivo de la llamada: CLIENTE SOLICITO LA CANCELACION DEL SWRVICIO Y LE ESTAN COBRANDO LA FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-35635629</t>
@@ -1019,25 +1036,25 @@
     <t>MDM-PQR-35638749</t>
   </si>
   <si>
-    <t>linea : 6017217930 nombre : NATALIA GIMENA GOYENECHE DIAZ   cedula : 1002458938 numero :    3222162647   email:  nataliaggd19@gmail.com     dirrecion:  CL 140 11 46 IN 5 AP 602 motivo : se comunica ya que  quiere cancelar los servicios por que el otro a√±o se va del pais y cuanto es la clausula</t>
+    <t>linea : 6017217930 nombre : NATALIA GIMENA GOYENECHE DIAZ   cedula : 1002458938 numero :    3222162647   email:  nataliaggd19@gmail.com     dirrecion:  CL 140 11 46 IN 5 AP 602 motivo : se comunica ya que  quiere cancelar los servicios por que el otro año se va del pais y cuanto es la clausula</t>
   </si>
   <si>
     <t>MDM-PQR-35638942</t>
   </si>
   <si>
-    <t>ASEG// LT 6017626196// cliente solicita ajuste de la factura por el cobro del SVA HBO MAX solicit√≥ retiro el 15/07/2022 con la orden de traslado MDM-FIBRA-009195509, completa, pero no sincronizo en revchain. SOLUCI√ìN DE ASEGURAMIENTO: Se escala a gestor solicitando sincronizar orden. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT: $19.900 incluido IVA, VALOR REAL AJUSTE: $19.900 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
+    <t>ASEG// LT 6017626196// cliente solicita ajuste de la factura por el cobro del SVA HBO MAX solicitó retiro el 15/07/2022 con la orden de traslado MDM-FIBRA-009195509, completa, pero no sincronizo en revchain. SOLUCIÓN DE ASEGURAMIENTO: Se escala a gestor solicitando sincronizar orden. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT: $19.900 incluido IVA, VALOR REAL AJUSTE: $19.900 incluido IVA DIFERENCIA: $0 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35639549</t>
   </si>
   <si>
-    <t>L√≠nea: 6018350483 Nombre: JAIRO EDUARDO SANTOS RODRIGUEZ  C√©dula:11292809 Celular: 3214870107 - 32144558945 Correo:jairoesantos@hotmail.com Direcci√≥n:KR 19 42A 32 CA 3 Petici√≥n: Desea que su factura llegue a su correo electr√≥nico.</t>
+    <t>Línea: 6018350483 Nombre: JAIRO EDUARDO SANTOS RODRIGUEZ  Cédula:11292809 Celular: 3214870107 - 32144558945 Correo:jairoesantos@hotmail.com Dirección:KR 19 42A 32 CA 3 Petición: Desea que su factura llegue a su correo electrónico.</t>
   </si>
   <si>
     <t>MDM-PQR-35639840</t>
   </si>
   <si>
-    <t>Nombre: Jaime Aponte ENRIQUE APONTE ROJAS   C√©dula: 21414 Celular:3102948684 Correo: claradeaponte@gmail.com   Direcci√≥n: KR 14A 112 49 AP Motivo de llamada: Cliente se comunica porque en la factura le cobran HBO MAX y PARAMOUNT+, el cliente indica que no los contrat√≥</t>
+    <t>Nombre: Jaime Aponte ENRIQUE APONTE ROJAS   Cédula: 21414 Celular:3102948684 Correo: claradeaponte@gmail.com   Dirección: KR 14A 112 49 AP Motivo de llamada: Cliente se comunica porque en la factura le cobran HBO MAX y PARAMOUNT+, el cliente indica que no los contrató</t>
   </si>
   <si>
     <t>MDM-PQR-35641950</t>
@@ -1049,19 +1066,19 @@
     <t>MDM-PQR-35642746</t>
   </si>
   <si>
-    <t>CLIENTE SE ACERCA MOLESTO POR COBROS DE FACTURACI√ìN BAJO LA L√çNEA  6017313699  LA CUAL REALIZO LA CANCELACI√ìN EL 04 DE NOVIEMBRE DEL 2022 Y LE SIGUEN GENERANDO FACTURAS LA CUAL EL CLIENTE NO EST√Å DE ACUERDO PERO LA VA A PAGAR PARA QUE A SI NO LE GENEREN M√ÅS FACTURAS</t>
+    <t>CLIENTE SE ACERCA MOLESTO POR COBROS DE FACTURACIÓN BAJO LA LÍNEA  6017313699  LA CUAL REALIZO LA CANCELACIÓN EL 04 DE NOVIEMBRE DEL 2022 Y LE SIGUEN GENERANDO FACTURAS LA CUAL EL CLIENTE NO ESTÁ DE ACUERDO PERO LA VA A PAGAR PARA QUE A SI NO LE GENEREN MÁS FACTURAS</t>
   </si>
   <si>
     <t>MDM-PQR-35643306</t>
   </si>
   <si>
-    <t>"L√≠nea:6014102100 Nombre de quien se comunica:JUAN PABLO PACHON GUEVARA ¬† C√©dula:1073607240 N√∫mero de contacto:3222151497 ¬† Email:solomillonarios2304@gmail.com ¬† Direcci√≥n:CL 50 SUR 93D 38 IN 5 AP 204¬† Motivo de la llamada:cliente indica que le brindaron oferta descuento  50% en 1, 3.6.9pro no se esta aplicando en 3 factura."</t>
+    <t>"Línea:6014102100 Nombre de quien se comunica:JUAN PABLO PACHON GUEVARA   Cédula:1073607240 Número de contacto:3222151497   Email:solomillonarios2304@gmail.com   Dirección:CL 50 SUR 93D 38 IN 5 AP 204  Motivo de la llamada:cliente indica que le brindaron oferta descuento  50% en 1, 3.6.9pro no se esta aplicando en 3 factura."</t>
   </si>
   <si>
     <t>MDM-PQR-35645094</t>
   </si>
   <si>
-    <t>SG//LT: 6016471630 cuenta 12053582354//Cliente pide ajuste de la factura,ya que el 01/11/2022 bajo RF-001287301 se le ofreci√≥ DESCUENTO_20 / $59.920,00 / PERMANENTE . SOLUCI√ìN DE ASEGURAMIENTO: se deja caso en seguimiento 12/12/2022, ya que se evidencia caso fue escalado para que se aplicara RF del d√≠a 01/11/2022, se evidencia descuento del 20% parametrizado en revchain desde 01/12/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $14,980 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $14,980/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE REALIZA AJUSTE EL CUAL NO APLICA POR QUE LA RF SE APLICAR√çA  APARIR DEL MES DE DICIEMBRE POR CORTE DEL USUARIO 30</t>
+    <t>SG//LT: 6016471630 cuenta 12053582354//Cliente pide ajuste de la factura,ya que el 01/11/2022 bajo RF-001287301 se le ofreció DESCUENTO_20 / $59.920,00 / PERMANENTE . SOLUCIÓN DE ASEGURAMIENTO: se deja caso en seguimiento 12/12/2022, ya que se evidencia caso fue escalado para que se aplicara RF del día 01/11/2022, se evidencia descuento del 20% parametrizado en revchain desde 01/12/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $14,980 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $14,980/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE REALIZA AJUSTE EL CUAL NO APLICA POR QUE LA RF SE APLICARÍA  APARIR DEL MES DE DICIEMBRE POR CORTE DEL USUARIO 30</t>
   </si>
   <si>
     <t>MDM-PQR-35645327</t>
@@ -1079,25 +1096,25 @@
     <t>MDM-PQR-35654279</t>
   </si>
   <si>
-    <t>CLIENTE SE ACERCA A M√ìDULO SOLICITANDO CANCELACI√ìN DE LOS SERVICIOS ADICIONALES DE LA L√çNEA 6014103976</t>
+    <t>CLIENTE SE ACERCA A MÓDULO SOLICITANDO CANCELACIÓN DE LOS SERVICIOS ADICIONALES DE LA LÍNEA 6014103976</t>
   </si>
   <si>
     <t>MDM-PQR-35658245</t>
   </si>
   <si>
-    <t>L√≠nea: 6017901784  Nombre de quien se comunica: NELSON DAVID SULBARAN TORO   C√©dula: 1127588927   N√∫mero de contacto: 3163801910 Email: nelsonsulb@hotmail.com   Direcci√≥n: CL 52 SUR 81I 39 Motivo de la llamada:. cliente idncia que le diejron que valor 85000 pesos y la factura esta por el valor mas alt.</t>
+    <t>Línea: 6017901784  Nombre de quien se comunica: NELSON DAVID SULBARAN TORO   Cédula: 1127588927   Número de contacto: 3163801910 Email: nelsonsulb@hotmail.com   Dirección: CL 52 SUR 81I 39 Motivo de la llamada:. cliente idncia que le diejron que valor 85000 pesos y la factura esta por el valor mas alt.</t>
   </si>
   <si>
     <t>MDM-PQR-35658888</t>
   </si>
   <si>
-    <t>SG//LT: 6016409718 cuenta 12052242137//Cliente pide ajuste de la factura,ya que el 22/07/2022 bajo RF-001142723 se le ofreci√≥ UNA TARIFA PREFERENCIAL VALOR: $85.000 TIEMPO: PERMANENTE . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia cargos correctos bajo la oferta de valor por $85,000 desde el d√≠a 01/08/2022 y se evidencia el retiro de deco adicional bajo MDM-FIBRA-010555018 del d√≠a 25/11/2022 quedado cumplido desde 29/11/2022 y as√≠ facturando sobre la RF por valor de $85,000. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $15,100 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $15,100/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE REALIZA AJUSTE EL CUAL NO APLICA POR QUE RF NO TENIA INCLUIDO EL CARGO DE DECO ADICIONAL POR VALOR DE $15,100.</t>
+    <t>SG//LT: 6016409718 cuenta 12052242137//Cliente pide ajuste de la factura,ya que el 22/07/2022 bajo RF-001142723 se le ofreció UNA TARIFA PREFERENCIAL VALOR: $85.000 TIEMPO: PERMANENTE . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia cargos correctos bajo la oferta de valor por $85,000 desde el día 01/08/2022 y se evidencia el retiro de deco adicional bajo MDM-FIBRA-010555018 del día 25/11/2022 quedado cumplido desde 29/11/2022 y así facturando sobre la RF por valor de $85,000. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $15,100 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $15,100/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE REALIZA AJUSTE EL CUAL NO APLICA POR QUE RF NO TENIA INCLUIDO EL CARGO DE DECO ADICIONAL POR VALOR DE $15,100.</t>
   </si>
   <si>
     <t>MDM-PQR-35659950</t>
   </si>
   <si>
-    <t>Linea:6017113401  Nombre de quien se comunica:ELENA VILLAMIL VILLAMIL   C√©dula: 1020816651 N√∫mero de contacto: 3114697265   Email:    helen.villamil@hotmail.com   Direcci√≥n:KR 18B 186 38   Motivo de la llamada: cliente se comunica que solicito el dia 04/11 noviembre cancelacion de servicio la misma con fecha de corte 16 y le sigue llegando facturas</t>
+    <t>Linea:6017113401  Nombre de quien se comunica:ELENA VILLAMIL VILLAMIL   Cédula: 1020816651 Número de contacto: 3114697265   Email:    helen.villamil@hotmail.com   Dirección:KR 18B 186 38   Motivo de la llamada: cliente se comunica que solicito el dia 04/11 noviembre cancelacion de servicio la misma con fecha de corte 16 y le sigue llegando facturas</t>
   </si>
   <si>
     <t>MDM-PQR-35660745</t>
@@ -1124,7 +1141,7 @@
     <t>MDM-PQR-35666966</t>
   </si>
   <si>
-    <t xml:space="preserve"> L√≠nea: 6016736514 Cliente YOLI MARIBEL LOPEZ TIMANA C√©dula de Ciudadan√≠a 59837244 cliente se comunica porque indica que no se le aplic√≥ la promoci√≥n del 50%</t>
+    <t xml:space="preserve"> Línea: 6016736514 Cliente YOLI MARIBEL LOPEZ TIMANA Cédula de Ciudadanía 59837244 cliente se comunica porque indica que no se le aplicó la promoción del 50%</t>
   </si>
   <si>
     <t>MDM-PQR-35668442</t>
@@ -1136,19 +1153,19 @@
     <t>MDM-PQR-35672995</t>
   </si>
   <si>
-    <t>SG//LT: 6012520138 cuenta 12051831005//Cliente pide ajuste de la factura,ya que el 29/11/2022 bajo RF-001322378 se le ofreci√≥ OFERTA DE RETENCI√ìN B√ÅSICA / $90.000/ PERMANENTE . SOLUCI√ìN DE ASEGURAMIENTO: se deja caso en seguimiento 12/12/2022, ya que se evidencia cargos correctos bajo la oferta de valor por $90,000 en el cual esta incluido el cobro del servicio de SVA Access Point Wifi Plus, se evidencia un cargo adicional de servicio de ARRIENDO de DECO POR VALOR DE $20,000 IVA incluido, se evidencia en revchain cargos correctos aprovisionados desde 01/12/2022 por tal raz√≥n se deja en seguimiento. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $50,000 incluido IVA. VALOR REAL AJUSTE: $50,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.// AJUSTE BAJO LEY DE FAVORABILIDAD, SE PENALIZA ASESOR  NO REALIZA GESTI√ìN PARA DAR CIERRE DE CICLO.</t>
+    <t>SG//LT: 6012520138 cuenta 12051831005//Cliente pide ajuste de la factura,ya que el 29/11/2022 bajo RF-001322378 se le ofreció OFERTA DE RETENCIÓN BÁSICA / $90.000/ PERMANENTE . SOLUCIÓN DE ASEGURAMIENTO: se deja caso en seguimiento 12/12/2022, ya que se evidencia cargos correctos bajo la oferta de valor por $90,000 en el cual esta incluido el cobro del servicio de SVA Access Point Wifi Plus, se evidencia un cargo adicional de servicio de ARRIENDO de DECO POR VALOR DE $20,000 IVA incluido, se evidencia en revchain cargos correctos aprovisionados desde 01/12/2022 por tal razón se deja en seguimiento. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $50,000 incluido IVA. VALOR REAL AJUSTE: $50,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.// AJUSTE BAJO LEY DE FAVORABILIDAD, SE PENALIZA ASESOR  NO REALIZA GESTIÓN PARA DAR CIERRE DE CICLO.</t>
   </si>
   <si>
     <t>MDM-PQR-35673265</t>
   </si>
   <si>
-    <t>SG//LT: 6012572596 cuenta 12051785985//Cliente pide ajuste de la factura,ya que el 24/08/2022 bajo RF-001190992 se le ofreci√≥ Cliente se le otorgar√° una tarifa preferencial ( $85.000 ) . SOLUCI√ìN DE ASEGURAMIENTO: se deja caso en seguimiento 12/12/2022, ya que se evidencia cargos correctos bajo la oferta de valor por $90,000 en el cual esta incluido el cobro del servicio de SVA Access Point Wifi Plus, se evidencia un cargo adicional de servicio de  GRABADOR PVR 1 $10.300 IVA incluido, PAUSA EN VIVO TSTV $15.400 IVA incluido y  ARRIENDO 2 DECO $20.000 IVA incluido, por eso el aumento en la facturaci√≥n se deja en seguimiento para tener contacto con titular. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $50,700 incluido IVA. VALOR REAL AJUSTE: $50,700 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.// AJUSTE BAJO LEY DE FAVORABILIDAD, SE PENALIZA ASESOR  NO REALIZA GESTI√ìN PARA DAR CIERRE DE CICLO.</t>
+    <t>SG//LT: 6012572596 cuenta 12051785985//Cliente pide ajuste de la factura,ya que el 24/08/2022 bajo RF-001190992 se le ofreció Cliente se le otorgará una tarifa preferencial ( $85.000 ) . SOLUCIÓN DE ASEGURAMIENTO: se deja caso en seguimiento 12/12/2022, ya que se evidencia cargos correctos bajo la oferta de valor por $90,000 en el cual esta incluido el cobro del servicio de SVA Access Point Wifi Plus, se evidencia un cargo adicional de servicio de  GRABADOR PVR 1 $10.300 IVA incluido, PAUSA EN VIVO TSTV $15.400 IVA incluido y  ARRIENDO 2 DECO $20.000 IVA incluido, por eso el aumento en la facturación se deja en seguimiento para tener contacto con titular. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $50,700 incluido IVA. VALOR REAL AJUSTE: $50,700 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.// AJUSTE BAJO LEY DE FAVORABILIDAD, SE PENALIZA ASESOR  NO REALIZA GESTIÓN PARA DAR CIERRE DE CICLO.</t>
   </si>
   <si>
     <t>MDM-PQR-35673766</t>
   </si>
   <si>
-    <t>SG//LT: 6016333173 cuenta 2800835//Cliente pide ajuste de la factura,ya que el 22/08/2022 bajo MDM-FIBRA-009600130 se realizo CAMBIO_PLAN (PRCH) . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia cargos en revchain correctos y ultima facturaci√≥n del mes de diciembre se evidencia correcto bajo el valor de $102,900 incluye oferta de CAMBIO_PLAN (PRCH) por valor de $94,900 + servicio de AP Mesh popr valor de $8,000 IVA incluido. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $32,185 incluido IVA. VALOR REAL AJUSTE: $33,205 incluido IVA. DIFERENCIA $-1,020/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016333173 cuenta 2800835//Cliente pide ajuste de la factura,ya que el 22/08/2022 bajo MDM-FIBRA-009600130 se realizo CAMBIO_PLAN (PRCH) . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia cargos en revchain correctos y ultima facturación del mes de diciembre se evidencia correcto bajo el valor de $102,900 incluye oferta de CAMBIO_PLAN (PRCH) por valor de $94,900 + servicio de AP Mesh popr valor de $8,000 IVA incluido. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $32,185 incluido IVA. VALOR REAL AJUSTE: $33,205 incluido IVA. DIFERENCIA $-1,020/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35678136</t>
@@ -1175,7 +1192,7 @@
     <t>MDM-PQR-35684889</t>
   </si>
   <si>
-    <t>NOMBRE: RICARDO MONTENEGRO     CEDULA:80172288   LINEA:3118789502       CORREO:  kamont89@hotmail.com     DIRECCION:KR 59A 135 60 IN 4 AP 203 MOTIVO: facturaci√≥n</t>
+    <t>NOMBRE: RICARDO MONTENEGRO     CEDULA:80172288   LINEA:3118789502       CORREO:  kamont89@hotmail.com     DIRECCION:KR 59A 135 60 IN 4 AP 203 MOTIVO: facturación</t>
   </si>
   <si>
     <t>MDM-PQR-35685317</t>
@@ -1187,7 +1204,7 @@
     <t>MDM-PQR-35688158</t>
   </si>
   <si>
-    <t>Cuenta 12054141581  L√≠nea:6012066009  Nombre de quien se comunica: C√©dula:20321639 N√∫mero de contacto:JACINTA ALMECIGA DE PULIDO  Celular  Email:almecigarrodriguez1108@hotmail.com   Direcci√≥n:KR 9 ESTE 24A 38 SUR  Motivo de la llamada: se comunica al usuario le realizaron el cambio de tecnolog√≠a y se le incremento la factura</t>
+    <t>Cuenta 12054141581  Línea:6012066009  Nombre de quien se comunica: Cédula:20321639 Número de contacto:JACINTA ALMECIGA DE PULIDO  Celular  Email:almecigarrodriguez1108@hotmail.com   Dirección:KR 9 ESTE 24A 38 SUR  Motivo de la llamada: se comunica al usuario le realizaron el cambio de tecnología y se le incremento la factura</t>
   </si>
   <si>
     <t>MDM-PQR-35690716</t>
@@ -1199,7 +1216,7 @@
     <t>MDM-PQR-35691253</t>
   </si>
   <si>
-    <t>FECHA Y HORA DE GESTI√ìN: 14/12/2022 5:22:22 p. m. L√çNEA: 6012981835 C√âDULA TITULAR: 79693661 NOMBRE TITULAR: ARTURO VARGAS N√öMERO DE CONTACTO: 3173435060 EMAIL: gerencia@eurocontinetes.com DIRECCI√ìN: CL 25B 69C 80 PI 2 LC 203 MOTIVO DE LLAMADA: Cliente se comunica porque se le incremento el valor de la factura</t>
+    <t>FECHA Y HORA DE GESTIÓN: 14/12/2022 5:22:22 p. m. LÍNEA: 6012981835 CÉDULA TITULAR: 79693661 NOMBRE TITULAR: ARTURO VARGAS NÚMERO DE CONTACTO: 3173435060 EMAIL: gerencia@eurocontinetes.com DIRECCIÓN: CL 25B 69C 80 PI 2 LC 203 MOTIVO DE LLAMADA: Cliente se comunica porque se le incremento el valor de la factura</t>
   </si>
   <si>
     <t>MDM-PQR-35699066</t>
@@ -1217,7 +1234,7 @@
     <t>MDM-PQR-35705726</t>
   </si>
   <si>
-    <t>FECHA Y HORA DE GESTI√ìN: 15/12/2022 1:26:28 p. m. L√çNEA: 6016561040 C√âDULA TITULAR: 11447464 NOMBRE TITULAR: EDWIN DANIEL MURCIA BERNAL N√öMERO DE CONTACTO: 3102041245 EMAIL: arqdaniel82@gmail.com DIRECCI√ìN: CL 159 54 70 TO 2 AP 501 MOTIVO DE LLAMADA: Incremento de factura</t>
+    <t>FECHA Y HORA DE GESTIÓN: 15/12/2022 1:26:28 p. m. LÍNEA: 6016561040 CÉDULA TITULAR: 11447464 NOMBRE TITULAR: EDWIN DANIEL MURCIA BERNAL NÚMERO DE CONTACTO: 3102041245 EMAIL: arqdaniel82@gmail.com DIRECCIÓN: CL 159 54 70 TO 2 AP 501 MOTIVO DE LLAMADA: Incremento de factura</t>
   </si>
   <si>
     <t>MDM-PQR-35706677</t>
@@ -1229,13 +1246,13 @@
     <t>MDM-PQR-35709879</t>
   </si>
   <si>
-    <t>L√≠nea: 6012457886  Cliente CARLOS EDUARDO PRIETO GONZALEZ C√©dula de Ciudadan√≠a 19256559 cc se comunica  para cancelar el servicio porque indica que se siente enga√±ado con los descuentos en el plan</t>
+    <t>Línea: 6012457886  Cliente CARLOS EDUARDO PRIETO GONZALEZ Cédula de Ciudadanía 19256559 cc se comunica  para cancelar el servicio porque indica que se siente engañado con los descuentos en el plan</t>
   </si>
   <si>
     <t>MDM-PQR-35712214</t>
   </si>
   <si>
-    <t>Nombre: FREDY LEONAR RIVERA VILLABON   C√©dula:  96193724 Celular:3102221723   Correo:balvsas@gmail.com   Direcci√≥n: KR 13A 38 35 LC Petici√≥n: Indica que le generaron un descuento y se comunico pero le indicaron que no aplica ning√∫n ajuste</t>
+    <t>Nombre: FREDY LEONAR RIVERA VILLABON   Cédula:  96193724 Celular:3102221723   Correo:balvsas@gmail.com   Dirección: KR 13A 38 35 LC Petición: Indica que le generaron un descuento y se comunico pero le indicaron que no aplica ningún ajuste</t>
   </si>
   <si>
     <t>MDM-PQR-35712320</t>
@@ -1271,7 +1288,7 @@
     <t>MDM-PQR-35731921</t>
   </si>
   <si>
-    <t>FECHA Y HORA DE GESTI√ìN: 16/12/2022 6:40:33 p. m. L√çNEA: 6013573779 C√âDULA TITULAR: 1020734926 NOMBRE TITULAR: XIMENA ALEXANDRA VIVAS HINCAPIE   N√öMERO DE CONTACTO: 3015181449 EMAIL: alexxandravh@outlook.com DIRECCI√ìN: KR 51 103B 24 AP 501 MOTIVO DE LLAMADA: Cliente con incremento de factura</t>
+    <t>FECHA Y HORA DE GESTIÓN: 16/12/2022 6:40:33 p. m. LÍNEA: 6013573779 CÉDULA TITULAR: 1020734926 NOMBRE TITULAR: XIMENA ALEXANDRA VIVAS HINCAPIE   NÚMERO DE CONTACTO: 3015181449 EMAIL: alexxandravh@outlook.com DIRECCIÓN: KR 51 103B 24 AP 501 MOTIVO DE LLAMADA: Cliente con incremento de factura</t>
   </si>
   <si>
     <t>MDM-PQR-35740484</t>
@@ -1286,7 +1303,7 @@
     <t>MDM-PQR-35744213</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: INES RAMOS DE SANCHEZ C√©dula: 41651383  Celular:3024154394 Motivo de la llamada: se comunica por que su factura se encuentra con mas valor</t>
+    <t>Nombre de quien se comunica: INES RAMOS DE SANCHEZ Cédula: 41651383  Celular:3024154394 Motivo de la llamada: se comunica por que su factura se encuentra con mas valor</t>
   </si>
   <si>
     <t>MDM-PQR-35751756</t>
@@ -1298,7 +1315,7 @@
     <t>MDM-PQR-35755883</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: DIEGO ARMANDO LIMA ARIZA   C√©dula:  1010190014 N√∫mero de contacto:  3163074062   Email: limadiego4s@gmail.com   Direcci√≥n: CL 23 SUR 69 25 BQ 4 AP 202 Motivo de la llamada: clienetb tiene un beenficio de pagar menor valor pero le generaron factura alta.</t>
+    <t>Nombre de quien se comunica: DIEGO ARMANDO LIMA ARIZA   Cédula:  1010190014 Número de contacto:  3163074062   Email: limadiego4s@gmail.com   Dirección: CL 23 SUR 69 25 BQ 4 AP 202 Motivo de la llamada: clienetb tiene un beenficio de pagar menor valor pero le generaron factura alta.</t>
   </si>
   <si>
     <t>MDM-PQR-35769708</t>
@@ -1316,13 +1333,13 @@
     <t>MDM-PQR-35780602</t>
   </si>
   <si>
-    <t>Linea:6016315628  Nombre de quien se comunica:OSCAR IVAN SEGURA MODESTO   C√©dula: 14399279 N√∫mero de contacto: 3217010225   Email:    oscarseguramvz@gmail.com   Direcci√≥n:CL 33 6 37 AP 907  Motivo de la llamada: cliente se comunica que  solicito cancelacion de servicio y aparece activo  4347220004199403</t>
+    <t>Linea:6016315628  Nombre de quien se comunica:OSCAR IVAN SEGURA MODESTO   Cédula: 14399279 Número de contacto: 3217010225   Email:    oscarseguramvz@gmail.com   Dirección:CL 33 6 37 AP 907  Motivo de la llamada: cliente se comunica que  solicito cancelacion de servicio y aparece activo  4347220004199403</t>
   </si>
   <si>
     <t>MDM-PQR-35780613</t>
   </si>
   <si>
-    <t>Nombre: RIN COMUNICACIONES   C√©dula: 9506596 Correo: gonzorm29@hotmail.com   Celular: 3165738844  Direcci√≥n: CL 163 8B 21 Motivo de llamada: Cliente se comunica porque su factura llega por el valor de 140.000 y le hicieron un descuento en el mes de JUNIO d√≥nde pagar√≠a 89.900.</t>
+    <t>Nombre: RIN COMUNICACIONES   Cédula: 9506596 Correo: gonzorm29@hotmail.com   Celular: 3165738844  Dirección: CL 163 8B 21 Motivo de llamada: Cliente se comunica porque su factura llega por el valor de 140.000 y le hicieron un descuento en el mes de JUNIO dónde pagaría 89.900.</t>
   </si>
   <si>
     <t>MDM-PQR-35782108</t>
@@ -1346,19 +1363,19 @@
     <t>MDM-PQR-35784898</t>
   </si>
   <si>
-    <t>Cliente JOSE RAMON MACIA PATERNINA C√©dula de Ciudadan√≠a 72003087 L√≠nea: 6017925477 Cuenta de Facturaci√≥n: 12054126820 motivo  consulta por retencion no aplicada y ajuste de factura</t>
+    <t>Cliente JOSE RAMON MACIA PATERNINA Cédula de Ciudadanía 72003087 Línea: 6017925477 Cuenta de Facturación: 12054126820 motivo  consulta por retencion no aplicada y ajuste de factura</t>
   </si>
   <si>
     <t>MDM-PQR-35786643</t>
   </si>
   <si>
-    <t>Linea:6012562828  Nombre de quien se comunica:MARIO ENRIQUE COURROA HERNANDEZ   C√©dula: 139913 N√∫mero de contacto: 3103135811   Email:    mcoourroa@yahoo.com   Direcci√≥n:CL 106 45A 23  Motivo de la llamada: cliente se comunica que solicto cancelacion de servicio y se le sigue generando factura</t>
+    <t>Linea:6012562828  Nombre de quien se comunica:MARIO ENRIQUE COURROA HERNANDEZ   Cédula: 139913 Número de contacto: 3103135811   Email:    mcoourroa@yahoo.com   Dirección:CL 106 45A 23  Motivo de la llamada: cliente se comunica que solicto cancelacion de servicio y se le sigue generando factura</t>
   </si>
   <si>
     <t>MDM-PQR-35790960</t>
   </si>
   <si>
-    <t>"LEY 1755//BACK1//GRABACI√ìN DE LLAMADAS L√≠nea: 6014332999 Nombre de quien se comunica: ROSALBA BUITRAGO   C√©dula: 41507892 Fecha de expedici√≥n:  N√∫mero de contacto: 3204014305 Email: lilianagonzalez_0912@hotmail.com Direcci√≥n:  KR 95K 91A 76   Motivo de la llamada:  Cliente reporta que llega facturaci√≥n por un valor diferente al inicialmente contratado  Prevenciones del cliente: 1. Cliente solicita se le de cumplimiento a lo ofrecido por parte del asesor  2. Cliente solicita la escucha de la  llamada donde se hizo efectivo la contrataci√≥n del servicio ya que se ofreci√≥ tarifa fija por un valor 33,128 por un a√±o</t>
+    <t>"LEY 1755//BACK1//GRABACIÓN DE LLAMADAS Línea: 6014332999 Nombre de quien se comunica: ROSALBA BUITRAGO   Cédula: 41507892 Fecha de expedición:  Número de contacto: 3204014305 Email: lilianagonzalez_0912@hotmail.com Dirección:  KR 95K 91A 76   Motivo de la llamada:  Cliente reporta que llega facturación por un valor diferente al inicialmente contratado  Prevenciones del cliente: 1. Cliente solicita se le de cumplimiento a lo ofrecido por parte del asesor  2. Cliente solicita la escucha de la  llamada donde se hizo efectivo la contratación del servicio ya que se ofreció tarifa fija por un valor 33,128 por un año</t>
   </si>
   <si>
     <t>MDM-PQR-35791756</t>
@@ -1376,7 +1393,7 @@
     <t>MDM-PQR-35795491</t>
   </si>
   <si>
-    <t>NOMBRE: DIEGO ALEJANDRO FETECUA GARZON   CC:   1070943666 CELULAR:3107649149   EMAIL:   diegoalejofe@gmail.com   DIRECCION:   CL 43 66A 30 IN 2 AP 304 MOTIVO: se le  incremento factura y tiene una promoci√≥n</t>
+    <t>NOMBRE: DIEGO ALEJANDRO FETECUA GARZON   CC:   1070943666 CELULAR:3107649149   EMAIL:   diegoalejofe@gmail.com   DIRECCION:   CL 43 66A 30 IN 2 AP 304 MOTIVO: se le  incremento factura y tiene una promoción</t>
   </si>
   <si>
     <t>MDM-PQR-35796285</t>
@@ -1394,25 +1411,25 @@
     <t>MDM-PQR-35810515</t>
   </si>
   <si>
-    <t>L√≠nea:6017324388 Nombre de quien se comunica: KARY ERAZO  Cedula: 52125402 Numero de contacto:3154989731 Email:karyerazo1975@gmail.com  Direcci√≥n: CL 52 SUR 92A 34 IN 10 AP 503 Motivo de llamada: El cliente solicito la cancelaci√≥n de un servicio adicional de win sport +  , pero aun le est√°n cobrando un valor muy alto en la factura .</t>
+    <t>Línea:6017324388 Nombre de quien se comunica: KARY ERAZO  Cedula: 52125402 Numero de contacto:3154989731 Email:karyerazo1975@gmail.com  Dirección: CL 52 SUR 92A 34 IN 10 AP 503 Motivo de llamada: El cliente solicito la cancelación de un servicio adicional de win sport +  , pero aun le están cobrando un valor muy alto en la factura .</t>
   </si>
   <si>
     <t>MDM-PQR-35811080</t>
   </si>
   <si>
-    <t>FECHA Y HORA DE GESTI√ìN: 21/12/2022 12:21:19 p. m. L√çNEA: 6013408455 C√âDULA TITULAR: 79334802 NOMBRE TITULAR: Carmenza Morales N√öMERO DE CONTACTO: 3115332505 EMAIL: rmingenieria@yahoo.com DIRECCI√ìN: KR 96A 75 06 IN 10 MOTIVO DE LLAMADA: Incrementos de facturas</t>
+    <t>FECHA Y HORA DE GESTIÓN: 21/12/2022 12:21:19 p. m. LÍNEA: 6013408455 CÉDULA TITULAR: 79334802 NOMBRE TITULAR: Carmenza Morales NÚMERO DE CONTACTO: 3115332505 EMAIL: rmingenieria@yahoo.com DIRECCIÓN: KR 96A 75 06 IN 10 MOTIVO DE LLAMADA: Incrementos de facturas</t>
   </si>
   <si>
     <t>MDM-PQR-35812415</t>
   </si>
   <si>
-    <t>NOMBRE: TANIA TRIANA CC: 1026299306 CORREO: TANIA_CAMILATC@HOTMAIL.COM  CEL: 3124349719   DIRECCION: CL 42 27 33 AP 203 TEL: 6017157617 MOTIVO: EN EL MES DE SEPTIEMBRE DEL PRESENTE A√ëO LA FACTURA LE LLEGO CON UN VALOR ANORMAL Y DESEA SABR PORQUE SE INCREMENTO</t>
+    <t>NOMBRE: TANIA TRIANA CC: 1026299306 CORREO: TANIA_CAMILATC@HOTMAIL.COM  CEL: 3124349719   DIRECCION: CL 42 27 33 AP 203 TEL: 6017157617 MOTIVO: EN EL MES DE SEPTIEMBRE DEL PRESENTE AÑO LA FACTURA LE LLEGO CON UN VALOR ANORMAL Y DESEA SABR PORQUE SE INCREMENTO</t>
   </si>
   <si>
     <t>MDM-PQR-35814631</t>
   </si>
   <si>
-    <t>L√≠nea: 6016155343 Cliente LAURA NI√ëO ZARTA C√©dula de Ciudadan√≠a 1016102914 solicita un acuerdo de pago  adicional solicita cancelar el servicio porque ya no habita en la ciudad la cliente en este momento se encuentra suspendida por pago pero solicita hacer el tramite</t>
+    <t>Línea: 6016155343 Cliente LAURA NIÑO ZARTA Cédula de Ciudadanía 1016102914 solicita un acuerdo de pago  adicional solicita cancelar el servicio porque ya no habita en la ciudad la cliente en este momento se encuentra suspendida por pago pero solicita hacer el tramite</t>
   </si>
   <si>
     <t>MDM-PQR-35819114</t>
@@ -1427,31 +1444,31 @@
     <t>MDM-PQR-35822991</t>
   </si>
   <si>
-    <t>SG//LT: 6013839829 cuenta 12053571361//Cliente pide ajuste de la factura,ya que el 26/10/2022 bajo RF-001279262 se le ofreci√≥ DESCUENTO_20% PERMANENTE . SOLUCI√ìN DE ASEGURAMIENTO: se deja caso en seguimiento 21/12/2022, ya que se evidencia oferta de DUO 300M HOG FTTH V1 empaquetada con SVA de HBO MAX por cual aumento el valor de la factura a pesar de que tiene descuento del 20%, se realiza CAMBIO_PLAN (PRCH)¬† bajo MDM-FIBRA-010759022 el d√≠a 21/12/2022 a espera de que se complete la orden y as√≠ nuevamente dejar el plan inicial que tenia el usuario, este TRAMITE SE REALIZAR PARA DAR CIERRE DE CICLO y garantizar lo ofrecido al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $15,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $15,000/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE REALIZA AJUSTE EL CUAL NO APLICA POR QUE TIENE SVA HBO MAX EMPAQUETADO Y ASESOR NO REALIZA GESTI√ìN PARA DAR CIERRE DE CICLO.</t>
+    <t>SG//LT: 6013839829 cuenta 12053571361//Cliente pide ajuste de la factura,ya que el 26/10/2022 bajo RF-001279262 se le ofreció DESCUENTO_20% PERMANENTE . SOLUCIÓN DE ASEGURAMIENTO: se deja caso en seguimiento 21/12/2022, ya que se evidencia oferta de DUO 300M HOG FTTH V1 empaquetada con SVA de HBO MAX por cual aumento el valor de la factura a pesar de que tiene descuento del 20%, se realiza CAMBIO_PLAN (PRCH)  bajo MDM-FIBRA-010759022 el día 21/12/2022 a espera de que se complete la orden y así nuevamente dejar el plan inicial que tenia el usuario, este TRAMITE SE REALIZAR PARA DAR CIERRE DE CICLO y garantizar lo ofrecido al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $15,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $15,000/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE REALIZA AJUSTE EL CUAL NO APLICA POR QUE TIENE SVA HBO MAX EMPAQUETADO Y ASESOR NO REALIZA GESTIÓN PARA DAR CIERRE DE CICLO.</t>
   </si>
   <si>
     <t>MDM-PQR-35823208</t>
   </si>
   <si>
-    <t>L√≠nea: 6012177529  Nombre: RODRIGO ALBERTO BRITTO AGUDELO  C√©dula: 79686964 Cel: 3003338607  Correo: rabritto@gmail.com  Direcci√≥n: CL 163B 50 80 IN 2 AP 408  Motivo De Llamada: Genero la cancelaci√≥n del servicio y le aparece que tiene saldo pendiente de pago y genero la entrega de los equipos</t>
+    <t>Línea: 6012177529  Nombre: RODRIGO ALBERTO BRITTO AGUDELO  Cédula: 79686964 Cel: 3003338607  Correo: rabritto@gmail.com  Dirección: CL 163B 50 80 IN 2 AP 408  Motivo De Llamada: Genero la cancelación del servicio y le aparece que tiene saldo pendiente de pago y genero la entrega de los equipos</t>
   </si>
   <si>
     <t>MDM-PQR-35823243</t>
   </si>
   <si>
-    <t>SG//LT: 6017644505 cuenta 12054133896 // cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de deco adicional si ya bajo 4347220004263367 del d√≠a 28/09/2022 solicito el retiro. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el retiro de STB Adicional IPTV Hog desde el d√≠a 17/11/2022 bajo orden MDM-FIBRA-010374340 de RETIRO_SVA (RSER) del d√≠a 03/11/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $10,000 incluido IVA. VALOR REAL AJUSTE: $10,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017644505 cuenta 12054133896 // cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de deco adicional si ya bajo 4347220004263367 del día 28/09/2022 solicito el retiro. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el retiro de STB Adicional IPTV Hog desde el día 17/11/2022 bajo orden MDM-FIBRA-010374340 de RETIRO_SVA (RSER) del día 03/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $10,000 incluido IVA. VALOR REAL AJUSTE: $10,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35823353</t>
   </si>
   <si>
-    <t>SG//LT: 6013464051 cuenta 12053912244//Cliente pide ajuste de la factura, ya que el 04/10/2022 bajo MDM-FIBRA-010070474 solicito el retiro de los SVA HBOMAX y PARAMOUNT. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el retiro de SVAs de HBOMAX y PARAMOUNT desde el d√≠a 16/11/2022 bajo MDM-FIBRA-010394497 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013464051 cuenta 12053912244//Cliente pide ajuste de la factura, ya que el 04/10/2022 bajo MDM-FIBRA-010070474 solicito el retiro de los SVA HBOMAX y PARAMOUNT. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el retiro de SVAs de HBOMAX y PARAMOUNT desde el día 16/11/2022 bajo MDM-FIBRA-010394497 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35823417</t>
   </si>
   <si>
-    <t>SG//LT: 6014107326 cuenta 12054375519//Cliente pide ajuste de la factura, ya que el 21/06/2022 solicito el retiro del servicio de DirecTVGO GO. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el retiro de DirecTVGO GO desde el d√≠a 16/11/2022 bajo MDM-FIBRA-010401049 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $32,170 incluido IVA. VALOR REAL AJUSTE: $32,170 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6014107326 cuenta 12054375519//Cliente pide ajuste de la factura, ya que el 21/06/2022 solicito el retiro del servicio de DirecTVGO GO. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el retiro de DirecTVGO GO desde el día 16/11/2022 bajo MDM-FIBRA-010401049 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $32,170 incluido IVA. VALOR REAL AJUSTE: $32,170 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35832300</t>
@@ -1469,13 +1486,13 @@
     <t>MDM-PQR-35837787</t>
   </si>
   <si>
-    <t>NombreANGIE DANIELA MALDONADO JULA  Celular 3209882203  UENHogares Y Mipymes   Tipo DocumentoCC  DepartamentoBOGOTA  Segmento UENHogares   N√∫mero Documento1018496737  CiudadBOGOTA D.C.  SegmentoHogares   Emaildanielamaldonadojula@hotmail.com  Direcci√≥nCL 75A 100B 35 AP 501 CategoriaPLATINO   cliente se comunica preguntando por la factura ya que ella ya habia solcitando la cancelacion</t>
+    <t>NombreANGIE DANIELA MALDONADO JULA  Celular 3209882203  UENHogares Y Mipymes   Tipo DocumentoCC  DepartamentoBOGOTA  Segmento UENHogares   Número Documento1018496737  CiudadBOGOTA D.C.  SegmentoHogares   Emaildanielamaldonadojula@hotmail.com  DirecciónCL 75A 100B 35 AP 501 CategoriaPLATINO   cliente se comunica preguntando por la factura ya que ella ya habia solcitando la cancelacion</t>
   </si>
   <si>
     <t>MDM-PQR-35838086</t>
   </si>
   <si>
-    <t>FECHA Y HORA DE GESTI√ìN: 22/12/2022 4:31:45 p. m. L√çNEA: SR-28890515 C√âDULA TITULAR: 36454873 NOMBRE TITULAR: OLARIS PATRICIA BARROS GAMARRA   N√öMERO DE CONTACTO: 3108654168 EMAIL: patricia_barrosgamarra@hotmail.com DIRECCI√ìN: CL 143 118 15 IN 4 AP 304 MOTIVO DE LLAMADA: Incremento de factura</t>
+    <t>FECHA Y HORA DE GESTIÓN: 22/12/2022 4:31:45 p. m. LÍNEA: SR-28890515 CÉDULA TITULAR: 36454873 NOMBRE TITULAR: OLARIS PATRICIA BARROS GAMARRA   NÚMERO DE CONTACTO: 3108654168 EMAIL: patricia_barrosgamarra@hotmail.com DIRECCIÓN: CL 143 118 15 IN 4 AP 304 MOTIVO DE LLAMADA: Incremento de factura</t>
   </si>
   <si>
     <t>MDM-PQR-35839460</t>
@@ -1502,7 +1519,7 @@
     <t>MDM-PQR-35843597</t>
   </si>
   <si>
-    <t>En el mes de octubre no generaste el pago dentro de la fecha que era el 25 de octubre, se te gener√≥ la suspensi√≥n del servicio por no pago,  genero el pago el 13 de noviembre, el servicio se te reconect√≥ el 14 de noviembre, como la factura del 14 de noviembre al 30 de noviembre no  alcanzaba a llegar para finales de noviembre, en este factura de diciembre se te est√° generando el cobro pendiente del 14 de noviembre al 30 de noviembre que estaba pendiente, el cargo de diciembre y los servicios adicionales de Hbo y Paramount.</t>
+    <t>En el mes de octubre no generaste el pago dentro de la fecha que era el 25 de octubre, se te generó la suspensión del servicio por no pago,  genero el pago el 13 de noviembre, el servicio se te reconectó el 14 de noviembre, como la factura del 14 de noviembre al 30 de noviembre no  alcanzaba a llegar para finales de noviembre, en este factura de diciembre se te está generando el cobro pendiente del 14 de noviembre al 30 de noviembre que estaba pendiente, el cargo de diciembre y los servicios adicionales de Hbo y Paramount.</t>
   </si>
   <si>
     <t>MDM-PQR-35843983</t>
@@ -1514,13 +1531,13 @@
     <t>MDM-PQR-35845155</t>
   </si>
   <si>
-    <t>Nombre: MARIA RUBY MURILLO PE√ëA   C√©dula: 41738730 Correo: marubycos@gmail.com Celular: 3134634241 Direcci√≥n: KR 21B 32A 30 SUR Motivo de llamada: Cliente se comunica porque la factura le lleg√≥ por 100.000 el d√≠a que le hicieron el descuento le dijeron que la factura quedar√≠a en 92.700 esto fue el d√≠a 22/11/2022 bajo el CUN 4347220004722355</t>
+    <t>Nombre: MARIA RUBY MURILLO PEÑA   Cédula: 41738730 Correo: marubycos@gmail.com Celular: 3134634241 Dirección: KR 21B 32A 30 SUR Motivo de llamada: Cliente se comunica porque la factura le llegó por 100.000 el día que le hicieron el descuento le dijeron que la factura quedaría en 92.700 esto fue el día 22/11/2022 bajo el CUN 4347220004722355</t>
   </si>
   <si>
     <t>MDM-PQR-35847808</t>
   </si>
   <si>
-    <t>L√≠nea: 6012932665 Nombre:  LUISA FERNANDO GOMEZ C√©dula: 1000349012 Celular: 3154103744 Direcci√≥n:  DG 2A SUR 78Q 30 AP 201    Correo:   LUISA15240@GMAIL.COM Motivo de la llamada: Cliente idnica que se comunic√≥ para cancelar el servicio y le ofrecieron un descuento pero esta factura le est√° legando por el valor anterior</t>
+    <t>Línea: 6012932665 Nombre:  LUISA FERNANDO GOMEZ Cédula: 1000349012 Celular: 3154103744 Dirección:  DG 2A SUR 78Q 30 AP 201    Correo:   LUISA15240@GMAIL.COM Motivo de la llamada: Cliente idnica que se comunicó para cancelar el servicio y le ofrecieron un descuento pero esta factura le está legando por el valor anterior</t>
   </si>
   <si>
     <t>MDM-PQR-35850078</t>
@@ -1538,25 +1555,25 @@
     <t>MDM-PQR-35853769</t>
   </si>
   <si>
-    <t>L√≠nea: 6014299623 Nombre: ADRIANA C√©dula: 80215243 E-mail: javierciza84@hotmail.com   Celular: 3112429982   Direcci√≥n: DG 3 83 02 TO 3 AP 707 Motivo: Cliente solicita confirmar porque le vienen cobrando otra vez HBOMAX y WINSPORT si ya los hab√≠a cancelado</t>
+    <t>Línea: 6014299623 Nombre: ADRIANA Cédula: 80215243 E-mail: javierciza84@hotmail.com   Celular: 3112429982   Dirección: DG 3 83 02 TO 3 AP 707 Motivo: Cliente solicita confirmar porque le vienen cobrando otra vez HBOMAX y WINSPORT si ya los había cancelado</t>
   </si>
   <si>
     <t>MDM-PQR-35853879</t>
   </si>
   <si>
-    <t>Cliente ALBA AZUCENA SUAREZ NI√ëO C√©dula de Ciudadan√≠a 52027344 CC ME COMUNIQUE LE D√çA 14 DENOVIEMBRE A SOLICITAR CANCELACI√ìN  DE MI SERVICIO LUEGO ME COMUNIQUE EL D√çA 3/12/2022 DONDE TENGO GRABADA LA LLAMADA CON LA ASESORA QUE ME INDIC√ì QUE EL SERVICIO QUEDABA CANCELADO A FECHA DE CORTE Y AHORA ME LLEGA UNA FACTURA LA CUAL NO ESTOY DISPUESTA A PAGAR.</t>
+    <t>Cliente ALBA AZUCENA SUAREZ NIÑO Cédula de Ciudadanía 52027344 CC ME COMUNIQUE LE DÍA 14 DENOVIEMBRE A SOLICITAR CANCELACIÓN  DE MI SERVICIO LUEGO ME COMUNIQUE EL DÍA 3/12/2022 DONDE TENGO GRABADA LA LLAMADA CON LA ASESORA QUE ME INDICÓ QUE EL SERVICIO QUEDABA CANCELADO A FECHA DE CORTE Y AHORA ME LLEGA UNA FACTURA LA CUAL NO ESTOY DISPUESTA A PAGAR.</t>
   </si>
   <si>
     <t>MDM-PQR-35854622</t>
   </si>
   <si>
-    <t>LINEA:6016409622 //Yasmin G√≥mez 39778978 CC 6016409622 3103332187 jgp2018@gmail.com  CLIENTE SE COMUNICA PARA SOLICITAR UN AJUSTE EN LA FACTURA DEBIDO A QUE EN EN EL MES DE AGOSTO LE BRINDARON UN DESCUENTO PARA NO CANCELAR</t>
+    <t>LINEA:6016409622 //Yasmin Gómez 39778978 CC 6016409622 3103332187 jgp2018@gmail.com  CLIENTE SE COMUNICA PARA SOLICITAR UN AJUSTE EN LA FACTURA DEBIDO A QUE EN EN EL MES DE AGOSTO LE BRINDARON UN DESCUENTO PARA NO CANCELAR</t>
   </si>
   <si>
     <t>MDM-PQR-35855553</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: DANIELA  C√©dula:1000986955 N√∫mero:3203713413 Email:beltranjesica2@gmail.com   Direcci√≥n:KR 79A 44 28 SUR Motivo de la llamada: MAS DE 4 MESES INTENTANDO QUE LE ARREGLEN LA FACTURA  LA FACTURA LE DEBE LLEGAR POR 50000</t>
+    <t>Nombre de quien se comunica: DANIELA  Cédula:1000986955 Número:3203713413 Email:beltranjesica2@gmail.com   Dirección:KR 79A 44 28 SUR Motivo de la llamada: MAS DE 4 MESES INTENTANDO QUE LE ARREGLEN LA FACTURA  LA FACTURA LE DEBE LLEGAR POR 50000</t>
   </si>
   <si>
     <t>MDM-PQR-35857899</t>
@@ -1574,7 +1591,7 @@
     <t>MDM-PQR-35859282</t>
   </si>
   <si>
-    <t>FECHA Y HORA DE GESTI√ìN: 23/12/2022 7:10:33 p. m. L√çNEA: 6012975558 C√âDULA TITULAR: 1032359018 NOMBRE TITULAR: GINA PAOLA FUENTES VALBUENA N√öMERO DE CONTACTO: 3114935420 EMAIL: ginaf_4@hotmail.com DIRECCI√ìN: CL 58 35A 41 AP 701 MOTIVO DE LLAMADA: Incremento de factura</t>
+    <t>FECHA Y HORA DE GESTIÓN: 23/12/2022 7:10:33 p. m. LÍNEA: 6012975558 CÉDULA TITULAR: 1032359018 NOMBRE TITULAR: GINA PAOLA FUENTES VALBUENA NÚMERO DE CONTACTO: 3114935420 EMAIL: ginaf_4@hotmail.com DIRECCIÓN: CL 58 35A 41 AP 701 MOTIVO DE LLAMADA: Incremento de factura</t>
   </si>
   <si>
     <t>MDM-PQR-35864558</t>
@@ -1583,25 +1600,25 @@
     <t>MDM-PQR-35865411</t>
   </si>
   <si>
-    <t>NOMBRE: MARIA DE JESUS FANDI√ëO GONZALEZ   MARLON CC: 39685966 CELULAR:3138615231   TELEFONO: EMAIL:marliton8@gmail.com  DIRECCION: DG 32G SUR 12I 73  MOTIVO:  SE LE INCREMENTO LA FACTURA</t>
+    <t>NOMBRE: MARIA DE JESUS FANDIÑO GONZALEZ   MARLON CC: 39685966 CELULAR:3138615231   TELEFONO: EMAIL:marliton8@gmail.com  DIRECCION: DG 32G SUR 12I 73  MOTIVO:  SE LE INCREMENTO LA FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-35867398</t>
   </si>
   <si>
-    <t>L√≠nea:6017221624  Nombre: Juan Camilo  C√©dula: 1004863746 Celular:3023750142   Correo:juancamiloykw@gmail.com   Direcci√≥n:KR 98 136 88 AP 1407 Petici√≥n: Desea cancelar el servicio de internet</t>
+    <t>Línea:6017221624  Nombre: Juan Camilo  Cédula: 1004863746 Celular:3023750142   Correo:juancamiloykw@gmail.com   Dirección:KR 98 136 88 AP 1407 Petición: Desea cancelar el servicio de internet</t>
   </si>
   <si>
     <t>MDM-PQR-35875173</t>
   </si>
   <si>
-    <t>cliente: NELCY ROJAS CA√ëON   cc: 51811111 linea: 6016414999   cel: 3164110505   direcc: KR 72 BIS 81A 05 IN 6 AP 202  correo: dotao@hotmail.com   cuenta: 12053025023 asunto:  tubo incremento de factura</t>
+    <t>cliente: NELCY ROJAS CAÑON   cc: 51811111 linea: 6016414999   cel: 3164110505   direcc: KR 72 BIS 81A 05 IN 6 AP 202  correo: dotao@hotmail.com   cuenta: 12053025023 asunto:  tubo incremento de factura</t>
   </si>
   <si>
     <t>MDM-PQR-35877819</t>
   </si>
   <si>
-    <t>6017648199 WILMER HERNANDO MU√ëOZ GONZALEZ   1032390866 3114751333   WILMERMUGO@GMAIL.COM   CLIENTE SOLICITA AJUSTE DE UN MES COMPLETO DE FALLAS T√âCNICAS</t>
+    <t>6017648199 WILMER HERNANDO MUÑOZ GONZALEZ   1032390866 3114751333   WILMERMUGO@GMAIL.COM   CLIENTE SOLICITA AJUSTE DE UN MES COMPLETO DE FALLAS TÉCNICAS</t>
   </si>
   <si>
     <t>MDM-PQR-35880101</t>
@@ -1613,7 +1630,7 @@
     <t>MDM-PQR-35881260</t>
   </si>
   <si>
-    <t>Linea:6013575652 Nombre de quien se comunica:CRISTIAN CAMILO ROZO RIVERA   C√©dula: 1020793924 N√∫mero de contacto: 3115872436   Email:    camilo_9406@hotmail.com   Direcci√≥n: CL 130 47 53 AP 401  Motivo de la llamada: cliente se comunica que solicito retiro de servicio de hbo paack el 03/12 y la misma se le esta cobrando en la factura</t>
+    <t>Linea:6013575652 Nombre de quien se comunica:CRISTIAN CAMILO ROZO RIVERA   Cédula: 1020793924 Número de contacto: 3115872436   Email:    camilo_9406@hotmail.com   Dirección: CL 130 47 53 AP 401  Motivo de la llamada: cliente se comunica que solicito retiro de servicio de hbo paack el 03/12 y la misma se le esta cobrando en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-35881398</t>
@@ -1625,7 +1642,7 @@
     <t>MDM-PQR-35882489</t>
   </si>
   <si>
-    <t>L√≠nea:   6017613654 Nombre de quien se comunica:  CRISTIAN ALAPEZ  C√©dula:  1024499002 N√∫mero de contacto:   3022854344   Email:   cristhian.alape@hotmail.com   Direcci√≥n:  CL 151 109A 83 TO 2 AP 203 Motivo de la llamada:. EN  NOVIEMBRE TUVO  FALLA DE SEMANA Y  MEDIA EN ITNERNET ,  Y LE DIERON  DWSCUENTO DE RETENCION Y  QUE NO LE HAN  AJUSTADO  FALLAS       10/21/2022 7:39:32 AM MDM-PQR-34527675 4347220004465788 6017613654 FALLA TECNICA FALLA EN CPE ONT NO ENCIENDE / FALLA Cerrado 25/10/2022  CLIENTE ASEGURA  QUE TIENE UNA FALLA DE SEMAN Y  MEDIA  SE LE REVISA TODO OCTUBREY  NOVIEMBRE Y  NO REGISTRA, FINALMENTE ME DICE  QUE ME PONDRAUNA QUEJA  ,,,    YA QUE LO  ULTIMO QUE HIZO FUE TOMARME DEL  PELO,  OTORGANDOME  UN RADICADO  DE OTRO  CLIENTE,   Y  ME COLGO  LLAMDA PORQUE LE DIJE QUE CONTRA MI  MISMA  NO  LA PODIA  RADICAR</t>
+    <t>Línea:   6017613654 Nombre de quien se comunica:  CRISTIAN ALAPEZ  Cédula:  1024499002 Número de contacto:   3022854344   Email:   cristhian.alape@hotmail.com   Dirección:  CL 151 109A 83 TO 2 AP 203 Motivo de la llamada:. EN  NOVIEMBRE TUVO  FALLA DE SEMANA Y  MEDIA EN ITNERNET ,  Y LE DIERON  DWSCUENTO DE RETENCION Y  QUE NO LE HAN  AJUSTADO  FALLAS       10/21/2022 7:39:32 AM MDM-PQR-34527675 4347220004465788 6017613654 FALLA TECNICA FALLA EN CPE ONT NO ENCIENDE / FALLA Cerrado 25/10/2022  CLIENTE ASEGURA  QUE TIENE UNA FALLA DE SEMAN Y  MEDIA  SE LE REVISA TODO OCTUBREY  NOVIEMBRE Y  NO REGISTRA, FINALMENTE ME DICE  QUE ME PONDRAUNA QUEJA  ,,,    YA QUE LO  ULTIMO QUE HIZO FUE TOMARME DEL  PELO,  OTORGANDOME  UN RADICADO  DE OTRO  CLIENTE,   Y  ME COLGO  LLAMDA PORQUE LE DIJE QUE CONTRA MI  MISMA  NO  LA PODIA  RADICAR</t>
   </si>
   <si>
     <t>MDM-PQR-35883759</t>
@@ -1643,13 +1660,13 @@
     <t>MDM-PQR-35885339</t>
   </si>
   <si>
-    <t>Linea:6013377616  Nombre de quien se comunica:LUZ MILA GALLO LOPEZ   C√©dula: 51759655 N√∫mero de contacto: 3123682015   Email:    carterrodriguez201@gmail.com   Direcci√≥n: TV 12F BIS 42 31 SUR Motivo de la llamada: cancelacion de servicio</t>
+    <t>Linea:6013377616  Nombre de quien se comunica:LUZ MILA GALLO LOPEZ   Cédula: 51759655 Número de contacto: 3123682015   Email:    carterrodriguez201@gmail.com   Dirección: TV 12F BIS 42 31 SUR Motivo de la llamada: cancelacion de servicio</t>
   </si>
   <si>
     <t>MDM-PQR-35885396</t>
   </si>
   <si>
-    <t>CLIENTE INDICA QUE NUNCA ACEPTO Y CONTRAT√ì EL PARAMOUNTU Y HBO MAX. Y SE LOS ESTAN COBRANDO</t>
+    <t>CLIENTE INDICA QUE NUNCA ACEPTO Y CONTRATÓ EL PARAMOUNTU Y HBO MAX. Y SE LOS ESTAN COBRANDO</t>
   </si>
   <si>
     <t>MDM-PQR-35886460</t>
@@ -1673,19 +1690,19 @@
     <t>MDM-PQR-35889907</t>
   </si>
   <si>
-    <t>Cliente KAREN GIOVANNA DIAZ VANEGAS C√©dula de Ciudadan√≠a 52478228 Id PQR MDM-PQR-35889907 L√≠nea: 6017644232 Cuenta de Facturaci√≥n: 12054132773 ID Servicio: SR-24066452  Facturaci√≥n</t>
+    <t>Cliente KAREN GIOVANNA DIAZ VANEGAS Cédula de Ciudadanía 52478228 Id PQR MDM-PQR-35889907 Línea: 6017644232 Cuenta de Facturación: 12054132773 ID Servicio: SR-24066452  Facturación</t>
   </si>
   <si>
     <t>MDM-PQR-35890478</t>
   </si>
   <si>
-    <t>SG//LT: 6017689765 cuenta 12054046279//Cliente radica queja el 28/11/2022 bajo CUN 4347220004769550, 1. Grabaci√≥n del 23 de octubre de 2022, 2. Se aplique tarifa ofertada en julio de 2022. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $61,540, incluido IVA, VALOR REAL AJUSTE $61,540 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017689765 cuenta 12054046279//Cliente radica queja el 28/11/2022 bajo CUN 4347220004769550, 1. Grabación del 23 de octubre de 2022, 2. Se aplique tarifa ofertada en julio de 2022. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $61,540, incluido IVA, VALOR REAL AJUSTE $61,540 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35890520</t>
   </si>
   <si>
-    <t>Linea:6012730038 Nombre de quien se comunica:CESAR AUGUSTO MEDINA ACERO   C√©dula: 80125140 N√∫mero de contacto: 3125369171   Email:    camborbon@hotmail.com   Direcci√≥n: TV 69B 9D 85 ED 2 IN 1 AP 104 Motivo de la llamada: cliente se comunica que se le ofrecio descuento de retencion la misma no se le esta aplicando en factura</t>
+    <t>Linea:6012730038 Nombre de quien se comunica:CESAR AUGUSTO MEDINA ACERO   Cédula: 80125140 Número de contacto: 3125369171   Email:    camborbon@hotmail.com   Dirección: TV 69B 9D 85 ED 2 IN 1 AP 104 Motivo de la llamada: cliente se comunica que se le ofrecio descuento de retencion la misma no se le esta aplicando en factura</t>
   </si>
   <si>
     <t>MDM-PQR-35893442</t>
@@ -1697,13 +1714,13 @@
     <t>MDM-PQR-35894222</t>
   </si>
   <si>
-    <t>Line: 6017256474 ?? Who¬¥s calling Name: EIDENMAN JEREZ ARGEL   ?? ID Number:  88311260 ?? Contact Cellphone: 3015529272   ?? Email: Jerez_ar@hotmail.com   ?? Address: CL 154A 96 40 IN 4 AP 302 ?? Call Motive: Cliente tiene inconveniente con incremento en facturaci√≥n excesivo y cancelaci√≥n de sus servicios.</t>
+    <t>Line: 6017256474 ?? Who´s calling Name: EIDENMAN JEREZ ARGEL   ?? ID Number:  88311260 ?? Contact Cellphone: 3015529272   ?? Email: Jerez_ar@hotmail.com   ?? Address: CL 154A 96 40 IN 4 AP 302 ?? Call Motive: Cliente tiene inconveniente con incremento en facturación excesivo y cancelación de sus servicios.</t>
   </si>
   <si>
     <t>MDM-PQR-35894302</t>
   </si>
   <si>
-    <t>NombreJAIR ALEJANDRO CORREA MARTIN  Celular 3118652594  UENHogares Y Mipymes   Tipo DocumentoCC  DepartamentoBOGOTA  Segmento UENHogares   N√∫mero Documento1015440689  CiudadBOGOTA D.C.  SegmentoHogares   Emailalejo_jacm@hotmail.com  Direcci√≥nCL 10 80 41 TO 6 AP 822 CategoriaORO   se comunica cliente indicando que desea ajuste de factura por beneficio de retencion que le ofertaron y siempre le han ajustado</t>
+    <t>NombreJAIR ALEJANDRO CORREA MARTIN  Celular 3118652594  UENHogares Y Mipymes   Tipo DocumentoCC  DepartamentoBOGOTA  Segmento UENHogares   Número Documento1015440689  CiudadBOGOTA D.C.  SegmentoHogares   Emailalejo_jacm@hotmail.com  DirecciónCL 10 80 41 TO 6 AP 822 CategoriaORO   se comunica cliente indicando que desea ajuste de factura por beneficio de retencion que le ofertaron y siempre le han ajustado</t>
   </si>
   <si>
     <t>MDM-PQR-35896269</t>
@@ -1715,13 +1732,13 @@
     <t>MDM-PQR-35896597</t>
   </si>
   <si>
-    <t>SG//LT: 6017407535 cuenta 12053894626//Cliente pide ajuste de la factura, indica que el 31/05/2022 bajo RF-000990484 se realiza retenci√≥n DUO 200M HOG FTTH - Oferta B√°sica / 50.000$ / PERMANENTE . SOLUCI√ìN DE ASEGURAMIENTO:Se deja caso en seguimiento, ya que se evidencia orden CANCELACI√ìN_VOLUNTARIA (TESR) bajo MDM-FIBRA-010758558 del d√≠a 21/12/2022 la cual tendr√° Fecha de Ejecuci√≥n: 09/01/2023 por tal motivo se deja en seguimiento garantizando el tramite al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $33,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $33,000/ AJUSTE INCORRECTO.// Se penaliza asesor, ya que realiza la favorabilidad por mismo concepto, puesto que bajo Pol√≠ticas generales para otorgar favorabilidad, no se puede realizar esta favorabilidad por mismo concepto m√°s de 1 vez al a√±o</t>
+    <t>SG//LT: 6017407535 cuenta 12053894626//Cliente pide ajuste de la factura, indica que el 31/05/2022 bajo RF-000990484 se realiza retención DUO 200M HOG FTTH - Oferta Básica / 50.000$ / PERMANENTE . SOLUCIÓN DE ASEGURAMIENTO:Se deja caso en seguimiento, ya que se evidencia orden CANCELACIÓN_VOLUNTARIA (TESR) bajo MDM-FIBRA-010758558 del día 21/12/2022 la cual tendrá Fecha de Ejecución: 09/01/2023 por tal motivo se deja en seguimiento garantizando el tramite al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $33,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $33,000/ AJUSTE INCORRECTO.// Se penaliza asesor, ya que realiza la favorabilidad por mismo concepto, puesto que bajo Políticas generales para otorgar favorabilidad, no se puede realizar esta favorabilidad por mismo concepto más de 1 vez al año</t>
   </si>
   <si>
     <t>MDM-PQR-35902120</t>
   </si>
   <si>
-    <t>L√≠nea:   6016787667 Nombre de quien se comunica:NICOLAS  IBA√ëEZ /  LEONILDE BOCANEGRA PATARROYO   C√©dula:   39556472 N√∫mero de contacto:   3118399839   Email:  julianwc213@gmail.com   Direcci√≥n:   KR 11I 43 39 SUR Motivo de la llamada:.  Factura Debio Ser   79.000   Y  Compensacion Pendiente De Noviembre   Por  Falla ..  Se Le Revisa  Y  El  Plan  Nuevo  Es De  74.900   +   5.000   =  79.100        Sele Indica Que Perdio  La  Promocion  Que Tria  al 50% Y Se La Estan Cobrando,,, dichos dias, cliente   dice que  el asesor del cambio de plan le dijo  que no  perderia  el descuento,  sin embargo ademas  pide compensacion  por  fallas y  no  hay  evidencias en sistemas ...</t>
+    <t>Línea:   6016787667 Nombre de quien se comunica:NICOLAS  IBAÑEZ /  LEONILDE BOCANEGRA PATARROYO   Cédula:   39556472 Número de contacto:   3118399839   Email:  julianwc213@gmail.com   Dirección:   KR 11I 43 39 SUR Motivo de la llamada:.  Factura Debio Ser   79.000   Y  Compensacion Pendiente De Noviembre   Por  Falla ..  Se Le Revisa  Y  El  Plan  Nuevo  Es De  74.900   +   5.000   =  79.100        Sele Indica Que Perdio  La  Promocion  Que Tria  al 50% Y Se La Estan Cobrando,,, dichos dias, cliente   dice que  el asesor del cambio de plan le dijo  que no  perderia  el descuento,  sin embargo ademas  pide compensacion  por  fallas y  no  hay  evidencias en sistemas ...</t>
   </si>
   <si>
     <t>MDM-PQR-35902311</t>
@@ -1733,13 +1750,13 @@
     <t>MDM-PQR-35904671</t>
   </si>
   <si>
-    <t>L√≠nea:  6016213785 Nombre de quien se comunica: ANDRES ARTURO CAMPUZANO C√©dula: 80099960   N√∫mero de contacto: 3103100808   Email: andrem13@hotmail.com   Direcci√≥n: CL 24C 84 86 IN 1 AP 202 Motivo de la llamada: CLEINTE SE COMUNCIA INDICANDO QUE NO SE LE VE REFLEJADO DTO OFERTADO</t>
+    <t>Línea:  6016213785 Nombre de quien se comunica: ANDRES ARTURO CAMPUZANO Cédula: 80099960   Número de contacto: 3103100808   Email: andrem13@hotmail.com   Dirección: CL 24C 84 86 IN 1 AP 202 Motivo de la llamada: CLEINTE SE COMUNCIA INDICANDO QUE NO SE LE VE REFLEJADO DTO OFERTADO</t>
   </si>
   <si>
     <t>MDM-PQR-35905572</t>
   </si>
   <si>
-    <t>Cliente MARINA ALVAREZ RODRIGUEZ C√©dula de Ciudadan√≠a 41390053 L√≠nea: 6016135960 Cuenta de Facturaci√≥n: 3358627 motivo consulta de beneficio no aplicado</t>
+    <t>Cliente MARINA ALVAREZ RODRIGUEZ Cédula de Ciudadanía 41390053 Línea: 6016135960 Cuenta de Facturación: 3358627 motivo consulta de beneficio no aplicado</t>
   </si>
   <si>
     <t>MDM-PQR-35907654</t>
@@ -1751,13 +1768,13 @@
     <t>MDM-PQR-35909497</t>
   </si>
   <si>
-    <t>L√≠nea:6013690901 Nombre de quien se comunica: ELIANA CARDONA CASTRO   C√©dula:1007327221 N√∫mero de contacto:3233246768   Email: pau93@outlook.com   Direcci√≥n:CL 32 SUR 51D 75 Motivo de la llamada:cliente se comunica por que esta llegando factura cuando se comunico el 2 de diciembre para que se cancelara el servicio por lo tanto cliente esta inconforme y solicita se solucione factura y cancelacion.</t>
+    <t>Línea:6013690901 Nombre de quien se comunica: ELIANA CARDONA CASTRO   Cédula:1007327221 Número de contacto:3233246768   Email: pau93@outlook.com   Dirección:CL 32 SUR 51D 75 Motivo de la llamada:cliente se comunica por que esta llegando factura cuando se comunico el 2 de diciembre para que se cancelara el servicio por lo tanto cliente esta inconforme y solicita se solucione factura y cancelacion.</t>
   </si>
   <si>
     <t>MDM-PQR-35914081</t>
   </si>
   <si>
-    <t>Cliente YORLANI OMAIRA MENESES PINO C√©dula de Ciudadan√≠a 1061723842 L√≠nea: 6017256878 Cuenta de Facturaci√≥n: 12054153908 motivo consulta por factura</t>
+    <t>Cliente YORLANI OMAIRA MENESES PINO Cédula de Ciudadanía 1061723842 Línea: 6017256878 Cuenta de Facturación: 12054153908 motivo consulta por factura</t>
   </si>
   <si>
     <t>conceptos facturados</t>
@@ -1772,37 +1789,37 @@
     <t>MDM-PQR-35915044</t>
   </si>
   <si>
-    <t>NOMBRE: LEIDY JADEYI GUERRERO MADERO   CC: 1116861979 CELULAR: 3102965986 MOTIVO:  SOLCITA APLICAR TIPO DE CLIENTE: TRASLADO / FECHA DE ACTIVACI√ìN REVCHAIN: 13/07/20 / FECHA DEL TRAMITE: 5/10/2021 / ESTRATEGIA UTILIZADA: OFERTA DE RETENCION BASICA OFERTA DE RETENCION BASICA / $85.0000 / PERMANENTE / 11/2/2009 / ECONOMICO</t>
+    <t>NOMBRE: LEIDY JADEYI GUERRERO MADERO   CC: 1116861979 CELULAR: 3102965986 MOTIVO:  SOLCITA APLICAR TIPO DE CLIENTE: TRASLADO / FECHA DE ACTIVACIÓN REVCHAIN: 13/07/20 / FECHA DEL TRAMITE: 5/10/2021 / ESTRATEGIA UTILIZADA: OFERTA DE RETENCION BASICA OFERTA DE RETENCION BASICA / $85.0000 / PERMANENTE / 11/2/2009 / ECONOMICO</t>
   </si>
   <si>
     <t>MDM-PQR-35915138</t>
   </si>
   <si>
-    <t>linea:  6016407346 nombre: ALEXANDRA SALDA√ëA GARAVITO   cedula: 1014263459 numero: 3213624384   email: salda09alexa@gmail.com   direccion  KR 102 69 34 IN 6 motivo: se comunica ya que quiere activar el paramount y hbo max</t>
+    <t>linea:  6016407346 nombre: ALEXANDRA SALDAÑA GARAVITO   cedula: 1014263459 numero: 3213624384   email: salda09alexa@gmail.com   direccion  KR 102 69 34 IN 6 motivo: se comunica ya que quiere activar el paramount y hbo max</t>
   </si>
   <si>
     <t>MDM-PQR-35915986</t>
   </si>
   <si>
-    <t>L√≠nea:6014206211 Nombre de quien se comunica: ALEXANDRA PATARROYO C√©dula:52217106 N√∫mero de contacto:3144604035 Email:alexandrap725@gmail.com Direcci√≥n: DG 5D BIS 43B 23 Motivo de la llamada: Facturacion</t>
+    <t>Línea:6014206211 Nombre de quien se comunica: ALEXANDRA PATARROYO Cédula:52217106 Número de contacto:3144604035 Email:alexandrap725@gmail.com Dirección: DG 5D BIS 43B 23 Motivo de la llamada: Facturacion</t>
   </si>
   <si>
     <t>MDM-PQR-35917089</t>
   </si>
   <si>
-    <t>L√≠nea: 6017649768 12054210586 Nombre de quien se comunica: MARI√ëO OCAMPO CAMPINO   C√©dula: 75034978 N√∫mero de contacto: 3134199769 Email: marinoocampo1940@gmail.com   Direcci√≥n: KR 88A 35B 14 SUR Motivo de la llamada: cliente indica que realiz√≥ la cancelaci√≥n, pero le lleg√≥ otra factura</t>
+    <t>Línea: 6017649768 12054210586 Nombre de quien se comunica: MARIÑO OCAMPO CAMPINO   Cédula: 75034978 Número de contacto: 3134199769 Email: marinoocampo1940@gmail.com   Dirección: KR 88A 35B 14 SUR Motivo de la llamada: cliente indica que realizó la cancelación, pero le llegó otra factura</t>
   </si>
   <si>
     <t>MDM-PQR-35922270</t>
   </si>
   <si>
-    <t>SG//LT: 6016770349 cuenta 12053703119//Cliente pide ajuste de la factura, indica que el 31/05/2022 bajo RF-001066427 se realiza retenci√≥n DUO 300M HOG FTTH - Oferta B√°sica / $50.000 / PERMANENTE . SOLUCI√ìN DE ASEGURAMIENTO:Se deja caso en seguimiento, ya que se evidencia orden MDM-FIBRA-010758521 de CAMBIO_PLAN (PRCH) del d√≠a 21/12/2022 el cual esta en estado pendiente por cumplir y as√≠ poder quitar el servicio de WIN SPORTS ONLINE EMPAQUETADO ya que el usuario no quiere este servicio de SVA. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $34,190 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $34,190/ AJUSTE INCORRECTO.// Se penaliza asesor, ya que realiza la favorabilidad por mismo concepto, puesto que bajo Pol√≠ticas generales para otorgar favorabilidad, no se puede realizar esta favorabilidad por mismo concepto m√°s de 1 vez al a√±o</t>
+    <t>SG//LT: 6016770349 cuenta 12053703119//Cliente pide ajuste de la factura, indica que el 31/05/2022 bajo RF-001066427 se realiza retención DUO 300M HOG FTTH - Oferta Básica / $50.000 / PERMANENTE . SOLUCIÓN DE ASEGURAMIENTO:Se deja caso en seguimiento, ya que se evidencia orden MDM-FIBRA-010758521 de CAMBIO_PLAN (PRCH) del día 21/12/2022 el cual esta en estado pendiente por cumplir y así poder quitar el servicio de WIN SPORTS ONLINE EMPAQUETADO ya que el usuario no quiere este servicio de SVA. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $34,190 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $34,190/ AJUSTE INCORRECTO.// Se penaliza asesor, ya que realiza la favorabilidad por mismo concepto, puesto que bajo Políticas generales para otorgar favorabilidad, no se puede realizar esta favorabilidad por mismo concepto más de 1 vez al año</t>
   </si>
   <si>
     <t>MDM-PQR-35923057</t>
   </si>
   <si>
-    <t>ASG//LT: 6012488453 cuenta 12053254689// Cliente pide ajuste de la factura, indica que el 09/05/2022 bajo RF-001027022 se realiza retenci√≥n TARIFA PREFERENCIAL/ $50.000 / PERMANENTE. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que en revchain los servicios de SVA HBO MAX y SVA PARAMOUNT retirados desde 02/12/2022 y se evidencian cargos correctos bajo la oferta de $50,000 y se evidencia facturaci√≥n de diciembre correcta ay un aumento de cobro de RECONEXI√ìN PAQ. FO, FTTC, CO. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0 / AJUSTE CORRECTO// AJUSTE BAJO LEY DE FAVORABILIDAD.</t>
+    <t>ASG//LT: 6012488453 cuenta 12053254689// Cliente pide ajuste de la factura, indica que el 09/05/2022 bajo RF-001027022 se realiza retención TARIFA PREFERENCIAL/ $50.000 / PERMANENTE. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que en revchain los servicios de SVA HBO MAX y SVA PARAMOUNT retirados desde 02/12/2022 y se evidencian cargos correctos bajo la oferta de $50,000 y se evidencia facturación de diciembre correcta ay un aumento de cobro de RECONEXIÓN PAQ. FO, FTTC, CO. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $33,800 incluido IVA. VALOR REAL AJUSTE: $33,800 incluido IVA. DIFERENCIA $0 / AJUSTE CORRECTO// AJUSTE BAJO LEY DE FAVORABILIDAD.</t>
   </si>
   <si>
     <t>MDM-PQR-35923207</t>
@@ -1811,49 +1828,49 @@
     <t>MDM-PQR-35924209</t>
   </si>
   <si>
-    <t>L√≠nea: 6017683454 Nombre de quien se comunica: ENELIA MARIA REYES RODRIGUEZ   C√©dula: 3203454108   N√∫mero de contacto: 3203454108   Email: MARIREYES1507@GMAIL.COM   Direcci√≥n: KR 7D BIS 156 26 Motivo de la llamada: Cliente solicita cancelaci√≥n del servicio</t>
+    <t>Línea: 6017683454 Nombre de quien se comunica: ENELIA MARIA REYES RODRIGUEZ   Cédula: 3203454108   Número de contacto: 3203454108   Email: MARIREYES1507@GMAIL.COM   Dirección: KR 7D BIS 156 26 Motivo de la llamada: Cliente solicita cancelación del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-35924422</t>
   </si>
   <si>
-    <t>SG//LT: 6012323781 cuenta 12053507773//Cliente pide ajuste de la factura, indica que el 17/07/2022 bajo RF-001134253 se realiza retenci√≥n OFERTA RETENCI√ìN B√ÅSICA $50.000 PERMANENTE . SOLUCI√ìN DE ASEGURAMIENTO:Se escala caso a gestor fijo para aplicaci√≥n de descuento manual de 41,1067% y asi garantizando la oferta del cliente. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $38,370 incluido IVA. VALOR REAL AJUSTE: $38,370 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. AJUSTE BAJO LEY DE FAVORABILIDAD //se penaliza asesor por no realizar la gesti√≥n para dar cierre de ciclo.</t>
+    <t>SG//LT: 6012323781 cuenta 12053507773//Cliente pide ajuste de la factura, indica que el 17/07/2022 bajo RF-001134253 se realiza retención OFERTA RETENCIÓN BÁSICA $50.000 PERMANENTE . SOLUCIÓN DE ASEGURAMIENTO:Se escala caso a gestor fijo para aplicación de descuento manual de 41,1067% y asi garantizando la oferta del cliente. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $38,370 incluido IVA. VALOR REAL AJUSTE: $38,370 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. AJUSTE BAJO LEY DE FAVORABILIDAD //se penaliza asesor por no realizar la gestión para dar cierre de ciclo.</t>
   </si>
   <si>
     <t>MDM-PQR-35925418</t>
   </si>
   <si>
-    <t>SG//LT: 6012006773 cuenta 12054054778// cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de reconexion. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia RF-001341770 del d√≠a 14/12/2022 reteniendo al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $30,400 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $4,400/ MAYOR VALOR AJUSTADO.</t>
+    <t>SG//LT: 6012006773 cuenta 12054054778// cliente solicita ajuste de la factura, indica no estar de acuerdo con el cobro de reconexion. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia RF-001341770 del día 14/12/2022 reteniendo al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $30,400 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $4,400/ MAYOR VALOR AJUSTADO.</t>
   </si>
   <si>
     <t>MDM-PQR-35925442</t>
   </si>
   <si>
-    <t>SG//LT: SR-33400874 cuenta 12054334718//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001345187 del d√≠a 17/12/2022, donde se realiza retenci√≥n por cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $18,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $18,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la pol√≠tica de exoneraci√≥n VALOR DE RECONEXI√ìN POR MORA, bajo MDM-PQR-31862264, ya se hab√≠a realizado el d√≠a 01/07/2022 ajuste por mismo conce</t>
+    <t>SG//LT: SR-33400874 cuenta 12054334718//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001345187 del día 17/12/2022, donde se realiza retención por cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $18,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $18,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la política de exoneración VALOR DE RECONEXIÓN POR MORA, bajo MDM-PQR-31862264, ya se había realizado el día 01/07/2022 ajuste por mismo conce</t>
   </si>
   <si>
     <t>MDM-PQR-35925471</t>
   </si>
   <si>
-    <t>SG//LT: 6016315634 cuenta 12054017867//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001328561 del d√≠a 02/12/2022, donde se realiza retenci√≥n por cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la pol√≠tica de exoneraci√≥n VALOR DE RECONEXI√ìN POR MORA, bajo MDM-PQR-33429141, ya se hab√≠a realizado el d√≠a 31/08/2022 ajuste por mismo concepto.</t>
+    <t>SG//LT: 6016315634 cuenta 12054017867//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001328561 del día 02/12/2022, donde se realiza retención por cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la política de exoneración VALOR DE RECONEXIÓN POR MORA, bajo MDM-PQR-33429141, ya se había realizado el día 31/08/2022 ajuste por mismo concepto.</t>
   </si>
   <si>
     <t>MDM-PQR-35928616</t>
   </si>
   <si>
-    <t>L√≠nea: Nombre de quien se comunica:EDITH YANETH CHAVARRO REY   C√©dula:39708434 N√∫mero de contacto:3007974052 Email:orlandocorredor@gmail.com   Direcci√≥n: KR 112F 72C 03 TO 8 AP 301 Motivo de la llamada:Se comunica para generar inconformidad ya que indica que le estan generando cobro de servicios no solicitados como  PARAMOUN y HBO MAX..</t>
+    <t>Línea: Nombre de quien se comunica:EDITH YANETH CHAVARRO REY   Cédula:39708434 Número de contacto:3007974052 Email:orlandocorredor@gmail.com   Dirección: KR 112F 72C 03 TO 8 AP 301 Motivo de la llamada:Se comunica para generar inconformidad ya que indica que le estan generando cobro de servicios no solicitados como  PARAMOUN y HBO MAX..</t>
   </si>
   <si>
     <t>MDM-PQR-35929021</t>
   </si>
   <si>
-    <t>L√≠nea: Nombre de quien se comunica:   PEDRO VERGARA  C√©dula:  1020797987 N√∫mero de contacto:   3125322314   Email:   PEDRO MANUEL VERGARA RUBIANO   Direcci√≥n:      KR 19 82 15 Motivo de la llamada:. FACTURACION  ..... DEBERIA  LELGAR  SOBRE LOS  105.000 RETIRO DE HBO</t>
+    <t>Línea: Nombre de quien se comunica:   PEDRO VERGARA  Cédula:  1020797987 Número de contacto:   3125322314   Email:   PEDRO MANUEL VERGARA RUBIANO   Dirección:      KR 19 82 15 Motivo de la llamada:. FACTURACION  ..... DEBERIA  LELGAR  SOBRE LOS  105.000 RETIRO DE HBO</t>
   </si>
   <si>
     <t>MDM-PQR-35931014</t>
   </si>
   <si>
-    <t>Cliente NICOLAS FORERO RUIZ C√©dula de Ciudadan√≠a 1000789726 L√≠nea: 6017724901 Cuenta de Facturaci√≥n: 12054135334 motivo consulta del valor del plan</t>
+    <t>Cliente NICOLAS FORERO RUIZ Cédula de Ciudadanía 1000789726 Línea: 6017724901 Cuenta de Facturación: 12054135334 motivo consulta del valor del plan</t>
   </si>
   <si>
     <t>MDM-PQR-35933335</t>
@@ -1865,31 +1882,31 @@
     <t>MDM-PQR-35936923</t>
   </si>
   <si>
-    <t>C√©dula: 1000688831 N√∫mero: 3132469021  Email:lizethkarina34@gmail.com Direcci√≥n:CL 5A SUR 82 54  Motivo de la llamada: incremento en la factura</t>
+    <t>Cédula: 1000688831 Número: 3132469021  Email:lizethkarina34@gmail.com Dirección:CL 5A SUR 82 54  Motivo de la llamada: incremento en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-35938060</t>
   </si>
   <si>
-    <t>Nombre: Ana Maria   C√©dula: 900503042 Celular: 3124503741   Correo:ADMINISTRACION@MONTECILLO.CO   Direcci√≥n: KR 10 90 44 AP 30 Petici√≥n:Solicito la cancelaci√≥n  del servicio</t>
+    <t>Nombre: Ana Maria   Cédula: 900503042 Celular: 3124503741   Correo:ADMINISTRACION@MONTECILLO.CO   Dirección: KR 10 90 44 AP 30 Petición:Solicito la cancelación  del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-35938854</t>
   </si>
   <si>
-    <t xml:space="preserve"> NOMBRE:LEIDY VANNESA ZEA CIFUENTES   CC:1024525767 CEL:3215550826  DIRECCION :KR 63 57B 14 SUR   CORREO: karolrincon312@gmail.com    MOTIVO: Hace dos meses solicito cancelaci√≥n y le brindaron  beneficio de 50.000 pero sus facturas estan llegando con mas valor</t>
+    <t xml:space="preserve"> NOMBRE:LEIDY VANNESA ZEA CIFUENTES   CC:1024525767 CEL:3215550826  DIRECCION :KR 63 57B 14 SUR   CORREO: karolrincon312@gmail.com    MOTIVO: Hace dos meses solicito cancelación y le brindaron  beneficio de 50.000 pero sus facturas estan llegando con mas valor</t>
   </si>
   <si>
     <t>MDM-PQR-35939103</t>
   </si>
   <si>
-    <t>L√≠nea: Nombre de quien se comunica:    NATALI  MENDOZA  C√©dula:   53076881 N√∫mero de contacto:   3160518506   Email:  mennath@gmail.com   Direcci√≥n:   KR 50 103B 33 AP 303 Motivo de la llamada:. NO  LE LLEGA FACTURACION  , ESTA MIRANDO EN  MI ETB   se revisa  en saaw  no se genero factura, se revisan  en  montesquieb  cuentas retenidas y tampoco  se evidencia   en dichas  bases,  ni  tramites pendiente</t>
+    <t>Línea: Nombre de quien se comunica:    NATALI  MENDOZA  Cédula:   53076881 Número de contacto:   3160518506   Email:  mennath@gmail.com   Dirección:   KR 50 103B 33 AP 303 Motivo de la llamada:. NO  LE LLEGA FACTURACION  , ESTA MIRANDO EN  MI ETB   se revisa  en saaw  no se genero factura, se revisan  en  montesquieb  cuentas retenidas y tampoco  se evidencia   en dichas  bases,  ni  tramites pendiente</t>
   </si>
   <si>
     <t>MDM-PQR-35940373</t>
   </si>
   <si>
-    <t>se  comunica la se√±ora ANA MILENA ACEVEDO VALLEJO indica que  despues  de  7 a√±os le llega  una  factura  del  2016   y que no se la  envian  factura ,ademas casa de  cobranza no la  eimitio  y dice que  es  ilegal  que le  cobren  algo  sin  haberle envia  factura</t>
+    <t>se  comunica la señora ANA MILENA ACEVEDO VALLEJO indica que  despues  de  7 años le llega  una  factura  del  2016   y que no se la  envian  factura ,ademas casa de  cobranza no la  eimitio  y dice que  es  ilegal  que le  cobren  algo  sin  haberle envia  factura</t>
   </si>
   <si>
     <t>MDM-PQR-35940605</t>
@@ -1907,7 +1924,7 @@
     <t>MDM-PQR-35953152</t>
   </si>
   <si>
-    <t>SG//LT: 6017262984 cuenta 12054273708//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001331282 del d√≠a 05/12/2022, donde se realiza retenci√≥n por cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la pol√≠tica de exoneraci√≥n VALOR DE RECONEXI√ìN POR MORA, bajo MDM-PQR-33494025, ya se hab√≠a realizado el d√≠a 02/09/2022, ajuste por mismo concepto y adem√°s realiza la favorabilidad por mismo concepto, puesto que bajo Pol√≠ticas generales para otorgar favorabilidad, no se puede realizar esta favorabilidad por mismo concepto m√°s de 1 vez al a√±o.</t>
+    <t>SG//LT: 6017262984 cuenta 12054273708//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001331282 del día 05/12/2022, donde se realiza retención por cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la política de exoneración VALOR DE RECONEXIÓN POR MORA, bajo MDM-PQR-33494025, ya se había realizado el día 02/09/2022, ajuste por mismo concepto y además realiza la favorabilidad por mismo concepto, puesto que bajo Políticas generales para otorgar favorabilidad, no se puede realizar esta favorabilidad por mismo concepto más de 1 vez al año.</t>
   </si>
   <si>
     <t>MDM-PQR-35954403</t>
@@ -1919,19 +1936,19 @@
     <t>MDM-PQR-35956820</t>
   </si>
   <si>
-    <t>Cliente LUCILA ACOSTA QUEVEDO C√©dula de Ciudadan√≠a 41497503 Id PQR MDM-PQR-35956820 L√≠nea: 6013633730 Cuenta de Facturaci√≥n: 2666771 ID Servicio: SR-32940008 cancealcion</t>
+    <t>Cliente LUCILA ACOSTA QUEVEDO Cédula de Ciudadanía 41497503 Id PQR MDM-PQR-35956820 Línea: 6013633730 Cuenta de Facturación: 2666771 ID Servicio: SR-32940008 cancealcion</t>
   </si>
   <si>
     <t>MDM-PQR-35958034</t>
   </si>
   <si>
-    <t>SG//LT: 6017730809 cuenta 12050943659//Cliente radica queja el 28/11/2022 bajo CUN 4347220004771944, 1. Solicito la escucha de la llamada del MDM-PQR-29833441, donde se me indica que la factura me llegara a un a√±o por valor de $143.200,00 incluido IVA , 2. Solicita se le aplique lo indicado en la llamada y se le vea reflejado en su facturaci√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $14,000, incluido IVA, VALOR REAL AJUSTE $14,000 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017730809 cuenta 12050943659//Cliente radica queja el 28/11/2022 bajo CUN 4347220004771944, 1. Solicito la escucha de la llamada del MDM-PQR-29833441, donde se me indica que la factura me llegara a un año por valor de $143.200,00 incluido IVA , 2. Solicita se le aplique lo indicado en la llamada y se le vea reflejado en su facturación. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $14,000, incluido IVA, VALOR REAL AJUSTE $14,000 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35958771</t>
   </si>
   <si>
-    <t>SG//LT: 6013844221 cuenta 12054089121//Cliente radica queja el 19/12/2022 bajo CUN 4347220004925356, manifiesta inconformidad con los cobros generados por concepto de SVA WINSPORTS. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $39,330, incluido IVA, VALOR REAL AJUSTE $39,330 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013844221 cuenta 12054089121//Cliente radica queja el 19/12/2022 bajo CUN 4347220004925356, manifiesta inconformidad con los cobros generados por concepto de SVA WINSPORTS. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $39,330, incluido IVA, VALOR REAL AJUSTE $39,330 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35960426</t>
@@ -1943,19 +1960,19 @@
     <t>MDM-PQR-35961246</t>
   </si>
   <si>
-    <t>SG//LT: 6016780489 cuenta 12053710649//Cliente radica queja el 05/12/2022 bajo CUN 4347220004821205, 1. Env√≠o de las grabaciones de las llamadas sobre las fallas presentadas sobre la l√≠nea No. 6016780489 con cuenta No. 12053710649 , 2. Compensaci√≥n sobre las fallas presentadas. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $7,410, incluido IVA, VALOR REAL AJUSTE $ 7,410 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016780489 cuenta 12053710649//Cliente radica queja el 05/12/2022 bajo CUN 4347220004821205, 1. Envío de las grabaciones de las llamadas sobre las fallas presentadas sobre la línea No. 6016780489 con cuenta No. 12053710649 , 2. Compensación sobre las fallas presentadas. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $7,410, incluido IVA, VALOR REAL AJUSTE $ 7,410 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35961958</t>
   </si>
   <si>
-    <t>Nombre Cliente: ZULEIDY LOAIZA ARENAS √çndice: T-2200 CC: 1017168362 N.¬∫ Cuenta: 12054103363 N.¬∫ Conexi√≥n: 6017928101 Tel.: 3124216142 Al cliente se le ofreci√≥ retenci√≥n dejando todos los servicios por un valor de $114000 lo cual no se est√° aplicando, esto debido a que asesor que realizo el ofrecimiento no tubo encuenta los adicionales que tiene el cliente y brindo una tarifa sin tenerlos encuenta, se adjuntan soportes enviados por el cliente, se accede a aplicar ofrecimiento, donde los servicios quedarian por un valor de: TRIO 80M HOG BRONZE LITE SIMETRICO ZONA V1 por valor de $78.300 RETROCEDER por valor de $ 15400 DECO ADICIONAL por valor de $10000 DECO ADICIONAL por valor de $10.300 Un total a pagar seria de $114000</t>
+    <t>Nombre Cliente: ZULEIDY LOAIZA ARENAS Índice: T-2200 CC: 1017168362 N.º Cuenta: 12054103363 N.º Conexión: 6017928101 Tel.: 3124216142 Al cliente se le ofreció retención dejando todos los servicios por un valor de $114000 lo cual no se está aplicando, esto debido a que asesor que realizo el ofrecimiento no tubo encuenta los adicionales que tiene el cliente y brindo una tarifa sin tenerlos encuenta, se adjuntan soportes enviados por el cliente, se accede a aplicar ofrecimiento, donde los servicios quedarian por un valor de: TRIO 80M HOG BRONZE LITE SIMETRICO ZONA V1 por valor de $78.300 RETROCEDER por valor de $ 15400 DECO ADICIONAL por valor de $10000 DECO ADICIONAL por valor de $10.300 Un total a pagar seria de $114000</t>
   </si>
   <si>
     <t>MDM-PQR-35962244</t>
   </si>
   <si>
-    <t>Nombre Cliente: ZULEIDY LOAIZA ARENAS √çndice: T-2200 CC: 1017168362 N.¬∫ Cuenta: 12054103363 N.¬∫ Conexi√≥n: 6017928101 Tel.: 3124216142 Al cliente se le ofreci√≥ retenci√≥n dejando todos los servicios por un valor de $114000 lo cual no se est√° aplicando, esto debido a que asesor que realizo el ofrecimiento no tubo encuenta los adicionales que tiene el cliente y brindo una tarifa sin tenerlos encuenta, se adjuntan soportes enviados por el cliente, se accede a aplicar ofrecimiento, donde los servicios quedarian por un valor de: TRIO 80M HOG BRONZE LITE SIMETRICO ZONA V1 por valor de $78.300 RETROCEDER por valor de $ 15400 DECO ADICIONAL por valor de $10000 DECO ADICIONAL por valor de $10.300 Un total a pagar seria de $114000 ofrecimiento realizado bajo RF-001230830</t>
+    <t>Nombre Cliente: ZULEIDY LOAIZA ARENAS Índice: T-2200 CC: 1017168362 N.º Cuenta: 12054103363 N.º Conexión: 6017928101 Tel.: 3124216142 Al cliente se le ofreció retención dejando todos los servicios por un valor de $114000 lo cual no se está aplicando, esto debido a que asesor que realizo el ofrecimiento no tubo encuenta los adicionales que tiene el cliente y brindo una tarifa sin tenerlos encuenta, se adjuntan soportes enviados por el cliente, se accede a aplicar ofrecimiento, donde los servicios quedarian por un valor de: TRIO 80M HOG BRONZE LITE SIMETRICO ZONA V1 por valor de $78.300 RETROCEDER por valor de $ 15400 DECO ADICIONAL por valor de $10000 DECO ADICIONAL por valor de $10.300 Un total a pagar seria de $114000 ofrecimiento realizado bajo RF-001230830</t>
   </si>
   <si>
     <t>MDM-PQR-35964880</t>
@@ -1970,13 +1987,13 @@
     <t>MDM-PQR-35966654</t>
   </si>
   <si>
-    <t xml:space="preserve"> FECHA Y HORA DE GESTION: 29/12/2022 LINEA:  6016265726 CEDULA DEL TITULAR: 79541882 NOMBRE DEL TITULAR: GUSTAVO ADOLFO REYES MEDINA   //TATIANA NI√ëO C.C 52701939 NUMERO DE CELULAR: 3005691981   EMAIL: gustavoareyes@hotmail.com   DIRECCION: KR 68B 22A 62 IN 4 CA 51  MOTIVO DE LLAMADA: cliete se comunica para vaidar factura</t>
+    <t xml:space="preserve"> FECHA Y HORA DE GESTION: 29/12/2022 LINEA:  6016265726 CEDULA DEL TITULAR: 79541882 NOMBRE DEL TITULAR: GUSTAVO ADOLFO REYES MEDINA   //TATIANA NIÑO C.C 52701939 NUMERO DE CELULAR: 3005691981   EMAIL: gustavoareyes@hotmail.com   DIRECCION: KR 68B 22A 62 IN 4 CA 51  MOTIVO DE LLAMADA: cliete se comunica para vaidar factura</t>
   </si>
   <si>
     <t>MDM-PQR-35968372</t>
   </si>
   <si>
-    <t>SG//LT: 6012566066 cuenta 12052858215//Cliente radica queja el 28/11/2022 bajo CUN 4347220004768998, 1. Solicita grabaci√≥n de la llamada del servicio adicional de HBO m√°x ,2. Grabaci√≥n de la llamada del beneficio ofrecido , 3. Ajuste de la factura por concepto de HBO m√°x y de la promoci√≥n no aplicada de 100 MB adicionales. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $39,800, incluido IVA, VALOR REAL AJUSTE $ 39,800 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012566066 cuenta 12052858215//Cliente radica queja el 28/11/2022 bajo CUN 4347220004768998, 1. Solicita grabación de la llamada del servicio adicional de HBO máx ,2. Grabación de la llamada del beneficio ofrecido , 3. Ajuste de la factura por concepto de HBO máx y de la promoción no aplicada de 100 MB adicionales. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $39,800, incluido IVA, VALOR REAL AJUSTE $ 39,800 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35971480</t>
@@ -1988,31 +2005,31 @@
     <t>MDM-PQR-35972681</t>
   </si>
   <si>
-    <t>SG//LT: 6017126218 cuenta 12054112769//Cliente radica queja el 13/12/2022 bajo CUN 4347220004879972, 1. Los cobros generados para la l√≠nea 6017126218 por concepto de WINSPORTS debido a que le indicaron que este servicio ser√≠a gratis por 3 meses, por lo tanto, solicita ajuste en la factura , 2. Retiro de DIRECTV GO FLEX , 3. Grabaci√≥n de la llamada. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $23,220, incluido IVA, VALOR REAL AJUSTE $23,220 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017126218 cuenta 12054112769//Cliente radica queja el 13/12/2022 bajo CUN 4347220004879972, 1. Los cobros generados para la línea 6017126218 por concepto de WINSPORTS debido a que le indicaron que este servicio sería gratis por 3 meses, por lo tanto, solicita ajuste en la factura , 2. Retiro de DIRECTV GO FLEX , 3. Grabación de la llamada. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $23,220, incluido IVA, VALOR REAL AJUSTE $23,220 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35974284</t>
   </si>
   <si>
-    <t>SG//LT: 6013682242 cuenta 12053687370//Cliente radica queja el 07/12/2022 bajo CUN 4347220004843721, 1. Los cobros generados para la l√≠nea 6017126218 por concepto de WINSPORTS debido a que le indicaron que este servicio ser√≠a gratis por 3 meses, por lo tanto, solicita ajuste en la factura , 2. Retiro de DIRECTV GO FLEX , 3. Grabaci√≥n de la llamada. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $6,910, incluido IVA, VALOR REAL AJUSTE $6,910 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013682242 cuenta 12053687370//Cliente radica queja el 07/12/2022 bajo CUN 4347220004843721, 1. Los cobros generados para la línea 6017126218 por concepto de WINSPORTS debido a que le indicaron que este servicio sería gratis por 3 meses, por lo tanto, solicita ajuste en la factura , 2. Retiro de DIRECTV GO FLEX , 3. Grabación de la llamada. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $6,910, incluido IVA, VALOR REAL AJUSTE $6,910 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35975537</t>
   </si>
   <si>
-    <t>SG//LT: 6013575631 cuenta 12054475867//Cliente radica queja el 05/12/2022 bajo CUN 4347220004828161 ,1. Aplicaci√≥n tarifa fidelizaci√≥n , 2. Descuento por falla en el servicio de internet, en los primeros d√≠as de instalaci√≥n , 3. Envi√≥ de grabaci√≥n de la fidelizaci√≥n realizada en septiembre 2022. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $24,670, incluido IVA, VALOR REAL AJUSTE $24,670 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013575631 cuenta 12054475867//Cliente radica queja el 05/12/2022 bajo CUN 4347220004828161 ,1. Aplicación tarifa fidelización , 2. Descuento por falla en el servicio de internet, en los primeros días de instalación , 3. Envió de grabación de la fidelización realizada en septiembre 2022. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $24,670, incluido IVA, VALOR REAL AJUSTE $24,670 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-35977879</t>
   </si>
   <si>
-    <t>L√≠nea: 6012105815 Nombre de quien se comunica: JOHN SEBASTIAN BERGARA PUENTES   C√©dula:  1073711389 N√∫mero de contacto: 3133574091   Email: sebacho.vergara@gmail.com   Direcci√≥n: CL 42B SUR 72H 15 IN 1 AP 301  Motivo de la llamada: Cliente reporta que no se esta haciendo efectiva promocional  PROMOCI√ìN DESCUENTO 100% PRORRATEO + 100% MES 1 + 50% MESES 2,3  31% DE DESCUENTO DURANTE 5 MESES DIRECTV GO B√ÅSICO PROMOCI√ìN DESCUENTO 100% PRORRATEO + 3 MESES DTV WINSPORTS +</t>
+    <t>Línea: 6012105815 Nombre de quien se comunica: JOHN SEBASTIAN BERGARA PUENTES   Cédula:  1073711389 Número de contacto: 3133574091   Email: sebacho.vergara@gmail.com   Dirección: CL 42B SUR 72H 15 IN 1 AP 301  Motivo de la llamada: Cliente reporta que no se esta haciendo efectiva promocional  PROMOCIÓN DESCUENTO 100% PRORRATEO + 100% MES 1 + 50% MESES 2,3  31% DE DESCUENTO DURANTE 5 MESES DIRECTV GO BÁSICO PROMOCIÓN DESCUENTO 100% PRORRATEO + 3 MESES DTV WINSPORTS +</t>
   </si>
   <si>
     <t>MDM-PQR-35984155</t>
   </si>
   <si>
-    <t>L√≠nea:6017926791  Nombre de quien se comunica: mireya rojas  3/05/1979 C√©dula: 11407017 N√∫mero:3244162022 Email: dajojumiuso@hotmail.com Direcci√≥n: CL 86 SUR 77L 49 CA 260  Motivo de la llamada: dos meses de hbo max y paramount  no los deja ingresar ya que les aparece que el correo ya esta registrado</t>
+    <t>Línea:6017926791  Nombre de quien se comunica: mireya rojas  3/05/1979 Cédula: 11407017 Número:3244162022 Email: dajojumiuso@hotmail.com Dirección: CL 86 SUR 77L 49 CA 260  Motivo de la llamada: dos meses de hbo max y paramount  no los deja ingresar ya que les aparece que el correo ya esta registrado</t>
   </si>
   <si>
     <t>MDM-PQR-35985482</t>
@@ -2024,7 +2041,7 @@
     <t>MDM-PQR-35988505</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: LEIDY KATHERINE TELLEZ CASTRO C√©dula: 1023886226 N√∫mero de contacto: 3022878024 Email: ktellez591@gmail.com   Direcci√≥n:  DG 49A BIS A SUR 13J 91 TO 4 AP 2434 Motivo de la llamada: Desconoce porque el valor de su factura</t>
+    <t>Nombre de quien se comunica: LEIDY KATHERINE TELLEZ CASTRO Cédula: 1023886226 Número de contacto: 3022878024 Email: ktellez591@gmail.com   Dirección:  DG 49A BIS A SUR 13J 91 TO 4 AP 2434 Motivo de la llamada: Desconoce porque el valor de su factura</t>
   </si>
   <si>
     <t>MDM-PQR-35999379</t>
@@ -2039,19 +2056,19 @@
     <t>MDM-PQR-36015313</t>
   </si>
   <si>
-    <t>SG//LT: 6014426125 cuenta 12053953097//cliente solicita ajuste de la factura, indica no haber solicitando el servicios de SVA WIN SPORT. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el retiro del servicio de SVA WIN SPORT desde 24/12/2022 bajo MDM-FIBRA-010660615 del d√≠a 09/12/2022 RETIRO_SVA (RSER). JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $29,900 incluido IVA. VALOR REAL AJUSTE: $29,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. //AJUSTE BAJO LEY DE FAVORABILIDAD.</t>
+    <t>SG//LT: 6014426125 cuenta 12053953097//cliente solicita ajuste de la factura, indica no haber solicitando el servicios de SVA WIN SPORT. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el retiro del servicio de SVA WIN SPORT desde 24/12/2022 bajo MDM-FIBRA-010660615 del día 09/12/2022 RETIRO_SVA (RSER). JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $29,900 incluido IVA. VALOR REAL AJUSTE: $29,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. //AJUSTE BAJO LEY DE FAVORABILIDAD.</t>
   </si>
   <si>
     <t>MDM-PQR-36015421</t>
   </si>
   <si>
-    <t>SG//LT: SR-33697080 cuenta 12054351335//Cliente radica queja el 29/11/2022 bajo CUN 4347220004781552  ,solicita retiro del extensor WIFI, el cual no fue solicitado . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $13,830, incluido IVA, VALOR REAL AJUSTE $13,830 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: SR-33697080 cuenta 12054351335//Cliente radica queja el 29/11/2022 bajo CUN 4347220004781552  ,solicita retiro del extensor WIFI, el cual no fue solicitado . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $13,830, incluido IVA, VALOR REAL AJUSTE $13,830 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36026026</t>
   </si>
   <si>
-    <t>SOLICITA CANCELACI√ìN DE BUNDLE AUXILIAR: WINSPORT, HBOMAX, DGO. SE HACE ESCALAMIENTO POR CRM YA QUE SUMA GENERA ERROR</t>
+    <t>SOLICITA CANCELACIÓN DE BUNDLE AUXILIAR: WINSPORT, HBOMAX, DGO. SE HACE ESCALAMIENTO POR CRM YA QUE SUMA GENERA ERROR</t>
   </si>
   <si>
     <t>MDM-PQR-36031860</t>
@@ -2066,25 +2083,25 @@
     <t>MDM-PQR-36038797</t>
   </si>
   <si>
-    <t>L√≠nea: 6014422991  Nombre: SARA ¬¥PULIDO C√©dula: 1000378622 Cel: 3112024357  Correo: ESPINOSACONSUELO53@GMAIL.COM Direcci√≥n: CL 39C SUR 72 14  Motivo De Llamada: Solicita suspensi√≥n del servicio bajo  MDM-PQR-35154517 y ahora le llega mensaje de que debe 2 facturaas</t>
+    <t>Línea: 6014422991  Nombre: SARA ´PULIDO Cédula: 1000378622 Cel: 3112024357  Correo: ESPINOSACONSUELO53@GMAIL.COM Dirección: CL 39C SUR 72 14  Motivo De Llamada: Solicita suspensión del servicio bajo  MDM-PQR-35154517 y ahora le llega mensaje de que debe 2 facturaas</t>
   </si>
   <si>
     <t>MDM-PQR-36040055</t>
   </si>
   <si>
-    <t>NombreDIANA PAOLA DUQUE GUZMAN  Celular 3175272526  UENHogares Y Mipymes   Tipo DocumentoCC  DepartamentoBOGOTA  Segmento UENHogares   N√∫mero Documento1014258325  CiudadBOGOTA D.C.  SegmentoHogares   Emaildiana.duque836@gmail.com  Direcci√≥n CategoriaPLATA  T√©lefono Fijo MOTIVO D ELLAMDA : CLIENTE QUIER AJSUTE DE FACTURACION POR QUE ELLA PIDIO RETIRAR HBOMAX  EN TRASLADO SE LO COBRRON EN FACTYRACION  NOVIEMBRE</t>
+    <t>NombreDIANA PAOLA DUQUE GUZMAN  Celular 3175272526  UENHogares Y Mipymes   Tipo DocumentoCC  DepartamentoBOGOTA  Segmento UENHogares   Número Documento1014258325  CiudadBOGOTA D.C.  SegmentoHogares   Emaildiana.duque836@gmail.com  Dirección CategoriaPLATA  Télefono Fijo MOTIVO D ELLAMDA : CLIENTE QUIER AJSUTE DE FACTURACION POR QUE ELLA PIDIO RETIRAR HBOMAX  EN TRASLADO SE LO COBRRON EN FACTYRACION  NOVIEMBRE</t>
   </si>
   <si>
     <t>MDM-PQR-36043588</t>
   </si>
   <si>
-    <t>L√≠nea: 6017307686  Nombre: LILIANA ALDANA C√©dula: 52166499 Cel: 3160401834  Correo: anita.aldana@hotmail.com Direcci√≥n: CL 40C SUR 72K 80 IN 121  Motivo De Llamada: Solicito la cancelaci√≥n del servicio genero el pago de la factura y ahora le aparece saldo pendiente</t>
+    <t>Línea: 6017307686  Nombre: LILIANA ALDANA Cédula: 52166499 Cel: 3160401834  Correo: anita.aldana@hotmail.com Dirección: CL 40C SUR 72K 80 IN 121  Motivo De Llamada: Solicito la cancelación del servicio genero el pago de la factura y ahora le aparece saldo pendiente</t>
   </si>
   <si>
     <t>MDM-PQR-36047498</t>
   </si>
   <si>
-    <t>L√≠nea:  6016334442 Nombre de quien se comunica:  MANUEL ARTURO GONZALEZ RAMIREZ   C√©dula:  1013588836 N√∫mero de contacto:   3002412716 Email: managonzalezr@gmail.com   Direcci√≥n:   CL 13 SUR 12B 21 Motivo de la llamada: cliente indica porque le llego la factura de 160.000 pesos pero el 20/12/2022 cambio el plan a 200 megas y tiene hbo max por 12 meses sin cobro.</t>
+    <t>Línea:  6016334442 Nombre de quien se comunica:  MANUEL ARTURO GONZALEZ RAMIREZ   Cédula:  1013588836 Número de contacto:   3002412716 Email: managonzalezr@gmail.com   Dirección:   CL 13 SUR 12B 21 Motivo de la llamada: cliente indica porque le llego la factura de 160.000 pesos pero el 20/12/2022 cambio el plan a 200 megas y tiene hbo max por 12 meses sin cobro.</t>
   </si>
   <si>
     <t>MDM-PQR-36050634</t>
@@ -2096,67 +2113,67 @@
     <t>MDM-PQR-36052210</t>
   </si>
   <si>
-    <t>L√≠nea:6016734662 Nombre de quien se comunica: BEATRIZ ALEJANDRA SANJUAN RUEDA   C√©dula:52816988 N√∫mero de contacto:3057129695 Ema√≠l: alejandrasanjuanr@gmail.com   Direcci√≥n: KR 14 103 35 AP 203 Motivo de la llamada: Inconformidad por cobro de servicios adicional de PARAMOUNT Y HBO MAX  no solicitado.</t>
+    <t>Línea:6016734662 Nombre de quien se comunica: BEATRIZ ALEJANDRA SANJUAN RUEDA   Cédula:52816988 Número de contacto:3057129695 Emaíl: alejandrasanjuanr@gmail.com   Dirección: KR 14 103 35 AP 203 Motivo de la llamada: Inconformidad por cobro de servicios adicional de PARAMOUNT Y HBO MAX  no solicitado.</t>
   </si>
   <si>
     <t>MDM-PQR-36053613</t>
   </si>
   <si>
-    <t>Cliente CONSTANZA MURCIA MURCIA C√©dula de Ciudadan√≠a 35511550 Id PQR MDM-PQR-36053613 L√≠nea: 6013784374 Cuenta de Facturaci√≥n: 12054217444 cliente solicita ajuste en factura ya que se le esta cobrando clausula por valor de 99.180,00   PERO LA ORDEN DE RETIRO  N√∫mero Orden:MDM-FIBRA-010689664   Fase:ORDERF  CUN:4347220004879036   Tipo Tr√°mite:CANCELACION_VOLUNTARIA DICE Causal Cancelaci√≥n:Traslado - Fuera de cobertura  Subcausal Cancelaci√≥n:  Descripci√≥n Cancelaci√≥n:Ya no vive en Bogot√°</t>
+    <t>Cliente CONSTANZA MURCIA MURCIA Cédula de Ciudadanía 35511550 Id PQR MDM-PQR-36053613 Línea: 6013784374 Cuenta de Facturación: 12054217444 cliente solicita ajuste en factura ya que se le esta cobrando clausula por valor de 99.180,00   PERO LA ORDEN DE RETIRO  Número Orden:MDM-FIBRA-010689664   Fase:ORDERF  CUN:4347220004879036   Tipo Trámite:CANCELACION_VOLUNTARIA DICE Causal Cancelación:Traslado - Fuera de cobertura  Subcausal Cancelación:  Descripción Cancelación:Ya no vive en Bogotá</t>
   </si>
   <si>
     <t>MDM-PQR-36053734</t>
   </si>
   <si>
-    <t>se  comunica  cliente  indicando que  solicito  cancelaci√≥n de  sva  y solicita  ajuste de  los  mismos</t>
+    <t>se  comunica  cliente  indicando que  solicito  cancelación de  sva  y solicita  ajuste de  los  mismos</t>
   </si>
   <si>
     <t>MDM-PQR-36054093</t>
   </si>
   <si>
-    <t>FECHA Y HORA DE GESTI√ìN: 03/01/2023 11:04:20 a. m. L√çNEA: 6017684914 C√âDULA TITULAR: 3177190 NOMBRE TITULAR: MERCEDES VARELA VARELA N√öMERO DE CONTACTO: 3112256228 EMAIL: duarteadriano348@gmail.com DIRECCI√ìN: CL 35B SUR 13F 46 MOTIVO DE LLAMADA: Incremento de factura</t>
+    <t>FECHA Y HORA DE GESTIÓN: 03/01/2023 11:04:20 a. m. LÍNEA: 6017684914 CÉDULA TITULAR: 3177190 NOMBRE TITULAR: MERCEDES VARELA VARELA NÚMERO DE CONTACTO: 3112256228 EMAIL: duarteadriano348@gmail.com DIRECCIÓN: CL 35B SUR 13F 46 MOTIVO DE LLAMADA: Incremento de factura</t>
   </si>
   <si>
     <t>MDM-PQR-36055320</t>
   </si>
   <si>
-    <t>SG//LT: 6016565465 cuenta 12053474701//Cliente radica queja el 19/12/2022 bajo CUN 4347220004926290      ,1.Escucha de llamada , 2.Exoneraci√≥n de factura , 3.Cancelaci√≥n del servicio 6016565465. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $140,100, incluido IVA, VALOR REAL AJUSTE $ 140,100 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016565465 cuenta 12053474701//Cliente radica queja el 19/12/2022 bajo CUN 4347220004926290      ,1.Escucha de llamada , 2.Exoneración de factura , 3.Cancelación del servicio 6016565465. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $140,100, incluido IVA, VALOR REAL AJUSTE $ 140,100 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36055615</t>
   </si>
   <si>
-    <t>L√≠nea: 6017611219 Nombre de quien se comunica: Patricia CONJUNTO RESIDENCIAL URBANO 40 - PROPIEDAD HORIZONTAL C√©dula: 901458746 N√∫mero de contacto: 3148730847 Email: admon.urbano40@gmail.com   Direcci√≥n: CL 40 SUR 72K 02 AD 1 Motivo de la llamada:servicio y valor</t>
+    <t>Línea: 6017611219 Nombre de quien se comunica: Patricia CONJUNTO RESIDENCIAL URBANO 40 - PROPIEDAD HORIZONTAL Cédula: 901458746 Número de contacto: 3148730847 Email: admon.urbano40@gmail.com   Dirección: CL 40 SUR 72K 02 AD 1 Motivo de la llamada:servicio y valor</t>
   </si>
   <si>
     <t>MDM-PQR-36056276</t>
   </si>
   <si>
-    <t>SG//LT: 6017263151 cuenta 12054451845//Cliente radica queja el 27/11/2022 bajo CUN 4347220004761704       ,Solicitud de ajuste por concepto de Dirctv Go y HBO Pack, dado a que ya se hab√≠a solicitado el retiro. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $129,780, incluido IVA, VALOR REAL AJUSTE $ 129,780 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017263151 cuenta 12054451845//Cliente radica queja el 27/11/2022 bajo CUN 4347220004761704       ,Solicitud de ajuste por concepto de Dirctv Go y HBO Pack, dado a que ya se había solicitado el retiro. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $129,780, incluido IVA, VALOR REAL AJUSTE $ 129,780 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36056287</t>
   </si>
   <si>
-    <t>L√≠nea: 6017256525 Nombre de quien se comunica:  OMAR RICARDO SANCHEZ GARZON C√©dula: 79361516 N√∫mero de contacto: 3057441250 Email: omar1965@gmail.com  Direcci√≥n: CL 41F SUR 78B 41 Motivo de la llamada: retencion no aplicada</t>
+    <t>Línea: 6017256525 Nombre de quien se comunica:  OMAR RICARDO SANCHEZ GARZON Cédula: 79361516 Número de contacto: 3057441250 Email: omar1965@gmail.com  Dirección: CL 41F SUR 78B 41 Motivo de la llamada: retencion no aplicada</t>
   </si>
   <si>
     <t>MDM-PQR-36058179</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: LINDA KATERINE COHEN PALMA  C√©dula: 40879147 N√∫mero de contacto: Motivo de la llamada: La factura le lleg√≥ una factura por un valor de 80.000 y desde el 18/12/2022 no lo estan usando porque realizaron al cancelaci√≥n del servicio</t>
+    <t>Nombre de quien se comunica: LINDA KATERINE COHEN PALMA  Cédula: 40879147 Número de contacto: Motivo de la llamada: La factura le llegó una factura por un valor de 80.000 y desde el 18/12/2022 no lo estan usando porque realizaron al cancelación del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-36059497</t>
   </si>
   <si>
-    <t>L√≠nea: 6016250818   Nombre de quien se comunica:  DENNYS VIVIANA MARENTES CANO   C√©dula: 53107551  N√∫mero de contacto: 6016250818   Email: viviamaliceofem@gmail.com   Direcci√≥n: KR 110C 64D 88  Motivo de la llamada: RECIBIO SU FACTURA HOY, Y LE ESTAN COBRANDO 98.500, PERO ELLA SE HABIA COMUNICADO EN EL MES DE DICIEMBRE Y LE DIJERON QUE BAJABA EL PLAN A 55.000 CLIENTE INDICA QUE NO VA A CANCELAR LA FACTURA.</t>
+    <t>Línea: 6016250818   Nombre de quien se comunica:  DENNYS VIVIANA MARENTES CANO   Cédula: 53107551  Número de contacto: 6016250818   Email: viviamaliceofem@gmail.com   Dirección: KR 110C 64D 88  Motivo de la llamada: RECIBIO SU FACTURA HOY, Y LE ESTAN COBRANDO 98.500, PERO ELLA SE HABIA COMUNICADO EN EL MES DE DICIEMBRE Y LE DIJERON QUE BAJABA EL PLAN A 55.000 CLIENTE INDICA QUE NO VA A CANCELAR LA FACTURA.</t>
   </si>
   <si>
     <t>MDM-PQR-36060343</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica:  LUCY CAROLINA ROMERO AGUDELO C√©dula: 40444245 N√∫mero de contacto: 3174803394 Email: carolinaromero03@gmail.com   Direcci√≥n: CL 156 92 64 BQ 4 AP 202 Motivo de la llamada: cancelaci√≥n de directv desde octubre</t>
+    <t>Nombre de quien se comunica:  LUCY CAROLINA ROMERO AGUDELO Cédula: 40444245 Número de contacto: 3174803394 Email: carolinaromero03@gmail.com   Dirección: CL 156 92 64 BQ 4 AP 202 Motivo de la llamada: cancelación de directv desde octubre</t>
   </si>
   <si>
     <t>MDM-PQR-36061659</t>
@@ -2174,7 +2191,7 @@
     <t>MDM-PQR-36064301</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: GABRIELA CORREDOR C√©dula: 1000596397 N√∫mero de contacto: 3192092029  Email: GABRIELA CORREDOR HINESTROZA Direcci√≥n: KR 68B 78 71 IN 2 AP 202 Motivo de la llamada: Les lleg√≥ a factura con un valor de win sports+, sin embargo hace un mes solicito la cancelaci√≥n de HBO MAX a lo que solicit√≥ la cancelaci√≥n de todos esos servicios y no ha aceptado, raz√≥n por la que desean el retiro del cobro de win ya que nunca solicitaron  alg√∫n producto adicional</t>
+    <t>Nombre de quien se comunica: GABRIELA CORREDOR Cédula: 1000596397 Número de contacto: 3192092029  Email: GABRIELA CORREDOR HINESTROZA Dirección: KR 68B 78 71 IN 2 AP 202 Motivo de la llamada: Les llegó a factura con un valor de win sports+, sin embargo hace un mes solicito la cancelación de HBO MAX a lo que solicitó la cancelación de todos esos servicios y no ha aceptado, razón por la que desean el retiro del cobro de win ya que nunca solicitaron  algún producto adicional</t>
   </si>
   <si>
     <t>MDM-PQR-36064687</t>
@@ -2198,7 +2215,7 @@
     <t>MDM-PQR-36066313</t>
   </si>
   <si>
-    <t>L√≠nea: SR-27669934 Nombre de quien se comunica:  DIANA BERRIO C√©dula: 52516848 N√∫mero de contacto: 3124409989 Email: dianaberriovasquez@gmail.com Direcci√≥n: TV 60 125 50 TO 1 AP 1007 Motivo de la llamada: Vigencia clausula de permanencia</t>
+    <t>Línea: SR-27669934 Nombre de quien se comunica:  DIANA BERRIO Cédula: 52516848 Número de contacto: 3124409989 Email: dianaberriovasquez@gmail.com Dirección: TV 60 125 50 TO 1 AP 1007 Motivo de la llamada: Vigencia clausula de permanencia</t>
   </si>
   <si>
     <t>MDM-PQR-36067316</t>
@@ -2216,7 +2233,7 @@
     <t>MDM-PQR-36074043</t>
   </si>
   <si>
-    <t>L√≠nea: 6012004884  Nombre: JORGE OSWALDO CAGUA LOPEZ  C√©dula: 86061770  Cel: 3106734507  Correo: oswaldocagua_79@hotmail.com  Direcci√≥n: CL 54B SUR 80 23 AP 508  Motivo De Llamada: Le ofrecieron dscto por retenci√≥n y ahora le llega la factura por el mismo valor</t>
+    <t>Línea: 6012004884  Nombre: JORGE OSWALDO CAGUA LOPEZ  Cédula: 86061770  Cel: 3106734507  Correo: oswaldocagua_79@hotmail.com  Dirección: CL 54B SUR 80 23 AP 508  Motivo De Llamada: Le ofrecieron dscto por retención y ahora le llega la factura por el mismo valor</t>
   </si>
   <si>
     <t>MDM-PQR-36074569</t>
@@ -2234,7 +2251,7 @@
     <t>MDM-PQR-36081619</t>
   </si>
   <si>
-    <t>LINEA:  6017367102 NOMBRE DE QUIEN SE COMUNICA: WILSON LEONEL DIAZ NARANJO   C.C. 79762628 CELULAR: 3046585072   EMAIL: wilsondiaz7920@gmail.com   DIRECCI√ìN TV 43B 5G 39 LC MOTIVO DE LA LLAMADA: se comunica por facturacion y ya solicito la cancelaci√≥n</t>
+    <t>LINEA:  6017367102 NOMBRE DE QUIEN SE COMUNICA: WILSON LEONEL DIAZ NARANJO   C.C. 79762628 CELULAR: 3046585072   EMAIL: wilsondiaz7920@gmail.com   DIRECCIÓN TV 43B 5G 39 LC MOTIVO DE LA LLAMADA: se comunica por facturacion y ya solicito la cancelación</t>
   </si>
   <si>
     <t>MDM-PQR-36087082</t>
@@ -2252,7 +2269,7 @@
     <t>MDM-PQR-36090951</t>
   </si>
   <si>
-    <t>L√≠nea:  6013104163   Nombre de quien se comunica:   ERIKA RAMIREZ  C√©dula:   1013629432 N√∫mero de contacto:   3102070406   Email:   eprt.1110@hotmail.com   Direcci√≥n:  CL 11 SUR 1A 18 ESTE Motivo de la llamada:. facturacion  por  hbo  y ella  pidio  cancelar hace dos meses    sele indica cobro a dicional corresponde a reconexion  de s ervicio, ya que hbo  viene empaquetado</t>
+    <t>Línea:  6013104163   Nombre de quien se comunica:   ERIKA RAMIREZ  Cédula:   1013629432 Número de contacto:   3102070406   Email:   eprt.1110@hotmail.com   Dirección:  CL 11 SUR 1A 18 ESTE Motivo de la llamada:. facturacion  por  hbo  y ella  pidio  cancelar hace dos meses    sele indica cobro a dicional corresponde a reconexion  de s ervicio, ya que hbo  viene empaquetado</t>
   </si>
   <si>
     <t>MDM-PQR-36091748</t>
@@ -2264,13 +2281,13 @@
     <t>MDM-PQR-36092767</t>
   </si>
   <si>
-    <t>Usuario indica que le est√°n cobrando servicios adicionales como HBO en su facturaci√≥n</t>
+    <t>Usuario indica que le están cobrando servicios adicionales como HBO en su facturación</t>
   </si>
   <si>
     <t>MDM-PQR-36092973</t>
   </si>
   <si>
-    <t>L√≠nea: N/A Nombre: Liliana Guevara  C√©dula: 1083914022 Celular:3023572025   Correo:nanithachavarro23@gmail.com   Direcci√≥n: CL 152A 99 60 CA 226 Petici√≥n: Solicita sabr el valor de la clausula de permanencia</t>
+    <t>Línea: N/A Nombre: Liliana Guevara  Cédula: 1083914022 Celular:3023572025   Correo:nanithachavarro23@gmail.com   Dirección: CL 152A 99 60 CA 226 Petición: Solicita sabr el valor de la clausula de permanencia</t>
   </si>
   <si>
     <t>MDM-PQR-36095891</t>
@@ -2282,13 +2299,13 @@
     <t>MDM-PQR-36097424</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica:  RODRIGO ORDO√ëEZ  cedula: NIT 900580982 N√∫mero de contacto:  3002501998 direccion:  KR 78 16D 48 TO 2 AP 2316 email: rordonez@geintech.com.co   motivo de la llamada: SE COMUNICA PORQUE CONTRATO INTERNET, EN EL PLAN QUE TENIA ANTES TENIA  ACTIVO HBO Y PARAMOUNT Y EN LA ULTIMA FACTURA LE ESTAN GENERANDO COBRO</t>
+    <t>Nombre de quien se comunica:  RODRIGO ORDOÑEZ  cedula: NIT 900580982 Número de contacto:  3002501998 direccion:  KR 78 16D 48 TO 2 AP 2316 email: rordonez@geintech.com.co   motivo de la llamada: SE COMUNICA PORQUE CONTRATO INTERNET, EN EL PLAN QUE TENIA ANTES TENIA  ACTIVO HBO Y PARAMOUNT Y EN LA ULTIMA FACTURA LE ESTAN GENERANDO COBRO</t>
   </si>
   <si>
     <t>MDM-PQR-36101480</t>
   </si>
   <si>
-    <t>SG//LT: 6014505394 cuenta 675771372//Cliente pide ajuste de la factura, cliente se ofreci√≥ cambio de tecnolog√≠a. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia orden de CAMBIO_TECNOLOG√çA_MIGRADO (CCTEC) bajo MDM-FIBRA-006472989 del d√≠a 25/10/2022 oferta escalonada de ROMO 100% PRORRATEO MAS 50% MES 1 (nov/21), 3(ene), 5(marz), 7(may), 9(jul), 11 (sept/22), la cual finalizo en el mes de septiembre 2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $32,150 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $32,150/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE NO APLICA AJUSTE A LA FACTURA POR QUE OFERTA ESCALONADA FINALIZO EN EL MES DE SEPTIEMBRE.</t>
+    <t>SG//LT: 6014505394 cuenta 675771372//Cliente pide ajuste de la factura, cliente se ofreció cambio de tecnología. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia orden de CAMBIO_TECNOLOGÍA_MIGRADO (CCTEC) bajo MDM-FIBRA-006472989 del día 25/10/2022 oferta escalonada de ROMO 100% PRORRATEO MAS 50% MES 1 (nov/21), 3(ene), 5(marz), 7(may), 9(jul), 11 (sept/22), la cual finalizo en el mes de septiembre 2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $32,150 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $32,150/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE NO APLICA AJUSTE A LA FACTURA POR QUE OFERTA ESCALONADA FINALIZO EN EL MES DE SEPTIEMBRE.</t>
   </si>
   <si>
     <t>MDM-PQR-36105609</t>
@@ -2306,13 +2323,13 @@
     <t>MDM-PQR-36114862</t>
   </si>
   <si>
-    <t>CLIENTE SE COMUNCA PORQUE SE ESTA GENERANDO COBRO DE HBO EL CUAL SE LE DIO COMO BENEFICIO EN LA INSTALACI√ìN - NO DESACTIVO A LOS DOS MESES Y GENERO COBRO</t>
+    <t>CLIENTE SE COMUNCA PORQUE SE ESTA GENERANDO COBRO DE HBO EL CUAL SE LE DIO COMO BENEFICIO EN LA INSTALACIÓN - NO DESACTIVO A LOS DOS MESES Y GENERO COBRO</t>
   </si>
   <si>
     <t>MDM-PQR-36115721</t>
   </si>
   <si>
-    <t>L√≠nea:  6012772016 Nombre de quien se comunica: MANUEL RIVERA cedula: 80192489 N√∫mero de contacto:  3167457482 direccion:  CL 151B 102B 90 TO 6 AP 1103 email:    harbeen_river@hotmail.com motivo de la llamada: 22/12/2022 CAMBIANDO VALOR DE PLAN A 55.000 Y LE LLEGO LA FACTURA AHORA CON EL VALOR COMPLETO Y NO ESTA DE ACUERDO.</t>
+    <t>Línea:  6012772016 Nombre de quien se comunica: MANUEL RIVERA cedula: 80192489 Número de contacto:  3167457482 direccion:  CL 151B 102B 90 TO 6 AP 1103 email:    harbeen_river@hotmail.com motivo de la llamada: 22/12/2022 CAMBIANDO VALOR DE PLAN A 55.000 Y LE LLEGO LA FACTURA AHORA CON EL VALOR COMPLETO Y NO ESTA DE ACUERDO.</t>
   </si>
   <si>
     <t>MDM-PQR-36117691</t>
@@ -2336,13 +2353,13 @@
     <t>MDM-PQR-36121535</t>
   </si>
   <si>
-    <t>Cliente indica que le llega la factura elevada y solicita la compensaci√≥n por fallas en el servicio , cliente indica que dur√≥ una semana sin servicio en el mes de diciembre y que ya lleva dos meses  sin que el modem funcione  ya que s√≥lo funcionaba por wifi</t>
+    <t>Cliente indica que le llega la factura elevada y solicita la compensación por fallas en el servicio , cliente indica que duró una semana sin servicio en el mes de diciembre y que ya lleva dos meses  sin que el modem funcione  ya que sólo funcionaba por wifi</t>
   </si>
   <si>
     <t>MDM-PQR-36121936</t>
   </si>
   <si>
-    <t>SG//LT: 6012985999 cuenta 12053713897//Cliente pide ajuste de la factura, cliente le ofrecieron cambio de plan en el mes de agosto 2022. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia orden de MDM-FIBRA-009691191 de CAMBIO_PLAN (PRCH) completada, se evidencia Bundle de DUO 200M HOG FTTH V1 $74,900 se evidencia facturaci√≥n ok . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $25,860 incluido IVA. VALOR REAL AJUSTE: $25,860 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.// SE PENALIZA ASESOR yaniarrg ya que no cumple con tramite solicitado por el usuario.</t>
+    <t>SG//LT: 6012985999 cuenta 12053713897//Cliente pide ajuste de la factura, cliente le ofrecieron cambio de plan en el mes de agosto 2022. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia orden de MDM-FIBRA-009691191 de CAMBIO_PLAN (PRCH) completada, se evidencia Bundle de DUO 200M HOG FTTH V1 $74,900 se evidencia facturación ok . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $25,860 incluido IVA. VALOR REAL AJUSTE: $25,860 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.// SE PENALIZA ASESOR yaniarrg ya que no cumple con tramite solicitado por el usuario.</t>
   </si>
   <si>
     <t>MDM-PQR-36122418</t>
@@ -2354,13 +2371,13 @@
     <t>MDM-PQR-36125602</t>
   </si>
   <si>
-    <t>Linea:SR-34415997 Nombre de quien se comunica:NORELIS GARAY SANCHEZ   C√©dula: 1019137954 N√∫mero de contacto: 3007739317   Email:    3007739317   Direcci√≥n:  KR 149B 137 32 PI 4 Motivo de la llamada: clienete se comunica para realizar ajuste por fallas tecnicas</t>
+    <t>Linea:SR-34415997 Nombre de quien se comunica:NORELIS GARAY SANCHEZ   Cédula: 1019137954 Número de contacto: 3007739317   Email:    3007739317   Dirección:  KR 149B 137 32 PI 4 Motivo de la llamada: clienete se comunica para realizar ajuste por fallas tecnicas</t>
   </si>
   <si>
     <t>MDM-PQR-36127723</t>
   </si>
   <si>
-    <t>nombre---: STEFANIA MELO  limotivos---:  cliente idnica que tiene hbo y paramount Y los quiere activar realizo acompa√±amiento activacion paramount + cofnirmo hbo max no activo envio copia del contrato</t>
+    <t>nombre---: STEFANIA MELO  limotivos---:  cliente idnica que tiene hbo y paramount Y los quiere activar realizo acompañamiento activacion paramount + cofnirmo hbo max no activo envio copia del contrato</t>
   </si>
   <si>
     <t>MDM-PQR-36131190</t>
@@ -2372,31 +2389,31 @@
     <t>MDM-PQR-36132715</t>
   </si>
   <si>
-    <t>SG//LT: 6016405949 cuenta 12054059678//Cliente pide ajuste de la factura, cliente le ofrecieron cambio de plan DUO 120M MIPYMES SIMETRICO ZONA  a DUO 200M HOG FTTH V1 $84.899. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia orden de CAMBIO_PLAN (PRCH) bajo MDM-FIBRA-010104434 del d√≠a 07/10/2022 y se evidencia orden de RETIRO_BUNDLE_AUXILIAR (RBA) bajo MDM-FIBRA-010512151 del d√≠a 21/11/2022 con Fecha Ejecuci√≥n Orden Activaci√≥n: 01/12/2022, se evidencia en revchain retiro del servicio de SVA PARAMOUNT desde 30/11/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $23,760 incluido IVA. VALOR REAL AJUSTE: $23,760 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.//</t>
+    <t>SG//LT: 6016405949 cuenta 12054059678//Cliente pide ajuste de la factura, cliente le ofrecieron cambio de plan DUO 120M MIPYMES SIMETRICO ZONA  a DUO 200M HOG FTTH V1 $84.899. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia orden de CAMBIO_PLAN (PRCH) bajo MDM-FIBRA-010104434 del día 07/10/2022 y se evidencia orden de RETIRO_BUNDLE_AUXILIAR (RBA) bajo MDM-FIBRA-010512151 del día 21/11/2022 con Fecha Ejecución Orden Activación: 01/12/2022, se evidencia en revchain retiro del servicio de SVA PARAMOUNT desde 30/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $23,760 incluido IVA. VALOR REAL AJUSTE: $23,760 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.//</t>
   </si>
   <si>
     <t>MDM-PQR-36133106</t>
   </si>
   <si>
-    <t xml:space="preserve"> NOMBRE:    MARIA ROSALVA PARRA MONTENEGRO   CC:   53097099 CELULAR: 3142576520   TELEFONO:  EMAIL:  mparram36@gmail.com   DIRECCION:  CL 39I SUR 72F 70 MOTIVO: habia llamado para hacer la cancelaci√≥n le dieron una retenci√≥n pero no se la estan aplicando 4347220004944433</t>
+    <t xml:space="preserve"> NOMBRE:    MARIA ROSALVA PARRA MONTENEGRO   CC:   53097099 CELULAR: 3142576520   TELEFONO:  EMAIL:  mparram36@gmail.com   DIRECCION:  CL 39I SUR 72F 70 MOTIVO: habia llamado para hacer la cancelación le dieron una retención pero no se la estan aplicando 4347220004944433</t>
   </si>
   <si>
     <t>MDM-PQR-36134000</t>
   </si>
   <si>
-    <t>SG//LT: 6012693399 cuenta 12053658940//Cliente pide ajuste de la factura, cliente solicito el retiro de los servicio de SVA DTV HBO PACK Y DTV WIN SPORTS. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain los servicio de DTV HBO PACK Y DTV WIN SPORTS ya retirados desde 30/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $47,160 incluido IVA. VALOR REAL AJUSTE: $47,160 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012693399 cuenta 12053658940//Cliente pide ajuste de la factura, cliente solicito el retiro de los servicio de SVA DTV HBO PACK Y DTV WIN SPORTS. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain los servicio de DTV HBO PACK Y DTV WIN SPORTS ya retirados desde 30/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $47,160 incluido IVA. VALOR REAL AJUSTE: $47,160 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36134565</t>
   </si>
   <si>
-    <t>SG//LT: 6014169388 cuenta 12053313698//Cliente pide ajuste de la factura, cliente solicito el retiro de los servicio de SVA PARAMOUNT y SVA HBO MAX. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain los servicio de SVA PARAMOUNT y SVA HBO MAX ya retirados desde 30/11/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6014169388 cuenta 12053313698//Cliente pide ajuste de la factura, cliente solicito el retiro de los servicio de SVA PARAMOUNT y SVA HBO MAX. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain los servicio de SVA PARAMOUNT y SVA HBO MAX ya retirados desde 30/11/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36134773</t>
   </si>
   <si>
-    <t>SG//LT: 6013845413 cuenta 12054437782//Cliente radica queja el 24/11/2022 bajo CUN 4347220004740525        ,1. Grabaci√≥n de la llamada del 24 de noviembre de 2022 , 2. Incumplimiento solicitudes , 3. Calidad en la atenci√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $33,800, incluido IVA, VALOR REAL AJUSTE $33,800 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013845413 cuenta 12054437782//Cliente radica queja el 24/11/2022 bajo CUN 4347220004740525        ,1. Grabación de la llamada del 24 de noviembre de 2022 , 2. Incumplimiento solicitudes , 3. Calidad en la atención. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $33,800, incluido IVA, VALOR REAL AJUSTE $33,800 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36136848</t>
@@ -2408,19 +2425,19 @@
     <t>MDM-PQR-36138388</t>
   </si>
   <si>
-    <t>SG//LT: 6012047938 cuenta 995429//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001326583 del d√≠a 01/12/2022, donde se realiza retenci√≥n por cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012047938 cuenta 995429//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001326583 del día 01/12/2022, donde se realiza retención por cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36142035</t>
   </si>
   <si>
-    <t>Cliente LUZ MARINA ROA SANCHEZ C√©dula de Ciudadan√≠a 35509303 L√≠nea: 6016876331 Cuenta de Facturaci√≥n: 12054443761 motivo porque le cortaron el servicio si pago la factura</t>
+    <t>Cliente LUZ MARINA ROA SANCHEZ Cédula de Ciudadanía 35509303 Línea: 6016876331 Cuenta de Facturación: 12054443761 motivo porque le cortaron el servicio si pago la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36145813</t>
   </si>
   <si>
-    <t>Cliente se comunica indicando que tenia varios SVA agregados e hiso la cancelaci√≥n de estos productos, indica que le arreglaron el inconveniente hasta el dia de ayer y hasta la fecha 4 de enero 2023 le enviaron la factura cuando la fecha limite de pago es en la fecha 2 de enero 2023 indica que no es responsabilidad de el pagar en su proxima factura la reconexion ya que el envio de la factura fue dos dias despues de la fecha limite de pago , se le indica que es posible hacer ajuste en caso tal de que en su proxima factura aparezca este cobro y que se debe comunicar con nosotros. // whatsapp /STEPHANIE ALEJANDRA GONZALEZ HERNANDEZ//1000850625//12054377841.</t>
+    <t>Cliente se comunica indicando que tenia varios SVA agregados e hiso la cancelación de estos productos, indica que le arreglaron el inconveniente hasta el dia de ayer y hasta la fecha 4 de enero 2023 le enviaron la factura cuando la fecha limite de pago es en la fecha 2 de enero 2023 indica que no es responsabilidad de el pagar en su proxima factura la reconexion ya que el envio de la factura fue dos dias despues de la fecha limite de pago , se le indica que es posible hacer ajuste en caso tal de que en su proxima factura aparezca este cobro y que se debe comunicar con nosotros. // whatsapp /STEPHANIE ALEJANDRA GONZALEZ HERNANDEZ//1000850625//12054377841.</t>
   </si>
   <si>
     <t>MDM-PQR-36148833</t>
@@ -2432,7 +2449,7 @@
     <t>MDM-PQR-36152907</t>
   </si>
   <si>
-    <t>L√≠nea: 6016223533  Nombre:MANUEL ANDRES GARCIA HERNADEZ  C√©dula:80830583   Celular: 3013313407   Correo: coloes8@hotmail.com   Direcci√≥n:KR 9 52A 20 AP 708 Motivo de llamada:Cancelar el servicio, por motivos de que la tarifa 85.000 y le llega por 95.000.</t>
+    <t>Línea: 6016223533  Nombre:MANUEL ANDRES GARCIA HERNADEZ  Cédula:80830583   Celular: 3013313407   Correo: coloes8@hotmail.com   Dirección:KR 9 52A 20 AP 708 Motivo de llamada:Cancelar el servicio, por motivos de que la tarifa 85.000 y le llega por 95.000.</t>
   </si>
   <si>
     <t>MDM-PQR-36154048</t>
@@ -2444,13 +2461,13 @@
     <t>MDM-PQR-36155280</t>
   </si>
   <si>
-    <t>NOMBRE:LENIS BORIS VARGAS BADILLO   CEDULA:79751169   LINEA:3208962793   CORREO:lenis490@yahoo.com   DIRECCION:KR 74A 168A 50 IN 7 AP 628 MOTIVO: cancelaci√≥n</t>
+    <t>NOMBRE:LENIS BORIS VARGAS BADILLO   CEDULA:79751169   LINEA:3208962793   CORREO:lenis490@yahoo.com   DIRECCION:KR 74A 168A 50 IN 7 AP 628 MOTIVO: cancelación</t>
   </si>
   <si>
     <t>MDM-PQR-36157912</t>
   </si>
   <si>
-    <t>Cliente se acerca a reportar que para el mes de noviembre y diciembre tuvo fallas continuas con el servicio sin soluci√≥n alguna y en el call center se le indico que al cancelar el servicio, se le exoneraba de la cl√°usula de permanencia, indica que el d√≠a 05/12/2023 radico la cancelaci√≥n de la l√≠nea y en la constancia se le resalta que se le generara cobro de cl√°usula, pero se escala con coordinar y debido a las fallas seg√∫n las MDMS: MDM-PQR-35314678// MDM-PQR-35596348// MDM-PQR-35718819//MDM-PQR-35783037, se da favorabilidad a la cliente donde si le llega cobro por cl√°usula se hace el respectivo ajuste, ya que completo en un mismo mes las tres fallas.</t>
+    <t>Cliente se acerca a reportar que para el mes de noviembre y diciembre tuvo fallas continuas con el servicio sin solución alguna y en el call center se le indico que al cancelar el servicio, se le exoneraba de la cláusula de permanencia, indica que el día 05/12/2023 radico la cancelación de la línea y en la constancia se le resalta que se le generara cobro de cláusula, pero se escala con coordinar y debido a las fallas según las MDMS: MDM-PQR-35314678// MDM-PQR-35596348// MDM-PQR-35718819//MDM-PQR-35783037, se da favorabilidad a la cliente donde si le llega cobro por cláusula se hace el respectivo ajuste, ya que completo en un mismo mes las tres fallas.</t>
   </si>
   <si>
     <t>MDM-PQR-36181089</t>
@@ -2468,25 +2485,25 @@
     <t>MDM-PQR-36185929</t>
   </si>
   <si>
-    <t>CC: 41373353 NOMBRE:CARMEN ROSA AVILA NAVARRETE   CORREO:crosaavila46@gmail.com CELULAR:3132053587   DIRECCI√ìN:KR 11B 17 21 SUR L√çNEA:6013668289 CUENTA:12052947630</t>
+    <t>CC: 41373353 NOMBRE:CARMEN ROSA AVILA NAVARRETE   CORREO:crosaavila46@gmail.com CELULAR:3132053587   DIRECCIÓN:KR 11B 17 21 SUR LÍNEA:6013668289 CUENTA:12052947630</t>
   </si>
   <si>
     <t>MDM-PQR-36198756</t>
   </si>
   <si>
-    <t>NOMBRE: WILLIAM DANIEL LOPEZ FERNANDEZ   CC: 1022329425 CELULAR: 3132527896 DIRECCI√ìN: CL 39A SUR 8C 19 ESTE  CORREO: jmonrroy796@gmail.com  MOTIVO: INCONFORMIDAD CON FACTURACI√ìN YA QUE LE LLEGA M√ÅS ALTA. ADICIONAL SOLICITA CANCELACI√ìN DE SVA HBO Y PARAMOUNT</t>
+    <t>NOMBRE: WILLIAM DANIEL LOPEZ FERNANDEZ   CC: 1022329425 CELULAR: 3132527896 DIRECCIÓN: CL 39A SUR 8C 19 ESTE  CORREO: jmonrroy796@gmail.com  MOTIVO: INCONFORMIDAD CON FACTURACIÓN YA QUE LE LLEGA MÁS ALTA. ADICIONAL SOLICITA CANCELACIÓN DE SVA HBO Y PARAMOUNT</t>
   </si>
   <si>
     <t>MDM-PQR-36202469</t>
   </si>
   <si>
-    <t>Linea:6014339241 Nombre de quien se comunica:TULIA QUIROGA DUARTE   C√©dula: 41531915 N√∫mero de contacto: 3156703849   Email:     Direcci√≥n: KR 111C 81 30 IN 10 AP 402  Motivo de consulta: cliente se comunica porque motivo incremento de ley</t>
+    <t>Linea:6014339241 Nombre de quien se comunica:TULIA QUIROGA DUARTE   Cédula: 41531915 Número de contacto: 3156703849   Email:     Dirección: KR 111C 81 30 IN 10 AP 402  Motivo de consulta: cliente se comunica porque motivo incremento de ley</t>
   </si>
   <si>
     <t>MDM-PQR-36203433</t>
   </si>
   <si>
-    <t>Se relaiza ajuste para  exonerar el cobro de cl√°usula ya que no se pod√≠a garantizar traslado bajo la misma tecnolog√≠a (FTTH) que ven√≠a manejando el cliente. bajo respuesta MDM-PQR-27315136</t>
+    <t>Se relaiza ajuste para  exonerar el cobro de cláusula ya que no se podía garantizar traslado bajo la misma tecnología (FTTH) que venía manejando el cliente. bajo respuesta MDM-PQR-27315136</t>
   </si>
   <si>
     <t>MDM-PQR-36206929</t>
@@ -2498,31 +2515,31 @@
     <t>MDM-PQR-36210683</t>
   </si>
   <si>
-    <t>LINEA ESPECIAL // EX VICE ETB CAMILO OLEA // [11:33 a.¬†m., 10/1/2023] Vice Ex Camilo Olea: una visita t√©cnica a este predio. Han hecho varias visitas t√©cnicas y no han podido solucionar el problema que tienen [11:33 a.¬†m., 10/1/2023] Vice Ex Camilo Olea: Antonio Berbeo 91223381 Cra 37 No 57 43. Apto 202.  3168782433</t>
+    <t>LINEA ESPECIAL // EX VICE ETB CAMILO OLEA // [11:33 a. m., 10/1/2023] Vice Ex Camilo Olea: una visita técnica a este predio. Han hecho varias visitas técnicas y no han podido solucionar el problema que tienen [11:33 a. m., 10/1/2023] Vice Ex Camilo Olea: Antonio Berbeo 91223381 Cra 37 No 57 43. Apto 202.  3168782433</t>
   </si>
   <si>
     <t>MDM-PQR-36212928</t>
   </si>
   <si>
-    <t>Lo que pasa es que yo contrate un plan por un valor de 72 mensual a√±adido el HBO Y est√° factura me la est√°n cobrando por 118</t>
+    <t>Lo que pasa es que yo contrate un plan por un valor de 72 mensual añadido el HBO Y está factura me la están cobrando por 118</t>
   </si>
   <si>
     <t>MDM-PQR-36214623</t>
   </si>
   <si>
-    <t>Wassath  //GLORIA PATRICIA SANDOVAL JARAMILLO//se comunica para  escalar una devoluci√≥n de un pago errado a otra  cuenta.</t>
+    <t>Wassath  //GLORIA PATRICIA SANDOVAL JARAMILLO//se comunica para  escalar una devolución de un pago errado a otra  cuenta.</t>
   </si>
   <si>
     <t>MDM-PQR-36216234</t>
   </si>
   <si>
-    <t>L√≠nea:6016476926 Nombre de quien se comunica: Wilson acosta acu√±a C√©dula:80422979 N√∫mero de contacto:3132850251 Ema√≠l: rociopores@gmail.com   Direcci√≥n:  CL 98 70C 79 CA 69 Motivo de la llamada:Cliente se comunica para estado de factura.</t>
+    <t>Línea:6016476926 Nombre de quien se comunica: Wilson acosta acuña Cédula:80422979 Número de contacto:3132850251 Emaíl: rociopores@gmail.com   Dirección:  CL 98 70C 79 CA 69 Motivo de la llamada:Cliente se comunica para estado de factura.</t>
   </si>
   <si>
     <t>MDM-PQR-36225938</t>
   </si>
   <si>
-    <t>SG//LT: 6012630248 cuenta 12054416778//Cliente pide ajuste de la factura, cliente se realiza cobro de ADECUACI√ìN INTERNA bajo MDM-PQR-35504373 del d√≠a 05/12/2022 . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia orden COBROS_ADECUACIONES (CADE) bajo MDM-FIBRA-010630902 del d√≠a 05/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $238,000 incluido IVA. VALOR REAL AJUSTE: $ 238,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012630248 cuenta 12054416778//Cliente pide ajuste de la factura, cliente se realiza cobro de ADECUACIÓN INTERNA bajo MDM-PQR-35504373 del día 05/12/2022 . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia orden COBROS_ADECUACIONES (CADE) bajo MDM-FIBRA-010630902 del día 05/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $238,000 incluido IVA. VALOR REAL AJUSTE: $ 238,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36227874</t>
@@ -2540,13 +2557,13 @@
     <t>MDM-PQR-36231936</t>
   </si>
   <si>
-    <t>Cliente GUSTAVO ALBERTO MU√ëOZ MONTA√ëO C√©dula de Ciudadan√≠a 80873611 L√≠nea: 6014107612 Cuenta de Facturaci√≥n: 12054533409 cliente se comunica solicitando devolucion del cobro de los servicios adicionales ya uqe solicito hace un mes esto</t>
+    <t>Cliente GUSTAVO ALBERTO MUÑOZ MONTAÑO Cédula de Ciudadanía 80873611 Línea: 6014107612 Cuenta de Facturación: 12054533409 cliente se comunica solicitando devolucion del cobro de los servicios adicionales ya uqe solicito hace un mes esto</t>
   </si>
   <si>
     <t>MDM-PQR-36232413</t>
   </si>
   <si>
-    <t>L√≠nea: 6013653340 Nombre de quien se comunica: CONSTRUCTORA HVC SAS   C√©dula: 900368449 N√∫mero de contacto: 3208495778   Email: facturacion@vnfsas.com   Direcci√≥n:  AK 15 124 67 OF 412   Motivo de la llamada: Cliente reporta que llega facturacion pese a generar la cancelacion del servicio</t>
+    <t>Línea: 6013653340 Nombre de quien se comunica: CONSTRUCTORA HVC SAS   Cédula: 900368449 Número de contacto: 3208495778   Email: facturacion@vnfsas.com   Dirección:  AK 15 124 67 OF 412   Motivo de la llamada: Cliente reporta que llega facturacion pese a generar la cancelacion del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-36233452</t>
@@ -2558,25 +2575,25 @@
     <t>MDM-PQR-36233864</t>
   </si>
   <si>
-    <t>FECHA Y HORA DE GESTI√ìN 11/01/2023 11:48:45 a. m. L√çNEA: 6017256558 C√âDULA TITULAR: 11251451 NOMBRE TITULAR: JESUS ALVAREZ RAMIREZ N√öMERO DE CONTACTO: 3153493908   EMAIL: JESALVAREZ76@YAHOO.COM DIRECCI√ìN: CL 22B 59 31 AP 301   MOTIVO DE LLAMADA: Incremento de factura</t>
+    <t>FECHA Y HORA DE GESTIÓN 11/01/2023 11:48:45 a. m. LÍNEA: 6017256558 CÉDULA TITULAR: 11251451 NOMBRE TITULAR: JESUS ALVAREZ RAMIREZ NÚMERO DE CONTACTO: 3153493908   EMAIL: JESALVAREZ76@YAHOO.COM DIRECCIÓN: CL 22B 59 31 AP 301   MOTIVO DE LLAMADA: Incremento de factura</t>
   </si>
   <si>
     <t>MDM-PQR-36234152</t>
   </si>
   <si>
-    <t>monica  Linea: Nombre de quien se comunica:MONICA JULIET OSORIO BONILLA   C√©dula: 1015482053 N√∫mero de contacto: 3132562736   Email:    julietbonilla99@gmail.com   Direcci√≥n: KR 19A 23A 22 AP 101 Motivo de la llamada: cliente se comunica que solicito cancelacion de servicio y le llego factura nuevamente por valor de 10 pesos</t>
+    <t>monica  Linea: Nombre de quien se comunica:MONICA JULIET OSORIO BONILLA   Cédula: 1015482053 Número de contacto: 3132562736   Email:    julietbonilla99@gmail.com   Dirección: KR 19A 23A 22 AP 101 Motivo de la llamada: cliente se comunica que solicito cancelacion de servicio y le llego factura nuevamente por valor de 10 pesos</t>
   </si>
   <si>
     <t>MDM-PQR-36236419</t>
   </si>
   <si>
-    <t>Cliente SAID STEVEN PINILLA LUNA C√©dula de Ciudadan√≠a 1001113343 L√≠nea: 6013087634 Cuenta de Facturaci√≥n: 12054164320 motivo consulta de envio de facturacion y consulta descuento</t>
+    <t>Cliente SAID STEVEN PINILLA LUNA Cédula de Ciudadanía 1001113343 Línea: 6013087634 Cuenta de Facturación: 12054164320 motivo consulta de envio de facturacion y consulta descuento</t>
   </si>
   <si>
     <t>MDM-PQR-36236842</t>
   </si>
   <si>
-    <t>SG//LT: 6014535982 cuenta 7791427638//Cliente pide ajuste de la factura, cliente indica solicito la activaci√≥n del servicio de DIRECTV GO B√ÅSICO. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO B√ÅSICO se evidencia activo desde 24/11/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $65,350 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $65,350/ AJUSTE INCORRECTO. // se penaliza asesor por no realizar la gesti√≥n para dar cierre ciclo.</t>
+    <t>SG//LT: 6014535982 cuenta 7791427638//Cliente pide ajuste de la factura, cliente indica solicito la activación del servicio de DIRECTV GO BÁSICO. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO BÁSICO se evidencia activo desde 24/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $65,350 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $65,350/ AJUSTE INCORRECTO. // se penaliza asesor por no realizar la gestión para dar cierre ciclo.</t>
   </si>
   <si>
     <t>MDM-PQR-36237136</t>
@@ -2600,7 +2617,7 @@
     <t>MDM-PQR-36238181</t>
   </si>
   <si>
-    <t>L√≠nea:  SR-33176171 Nombre de quien se comunica: MIGUEL ALEJANDRO ARIAS MENDOZA   C√©dula:  1018515529 N√∫mero de contacto:  3028335021    Email: MAAM4315@GMAIL.COM   Direcci√≥n: KR 95A 138 65 CA 83 Motivo de la llamada: cliente indcia que paga un valor de la factura pero aparece un costos adicional.</t>
+    <t>Línea:  SR-33176171 Nombre de quien se comunica: MIGUEL ALEJANDRO ARIAS MENDOZA   Cédula:  1018515529 Número de contacto:  3028335021    Email: MAAM4315@GMAIL.COM   Dirección: KR 95A 138 65 CA 83 Motivo de la llamada: cliente indcia que paga un valor de la factura pero aparece un costos adicional.</t>
   </si>
   <si>
     <t>MDM-PQR-36238233</t>
@@ -2612,43 +2629,43 @@
     <t>MDM-PQR-36240247</t>
   </si>
   <si>
-    <t>L√≠nea: SR-33069832 Nombre de quien se comunica: LINA MARIA GAMBOA ANGARITA   C√©dula: 1023941021 N√∫mero de contacto: 3132319513 Email: limagaa@gmail.com   Direcci√≥n: CL 35A SUR 4A 53  Motivo de la llamada:. CLIENTE INDICA QUE LE RECIBIO FACTURA YLE LLEGO POR UN MONTO MAS ALTO.</t>
+    <t>Línea: SR-33069832 Nombre de quien se comunica: LINA MARIA GAMBOA ANGARITA   Cédula: 1023941021 Número de contacto: 3132319513 Email: limagaa@gmail.com   Dirección: CL 35A SUR 4A 53  Motivo de la llamada:. CLIENTE INDICA QUE LE RECIBIO FACTURA YLE LLEGO POR UN MONTO MAS ALTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36240322</t>
   </si>
   <si>
-    <t>Nombre: JESSICA NATALY RUBIANO MEJIA   Cedula:1013687581 Correo:    jenarume99@gmail.com   Direcci√≥n:CL 4 36 31 AP 302  Tel√©fono:3005078457   Motivo:Le cobran hbo y paramoun, ya lo habia cancelado</t>
+    <t>Nombre: JESSICA NATALY RUBIANO MEJIA   Cedula:1013687581 Correo:    jenarume99@gmail.com   Dirección:CL 4 36 31 AP 302  Teléfono:3005078457   Motivo:Le cobran hbo y paramoun, ya lo habia cancelado</t>
   </si>
   <si>
     <t>MDM-PQR-36240822</t>
   </si>
   <si>
-    <t>CANCELACI√ìN SVA/ DIREC TV GO BASICO</t>
+    <t>CANCELACIÓN SVA/ DIREC TV GO BASICO</t>
   </si>
   <si>
     <t>MDM-PQR-36242135</t>
   </si>
   <si>
-    <t>Cliente EDNA MARIBEL HERNANDEZ MORA C√©dula de Ciudadan√≠a 53130912 L√≠nea: 6016132688 Cuenta de Facturaci√≥n: 12053884187 motivo cobro por aumento en la facturacion</t>
+    <t>Cliente EDNA MARIBEL HERNANDEZ MORA Cédula de Ciudadanía 53130912 Línea: 6016132688 Cuenta de Facturación: 12053884187 motivo cobro por aumento en la facturacion</t>
   </si>
   <si>
     <t>MDM-PQR-36242374</t>
   </si>
   <si>
-    <t>Cliente ICZAN JAIR ALVARADO DUARTE C√©dula de Ciudadan√≠a 1019037446 Id PQR MDM-PQR-36242374 L√≠nea: 6012696570 Cuenta de Facturaci√≥n: 12053689131 motivo cobro por el servicio de HBO MAX EMPAQUETADO</t>
+    <t>Cliente ICZAN JAIR ALVARADO DUARTE Cédula de Ciudadanía 1019037446 Id PQR MDM-PQR-36242374 Línea: 6012696570 Cuenta de Facturación: 12053689131 motivo cobro por el servicio de HBO MAX EMPAQUETADO</t>
   </si>
   <si>
     <t>MDM-PQR-36243574</t>
   </si>
   <si>
-    <t>SG//LT: 6017621487 cuenta 12054344513//Cliente pide ajuste de la factura, cliente indica solicito retiro del servicio de DIRECTV GO B√ÅSICO. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO B√ÅSICO se evidencia retirado desde 09/01/2023 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $59,200 incluido IVA. VALOR REAL AJUSTE: $59,200 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. // se penaliza asesor por no realizar la gesti√≥n para dar cierre ciclo. Soporte de gesti√≥n MDM-PQR-36236842 .</t>
+    <t>SG//LT: 6017621487 cuenta 12054344513//Cliente pide ajuste de la factura, cliente indica solicito retiro del servicio de DIRECTV GO BÁSICO. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO BÁSICO se evidencia retirado desde 09/01/2023 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $59,200 incluido IVA. VALOR REAL AJUSTE: $59,200 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. // se penaliza asesor por no realizar la gestión para dar cierre ciclo. Soporte de gestión MDM-PQR-36236842 .</t>
   </si>
   <si>
     <t>MDM-PQR-36244194</t>
   </si>
   <si>
-    <t>SG//LT: SR-34927212 cuenta 12054593511//Cliente pide ajuste de la factura, cliente indica solicito retiro del servicio de DIRECTV GO B√ÅSICO. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO B√ÅSICO se evidencia retirado desde 30/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $125,800 incluido IVA. VALOR REAL AJUSTE: $ 125,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. // se penaliza asesor por no realizar la gesti√≥n para dar cierre ciclo.</t>
+    <t>SG//LT: SR-34927212 cuenta 12054593511//Cliente pide ajuste de la factura, cliente indica solicito retiro del servicio de DIRECTV GO BÁSICO. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO BÁSICO se evidencia retirado desde 30/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $125,800 incluido IVA. VALOR REAL AJUSTE: $ 125,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. // se penaliza asesor por no realizar la gestión para dar cierre ciclo.</t>
   </si>
   <si>
     <t>MDM-PQR-36245363</t>
@@ -2660,7 +2677,7 @@
     <t>MDM-PQR-36245504</t>
   </si>
   <si>
-    <t>Cliente LUZ ANGELICA SIERRA HENAO C√©dula de Ciudadan√≠a 52553895 L√≠nea: 6016315823 Cuenta de Facturaci√≥n: 12053415343 cliente se comunica ya que el servicio de hbo no lo solicito y se le esta haciendo el cobro despues de la sesion de contrato</t>
+    <t>Cliente LUZ ANGELICA SIERRA HENAO Cédula de Ciudadanía 52553895 Línea: 6016315823 Cuenta de Facturación: 12053415343 cliente se comunica ya que el servicio de hbo no lo solicito y se le esta haciendo el cobro despues de la sesion de contrato</t>
   </si>
   <si>
     <t>MDM-PQR-36245908</t>
@@ -2672,13 +2689,13 @@
     <t>MDM-PQR-36246882</t>
   </si>
   <si>
-    <t>SG//LT: 6016456693 cuenta 12054237297//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO B√ÅSICO y DIRECTV GO FULL . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO FULL se evidencia retirado desde 26/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $134,980 incluido IVA. VALOR REAL AJUSTE: $134,980 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016456693 cuenta 12054237297//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO BÁSICO y DIRECTV GO FULL . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO FULL se evidencia retirado desde 26/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $134,980 incluido IVA. VALOR REAL AJUSTE: $134,980 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36247221</t>
   </si>
   <si>
-    <t>SG//LT: 6017735440 cuenta 12054153031//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO B√ÅSICO . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO B√ÅSICO se evidencia retirado desde 26/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $29,600 incluido IVA. VALOR REAL AJUSTE: $29,600 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017735440 cuenta 12054153031//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO BÁSICO . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO BÁSICO se evidencia retirado desde 26/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $29,600 incluido IVA. VALOR REAL AJUSTE: $29,600 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36247287</t>
@@ -2690,55 +2707,55 @@
     <t>MDM-PQR-36247872</t>
   </si>
   <si>
-    <t>SG//LT: 6017646187 cuenta 12054442463//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO B√ÅSICO y DIRECTV GO FULL . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO FULL se evidencia retirado desde 30/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $88,060 incluido IVA. VALOR REAL AJUSTE: $ 88,060 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017646187 cuenta 12054442463//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO BÁSICO y DIRECTV GO FULL . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO FULL se evidencia retirado desde 30/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $88,060 incluido IVA. VALOR REAL AJUSTE: $ 88,060 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36247956</t>
   </si>
   <si>
-    <t>"L√≠nea:6014108886 Nombre de quien se comunica:YESID HERNANDO MARIN CORBA ¬† C√©dula:79129751 N√∫mero de contacto:3012197418 ¬† Email:ymarin35@gmail.com ¬† Direcci√≥n: Motivo de la llamada: gernero cancelacion de plataformas pero se esta generando cobro bajo radicado 4347220004598330</t>
+    <t>"Línea:6014108886 Nombre de quien se comunica:YESID HERNANDO MARIN CORBA   Cédula:79129751 Número de contacto:3012197418   Email:ymarin35@gmail.com   Dirección: Motivo de la llamada: gernero cancelacion de plataformas pero se esta generando cobro bajo radicado 4347220004598330</t>
   </si>
   <si>
     <t>MDM-PQR-36248160</t>
   </si>
   <si>
-    <t>SG//LT: 6017266710 cuenta 12054440480//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO B√ÅSICO y DIRECTV GO FULL . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO FULL se evidencia retirado desde 03/01/2023. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $88,060 incluido IVA. VALOR REAL AJUSTE: $ 88,060 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017266710 cuenta 12054440480//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO BÁSICO y DIRECTV GO FULL . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO FULL se evidencia retirado desde 03/01/2023. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $88,060 incluido IVA. VALOR REAL AJUSTE: $ 88,060 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36248869</t>
   </si>
   <si>
-    <t>SG//LT: 6017128757 cuenta 12054601621//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO B√ÅSICO y DIRECTV GO FULL . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO B√ÅSICO y DIRECTV GO FULL se evidencia retirado desde 04/01/2023. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $44,030 incluido IVA. VALOR REAL AJUSTE: $44,030 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017128757 cuenta 12054601621//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO BÁSICO y DIRECTV GO FULL . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO BÁSICO y DIRECTV GO FULL se evidencia retirado desde 04/01/2023. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $44,030 incluido IVA. VALOR REAL AJUSTE: $44,030 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36249139</t>
   </si>
   <si>
-    <t>SG//LT: 6012646404 cuenta 12054497958//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO B√ÅSICO y DIRECTV GO FULL . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO B√ÅSICO y DIRECTV GO FULL se evidencia retirado desde 03/01/2023. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $113,220 incluido IVA. VALOR REAL AJUSTE: $113,220 incluido IVA. DIFERENCIA $0</t>
+    <t>SG//LT: 6012646404 cuenta 12054497958//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO BÁSICO y DIRECTV GO FULL . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO BÁSICO y DIRECTV GO FULL se evidencia retirado desde 03/01/2023. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $113,220 incluido IVA. VALOR REAL AJUSTE: $113,220 incluido IVA. DIFERENCIA $0</t>
   </si>
   <si>
     <t>MDM-PQR-36249629</t>
   </si>
   <si>
-    <t>SG//LT: 6017610492 cuenta 12054502368//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO B√ÅSICO y DIRECTV GO FULL . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO B√ÅSICO se evidencia retirado desde 30/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $59,200 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $59,200/ AJUSTE INCORRECTO.// se penaliza asesor ya que ajuste no aplica por que en las factura de (9 Nov - 8 Dic) y (9 Dic - 8 Ene) no se evidencia cobro dobles del servicio de  DIRECTV GO B√ÅSICO.</t>
+    <t>SG//LT: 6017610492 cuenta 12054502368//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO BÁSICO y DIRECTV GO FULL . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO BÁSICO se evidencia retirado desde 30/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $59,200 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $59,200/ AJUSTE INCORRECTO.// se penaliza asesor ya que ajuste no aplica por que en las factura de (9 Nov - 8 Dic) y (9 Dic - 8 Ene) no se evidencia cobro dobles del servicio de  DIRECTV GO BÁSICO.</t>
   </si>
   <si>
     <t>MDM-PQR-36250408</t>
   </si>
   <si>
-    <t>SG//LT: 6012693399 cuenta 12053658940//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO B√ÅSICO y DIRECTV GO FULL . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO FULL se evidencia retirado desde 30/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $109,790 incluido IVA. VALOR REAL AJUSTE: $109,790 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012693399 cuenta 12053658940//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO BÁSICO y DIRECTV GO FULL . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO FULL se evidencia retirado desde 30/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $109,790 incluido IVA. VALOR REAL AJUSTE: $109,790 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36250440</t>
   </si>
   <si>
-    <t>WHATSAPP//SR-29479603//Cliente indica la factura de este mes  correspond√≠a a $33.450</t>
+    <t>WHATSAPP//SR-29479603//Cliente indica la factura de este mes  correspondía a $33.450</t>
   </si>
   <si>
     <t>MDM-PQR-36250574</t>
   </si>
   <si>
-    <t>SG//LT: 6017125848 cuenta 12054371288//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO B√ÅSICO y DIRECTV GO FULL . SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO FULL se evidencia retirado desde 30/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONTE $125,800 incluido IVA. VALOR REAL AJUSTE: $125,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017125848 cuenta 12054371288//Cliente pide ajuste de la factura, cliente indica se le realiza doble de servicios de DIRECTV GO BÁSICO y DIRECTV GO FULL . SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia en revchain el servicio de DIRECTV GO FULL se evidencia retirado desde 30/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONTE $125,800 incluido IVA. VALOR REAL AJUSTE: $125,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36251082</t>
@@ -2762,7 +2779,7 @@
     <t>MDM-PQR-36257030</t>
   </si>
   <si>
-    <t>NOMBRE:ELIZABETH ADRIANA TAFUR PE√ëA   CC:28688166 CEL: 3227144964   DIRECCION :KR 90B 70A 49 AP 205   CORREO:aguirrealk@hotmail.com    MOTIVO: iba a retirar el servicio y le bridaron descuento para pagar su factura en 50.000</t>
+    <t>NOMBRE:ELIZABETH ADRIANA TAFUR PEÑA   CC:28688166 CEL: 3227144964   DIRECCION :KR 90B 70A 49 AP 205   CORREO:aguirrealk@hotmail.com    MOTIVO: iba a retirar el servicio y le bridaron descuento para pagar su factura en 50.000</t>
   </si>
   <si>
     <t>MDM-PQR-36257177</t>
@@ -2774,13 +2791,13 @@
     <t>MDM-PQR-36258922</t>
   </si>
   <si>
-    <t>L√≠nea: 6012485273  Nombre de quien se comunica: MARIA GLORIA CAPUTO MORENO   C√©dula: 41362095 Fecha de expedici√≥n:  N√∫mero de contacto: 3058171899   Email: mariagloria1324@hotmail.com   Direcci√≥n: KR 28 53 05 AP 301 Motivo de la llamada:  Cliente habia solicitado deco adicional y en la factura se lo cobraron y nunca se lo pusieron</t>
+    <t>Línea: 6012485273  Nombre de quien se comunica: MARIA GLORIA CAPUTO MORENO   Cédula: 41362095 Fecha de expedición:  Número de contacto: 3058171899   Email: mariagloria1324@hotmail.com   Dirección: KR 28 53 05 AP 301 Motivo de la llamada:  Cliente habia solicitado deco adicional y en la factura se lo cobraron y nunca se lo pusieron</t>
   </si>
   <si>
     <t>MDM-PQR-36260190</t>
   </si>
   <si>
-    <t>Cliente MARIA LUZMERY GALLEGO GUITIERREZ C√©dula de Ciudadan√≠a 52996764 L√≠nea: 6017722915 Cuenta de Facturaci√≥n: 12053640198 motivo consulta por el aumento en la facturacion</t>
+    <t>Cliente MARIA LUZMERY GALLEGO GUITIERREZ Cédula de Ciudadanía 52996764 Línea: 6017722915 Cuenta de Facturación: 12053640198 motivo consulta por el aumento en la facturacion</t>
   </si>
   <si>
     <t>MDM-PQR-36260686</t>
@@ -2804,13 +2821,13 @@
     <t>MDM-PQR-36262104</t>
   </si>
   <si>
-    <t>NOMBRE: JAIRO DUARTE SARMIENTO CC: 5765336 TEL: SR-33109484 CTA: 12054487646 DIR: KR 55A 187 51 IN 3 AP 401 CEL: 3102658474 CORREO: jairoduartesarmiento@outlook.com OBSERVACI√ìN: CLIENTE SOLICITA INF DE LA FACT</t>
+    <t>NOMBRE: JAIRO DUARTE SARMIENTO CC: 5765336 TEL: SR-33109484 CTA: 12054487646 DIR: KR 55A 187 51 IN 3 AP 401 CEL: 3102658474 CORREO: jairoduartesarmiento@outlook.com OBSERVACIÓN: CLIENTE SOLICITA INF DE LA FACT</t>
   </si>
   <si>
     <t>MDM-PQR-36262704</t>
   </si>
   <si>
-    <t>Cliente FRANCISCO JAVIER PABON SORIANO C√©dula de Ciudadan√≠a 72006612 Id PQR MDM-PQR-36262704 L√≠nea: 6013587213 cliente cuelga</t>
+    <t>Cliente FRANCISCO JAVIER PABON SORIANO Cédula de Ciudadanía 72006612 Id PQR MDM-PQR-36262704 Línea: 6013587213 cliente cuelga</t>
   </si>
   <si>
     <t>MDM-PQR-36262928</t>
@@ -2834,13 +2851,13 @@
     <t>MDM-PQR-36265493</t>
   </si>
   <si>
-    <t>(FECHA EXPEDICI√ìN DEL DOCUMENTO DEL TITULAR (22/12/2009))/MOTIVOS ECON√ìMICO Y CANCELACION DE SVA// CAMBIO DE PLAN  DUO 200M MIP FTTH V1/ RF-001374101/ MDM-FIBRA-010910589/ VALOR 89900/ TIEMPO INDEFINIDO</t>
+    <t>(FECHA EXPEDICIÓN DEL DOCUMENTO DEL TITULAR (22/12/2009))/MOTIVOS ECONÓMICO Y CANCELACION DE SVA// CAMBIO DE PLAN  DUO 200M MIP FTTH V1/ RF-001374101/ MDM-FIBRA-010910589/ VALOR 89900/ TIEMPO INDEFINIDO</t>
   </si>
   <si>
     <t>MDM-PQR-36266662</t>
   </si>
   <si>
-    <t>NOMBRE:ISMAEL ALEXANDER YEPES ORDUZ   CEDULA:79909421   LINEA:3167431544   CORREO:iyepesor@gmail.com   DIRECCION:CL 33 6 37 AP 811 MOTIVO:FACTURACI√ìN</t>
+    <t>NOMBRE:ISMAEL ALEXANDER YEPES ORDUZ   CEDULA:79909421   LINEA:3167431544   CORREO:iyepesor@gmail.com   DIRECCION:CL 33 6 37 AP 811 MOTIVO:FACTURACIÓN</t>
   </si>
   <si>
     <t>MDM-PQR-36268519</t>
@@ -2858,7 +2875,7 @@
     <t>MDM-PQR-36268631</t>
   </si>
   <si>
-    <t>SG//LT: 6017682139 cuenta 12054439763//Cliente radica queja el 06/12/2022 bajo CUN 4347220004835999. 1. Aplicar el descuento ofrecido , 2. Ajustar la factura ya que no se cumpli√≥ la oferta de $50.000 + DIRECTV GO. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $57,660, incluido IVA, VALOR REAL AJUSTE $57,660 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017682139 cuenta 12054439763//Cliente radica queja el 06/12/2022 bajo CUN 4347220004835999. 1. Aplicar el descuento ofrecido , 2. Ajustar la factura ya que no se cumplió la oferta de $50.000 + DIRECTV GO. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $57,660, incluido IVA, VALOR REAL AJUSTE $57,660 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36271396</t>
@@ -2870,37 +2887,37 @@
     <t>MDM-PQR-36272447</t>
   </si>
   <si>
-    <t>L√≠nea: 6013519334 Nombre de quien se comunica: CLAUDIA PATRICIA BRITO BRITO C√©dula:  51868407 Fecha de expedici√≥n: N√∫mero de contacto: 3216568700   Email: claudiabrito129@hotmail.com Direcci√≥n: KR 71A 95A 36 AP 503  Motivo de la llamada: TITULAR INDICA A QUE TIENE $55.000 TITULAR INDICA QUE LE LE LLEGO SU FACTURA POR UN VALOR DIFERENTE</t>
+    <t>Línea: 6013519334 Nombre de quien se comunica: CLAUDIA PATRICIA BRITO BRITO Cédula:  51868407 Fecha de expedición: Número de contacto: 3216568700   Email: claudiabrito129@hotmail.com Dirección: KR 71A 95A 36 AP 503  Motivo de la llamada: TITULAR INDICA A QUE TIENE $55.000 TITULAR INDICA QUE LE LE LLEGO SU FACTURA POR UN VALOR DIFERENTE</t>
   </si>
   <si>
     <t>MDM-PQR-36278121</t>
   </si>
   <si>
-    <t>SG//LT: 6016133693 cuenta 12054052167//Cliente pide ajuste de la factura, indica que el 28/07/2022 bajo RF-001153550 se le ofreci√≥ oferta de tarifa preferencial ( $50.000 ). SOLUCI√ìN DE ASEGURAMIENTO: Se hace escalamiento a gestor solicitando aplicar descuento manual del 40.8834%. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $11,910 incluido IVA. VALOR REAL AJUSTE: $24,910 incluido IVA. DIFERENCIA $-13,000/ MENOR VALOR AJUSTADO.// SE PENALIZA ASESOR NO REALIZA GESTI√ìN PARA DAR CIERRE DE CICLO.</t>
+    <t>SG//LT: 6016133693 cuenta 12054052167//Cliente pide ajuste de la factura, indica que el 28/07/2022 bajo RF-001153550 se le ofreció oferta de tarifa preferencial ( $50.000 ). SOLUCIÓN DE ASEGURAMIENTO: Se hace escalamiento a gestor solicitando aplicar descuento manual del 40.8834%. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $11,910 incluido IVA. VALOR REAL AJUSTE: $24,910 incluido IVA. DIFERENCIA $-13,000/ MENOR VALOR AJUSTADO.// SE PENALIZA ASESOR NO REALIZA GESTIÓN PARA DAR CIERRE DE CICLO.</t>
   </si>
   <si>
     <t>MDM-PQR-36278520</t>
   </si>
   <si>
-    <t>L√≠nea: 6017151829 Nombre de quien se comunica: MARIA DE LOS ANGELES CASTIBLANCO JIMENEZ C√©dula: 41732379 N√∫mero de contacto: 3142408677 Email: ANGELESC52@HOTMAIL.COM Direcci√≥n: KR 79B 7A 71 AP 220 Motivo de la llamada: Cliente solicita la cancelacion del servicio del servicio</t>
+    <t>Línea: 6017151829 Nombre de quien se comunica: MARIA DE LOS ANGELES CASTIBLANCO JIMENEZ Cédula: 41732379 Número de contacto: 3142408677 Email: ANGELESC52@HOTMAIL.COM Dirección: KR 79B 7A 71 AP 220 Motivo de la llamada: Cliente solicita la cancelacion del servicio del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-36279212</t>
   </si>
   <si>
-    <t>SG//LT: 6012935331 cuenta 675817159// Cliente pide ajuste de la factura, cliente indica hab√≠a solicitado hace 2 mese el retiro de los servicios de DTV GO y Sva DTV WINSPORTS . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el retiro de los servicios DTV GO y Sva DTV WINSPORTS desde 31/12/2022 bajo la orden MDM-FIBRA-010636970 RETIRO_BUNDLE_AUXILIAR (RBA) del d√≠a 05/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $59,890 exento de IVA. VALOR REAL AJUSTE: $59,890 exento de IVA, DIFERENCIA: $0 /AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012935331 cuenta 675817159// Cliente pide ajuste de la factura, cliente indica había solicitado hace 2 mese el retiro de los servicios de DTV GO y Sva DTV WINSPORTS . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el retiro de los servicios DTV GO y Sva DTV WINSPORTS desde 31/12/2022 bajo la orden MDM-FIBRA-010636970 RETIRO_BUNDLE_AUXILIAR (RBA) del día 05/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $59,890 exento de IVA. VALOR REAL AJUSTE: $59,890 exento de IVA, DIFERENCIA: $0 /AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36279793</t>
   </si>
   <si>
-    <t>SG//LT: 6016758972 cuenta 12054073945//Cliente pide ajuste de la factura,ya que el 17/08/2022 bajo MDM-FIBRA-009552972 se le ofreci√≥ CAMBIO_LARGA_DISTANCIA (CHLD) . SOLUCI√ìN DE ASEGURAMIENTO: se deja caso en seguimiento 12/01/2023, ya que se evidencia caso fue escalado para la sincronizaci√≥n del cobro de PLAN DE VOZ A DISTANCIA y PLAN DE VOZ A DISTANCIA VU 8700, se evidencia orden de CANCELACI√ìN_VOLUNTARIA (TESR) bajo MDM-FIBRA-010830163 del d√≠a 03/01/2023 con Fecha de Ejecuci√≥n: 17/01/2023. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $28,680 incluido IVA. VALOR REAL AJUSTE: $13,530 incluido IVA. DIFERENCIA $15,150/ MAYOR VALOR AJUSTADO./SE PENALIZA ASESOR POR AJUSTE MAYOR VALOR.</t>
+    <t>SG//LT: 6016758972 cuenta 12054073945//Cliente pide ajuste de la factura,ya que el 17/08/2022 bajo MDM-FIBRA-009552972 se le ofreció CAMBIO_LARGA_DISTANCIA (CHLD) . SOLUCIÓN DE ASEGURAMIENTO: se deja caso en seguimiento 12/01/2023, ya que se evidencia caso fue escalado para la sincronización del cobro de PLAN DE VOZ A DISTANCIA y PLAN DE VOZ A DISTANCIA VU 8700, se evidencia orden de CANCELACIÓN_VOLUNTARIA (TESR) bajo MDM-FIBRA-010830163 del día 03/01/2023 con Fecha de Ejecución: 17/01/2023. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $28,680 incluido IVA. VALOR REAL AJUSTE: $13,530 incluido IVA. DIFERENCIA $15,150/ MAYOR VALOR AJUSTADO./SE PENALIZA ASESOR POR AJUSTE MAYOR VALOR.</t>
   </si>
   <si>
     <t>MDM-PQR-36280865</t>
   </si>
   <si>
-    <t>SG//LT: 6013247164 cuenta 12054311855// Cliente pide ajuste de la factura, cliente √≠ndica hab√≠a solicitado el retiro del servicio de Sva DTV WINSPORTS, Sva DTV HBO PACK bajo . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia orden MDM-FIBRA-010759195 de RETIRO_BUNDLE_AUXILIAR (RBA) del dia 22/12/2022 con Fecha de Ejecuci√≥n: 09/01/2023 y se evidencia en revchain retiro desde 08/01/2023. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $28,130 exento de IVA. VALOR REAL AJUSTE: $29,900 exento de IVA, DIFERENCIA: $-1,770 / AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013247164 cuenta 12054311855// Cliente pide ajuste de la factura, cliente índica había solicitado el retiro del servicio de Sva DTV WINSPORTS, Sva DTV HBO PACK bajo . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia orden MDM-FIBRA-010759195 de RETIRO_BUNDLE_AUXILIAR (RBA) del dia 22/12/2022 con Fecha de Ejecución: 09/01/2023 y se evidencia en revchain retiro desde 08/01/2023. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $28,130 exento de IVA. VALOR REAL AJUSTE: $29,900 exento de IVA, DIFERENCIA: $-1,770 / AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36282465</t>
@@ -2924,13 +2941,13 @@
     <t>MDM-PQR-36286928</t>
   </si>
   <si>
-    <t>L√≠nea: 12054533285 Nombre:  JOHANA CARDENAS  C√©dula: 1023960763 Celular:3008353693  Direcci√≥n: CL 43B SUR 3 01 ESTE PI 2     Correo:   neyly.cardenas1023@gmail.com Motivo de la llamada: Indica que la factura le llega por un valor mas elevado</t>
+    <t>Línea: 12054533285 Nombre:  JOHANA CARDENAS  Cédula: 1023960763 Celular:3008353693  Dirección: CL 43B SUR 3 01 ESTE PI 2     Correo:   neyly.cardenas1023@gmail.com Motivo de la llamada: Indica que la factura le llega por un valor mas elevado</t>
   </si>
   <si>
     <t>MDM-PQR-36289088</t>
   </si>
   <si>
-    <t>Linea:6017261572 Nombre de quien se comunica:PAULA ANDREA MORENO CHAVES   C√©dula: 53096845 N√∫mero de contacto: 3144576400   Email:    polandreach@hotmail.com   Direcci√≥n: CL 66 59 31 IN 11 AP 501 Motivo de la llamada: cliente se comunica que solicito cancelacion de servicio y aun le llega facturas</t>
+    <t>Linea:6017261572 Nombre de quien se comunica:PAULA ANDREA MORENO CHAVES   Cédula: 53096845 Número de contacto: 3144576400   Email:    polandreach@hotmail.com   Dirección: CL 66 59 31 IN 11 AP 501 Motivo de la llamada: cliente se comunica que solicito cancelacion de servicio y aun le llega facturas</t>
   </si>
   <si>
     <t>MDM-PQR-36290980</t>
@@ -2942,7 +2959,7 @@
     <t>MDM-PQR-36291516</t>
   </si>
   <si>
-    <t>Tel : 6017914819   Cc : 1098651334 Cel : 3504572235          Clente : JULIO ANDRES FLOREZ PRADA   Direcci√≥n: CL 23 72A 91 IN 4 AP 1302 Correo : jandres11@gmail.com    Motivo : Notifica que solicito el retiro del servicio y le indicaron que tenia un mes pendiente de la clausula pero me llegan las facturas a 0</t>
+    <t>Tel : 6017914819   Cc : 1098651334 Cel : 3504572235          Clente : JULIO ANDRES FLOREZ PRADA   Dirección: CL 23 72A 91 IN 4 AP 1302 Correo : jandres11@gmail.com    Motivo : Notifica que solicito el retiro del servicio y le indicaron que tenia un mes pendiente de la clausula pero me llegan las facturas a 0</t>
   </si>
   <si>
     <t>MDM-PQR-36291784</t>
@@ -2957,7 +2974,7 @@
     <t>MDM-PQR-36296633</t>
   </si>
   <si>
-    <t>NOMBRE:LA S√ëR YULIETH RODRIGUEZ SE COMUNICA EN NOMBRE DE EL S√ëR JOSE URIEL BEJARANO SANCHEZ    C.C.5934663  DIRECCION:CL 13 SUR 14 61 ESTE TO 1 AP 506 TELEFONO:NO TIENE  CELULAR: 3224381687 MOTIVO:CANCELACION DEL SERVICIO</t>
+    <t>NOMBRE:LA SÑR YULIETH RODRIGUEZ SE COMUNICA EN NOMBRE DE EL SÑR JOSE URIEL BEJARANO SANCHEZ    C.C.5934663  DIRECCION:CL 13 SUR 14 61 ESTE TO 1 AP 506 TELEFONO:NO TIENE  CELULAR: 3224381687 MOTIVO:CANCELACION DEL SERVICIO</t>
   </si>
   <si>
     <t>MDM-PQR-36297009</t>
@@ -2990,13 +3007,13 @@
     <t>MDM-PQR-36310517</t>
   </si>
   <si>
-    <t>Cliente ANDRES FELIPE CESPEDES HOLGUIN C√©dula de Ciudadan√≠a 1033766722 L√≠nea: 6012993381 Cuenta de Facturaci√≥n: 12053961967 motivo consulta por aumento en la factura</t>
+    <t>Cliente ANDRES FELIPE CESPEDES HOLGUIN Cédula de Ciudadanía 1033766722 Línea: 6012993381 Cuenta de Facturación: 12053961967 motivo consulta por aumento en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36314040</t>
   </si>
   <si>
-    <t>Cliente MARIA EMMA ROLDAN PAIVA C√©dula de Ciudadan√≠a 41600755 L√≠nea: 6013562809 Cuenta de Facturaci√≥n: 12050899140 motivo consulta por aumento en la facturacion</t>
+    <t>Cliente MARIA EMMA ROLDAN PAIVA Cédula de Ciudadanía 41600755 Línea: 6013562809 Cuenta de Facturación: 12050899140 motivo consulta por aumento en la facturacion</t>
   </si>
   <si>
     <t>MDM-PQR-36316952</t>
@@ -3008,7 +3025,7 @@
     <t>MDM-PQR-36320700</t>
   </si>
   <si>
-    <t>Linea:6012639582 Nombre de quien se comunica:OLGA INES SARMIENTO SANCHEZ   C√©dula: 20643927 N√∫mero de contacto: 3125224171   Email:    olgaisarmiento@hotmail.com   Direcci√≥n: KR 74 25G 69 TO 7 AP 132  Motivo de la llamada: cliente se comunica que realizaron cambio de plan de 300mb donde le ofrecieron 104000 pero la factura llega a otro valor</t>
+    <t>Linea:6012639582 Nombre de quien se comunica:OLGA INES SARMIENTO SANCHEZ   Cédula: 20643927 Número de contacto: 3125224171   Email:    olgaisarmiento@hotmail.com   Dirección: KR 74 25G 69 TO 7 AP 132  Motivo de la llamada: cliente se comunica que realizaron cambio de plan de 300mb donde le ofrecieron 104000 pero la factura llega a otro valor</t>
   </si>
   <si>
     <t>MDM-PQR-36321357</t>
@@ -3020,25 +3037,25 @@
     <t>MDM-PQR-36321977</t>
   </si>
   <si>
-    <t>SG//LT: 6013474234 cuenta 12053448427//Cliente pide ajuste de la factura, indica nunca solicito decos adicionales a su servicio. SOLUCI√ìN DE ASEGURAMIENTO: Se deja escala caso a gestor fijo para correcci√≥n de error **019 - No se pudo realizar la disponibilidad, intentelo nuevamente Error Disponibilidad Object reference not set to an instance of an object.** al ingresar la orden RETIRO_SVA (RSER) bajo MDM-FIBRA-010936021, ya que bajo MDM-PQR-35859083 titular manifiesta nunca haber contratado servicio adiciona de decodificadores, se evidencia orden MDM-FIBRA-010772189 de RETIRO_SVA (RSER) pero esta orden con Causal Cancelaci√≥n:INVENTARIO. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $20,000 incluido IVA. VALOR REAL AJUSTE: $20,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. AJUSTE BAJO LEY DE FAVORABILIDAD// SE PENALIZA ASESOR NO REALIZA GESTI√ìN PARA DAR CIERRE DE CICLO.</t>
+    <t>SG//LT: 6013474234 cuenta 12053448427//Cliente pide ajuste de la factura, indica nunca solicito decos adicionales a su servicio. SOLUCIÓN DE ASEGURAMIENTO: Se deja escala caso a gestor fijo para corrección de error **019 - No se pudo realizar la disponibilidad, intentelo nuevamente Error Disponibilidad Object reference not set to an instance of an object.** al ingresar la orden RETIRO_SVA (RSER) bajo MDM-FIBRA-010936021, ya que bajo MDM-PQR-35859083 titular manifiesta nunca haber contratado servicio adiciona de decodificadores, se evidencia orden MDM-FIBRA-010772189 de RETIRO_SVA (RSER) pero esta orden con Causal Cancelación:INVENTARIO. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $20,000 incluido IVA. VALOR REAL AJUSTE: $20,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. AJUSTE BAJO LEY DE FAVORABILIDAD// SE PENALIZA ASESOR NO REALIZA GESTIÓN PARA DAR CIERRE DE CICLO.</t>
   </si>
   <si>
     <t>MDM-PQR-36323066</t>
   </si>
   <si>
-    <t>SG//LT: 6017919178 cuenta 12054145651//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001366574 del d√≠a 05/01/2023, donde se realiza retenci√≥n por cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la pol√≠tica de exoneraci√≥n VALOR DE RECONEXI√ìN POR MORA, bajo MDM-PQR-34097806, ya se hab√≠a realizado el d√≠a 30/09/2022 ajuste por mismo concepto.</t>
+    <t>SG//LT: 6017919178 cuenta 12054145651//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001366574 del día 05/01/2023, donde se realiza retención por cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la política de exoneración VALOR DE RECONEXIÓN POR MORA, bajo MDM-PQR-34097806, ya se había realizado el día 30/09/2022 ajuste por mismo concepto.</t>
   </si>
   <si>
     <t>MDM-PQR-36323252</t>
   </si>
   <si>
-    <t>SG//LT: 6012888611 cuenta 12053915741//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001371832 del d√≠a 11/01/2023, donde se realiza retenci√≥n por cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la pol√≠tica de exoneraci√≥n VALOR DE RECONEXI√ìN POR MORA, bajo MDM-PQR-32945205, ya se hab√≠a realizado el d√≠a 08/08/2022 ajuste por mismo concepto.</t>
+    <t>SG//LT: 6012888611 cuenta 12053915741//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001371832 del día 11/01/2023, donde se realiza retención por cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO. // se penaliza asesor, puesto que no cumple con la política de exoneración VALOR DE RECONEXIÓN POR MORA, bajo MDM-PQR-32945205, ya se había realizado el día 08/08/2022 ajuste por mismo concepto.</t>
   </si>
   <si>
     <t>MDM-PQR-36323309</t>
   </si>
   <si>
-    <t>NOMBRE:LINA CLEMENCIA GALLEGO RAMIREZ CEDULA:52710952 LINEA:3102814757 CORREO:lina.c.gallego.r@gmail.com DIRECCION:KR 56A 130A 61 IN 8 AP 302 MOTIVO: cancelaci√≥n</t>
+    <t>NOMBRE:LINA CLEMENCIA GALLEGO RAMIREZ CEDULA:52710952 LINEA:3102814757 CORREO:lina.c.gallego.r@gmail.com DIRECCION:KR 56A 130A 61 IN 8 AP 302 MOTIVO: cancelación</t>
   </si>
   <si>
     <t>MDM-PQR-36324603</t>
@@ -3056,7 +3073,7 @@
     <t>MDM-PQR-36332932</t>
   </si>
   <si>
-    <t>NOMBRE: JUAN VICENTE MORENO PRIETO (WILLIAM FERNANDO MORENO MORENO CC: 80794259) CC: 185474 TEL: 6012603897 CTA: 2954860 DIR: KR 43B 5A 11 CEL: 3115196333 CORREO: williamoreno@gmail.com OBSERVACI√ìN: CLIENTE SOLICITA INF DE LA FACT</t>
+    <t>NOMBRE: JUAN VICENTE MORENO PRIETO (WILLIAM FERNANDO MORENO MORENO CC: 80794259) CC: 185474 TEL: 6012603897 CTA: 2954860 DIR: KR 43B 5A 11 CEL: 3115196333 CORREO: williamoreno@gmail.com OBSERVACIÓN: CLIENTE SOLICITA INF DE LA FACT</t>
   </si>
   <si>
     <t>MDM-PQR-36333641</t>
@@ -3092,19 +3109,19 @@
     <t>MDM-PQR-36340454</t>
   </si>
   <si>
-    <t>L√≠nea: 6013717196 Nombre: LAURA MARCELA PINTO GOMEZ   C√©dula:1019070705 Celular: 3118823622   Correo:mgomez.9246@gmail.com   Direcci√≥n: KR 136A 151 02 TO 2 AP 104 Petici√≥n: Se genero incremento en el valor de su factura</t>
+    <t>Línea: 6013717196 Nombre: LAURA MARCELA PINTO GOMEZ   Cédula:1019070705 Celular: 3118823622   Correo:mgomez.9246@gmail.com   Dirección: KR 136A 151 02 TO 2 AP 104 Petición: Se genero incremento en el valor de su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36340462</t>
   </si>
   <si>
-    <t>linea:  6012711981 nombre:  LUIS CARLOS CHITIVA CASTA√ëEDA   cedula: 19376615 numero: 3004987974   email: LCHC.24.1959@GMAIL.COM   direccion  KR 73 40 31 SUR BQ 6 IN 7 AP 102 motivo: se comunica ya que ya que le llego la factura mas cara de lo normal</t>
+    <t>linea:  6012711981 nombre:  LUIS CARLOS CHITIVA CASTAÑEDA   cedula: 19376615 numero: 3004987974   email: LCHC.24.1959@GMAIL.COM   direccion  KR 73 40 31 SUR BQ 6 IN 7 AP 102 motivo: se comunica ya que ya que le llego la factura mas cara de lo normal</t>
   </si>
   <si>
     <t>MDM-PQR-36342963</t>
   </si>
   <si>
-    <t xml:space="preserve"> linea  ::::   6014373123   nombre suscriptor  :::BLANCA CASTA√ëEDA  cedula   :::   51785732 telefono    :::   3052602624   direccion    :::   lightwhite1234@hotmail.com   email   :::: KR 93 A 75 26  motivo llamada     :::  FACTURACIN  MAS COSTOSA</t>
+    <t xml:space="preserve"> linea  ::::   6014373123   nombre suscriptor  :::BLANCA CASTAÑEDA  cedula   :::   51785732 telefono    :::   3052602624   direccion    :::   lightwhite1234@hotmail.com   email   :::: KR 93 A 75 26  motivo llamada     :::  FACTURACIN  MAS COSTOSA</t>
   </si>
   <si>
     <t>MDM-PQR-36345241</t>
@@ -3113,13 +3130,13 @@
     <t>MDM-PQR-36345368</t>
   </si>
   <si>
-    <t>Nombre: Oscar Sanchez  C√©dula:1018510742 Celular:3163412535   Correo:OSCARSTEVENSSANCHEZ@GMAIL.COM   Direcci√≥n: CL 42 3 49 ESTE PI 3 Petici√≥n: Cliente indica que se genero incremento en su factura</t>
+    <t>Nombre: Oscar Sanchez  Cédula:1018510742 Celular:3163412535   Correo:OSCARSTEVENSSANCHEZ@GMAIL.COM   Dirección: CL 42 3 49 ESTE PI 3 Petición: Cliente indica que se genero incremento en su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36345543</t>
   </si>
   <si>
-    <t>Cliente MAYERLY ORREGO ORREGO C√©dula de Ciudadan√≠a 1004767767 L√≠nea: SR-33113571 Cuenta de Facturaci√≥n: 12054485251 motivo aumento de la facturacion</t>
+    <t>Cliente MAYERLY ORREGO ORREGO Cédula de Ciudadanía 1004767767 Línea: SR-33113571 Cuenta de Facturación: 12054485251 motivo aumento de la facturacion</t>
   </si>
   <si>
     <t>MDM-PQR-36346078</t>
@@ -3143,7 +3160,7 @@
     <t>MDM-PQR-36347540</t>
   </si>
   <si>
-    <t>Linea:SR-32956994 Nombre de quien se comunica:ROSA MARIA COTRINA SANDOVAL   C√©dula: 1013653340 N√∫mero de contacto: 3125078014   Email:    RO.COTRI45@GMAIL.COM   Direcci√≥n: AK 14 3 53 AP 2221 Motivo de la llamada: cliente se comunica que le esta llegando incremento de factura</t>
+    <t>Linea:SR-32956994 Nombre de quien se comunica:ROSA MARIA COTRINA SANDOVAL   Cédula: 1013653340 Número de contacto: 3125078014   Email:    RO.COTRI45@GMAIL.COM   Dirección: AK 14 3 53 AP 2221 Motivo de la llamada: cliente se comunica que le esta llegando incremento de factura</t>
   </si>
   <si>
     <t>MDM-PQR-36347605</t>
@@ -3167,7 +3184,7 @@
     <t>MDM-PQR-36359392</t>
   </si>
   <si>
-    <t>L√≠nea: N/A Nombre:YULI ANDREA POVEDA PALACIO   C√©dula:52875751 Celular: 3102150159  3115204119 Correo: ANDREAPOVEDAPALACIO@GMAIL.COM   Direcci√≥n: CL 42B SUR 72H 15 IN 1 AP 1703 Petici√≥n: Desea confirmar cuando finaliza la clausula de permanencia</t>
+    <t>Línea: N/A Nombre:YULI ANDREA POVEDA PALACIO   Cédula:52875751 Celular: 3102150159  3115204119 Correo: ANDREAPOVEDAPALACIO@GMAIL.COM   Dirección: CL 42B SUR 72H 15 IN 1 AP 1703 Petición: Desea confirmar cuando finaliza la clausula de permanencia</t>
   </si>
   <si>
     <t>MDM-PQR-36362074</t>
@@ -3179,13 +3196,13 @@
     <t>MDM-PQR-36362137</t>
   </si>
   <si>
-    <t>Linea:6013406012 Nombre de quien se comunica:MARIA OLIVA ALEJO SAAVEDRA   C√©dula: 41769561 N√∫mero de contacto: 3115468328   Email:    mefealejos41@hotmail.com   Direcci√≥n: DG 46A 16 26 AP 202 Motivo de la llamada: cliente se comunica para consultar incremento de ley</t>
+    <t>Linea:6013406012 Nombre de quien se comunica:MARIA OLIVA ALEJO SAAVEDRA   Cédula: 41769561 Número de contacto: 3115468328   Email:    mefealejos41@hotmail.com   Dirección: DG 46A 16 26 AP 202 Motivo de la llamada: cliente se comunica para consultar incremento de ley</t>
   </si>
   <si>
     <t>MDM-PQR-36362297</t>
   </si>
   <si>
-    <t>susana 1047242687  L√≠nea: SR-33050325 Nombre de quien se comunica: JOHN JENRY AYALA GUIO   C√©dula: 1026554818 N√∫mero de contacto: 3004668148   Email: SUSANAPERDOMO24@GMAIL.COM  Direcci√≥n: CL 69 69M 20 Motivo de la llamada: aumento de factura</t>
+    <t>susana 1047242687  Línea: SR-33050325 Nombre de quien se comunica: JOHN JENRY AYALA GUIO   Cédula: 1026554818 Número de contacto: 3004668148   Email: SUSANAPERDOMO24@GMAIL.COM  Dirección: CL 69 69M 20 Motivo de la llamada: aumento de factura</t>
   </si>
   <si>
     <t>MDM-PQR-36364921</t>
@@ -3197,7 +3214,7 @@
     <t>MDM-PQR-36368051</t>
   </si>
   <si>
-    <t>Cliente quiere solicitar la cancelaci√≥n de hbo max</t>
+    <t>Cliente quiere solicitar la cancelación de hbo max</t>
   </si>
   <si>
     <t>MDM-PQR-36371021</t>
@@ -3209,13 +3226,13 @@
     <t>MDM-PQR-36372159</t>
   </si>
   <si>
-    <t>Linea:6012020474 Nombre de quien se comunica:LADY MARCELA RODRIGUEZ BENITEZ   C√©dula: 1022426479 N√∫mero de contacto: 3022755980   Email: marcelad78@hotmail.com      Direcci√≥n: CL 29C SUR 41 69 Motivo de la llamada: cliente se comunica que se le realizo incremento de su factura</t>
+    <t>Linea:6012020474 Nombre de quien se comunica:LADY MARCELA RODRIGUEZ BENITEZ   Cédula: 1022426479 Número de contacto: 3022755980   Email: marcelad78@hotmail.com      Dirección: CL 29C SUR 41 69 Motivo de la llamada: cliente se comunica que se le realizo incremento de su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36373887</t>
   </si>
   <si>
-    <t>Nombre: YASMIN PATRICIA VARGAS BAYONA cedula: 466366118 celular: 3143149332 Correo: yasminp14@hotmail.com direcci√≥n: AC 53 25 11 AP 201 linea: 6016278906 motivo: COCNEPTOS FACTURADOS</t>
+    <t>Nombre: YASMIN PATRICIA VARGAS BAYONA cedula: 466366118 celular: 3143149332 Correo: yasminp14@hotmail.com dirección: AC 53 25 11 AP 201 linea: 6016278906 motivo: COCNEPTOS FACTURADOS</t>
   </si>
   <si>
     <t>MDM-PQR-36374733</t>
@@ -3227,19 +3244,19 @@
     <t>MDM-PQR-36375728</t>
   </si>
   <si>
-    <t>L√≠nea: Nombre de quien se comunica:      LUIS  HORACIO  CUBILLOS   C√©dula:   14240190 N√∫mero de contacto:   3153353224   Email:   luishoraciocubillos@gmail.com   Direcci√≥n:   KR 81B 19B 85 CA 105 Motivo de la llamada:. CANCELAR  LA TV ,  DIRECTV GO  LE PARECE MUY  MALO  Y ABUSIVAMENTE  LE METIERON  HBO   Y  WIN</t>
+    <t>Línea: Nombre de quien se comunica:      LUIS  HORACIO  CUBILLOS   Cédula:   14240190 Número de contacto:   3153353224   Email:   luishoraciocubillos@gmail.com   Dirección:   KR 81B 19B 85 CA 105 Motivo de la llamada:. CANCELAR  LA TV ,  DIRECTV GO  LE PARECE MUY  MALO  Y ABUSIVAMENTE  LE METIERON  HBO   Y  WIN</t>
   </si>
   <si>
     <t>MDM-PQR-36379337</t>
   </si>
   <si>
-    <t>SG//LT: 6016754973 cuenta 12054346124//Cliente radica queja el 11/01/2023  bajo CUN 4347230000071688. por los cobros generados para la l√≠nea 6016754973 por concepto de cl√°usula de permanencia. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $750,000, incluido IVA, VALOR REAL AJUSTE $750,000 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016754973 cuenta 12054346124//Cliente radica queja el 11/01/2023  bajo CUN 4347230000071688. por los cobros generados para la línea 6016754973 por concepto de cláusula de permanencia. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $750,000, incluido IVA, VALOR REAL AJUSTE $750,000 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36379674</t>
   </si>
   <si>
-    <t>EL TRAMITE SE HA EJECUTADO EXITOSAMENTE N√∫mero de Orden MDM-FIBRA-010963996  CUN 4347230000122602  Bundle Seleccionado DUO 300M HOG FTTH V1  Tecnolog√≠a FTTH  Valor del Servicio $ 99,900.00  Nombre Oferta Anterior DUO 300M HOG FTTH V1  Nombre Servicios Auxiliares Anteriores PARAMOUNT+ / HBO MAX  Precio Oferta Anterior $ 128,699.00</t>
+    <t>EL TRAMITE SE HA EJECUTADO EXITOSAMENTE Número de Orden MDM-FIBRA-010963996  CUN 4347230000122602  Bundle Seleccionado DUO 300M HOG FTTH V1  Tecnología FTTH  Valor del Servicio $ 99,900.00  Nombre Oferta Anterior DUO 300M HOG FTTH V1  Nombre Servicios Auxiliares Anteriores PARAMOUNT+ / HBO MAX  Precio Oferta Anterior $ 128,699.00</t>
   </si>
   <si>
     <t>MDM-PQR-36385329</t>
@@ -3263,13 +3280,13 @@
     <t>MDM-PQR-36386615</t>
   </si>
   <si>
-    <t>Titular:  OSCAR BENJAMIN ZAMBRANO RAMIREZ         Cc:  1071329813     Telefono:  SR-  Email:   ZAMBRANOR.OSCAR@GMAIL.COM    Celular:  3102986030   Direcci√≥n:   CL 145 17 75 AP 803 N¬∞ Cuenta: 12054334336</t>
+    <t>Titular:  OSCAR BENJAMIN ZAMBRANO RAMIREZ         Cc:  1071329813     Telefono:  SR-  Email:   ZAMBRANOR.OSCAR@GMAIL.COM    Celular:  3102986030   Dirección:   CL 145 17 75 AP 803 N° Cuenta: 12054334336</t>
   </si>
   <si>
     <t>MDM-PQR-36386686</t>
   </si>
   <si>
-    <t xml:space="preserve"> L√≠nea: 6016772172 Nombre de quien se comunica: PEDRO JOSE TORRES CASTELLANOS   C√©dula:79423479   N√∫mero de contacto: 3118881696   Email:torres32com@yahoo.es   Direcci√≥n:CL 182 15 11  Motivo de la llamada: EL CLIENTE SE COMUNICA PARA CONCEPTOS FACTURACION</t>
+    <t xml:space="preserve"> Línea: 6016772172 Nombre de quien se comunica: PEDRO JOSE TORRES CASTELLANOS   Cédula:79423479   Número de contacto: 3118881696   Email:torres32com@yahoo.es   Dirección:CL 182 15 11  Motivo de la llamada: EL CLIENTE SE COMUNICA PARA CONCEPTOS FACTURACION</t>
   </si>
   <si>
     <t>MDM-PQR-36386978</t>
@@ -3281,19 +3298,19 @@
     <t>MDM-PQR-36387810</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: CAMILO AGREDO C√©dula: 1026250550 N√∫mero de contacto: 3186531970 Email: camiloagredo@yahoo.com  Direcci√≥n: CL 77B 120A 45 TO 1 AP 1003 Motivo de la llamada: SE COMUNICA PORQUE DICE QUE LE AUMENTARON MUCHO EL VALOR DE SU FACTURA.</t>
+    <t>Nombre de quien se comunica: CAMILO AGREDO Cédula: 1026250550 Número de contacto: 3186531970 Email: camiloagredo@yahoo.com  Dirección: CL 77B 120A 45 TO 1 AP 1003 Motivo de la llamada: SE COMUNICA PORQUE DICE QUE LE AUMENTARON MUCHO EL VALOR DE SU FACTURA.</t>
   </si>
   <si>
     <t>MDM-PQR-36387863</t>
   </si>
   <si>
-    <t>Cliente DERLY JANETH PEREZ GARCIA C√©dula de Ciudadan√≠a 65760834 Id PQR MDM-PQR-36387863 L√≠nea: 6017146139 Cuenta de Facturaci√≥n: 772544 ID Servicio: 1-I076SCP  cierre de ciclo</t>
+    <t>Cliente DERLY JANETH PEREZ GARCIA Cédula de Ciudadanía 65760834 Id PQR MDM-PQR-36387863 Línea: 6017146139 Cuenta de Facturación: 772544 ID Servicio: 1-I076SCP  cierre de ciclo</t>
   </si>
   <si>
     <t>MDM-PQR-36390416</t>
   </si>
   <si>
-    <t>Linea:6016457565 Nombre de quien se comunica:MARIA EDITH GARZON SILVA   C√©dula: 20504477 N√∫mero de contacto: 3163203339   Email:    maedithgs12@hotmail.com   Direcci√≥n: KR 6 183 10 IN 4 AP 102 Motivo de la llamada: cliente se comunica que se le ofrecio oferta de retencion y no se le esta aplicando en la factura</t>
+    <t>Linea:6016457565 Nombre de quien se comunica:MARIA EDITH GARZON SILVA   Cédula: 20504477 Número de contacto: 3163203339   Email:    maedithgs12@hotmail.com   Dirección: KR 6 183 10 IN 4 AP 102 Motivo de la llamada: cliente se comunica que se le ofrecio oferta de retencion y no se le esta aplicando en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36390964</t>
@@ -3311,7 +3328,7 @@
     <t>MDM-PQR-36391353</t>
   </si>
   <si>
-    <t>SG//LT: 6013787050 cuenta 12054270186//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001380404 del d√≠a 17/01/2023, donde se realiza retenci√≥n por cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013787050 cuenta 12054270186//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001380404 del día 17/01/2023, donde se realiza retención por cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36391805</t>
@@ -3323,7 +3340,7 @@
     <t>MDM-PQR-36392443</t>
   </si>
   <si>
-    <t>SG//LT: SR-26906768 cuenta 12054224705//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001379290 del d√≠a 16/01/2023, donde se realiza retenci√≥n por cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $29,800 incluido IVA. VALOR REAL AJUSTE: $18,000 incluido IVA. DIFERENCIA $11,800/ MAYOR VALOR AJUSTADO.// se penaliza asesor, puesto que no cumple con la pol√≠tica de exoneraci√≥n VALOR DE RECONEXI√ìN POR MORA, bajo MDM-PQR-33921290, ya se hab√≠a realizado el d√≠a 22/09/2022 ajuste por mismo concepto, ADEMAS SOLO SE DEB√çA AJUSTAR LA RECONEXION POR PAGO Y AJUSTA VALOR DE INCREMENTO EL CUAL NO APLICA.</t>
+    <t>SG//LT: SR-26906768 cuenta 12054224705//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001379290 del día 16/01/2023, donde se realiza retención por cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $29,800 incluido IVA. VALOR REAL AJUSTE: $18,000 incluido IVA. DIFERENCIA $11,800/ MAYOR VALOR AJUSTADO.// se penaliza asesor, puesto que no cumple con la política de exoneración VALOR DE RECONEXIÓN POR MORA, bajo MDM-PQR-33921290, ya se había realizado el día 22/09/2022 ajuste por mismo concepto, ADEMAS SOLO SE DEBÍA AJUSTAR LA RECONEXION POR PAGO Y AJUSTA VALOR DE INCREMENTO EL CUAL NO APLICA.</t>
   </si>
   <si>
     <t>MDM-PQR-36395367</t>
@@ -3335,7 +3352,7 @@
     <t>MDM-PQR-36397048</t>
   </si>
   <si>
-    <t>SG//LT: 6012585148 cuenta 8441174//Cliente radica queja el 28/12/2022  bajo CUN 4347220004992985.1. Se exonere el cobro de la factura ya que fue un error de ETB , 2. Paz y salvo del servicio , 3. Retoma de equipos. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $220,320, incluido IVA, VALOR REAL AJUSTE $220,320 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012585148 cuenta 8441174//Cliente radica queja el 28/12/2022  bajo CUN 4347220004992985.1. Se exonere el cobro de la factura ya que fue un error de ETB , 2. Paz y salvo del servicio , 3. Retoma de equipos. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $220,320, incluido IVA, VALOR REAL AJUSTE $220,320 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36397600</t>
@@ -3347,13 +3364,13 @@
     <t>MDM-PQR-36398802</t>
   </si>
   <si>
-    <t>NOMBRE: VICTORIA FANDI√ëO CC: 1030551463 CORREO:evictoriaft29@gmail.com  CEL:3005682046   DIRECCION:KR 78C 43 26 SUR TEL:6017734177 MOTIVO:CLIENTE INDICA QUE REALIZARON CON ELLA UN ACUERDO DE RETENCION POR $59.000 PERO ESTA FACTURA LE LLEGO POR $89.000</t>
+    <t>NOMBRE: VICTORIA FANDIÑO CC: 1030551463 CORREO:evictoriaft29@gmail.com  CEL:3005682046   DIRECCION:KR 78C 43 26 SUR TEL:6017734177 MOTIVO:CLIENTE INDICA QUE REALIZARON CON ELLA UN ACUERDO DE RETENCION POR $59.000 PERO ESTA FACTURA LE LLEGO POR $89.000</t>
   </si>
   <si>
     <t>MDM-PQR-36399173</t>
   </si>
   <si>
-    <t>L√≠nea: 6013157212 Nombre de quien se comunica: JOSE CUELLAR   C√©dula: 19475591 N√∫mero de contacto: 3168767268   Email: joseancuellar@yahoo.com   Direcci√≥n: CL 22B 63 24 IN 5 AP 404 Motivo de la llamada: cliente se comunica porque le llego la factura tan altas de sus servicios</t>
+    <t>Línea: 6013157212 Nombre de quien se comunica: JOSE CUELLAR   Cédula: 19475591 Número de contacto: 3168767268   Email: joseancuellar@yahoo.com   Dirección: CL 22B 63 24 IN 5 AP 404 Motivo de la llamada: cliente se comunica porque le llego la factura tan altas de sus servicios</t>
   </si>
   <si>
     <t>MDM-PQR-36399550</t>
@@ -3371,7 +3388,7 @@
     <t>MDM-PQR-36401278</t>
   </si>
   <si>
-    <t>Cliente REBECA ROJAS URUE√ëA C√©dula de Ciudadan√≠a 51761089 L√≠nea: 6012639099 Cuenta de Facturaci√≥n: 6513266 motivo consulta saldo pendiente</t>
+    <t>Cliente REBECA ROJAS URUEÑA Cédula de Ciudadanía 51761089 Línea: 6012639099 Cuenta de Facturación: 6513266 motivo consulta saldo pendiente</t>
   </si>
   <si>
     <t>MDM-PQR-36402536</t>
@@ -3383,13 +3400,13 @@
     <t>MDM-PQR-36403861</t>
   </si>
   <si>
-    <t>cliente con cancelaci√≥n de servicio voluntario, a quien le llega factura.</t>
+    <t>cliente con cancelación de servicio voluntario, a quien le llega factura.</t>
   </si>
   <si>
     <t>MDM-PQR-36404683</t>
   </si>
   <si>
-    <t>SG//LT: SR-29333451 cuenta 12054323534//Cliente radica queja el 11/01/2023 bajo CUN 4347230000068254  1. La inadecuada atenci√≥n , 2. Solicita ajuste de la factura por los d√≠as que no tuvo servicios. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $5,130, incluido IVA, VALOR REAL AJUSTE $5,130 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: SR-29333451 cuenta 12054323534//Cliente radica queja el 11/01/2023 bajo CUN 4347230000068254  1. La inadecuada atención , 2. Solicita ajuste de la factura por los días que no tuvo servicios. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $5,130, incluido IVA, VALOR REAL AJUSTE $5,130 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36405187</t>
@@ -3401,37 +3418,37 @@
     <t>MDM-PQR-36408791</t>
   </si>
   <si>
-    <t>Nombre: AUDREY XIMENA CAMACHO MEDINA cedula: 52911276 celular: 3118898151 Correo: ximena6721@hotmail.com direcci√≥n: DG 81I 72B 89 PI 2 linea: 6012247925 motivo: CANCELACION DE LOS SERVICIOS</t>
+    <t>Nombre: AUDREY XIMENA CAMACHO MEDINA cedula: 52911276 celular: 3118898151 Correo: ximena6721@hotmail.com dirección: DG 81I 72B 89 PI 2 linea: 6012247925 motivo: CANCELACION DE LOS SERVICIOS</t>
   </si>
   <si>
     <t>MDM-PQR-36408971</t>
   </si>
   <si>
-    <t>L√≠nea: 6013088419 Nombre:  GIOVANY C√©dula: 79734860 Celular: 3164906860 Direcci√≥n: KR 66A 62 14 SUR     Correo:dngcontasociacios@gmail.com    Motivo de la llamada: Indica que se est√°n reflejando cobros adicionales</t>
+    <t>Línea: 6013088419 Nombre:  GIOVANY Cédula: 79734860 Celular: 3164906860 Dirección: KR 66A 62 14 SUR     Correo:dngcontasociacios@gmail.com    Motivo de la llamada: Indica que se están reflejando cobros adicionales</t>
   </si>
   <si>
     <t>MDM-PQR-36410037</t>
   </si>
   <si>
-    <t>Nombre: SILVIA STELLA DURAN RANGEL DURAN RANGEL cedula: 28312926 celular: 3138852515 Correo:  SERGIOOSPINO24@HOTMAIL.COM direcci√≥n: CL 42 SUR 79G 09 linea: 6013103962 motivo: CANCELACION DEL SERVICIO</t>
+    <t>Nombre: SILVIA STELLA DURAN RANGEL DURAN RANGEL cedula: 28312926 celular: 3138852515 Correo:  SERGIOOSPINO24@HOTMAIL.COM dirección: CL 42 SUR 79G 09 linea: 6013103962 motivo: CANCELACION DEL SERVICIO</t>
   </si>
   <si>
     <t>MDM-PQR-36410536</t>
   </si>
   <si>
-    <t>Line: 6013634281 ?? Who¬¥s calling Name: NUBIA YASMITH GONZALEZ CRUZ   ?? ID Number:  46380082 ?? Contact Cellphone: 3122531948 ?? Email: nubiagc1979@hotmail.com   ?? Address: KR 10A ESTE 24 35 SUR ?? Call Motive: CANCELACI¬ø√ìN de servicios que la cliente dice han√≠a hecho en Noviembre, le est√° generando factura.</t>
+    <t>Line: 6013634281 ?? Who´s calling Name: NUBIA YASMITH GONZALEZ CRUZ   ?? ID Number:  46380082 ?? Contact Cellphone: 3122531948 ?? Email: nubiagc1979@hotmail.com   ?? Address: KR 10A ESTE 24 35 SUR ?? Call Motive: CANCELACI¿ÓN de servicios que la cliente dice hanía hecho en Noviembre, le está generando factura.</t>
   </si>
   <si>
     <t>MDM-PQR-36411097</t>
   </si>
   <si>
-    <t>Cliente GLADYS MERCEDES BRAVO GUEVARA C√©dula de Ciudadan√≠a 41525204 L√≠nea: 6014134550 Cuenta de Facturaci√≥n: 3466824 motivo consulta aumento en la facturacion</t>
+    <t>Cliente GLADYS MERCEDES BRAVO GUEVARA Cédula de Ciudadanía 41525204 Línea: 6014134550 Cuenta de Facturación: 3466824 motivo consulta aumento en la facturacion</t>
   </si>
   <si>
     <t>MDM-PQR-36411612</t>
   </si>
   <si>
-    <t>L√≠nea:  6017629272  Nombre de quien se comunica: MIRYAM CONSUELO AMORTEGUI BOBADILLA   C√©dula: 41721393   N√∫mero de contacto: 3115446464   Email: consuamorteguib@gmail.com   Direcci√≥n:  CL 64D 98 68 Motivo de la llamada: cliente desea cancelar servicio por incremento de ley y fallas</t>
+    <t>Línea:  6017629272  Nombre de quien se comunica: MIRYAM CONSUELO AMORTEGUI BOBADILLA   Cédula: 41721393   Número de contacto: 3115446464   Email: consuamorteguib@gmail.com   Dirección:  CL 64D 98 68 Motivo de la llamada: cliente desea cancelar servicio por incremento de ley y fallas</t>
   </si>
   <si>
     <t>MDM-PQR-36412406</t>
@@ -3455,7 +3472,7 @@
     <t>MDM-PQR-36415726</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: WILMER YESID HERRERA MATIAS  C√©dula: 1026296832 N√∫mero de contacto: 3209015832 Email: WILMERYES96@YAHOO.ES   Direcci√≥n: KR 113 77 08 PI 3 Motivo de la llamada: Porque increment√≥ su factura</t>
+    <t>Nombre de quien se comunica: WILMER YESID HERRERA MATIAS  Cédula: 1026296832 Número de contacto: 3209015832 Email: WILMERYES96@YAHOO.ES   Dirección: KR 113 77 08 PI 3 Motivo de la llamada: Porque incrementó su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36416389</t>
@@ -3467,31 +3484,31 @@
     <t>MDM-PQR-36417259</t>
   </si>
   <si>
-    <t>NOMBRE: FELIPE ANDRES CARDENAS PACHECO CC: 1019109673 TEL: 6016876343 CTA: 12053595773 DIR: CL 128B 119D 04 PI 3 CEL: 3178491610 CORREO: djdementorx511@hotmail.com OBSERVACI√ìN: CLIENTE SOLICITA INF DE LA FACT</t>
+    <t>NOMBRE: FELIPE ANDRES CARDENAS PACHECO CC: 1019109673 TEL: 6016876343 CTA: 12053595773 DIR: CL 128B 119D 04 PI 3 CEL: 3178491610 CORREO: djdementorx511@hotmail.com OBSERVACIÓN: CLIENTE SOLICITA INF DE LA FACT</t>
   </si>
   <si>
     <t>MDM-PQR-36417707</t>
   </si>
   <si>
-    <t>Cliente MARIAN SMITH OLIVERA TAPIERO C√©dula de Ciudadan√≠a 1022340897 CLIENTE INDICA QUE SE REALIZO AJUSTE DE FACTURACI√ìN, POR SERVICIOS ADICIONALES, PLATAFORMAS HBO MAX Y PARAMOUNT +, PERO EN EL SISTEMA, NO HAY REPORTE DE DICHO AJUSTE.  EN LA FACTURA DE EL PERIODO SE EVIDENCIA COBRO POR RECONEXI√ìN DE EL SERVICIO,   Y SVA</t>
+    <t>Cliente MARIAN SMITH OLIVERA TAPIERO Cédula de Ciudadanía 1022340897 CLIENTE INDICA QUE SE REALIZO AJUSTE DE FACTURACIÓN, POR SERVICIOS ADICIONALES, PLATAFORMAS HBO MAX Y PARAMOUNT +, PERO EN EL SISTEMA, NO HAY REPORTE DE DICHO AJUSTE.  EN LA FACTURA DE EL PERIODO SE EVIDENCIA COBRO POR RECONEXIÓN DE EL SERVICIO,   Y SVA</t>
   </si>
   <si>
     <t>MDM-PQR-36418515</t>
   </si>
   <si>
-    <t>L√≠nea:   6016781605 Nombre de quien se comunica: MARIA PAULA   BETANCOURT   C√©dula: 1020828739 N√∫mero de contacto: 3058692306   Email: mariapaulabetancourt0@gmail.com Direcci√≥n: CL 164A 8F 34 Motivo de la llamada: Cliente se comunica porque desea que le ajusten la factura porque a ella le dieron una oferta de $ 59.920 permanente y la factura lleg√≥ mas alta.</t>
+    <t>Línea:   6016781605 Nombre de quien se comunica: MARIA PAULA   BETANCOURT   Cédula: 1020828739 Número de contacto: 3058692306   Email: mariapaulabetancourt0@gmail.com Dirección: CL 164A 8F 34 Motivo de la llamada: Cliente se comunica porque desea que le ajusten la factura porque a ella le dieron una oferta de $ 59.920 permanente y la factura llegó mas alta.</t>
   </si>
   <si>
     <t>MDM-PQR-36419066</t>
   </si>
   <si>
-    <t>Cliente indica que desde el √°rea de fidelizaci√≥n le indicaron llamar a etb antes de que se le emitiera la factura para que s√≥lo le cobren el valor de $  91.740  con todo incluido desceunto del  30% m¬¥{as los adiciones como grabador, retroceder</t>
+    <t>Cliente indica que desde el área de fidelización le indicaron llamar a etb antes de que se le emitiera la factura para que sólo le cobren el valor de $  91.740  con todo incluido desceunto del  30% m´{as los adiciones como grabador, retroceder</t>
   </si>
   <si>
     <t>MDM-PQR-36419195</t>
   </si>
   <si>
-    <t>NOMBRE: LEIDY PATRICIA SANTAMARIA ACHURY CC: 1033798749 TEL: 6012052002 CTA: 12052716435 DIR: KR 13 50A 27 SUR CEL: 3208184495 CORREO: leidysantamaria5@gmail.com OBSERVACI√ìN: CLIENTE SOLICITA INF DE LA FACT</t>
+    <t>NOMBRE: LEIDY PATRICIA SANTAMARIA ACHURY CC: 1033798749 TEL: 6012052002 CTA: 12052716435 DIR: KR 13 50A 27 SUR CEL: 3208184495 CORREO: leidysantamaria5@gmail.com OBSERVACIÓN: CLIENTE SOLICITA INF DE LA FACT</t>
   </si>
   <si>
     <t>MDM-PQR-36420976</t>
@@ -3503,25 +3520,25 @@
     <t>MDM-PQR-36421516</t>
   </si>
   <si>
-    <t>Cliente OCTAVIO GARCIA MACHADO C√©dula de Ciudadan√≠a 2942366 L√≠nea: 6012734368 Cuenta de Facturaci√≥n: 1103883 motivo consulta por aumento en la factura</t>
+    <t>Cliente OCTAVIO GARCIA MACHADO Cédula de Ciudadanía 2942366 Línea: 6012734368 Cuenta de Facturación: 1103883 motivo consulta por aumento en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36422677</t>
   </si>
   <si>
-    <t>L√≠nea: 6016310711 Nombre de quien se comunica: OLGA RONDAN   C√©dula: 51694107 N√∫mero de contacto: 3167595977   Email: roldanolgaj5@gmail.com   Direcci√≥n: CL 67D 66A 11 Motivo de la llamada: incremento de tarifa</t>
+    <t>Línea: 6016310711 Nombre de quien se comunica: OLGA RONDAN   Cédula: 51694107 Número de contacto: 3167595977   Email: roldanolgaj5@gmail.com   Dirección: CL 67D 66A 11 Motivo de la llamada: incremento de tarifa</t>
   </si>
   <si>
     <t>MDM-PQR-36422924</t>
   </si>
   <si>
-    <t>TITULAR EMILIO MAURICIO DANTE GUIDO DRAGO FOSCHI  CEDULA/BIT 19125828 CELULAR 3005584805 FIJO 6013585606 CORREO mauriciodrago2@gmail.com   DIRECCION KR 67 175 80 CA 1 CUENTA 12053461947 PLAN TRIO 25M HOG BRONZE 1 DECO V2 TECNOLOGIA ftth MOTIVO S√≠. Es que lleg√≥ con nuevo valor y quer√≠a confirmar el aumento</t>
+    <t>TITULAR EMILIO MAURICIO DANTE GUIDO DRAGO FOSCHI  CEDULA/BIT 19125828 CELULAR 3005584805 FIJO 6013585606 CORREO mauriciodrago2@gmail.com   DIRECCION KR 67 175 80 CA 1 CUENTA 12053461947 PLAN TRIO 25M HOG BRONZE 1 DECO V2 TECNOLOGIA ftth MOTIVO Sí. Es que llegó con nuevo valor y quería confirmar el aumento</t>
   </si>
   <si>
     <t>MDM-PQR-36423052</t>
   </si>
   <si>
-    <t>L√≠nea: Nombre de quien se comunica: LEIDY NAYIBE TORRES GONZALEZ   C√©dula:1090380920 N√∫mero de contacto:3102910171   Email: aguja4442011@gmail.com   Direcci√≥n:KR 103F 140B 08 Motivo de la llamada:cliente se comunica por que genera cancelacion de su linea ya que no se llego a coinciliacion en temas de factura ya que siempre aumentaron la facturacion y no tuvieron presente las peticiones solicitadas adicional cliente manifiesta que es injusto un incremento cuando ya realizo solicitud de cancelacion.</t>
+    <t>Línea: Nombre de quien se comunica: LEIDY NAYIBE TORRES GONZALEZ   Cédula:1090380920 Número de contacto:3102910171   Email: aguja4442011@gmail.com   Dirección:KR 103F 140B 08 Motivo de la llamada:cliente se comunica por que genera cancelacion de su linea ya que no se llego a coinciliacion en temas de factura ya que siempre aumentaron la facturacion y no tuvieron presente las peticiones solicitadas adicional cliente manifiesta que es injusto un incremento cuando ya realizo solicitud de cancelacion.</t>
   </si>
   <si>
     <t>MDM-PQR-36425804</t>
@@ -3533,7 +3550,7 @@
     <t>MDM-PQR-36426760</t>
   </si>
   <si>
-    <t xml:space="preserve"> FECHA Y HORA DE GESTION: 19/01/2023 LINEA:  6014501105 CEDULA DEL TITULAR: 41757351 NOMBRE DEL TITULAR:  AURA MARIA MEDINA SANCHEZ   LEBARDO SAENZ C.C 3020789 NUMERO DE CELULAR: 3157941644   EMAIL: libardo.saenz@gmail.com   DIRECCION: CL 2 72 33 MOTIVO DE LLAMADA: cliemnte se comunica p√≥r incremeto de la factura</t>
+    <t xml:space="preserve"> FECHA Y HORA DE GESTION: 19/01/2023 LINEA:  6014501105 CEDULA DEL TITULAR: 41757351 NOMBRE DEL TITULAR:  AURA MARIA MEDINA SANCHEZ   LEBARDO SAENZ C.C 3020789 NUMERO DE CELULAR: 3157941644   EMAIL: libardo.saenz@gmail.com   DIRECCION: CL 2 72 33 MOTIVO DE LLAMADA: cliemnte se comunica pór incremeto de la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36426768</t>
@@ -3545,7 +3562,7 @@
     <t>MDM-PQR-36427398</t>
   </si>
   <si>
-    <t>Linea: Nombre de quien se comunica: C√©dula: 52955686 N√∫mero de contacto: 3117220833   Email:    yarleymartinezreal@gmail.com   Direcci√≥n: CL 37 SUR 4 19 ESTE Motivo de la llamada:cliente se comunica que le llega factura correpondiente 38 cuando ella genero suspension temporal</t>
+    <t>Linea: Nombre de quien se comunica: Cédula: 52955686 Número de contacto: 3117220833   Email:    yarleymartinezreal@gmail.com   Dirección: CL 37 SUR 4 19 ESTE Motivo de la llamada:cliente se comunica que le llega factura correpondiente 38 cuando ella genero suspension temporal</t>
   </si>
   <si>
     <t>MDM-PQR-36427636</t>
@@ -3557,7 +3574,7 @@
     <t>MDM-PQR-36428701</t>
   </si>
   <si>
-    <t>L√≠nea:6012745874 Nombre de quien se comunica:MARGARITA ARIZA ARIZA DOMINGUEZ   C√©dula:37796453 N√∫mero de contacto:3175178427   Email:maria13016@hotmail.com   Direcci√≥n:KR 53 149 52 AP 501  Motivo de la llamada: LA CLIENTE DESE COLSUL√ëTAR SU FACTURACION</t>
+    <t>Línea:6012745874 Nombre de quien se comunica:MARGARITA ARIZA ARIZA DOMINGUEZ   Cédula:37796453 Número de contacto:3175178427   Email:maria13016@hotmail.com   Dirección:KR 53 149 52 AP 501  Motivo de la llamada: LA CLIENTE DESE COLSULÑTAR SU FACTURACION</t>
   </si>
   <si>
     <t>MDM-PQR-36430455</t>
@@ -3581,19 +3598,19 @@
     <t>MDM-PQR-36432648</t>
   </si>
   <si>
-    <t>NombreJOHANN ALEXANDER MU√ëOZ GUEVARA  Celular 3143258219  UENHogares Y Mipymes   Tipo DocumentoCC  DepartamentoBOGOTA  Segmento UENHogares   N√∫mero Documento1013615245  CiudadBOGOTA D.C.  SegmentoHogares   EmailJAMGMFC14@GMAIL.COM  Direcci√≥nKR 60 162 57 PI 2 CategoriaPLATA  T√©lefono Fijo MOTIVO DE LLAMADA : CANCELACION DE SERVIICO POR INCREMENTO</t>
+    <t>NombreJOHANN ALEXANDER MUÑOZ GUEVARA  Celular 3143258219  UENHogares Y Mipymes   Tipo DocumentoCC  DepartamentoBOGOTA  Segmento UENHogares   Número Documento1013615245  CiudadBOGOTA D.C.  SegmentoHogares   EmailJAMGMFC14@GMAIL.COM  DirecciónKR 60 162 57 PI 2 CategoriaPLATA  Télefono Fijo MOTIVO DE LLAMADA : CANCELACION DE SERVIICO POR INCREMENTO</t>
   </si>
   <si>
     <t>MDM-PQR-36435365</t>
   </si>
   <si>
-    <t>Cliente menciona que la tarifa le dejaron por  58,900 y este mes le quedo m√°s alta, la persona con la que habl√≥ le indic√≥ que esa era la tarifa que manejar√≠a un a√±o , cliente no conforme con el alza en su valor en factura</t>
+    <t>Cliente menciona que la tarifa le dejaron por  58,900 y este mes le quedo más alta, la persona con la que habló le indicó que esa era la tarifa que manejaría un año , cliente no conforme con el alza en su valor en factura</t>
   </si>
   <si>
     <t>MDM-PQR-36435685</t>
   </si>
   <si>
-    <t>NOMBRE: JOSE HUMBERTO CITA (CARLOS CITA CC: 79112933) CC: 233491 TEL: 6012673800 CTA: 4133363 DIR: CL 23G 98 41 CEL: 3003723029 CORREO: aicg18@gmail.com OBSERVACI√ìN: CLIENTE SOLICITA INF DE LA FACT</t>
+    <t>NOMBRE: JOSE HUMBERTO CITA (CARLOS CITA CC: 79112933) CC: 233491 TEL: 6012673800 CTA: 4133363 DIR: CL 23G 98 41 CEL: 3003723029 CORREO: aicg18@gmail.com OBSERVACIÓN: CLIENTE SOLICITA INF DE LA FACT</t>
   </si>
   <si>
     <t>MDM-PQR-36436060</t>
@@ -3605,25 +3622,25 @@
     <t>MDM-PQR-36441265</t>
   </si>
   <si>
-    <t>Cliente ANGELICA LUCIA CHITIVA TORRES C√©dula de Ciudadan√≠a 35477496 L√≠nea: 6014576835 Cuenta de Facturaci√≥n: 12052665080 motivo solicita envio de factura y consulta de planes mas economicos</t>
+    <t>Cliente ANGELICA LUCIA CHITIVA TORRES Cédula de Ciudadanía 35477496 Línea: 6014576835 Cuenta de Facturación: 12052665080 motivo solicita envio de factura y consulta de planes mas economicos</t>
   </si>
   <si>
     <t>MDM-PQR-36441298</t>
   </si>
   <si>
-    <t>Linea:6012854482 Nombre de quien se comunica:ADMINISTRACION SERVICIOS Y SEGURIDAD LTDA   C√©dula: 900366045 N√∫mero de contacto: 3003822829   Email:    serviseguridadltda@hotmail.com   Direcci√≥n: CL 107A 54 75  Motivo de la llamada: cliente se comunica porque motivo le llego incrementada la factura</t>
+    <t>Linea:6012854482 Nombre de quien se comunica:ADMINISTRACION SERVICIOS Y SEGURIDAD LTDA   Cédula: 900366045 Número de contacto: 3003822829   Email:    serviseguridadltda@hotmail.com   Dirección: CL 107A 54 75  Motivo de la llamada: cliente se comunica porque motivo le llego incrementada la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36442035</t>
   </si>
   <si>
-    <t>Cliente se acerca con intenci√≥n de retiro por motivos econ√≥micos, debido a que ha estado incrementando tambi√©n la factura. Se realiza escalera de retenci√≥n y acepta resaltando beneficios.</t>
+    <t>Cliente se acerca con intención de retiro por motivos económicos, debido a que ha estado incrementando también la factura. Se realiza escalera de retención y acepta resaltando beneficios.</t>
   </si>
   <si>
     <t>MDM-PQR-36442170</t>
   </si>
   <si>
-    <t>SG//LT: 6017901374 cuenta 12054252013// Cliente pide ajuste de la factura, indica que el 16/02/2022 se ofreci√≥ oferta ESCALONADA con PROMOCI√ìN DESCUENTO 100% PRORRATEO + 50% MESES 1,3,5,7 FTTH . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia la PROMOCI√ìN DESCUENTO 100% PRORRATEO + 50% MESES 1,3,5,7 FTTH finalizo en el mes de Agosto 2022 en la factura 306572008 que va de (25 Ago - 24 Sep) descuento aplicado en revchain correctamente de la factura de (25 sep - 24 oct) tarifa normal sin descuento por tal motivo no aplica ajuste realizado en la factura de 308485586 de (25 Oct - 24 Nov). JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $37,450 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $37,450/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE NO APLICA AJUSTE, YA QUE OFERTA ESCALONADA FINALIZO EN LA FACTURA DE (25 Ago - 24 Sep).</t>
+    <t>SG//LT: 6017901374 cuenta 12054252013// Cliente pide ajuste de la factura, indica que el 16/02/2022 se ofreció oferta ESCALONADA con PROMOCIÓN DESCUENTO 100% PRORRATEO + 50% MESES 1,3,5,7 FTTH . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia la PROMOCIÓN DESCUENTO 100% PRORRATEO + 50% MESES 1,3,5,7 FTTH finalizo en el mes de Agosto 2022 en la factura 306572008 que va de (25 Ago - 24 Sep) descuento aplicado en revchain correctamente de la factura de (25 sep - 24 oct) tarifa normal sin descuento por tal motivo no aplica ajuste realizado en la factura de 308485586 de (25 Oct - 24 Nov). JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $37,450 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $37,450/ AJUSTE INCORRECTO.// SE PENALIZA ASESOR YA QUE NO APLICA AJUSTE, YA QUE OFERTA ESCALONADA FINALIZO EN LA FACTURA DE (25 Ago - 24 Sep).</t>
   </si>
   <si>
     <t>MDM-PQR-36442429</t>
@@ -3641,25 +3658,25 @@
     <t>MDM-PQR-36445551</t>
   </si>
   <si>
-    <t>Nombre: DUSTY VELAZQUEZ C√©dula: 51831431 Correo: dustyvelasquez22@gmail.com Celular: 3006035075 Direcci√≥n: KR 20 187 40 CA 70 Motivo de llamada: Cliente se comunica porque su factura est√° llegando por un valor no ofrecido e indica que el 2do mese era con el 50% de descuento y la factura de este mes le llega por 116.000, cliente indica que no le est√°n cumpliendo con lo ofrecido .</t>
+    <t>Nombre: DUSTY VELAZQUEZ Cédula: 51831431 Correo: dustyvelasquez22@gmail.com Celular: 3006035075 Dirección: KR 20 187 40 CA 70 Motivo de llamada: Cliente se comunica porque su factura está llegando por un valor no ofrecido e indica que el 2do mese era con el 50% de descuento y la factura de este mes le llega por 116.000, cliente indica que no le están cumpliendo con lo ofrecido .</t>
   </si>
   <si>
     <t>MDM-PQR-36445780</t>
   </si>
   <si>
-    <t>SG//LT: 6013845417 cuenta 12054268759// Cliente pide ajuste de la factura, indica nunca autorizo la activaci√≥n de servicios adicionales de tv . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el retiro de los servicios adicionales del paquete de DirecTV GO desde 08/10/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $149,040 incluido IVA. VALOR REAL AJUSTE: $149,040 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013845417 cuenta 12054268759// Cliente pide ajuste de la factura, indica nunca autorizo la activación de servicios adicionales de tv . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el retiro de los servicios adicionales del paquete de DirecTV GO desde 08/10/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $149,040 incluido IVA. VALOR REAL AJUSTE: $149,040 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36446571</t>
   </si>
   <si>
-    <t>SG//LT: 6017369499 cuenta 7492317647// Cliente pide ajuste de la factura, indica que el 27/04/2022 bajo MDM-FIBRA-00834013 se ofreci√≥ CAMBIO_TECNOLOG√çA_MIGRADO (CCTEC) con oferta de DUO 80M HOGARES FTTH CAMBIO DE TECNOLOG√çA MP por valor de $62.579.41 mes. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain los cargos correctamente aprovisionados desde 18/11/2022, se evidencia facturaci√≥n correcta . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $85,020 incluido IVA. VALOR REAL AJUSTE: $86,360 incluido IVA. DIFERENCIA $-1,340/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017369499 cuenta 7492317647// Cliente pide ajuste de la factura, indica que el 27/04/2022 bajo MDM-FIBRA-00834013 se ofreció CAMBIO_TECNOLOGÍA_MIGRADO (CCTEC) con oferta de DUO 80M HOGARES FTTH CAMBIO DE TECNOLOGÍA MP por valor de $62.579.41 mes. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain los cargos correctamente aprovisionados desde 18/11/2022, se evidencia facturación correcta . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $85,020 incluido IVA. VALOR REAL AJUSTE: $86,360 incluido IVA. DIFERENCIA $-1,340/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36447834</t>
   </si>
   <si>
-    <t>NOMBRE:OMAIRA AMADO ESTUPI√ëAN C.C.41643287 DIRECCION:AK 68D 24A 50 BQ 6 IN 6 AP 502  TELEFONO:6012956597 CELULAR:3108001678   CORREO:omairaames@hotmail.com  MOTIVO:mi factura aumento</t>
+    <t>NOMBRE:OMAIRA AMADO ESTUPIÑAN C.C.41643287 DIRECCION:AK 68D 24A 50 BQ 6 IN 6 AP 502  TELEFONO:6012956597 CELULAR:3108001678   CORREO:omairaames@hotmail.com  MOTIVO:mi factura aumento</t>
   </si>
   <si>
     <t>MDM-PQR-36448260</t>
@@ -3671,19 +3688,19 @@
     <t>MDM-PQR-36449253</t>
   </si>
   <si>
-    <t>L√≠nea: 6014346008 Nombre: CAMILO MONTERO BUITRAGO   C√©dula: 79265877 N√∫mero de contacto: 3203025498/3108190886 Email: camilomontero30@gmail.com   Direcci√≥n: KR 111 75A 19 Motivo de la llamada: EL CLIENTE SE COMUNICA PORQUE LA FACTURA LE LLEGO MUY CARA Y EL TIENEN UN BENEFICIO DE RETENCI√ìN EL CUAL NO SE VE REFLEJADO</t>
+    <t>Línea: 6014346008 Nombre: CAMILO MONTERO BUITRAGO   Cédula: 79265877 Número de contacto: 3203025498/3108190886 Email: camilomontero30@gmail.com   Dirección: KR 111 75A 19 Motivo de la llamada: EL CLIENTE SE COMUNICA PORQUE LA FACTURA LE LLEGO MUY CARA Y EL TIENEN UN BENEFICIO DE RETENCIÓN EL CUAL NO SE VE REFLEJADO</t>
   </si>
   <si>
     <t>MDM-PQR-36454480</t>
   </si>
   <si>
-    <t>SG//LT: 6012231842 cuenta 12053917742// Cliente pide ajuste de la factura, indica que el 23/05/2022 bajo MDM-FIBRA-008619131 se ofreci√≥ CAMBIO_TECNOLOG√çA_MIGRADO (CCTEC) con oferta de DUO 80M MIPYMES CAMBIO TECNOLOG√çA MP por valor de $68,999.39 mes. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain los cargos correctamente aprovisionados desde 14/09/2022, se evidencia facturaci√≥n correcta . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $19,000 incluido IVA. VALOR REAL AJUSTE: $23,080,61 incluido IVA. DIFERENCIA $-4,080,61/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012231842 cuenta 12053917742// Cliente pide ajuste de la factura, indica que el 23/05/2022 bajo MDM-FIBRA-008619131 se ofreció CAMBIO_TECNOLOGÍA_MIGRADO (CCTEC) con oferta de DUO 80M MIPYMES CAMBIO TECNOLOGÍA MP por valor de $68,999.39 mes. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain los cargos correctamente aprovisionados desde 14/09/2022, se evidencia facturación correcta . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $19,000 incluido IVA. VALOR REAL AJUSTE: $23,080,61 incluido IVA. DIFERENCIA $-4,080,61/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36454751</t>
   </si>
   <si>
-    <t>SG//LT: 6014428188 cuenta 12053845424// Cliente pide ajuste de la factura, indica nunca solicito el servicio de SVA DTV WINSPORTS . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el servicio de SVA DTV WINSPORTS retirado desde 17/11/2022, adicional se evidencia orden de  CANCELACI√ìN_VOLUNTARIA (TESR) bajo MDM-FIBRA-010684309 del d√≠a 12/12/2022 con Fecha de Ejecuci√≥n: 25/12/2022 se evidencia retiro de los servicios desde 24/12/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $25,900 incluido IVA. VALOR REAL AJUSTE: $25,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6014428188 cuenta 12053845424// Cliente pide ajuste de la factura, indica nunca solicito el servicio de SVA DTV WINSPORTS . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el servicio de SVA DTV WINSPORTS retirado desde 17/11/2022, adicional se evidencia orden de  CANCELACIÓN_VOLUNTARIA (TESR) bajo MDM-FIBRA-010684309 del día 12/12/2022 con Fecha de Ejecución: 25/12/2022 se evidencia retiro de los servicios desde 24/12/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $25,900 incluido IVA. VALOR REAL AJUSTE: $25,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36460137</t>
@@ -3701,7 +3718,7 @@
     <t>MDM-PQR-36460609</t>
   </si>
   <si>
-    <t>L√≠nea: 6012860368 Nombre:  OSCAR PARDO C√©dula: 79977791 Celular: 3112520158 Direcci√≥n: KR 10 9 37 LC 1006 Correo: G45JEANS@HOTMAIL.COM   Motivo de la llamada: Indica que tuvo un servicio que cancel√≥ y ahora se le est√° cobrando la clausula de permanecia</t>
+    <t>Línea: 6012860368 Nombre:  OSCAR PARDO Cédula: 79977791 Celular: 3112520158 Dirección: KR 10 9 37 LC 1006 Correo: G45JEANS@HOTMAIL.COM   Motivo de la llamada: Indica que tuvo un servicio que canceló y ahora se le está cobrando la clausula de permanecia</t>
   </si>
   <si>
     <t>MDM-PQR-36463081</t>
@@ -3719,7 +3736,7 @@
     <t>MDM-PQR-36463696</t>
   </si>
   <si>
-    <t>Cliente JOHANNA ROMERO RUEDA C√©dula de Ciudadan√≠a 1022330583 L√≠nea: 6013483174 Cuenta de Facturaci√≥n: 12054633495 motivo consulta del valor de la factura por el valor</t>
+    <t>Cliente JOHANNA ROMERO RUEDA Cédula de Ciudadanía 1022330583 Línea: 6013483174 Cuenta de Facturación: 12054633495 motivo consulta del valor de la factura por el valor</t>
   </si>
   <si>
     <t>MDM-PQR-36464525</t>
@@ -3752,13 +3769,13 @@
     <t>MDM-PQR-36466120</t>
   </si>
   <si>
-    <t>Cliente MARLON JAVIER PANTOJA IRIARTE C√©dula de Ciudadan√≠a 1128055107 L√≠nea: SR-33921910 Cuenta de Facturaci√≥n: 12054534799 motivo consulta por aumento en la factura</t>
+    <t>Cliente MARLON JAVIER PANTOJA IRIARTE Cédula de Ciudadanía 1128055107 Línea: SR-33921910 Cuenta de Facturación: 12054534799 motivo consulta por aumento en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36466513</t>
   </si>
   <si>
-    <t>ANDREA JULIETH MORENO CA√ëON   1033742888 ANDREAJMORENO@HOTMAIL.COM   3102911501 KR 119 77B 49 TO 2 AP 1103 CLEINTE INIDCA QUE ELLA TIENE UNA OFERTA EN LA CUAL TIENE UN DESCUENTO UN MES SI UN MES NO Y ESTE MES LE LLEGO NORMAL IGUAL QUE EL MES PASADO</t>
+    <t>ANDREA JULIETH MORENO CAÑON   1033742888 ANDREAJMORENO@HOTMAIL.COM   3102911501 KR 119 77B 49 TO 2 AP 1103 CLEINTE INIDCA QUE ELLA TIENE UNA OFERTA EN LA CUAL TIENE UN DESCUENTO UN MES SI UN MES NO Y ESTE MES LE LLEGO NORMAL IGUAL QUE EL MES PASADO</t>
   </si>
   <si>
     <t>MDM-PQR-36469475</t>
@@ -3782,13 +3799,13 @@
     <t>MDM-PQR-36478951</t>
   </si>
   <si>
-    <t>NOMBRE: FRANCISCO FILAURI MORA CC: 1020742462 TEL: 6016155267 CTA: 12053698643 DIR: KR 54D 134 51 TO 4 AP 1005 CEL: 1020742462 CORREO: operaciones@aliviamos.com OBSERVACI√ìN: CLIENTE SOLICITA INF DE LA FACT</t>
+    <t>NOMBRE: FRANCISCO FILAURI MORA CC: 1020742462 TEL: 6016155267 CTA: 12053698643 DIR: KR 54D 134 51 TO 4 AP 1005 CEL: 1020742462 CORREO: operaciones@aliviamos.com OBSERVACIÓN: CLIENTE SOLICITA INF DE LA FACT</t>
   </si>
   <si>
     <t>MDM-PQR-36479923</t>
   </si>
   <si>
-    <t>L√≠nea:  6017723967 Nombre de quien se comunica:  KAREN MARCELA PUCHE MIRANDA   C√©dula:  1143339575   N√∫mero de contacto:  3103828701 Email:  kamapumi2018@hotmail.com   Direcci√≥n:  KR 56 2B 81 Motivo de la llamada: cliente le lelgo la factura pero llego por 152.000 pesos y solo tiene internet pero la factura esta por 80.000 pesos.</t>
+    <t>Línea:  6017723967 Nombre de quien se comunica:  KAREN MARCELA PUCHE MIRANDA   Cédula:  1143339575   Número de contacto:  3103828701 Email:  kamapumi2018@hotmail.com   Dirección:  KR 56 2B 81 Motivo de la llamada: cliente le lelgo la factura pero llego por 152.000 pesos y solo tiene internet pero la factura esta por 80.000 pesos.</t>
   </si>
   <si>
     <t>MDM-PQR-36481795</t>
@@ -3806,43 +3823,43 @@
     <t>MDM-PQR-36484945</t>
   </si>
   <si>
-    <t>L√≠nea: 6017615847 Nombre de quien se comunica: LADY JHOANA TORRES RODRIGUEZ   C√©dula: 1016107577 N√∫mero de contacto: 3138389298   Email: JHOANATORRES1998@HOTMAIL.COM   Direcci√≥n: TV 78B 40J 09 SUR Motivo de la llamada: Cliente solicita cancelaci√≥n del servicio</t>
+    <t>Línea: 6017615847 Nombre de quien se comunica: LADY JHOANA TORRES RODRIGUEZ   Cédula: 1016107577 Número de contacto: 3138389298   Email: JHOANATORRES1998@HOTMAIL.COM   Dirección: TV 78B 40J 09 SUR Motivo de la llamada: Cliente solicita cancelación del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-36486867</t>
   </si>
   <si>
-    <t>cancelaci√≥n win sport</t>
+    <t>cancelación win sport</t>
   </si>
   <si>
     <t>MDM-PQR-36487495</t>
   </si>
   <si>
-    <t>ajuste de facturacion indica que tiene beneficio promocional el cual no se le esta cumpliendo  Cliente desea reducir el valor de su plan   Acci√≥n:Oferta de retenci√≥n B√°sica  Descripci√≥n Acci√≥n:Cliente se le otorgar√° una tarifa preferencial ( $50.000 )   Observaciones:requiere escalamiento   N√∫mero Retenci√≥n:RF-001305512</t>
+    <t>ajuste de facturacion indica que tiene beneficio promocional el cual no se le esta cumpliendo  Cliente desea reducir el valor de su plan   Acción:Oferta de retención Básica  Descripción Acción:Cliente se le otorgará una tarifa preferencial ( $50.000 )   Observaciones:requiere escalamiento   Número Retención:RF-001305512</t>
   </si>
   <si>
     <t>MDM-PQR-36487577</t>
   </si>
   <si>
-    <t>CLIENTE SE COMUNICA PARA SLICITAR LA CANCELACI√ìN DEL SERVICIO YA QUE SE GENERO UN INCREMENTO EN SU FACTURA  EL INCREMENTON SE GENERO DEBIDO A QUE TENIA UN SERVICIO ACTIVO EL CUAL PRESENTO FALLAS POR NUEVE DIAS SEGUIDOS Y GENERO LA SOLICITUD DE EL CAMBIO DE PLAN , EN ESTE MOMENTO SE ENCUENTRA GENERANDO COBRO POR EL SERVICIO ACTIVO Y LA CLIENTE SOLICITA UN AJUSTE DE FACTURA POR LOS DIAS DE FALLA EN EL SERVICIO</t>
+    <t>CLIENTE SE COMUNICA PARA SLICITAR LA CANCELACIÓN DEL SERVICIO YA QUE SE GENERO UN INCREMENTO EN SU FACTURA  EL INCREMENTON SE GENERO DEBIDO A QUE TENIA UN SERVICIO ACTIVO EL CUAL PRESENTO FALLAS POR NUEVE DIAS SEGUIDOS Y GENERO LA SOLICITUD DE EL CAMBIO DE PLAN , EN ESTE MOMENTO SE ENCUENTRA GENERANDO COBRO POR EL SERVICIO ACTIVO Y LA CLIENTE SOLICITA UN AJUSTE DE FACTURA POR LOS DIAS DE FALLA EN EL SERVICIO</t>
   </si>
   <si>
     <t>MDM-PQR-36490952</t>
   </si>
   <si>
-    <t>SG//LT: 6017730509 cuenta 12054325504//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001374435 del d√≠a 12/01/2023, donde se realiza retenci√≥n por cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017730509 cuenta 12054325504//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia RF-001374435 del día 12/01/2023, donde se realiza retención por cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36491489</t>
   </si>
   <si>
-    <t>Cuenta: 12054009067 Nombre: SANDRA MILENA BARRETO GARZON   Cedula:  1022344275   Direcci√≥n CL 53 BIS SUR 80 57 Correo : yamile.sierra@breeze.co   Celular: 3188448478   Linea: 6014505067   Motivo: cliente se comunica solicitando cancelacion y envio de la factura</t>
+    <t>Cuenta: 12054009067 Nombre: SANDRA MILENA BARRETO GARZON   Cedula:  1022344275   Dirección CL 53 BIS SUR 80 57 Correo : yamile.sierra@breeze.co   Celular: 3188448478   Linea: 6014505067   Motivo: cliente se comunica solicitando cancelacion y envio de la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36493210</t>
   </si>
   <si>
-    <t>Cliente LUIS FERNANDO RAMIREZ CABRERA C√©dula de Ciudadan√≠a 79387239L√≠nea: 6017814331 Cuenta de Facturaci√≥n: 12054148525 Cliente se comunica solicitando ajuste de la factura o cancelaci√≥n</t>
+    <t>Cliente LUIS FERNANDO RAMIREZ CABRERA Cédula de Ciudadanía 79387239Línea: 6017814331 Cuenta de Facturación: 12054148525 Cliente se comunica solicitando ajuste de la factura o cancelación</t>
   </si>
   <si>
     <t>MDM-PQR-36494483</t>
@@ -3854,7 +3871,7 @@
     <t>MDM-PQR-36495424</t>
   </si>
   <si>
-    <t>L√≠nea: 6013671773 Nombre de quien se comunica: LEIDY VIVIANA MANJARRES BOTERO      C√©dula: 1031141895   N√∫mero de contacto: 3209559570   Email: manjarresboterol@gmail.com   Direcci√≥n: CL 47A SUR 3G 18 ESTE Motivo de la llamada: CLIENTE DESEA CANCELAR EL SERVICIO POR COSTOS</t>
+    <t>Línea: 6013671773 Nombre de quien se comunica: LEIDY VIVIANA MANJARRES BOTERO      Cédula: 1031141895   Número de contacto: 3209559570   Email: manjarresboterol@gmail.com   Dirección: CL 47A SUR 3G 18 ESTE Motivo de la llamada: CLIENTE DESEA CANCELAR EL SERVICIO POR COSTOS</t>
   </si>
   <si>
     <t>MDM-PQR-36497597</t>
@@ -3878,13 +3895,13 @@
     <t>MDM-PQR-36501340</t>
   </si>
   <si>
-    <t>Cliente se acerca  con intenci√≥n de retiro, ya que nos indica que se realizaron  incrementos sobre la factura  bajo  la l√≠nea  6013666093,  se le resaltan los beneficios   que tiene  sobre la misma  y en descuento del  30%  que tiene  en el momento</t>
+    <t>Cliente se acerca  con intención de retiro, ya que nos indica que se realizaron  incrementos sobre la factura  bajo  la línea  6013666093,  se le resaltan los beneficios   que tiene  sobre la misma  y en descuento del  30%  que tiene  en el momento</t>
   </si>
   <si>
     <t>MDM-PQR-36502948</t>
   </si>
   <si>
-    <t>cancelar direc tv go y alidar cobors generados 11/25/2022 12:00:00 AM 31% DE DESCUENTO DURANTE 5 MESES DIRECTV GO B√ÅSICO</t>
+    <t>cancelar direc tv go y alidar cobors generados 11/25/2022 12:00:00 AM 31% DE DESCUENTO DURANTE 5 MESES DIRECTV GO BÁSICO</t>
   </si>
   <si>
     <t>MDM-PQR-36503904</t>
@@ -3896,7 +3913,7 @@
     <t>MDM-PQR-36504431</t>
   </si>
   <si>
-    <t>TITUALAR: RICARDO ANDRES BERNAL VEGA     CC: 1015439806 L√çNEA: 6016267940 CELULAR: 3133463736   CORREO:  andres_b725@hotmail.com DIRECCI√ìN:TV 22A 59 41 AP 401  OBSRVACI√ìN: cliente indica que tiene un incremento en su factura cuando indica que tiene un contrato que indica que no hay incremento</t>
+    <t>TITUALAR: RICARDO ANDRES BERNAL VEGA     CC: 1015439806 LÍNEA: 6016267940 CELULAR: 3133463736   CORREO:  andres_b725@hotmail.com DIRECCIÓN:TV 22A 59 41 AP 401  OBSRVACIÓN: cliente indica que tiene un incremento en su factura cuando indica que tiene un contrato que indica que no hay incremento</t>
   </si>
   <si>
     <t>MDM-PQR-36505246</t>
@@ -3920,7 +3937,7 @@
     <t>MDM-PQR-36508117</t>
   </si>
   <si>
-    <t>L√≠nea:  6017391441 Nombre de quien se comunica:   HERNAN RODRIGUEZ HERNANDEZ   C√©dula:   80183889 N√∫mero de contacto:  3155385516 Direcci√≥n: KR 109 151C 30 CA 142 Motivo de la llamada: cliente le llego la factura ya que el servicio es de un a√±o, tiene un beneficio de descuento del 50% y ha pagado dos con el valor del plan.</t>
+    <t>Línea:  6017391441 Nombre de quien se comunica:   HERNAN RODRIGUEZ HERNANDEZ   Cédula:   80183889 Número de contacto:  3155385516 Dirección: KR 109 151C 30 CA 142 Motivo de la llamada: cliente le llego la factura ya que el servicio es de un año, tiene un beneficio de descuento del 50% y ha pagado dos con el valor del plan.</t>
   </si>
   <si>
     <t>MDM-PQR-36508373</t>
@@ -3938,13 +3955,13 @@
     <t>MDM-PQR-36511715</t>
   </si>
   <si>
-    <t>Cliente WILSON CAMILO LOPEZ LOPEZ C√©dula de Ciudadan√≠a 1115691028 L√≠nea: SR-27309058 Cuenta de Facturaci√≥n: 12054239986 motivo consulta de la factura</t>
+    <t>Cliente WILSON CAMILO LOPEZ LOPEZ Cédula de Ciudadanía 1115691028 Línea: SR-27309058 Cuenta de Facturación: 12054239986 motivo consulta de la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36512100</t>
   </si>
   <si>
-    <t>Cliente DANIELA MU√ëOZ CARMONA C√©dula de Ciudadan√≠a 1019039619 L√≠nea: 6012005221 Cuenta de Facturaci√≥n: 12051628938 motivo cambio de plan</t>
+    <t>Cliente DANIELA MUÑOZ CARMONA Cédula de Ciudadanía 1019039619 Línea: 6012005221 Cuenta de Facturación: 12051628938 motivo cambio de plan</t>
   </si>
   <si>
     <t>MDM-PQR-36512664</t>
@@ -3962,7 +3979,7 @@
     <t>MDM-PQR-36515075</t>
   </si>
   <si>
-    <t>Cliente se contacta porque su factura increment√≥.</t>
+    <t>Cliente se contacta porque su factura incrementó.</t>
   </si>
   <si>
     <t>MDM-PQR-36516234</t>
@@ -3974,7 +3991,7 @@
     <t>MDM-PQR-36516762</t>
   </si>
   <si>
-    <t>cancelaci√≥n de servicios de HBO-PARAMOUNT</t>
+    <t>cancelación de servicios de HBO-PARAMOUNT</t>
   </si>
   <si>
     <t>MDM-PQR-36517465</t>
@@ -4004,25 +4021,25 @@
     <t>MDM-PQR-36520186</t>
   </si>
   <si>
-    <t xml:space="preserve"> L√≠nea: Nombre de quien se comunica:  ILSE SUAREZ  C√©dula:   34948192 N√∫mero de contacto:   3107735475   Email:   ILSE_54@HOTMAIL.COM   Direcci√≥n:   CL 162 8D 25 Motivo de la llamada:. FACTURACION  CON  INCREMENTO   , sele indica  11.800 CRC 5111 2017 ,  MENCIONA CANCELAR,  INDICA QUE ELLA  NI SIQUIERA  LLEVA UN  A√ëO  CON  NOSOTROS,  QUIERE  CANCELAR,  LE PARECE MUY CARO, SE OFRECE RETIRO DEL  INCREMENTO  , DESDE EL  OTRO  MES EN  ADELANTE,.. CLIENTE  NO LE SIRVE ,  INSISTE  EN  C ANCELAR</t>
+    <t xml:space="preserve"> Línea: Nombre de quien se comunica:  ILSE SUAREZ  Cédula:   34948192 Número de contacto:   3107735475   Email:   ILSE_54@HOTMAIL.COM   Dirección:   CL 162 8D 25 Motivo de la llamada:. FACTURACION  CON  INCREMENTO   , sele indica  11.800 CRC 5111 2017 ,  MENCIONA CANCELAR,  INDICA QUE ELLA  NI SIQUIERA  LLEVA UN  AÑO  CON  NOSOTROS,  QUIERE  CANCELAR,  LE PARECE MUY CARO, SE OFRECE RETIRO DEL  INCREMENTO  , DESDE EL  OTRO  MES EN  ADELANTE,.. CLIENTE  NO LE SIRVE ,  INSISTE  EN  C ANCELAR</t>
   </si>
   <si>
     <t>MDM-PQR-36520194</t>
   </si>
   <si>
-    <t>linea: 6017687567 nombre: EDGAR OSWALDO RIA√ëO VELANDIA  cedula: 79582857 direccion: CL 55A SUR 64 02 IN 82 CA 18 correo. edoscarsilvioriverainglesvivoe0871@gmail.com   celular: 3188007213 motivo: estoyn presentando muchos inconvenientes  me han incumplido en las visitas tecnicas .</t>
+    <t>linea: 6017687567 nombre: EDGAR OSWALDO RIAÑO VELANDIA  cedula: 79582857 direccion: CL 55A SUR 64 02 IN 82 CA 18 correo. edoscarsilvioriverainglesvivoe0871@gmail.com   celular: 3188007213 motivo: estoyn presentando muchos inconvenientes  me han incumplido en las visitas tecnicas .</t>
   </si>
   <si>
     <t>MDM-PQR-36521481</t>
   </si>
   <si>
-    <t>SG//LT: SR-29837697 cuenta 12054342080// Cliente pide ajuste de la factura, indica habia solicitado el retiro del servicio de SVA HBO MAX . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el servicio de SVA HBO retirado desde 08/12/2022 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: SR-29837697 cuenta 12054342080// Cliente pide ajuste de la factura, indica habia solicitado el retiro del servicio de SVA HBO MAX . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el servicio de SVA HBO retirado desde 08/12/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36524612</t>
   </si>
   <si>
-    <t>NOMBRE: ANA CECILIA PE√ëALOZA CLAVIJO CC: 35332079 TEL: SR-34014606 CTA: 12054543421 DIR: CL 31A SUR 2 51 PI 3 CEL: 3112154407 CORREO: yulicastillosamy@gmail.com OBSERVACI√ìN: CLIENTE SOLICITA INF DE LA FACT</t>
+    <t>NOMBRE: ANA CECILIA PEÑALOZA CLAVIJO CC: 35332079 TEL: SR-34014606 CTA: 12054543421 DIR: CL 31A SUR 2 51 PI 3 CEL: 3112154407 CORREO: yulicastillosamy@gmail.com OBSERVACIÓN: CLIENTE SOLICITA INF DE LA FACT</t>
   </si>
   <si>
     <t>MDM-PQR-36525199</t>
@@ -4046,7 +4063,7 @@
     <t>MDM-PQR-36526317</t>
   </si>
   <si>
-    <t>Nombre: LORIZ JOHAN GAMEZ VARGAS  Cedula: 1032413555 L√≠nea: 6017688463 Celular: 3114558080 Correo: johan1588_@hotmail.com Direcci√≥n: KR 8F BIS 156 19 AP 201 Motivo: Cliente se comunica por motivos de realizar un ajuste en su factura ya que me indica que necesita un descuento por las fallas generadas en el mes de enero que tenia servicio de internet.</t>
+    <t>Nombre: LORIZ JOHAN GAMEZ VARGAS  Cedula: 1032413555 Línea: 6017688463 Celular: 3114558080 Correo: johan1588_@hotmail.com Dirección: KR 8F BIS 156 19 AP 201 Motivo: Cliente se comunica por motivos de realizar un ajuste en su factura ya que me indica que necesita un descuento por las fallas generadas en el mes de enero que tenia servicio de internet.</t>
   </si>
   <si>
     <t>MDM-PQR-36526847</t>
@@ -4061,7 +4078,7 @@
     <t>MDM-PQR-36527689</t>
   </si>
   <si>
-    <t>"L√≠nea:  6017631386 Nombre de quien se comunica: amparaosancria  C√©dula: 79602364 N√∫mero de contacto: 3204366476 Email:fernandoparra6218@icloud.com Direcci√≥n: CL 77B 119 40 TO 2 AP 1106 3 Motivo de la llamada: cliente indica la factura le llego por un valor mas alto</t>
+    <t>"Línea:  6017631386 Nombre de quien se comunica: amparaosancria  Cédula: 79602364 Número de contacto: 3204366476 Email:fernandoparra6218@icloud.com Dirección: CL 77B 119 40 TO 2 AP 1106 3 Motivo de la llamada: cliente indica la factura le llego por un valor mas alto</t>
   </si>
   <si>
     <t>MDM-PQR-36529738</t>
@@ -4091,7 +4108,7 @@
     <t>MDM-PQR-36533137</t>
   </si>
   <si>
-    <t>Nombre: JOHANA DEL ROSARIO OROZCO cedula: 23175582 celular: 3208368155 Correo: johana_tamara@hotmail.com direcci√≥n: CL 22A 44A 26 AP 501 linea: 6013377203 motivo: cancelacion del DI-GO</t>
+    <t>Nombre: JOHANA DEL ROSARIO OROZCO cedula: 23175582 celular: 3208368155 Correo: johana_tamara@hotmail.com dirección: CL 22A 44A 26 AP 501 linea: 6013377203 motivo: cancelacion del DI-GO</t>
   </si>
   <si>
     <t>MDM-PQR-36533884</t>
@@ -4103,7 +4120,7 @@
     <t>MDM-PQR-36535474</t>
   </si>
   <si>
-    <t>LEIDY VANESSA VASQUEZ HURTADO   1013593584 LV.VASQUEZH@HOTMAIL.COM   3144209789 CL 10B 81F 92 TO 1 AP 1301 CLEINTE SE COMUNICA PORQUE LA FACTURA LE LLEGO MAS COSTOSA Y MANIFIESTA QUE AUN NO A CUMPIDO EL A√ëO</t>
+    <t>LEIDY VANESSA VASQUEZ HURTADO   1013593584 LV.VASQUEZH@HOTMAIL.COM   3144209789 CL 10B 81F 92 TO 1 AP 1301 CLEINTE SE COMUNICA PORQUE LA FACTURA LE LLEGO MAS COSTOSA Y MANIFIESTA QUE AUN NO A CUMPIDO EL AÑO</t>
   </si>
   <si>
     <t>MDM-PQR-36536329</t>
@@ -4124,7 +4141,7 @@
     <t>MDM-PQR-36538642</t>
   </si>
   <si>
-    <t>//NOMBRE DE QUIEN SE COMUNICA:MIGUEL ANGEL QUIROGA CARRE√ëO   //CEDULA:1022414636  //NUMERO DE CONTACTO:3162310215   //EMAIL:    bianelq@gmail.com   //DIRECCION:  KR 123 14B 46 TO 7 AP 1004 //MOTIVO DE LA LLAMADA:   CLIENTE SE COMUNICA PORQUE EVIDENCIA UN AUMENTO EN LA FACTURACION</t>
+    <t>//NOMBRE DE QUIEN SE COMUNICA:MIGUEL ANGEL QUIROGA CARREÑO   //CEDULA:1022414636  //NUMERO DE CONTACTO:3162310215   //EMAIL:    bianelq@gmail.com   //DIRECCION:  KR 123 14B 46 TO 7 AP 1004 //MOTIVO DE LA LLAMADA:   CLIENTE SE COMUNICA PORQUE EVIDENCIA UN AUMENTO EN LA FACTURACION</t>
   </si>
   <si>
     <t>MDM-PQR-36539083</t>
@@ -4136,43 +4153,43 @@
     <t>MDM-PQR-36539492</t>
   </si>
   <si>
-    <t>Tel : 6013082304     Cc : 52162224 Cel : 3102651759 Clente : MARTHA JEANNETTE PISCIOTTI CAPERA                      Direcci√≥n: CL 63 SUR 70D 75 BQ 13 AP 802  Correo : marpisca@gmail.com                                                                  Motivo : Solicita cancelar el servicio debido a funcionamiento del servicio</t>
+    <t>Tel : 6013082304     Cc : 52162224 Cel : 3102651759 Clente : MARTHA JEANNETTE PISCIOTTI CAPERA                      Dirección: CL 63 SUR 70D 75 BQ 13 AP 802  Correo : marpisca@gmail.com                                                                  Motivo : Solicita cancelar el servicio debido a funcionamiento del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-36539970</t>
   </si>
   <si>
-    <t>Cliente LUIS EDUARDO RODRIGUEZ C√©dula de Ciudadan√≠a 79512711 L√≠nea: 6017391965 Cuenta de Facturaci√≥n: 12053794983 motivo solicita ajuste de la factura por retencion no aplicada</t>
+    <t>Cliente LUIS EDUARDO RODRIGUEZ Cédula de Ciudadanía 79512711 Línea: 6017391965 Cuenta de Facturación: 12053794983 motivo solicita ajuste de la factura por retencion no aplicada</t>
   </si>
   <si>
     <t>MDM-PQR-36540010</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: BLANCA CECILIA CLAVIJO GAONA   / ANTONIO  C√©dula:  52173694 N√∫mero de contacto:  3165493262   Email: AORLANDOVARGAS2005@GMAIL.COM   Direcci√≥n: CL 40F SUR 74D 16 IN 2 AP 101 Motivo de la llamada: Cliente indcia que esta ma√±ana llamo porque le hicieron el 29/06/2022 bajo un radicado 4347220001155655, pagaba 50.000 pesos pero con el incremento le subio, la factura era de 50.000 pesos permanente, le escalaron un radicado 4347230000173930</t>
+    <t>Nombre de quien se comunica: BLANCA CECILIA CLAVIJO GAONA   / ANTONIO  Cédula:  52173694 Número de contacto:  3165493262   Email: AORLANDOVARGAS2005@GMAIL.COM   Dirección: CL 40F SUR 74D 16 IN 2 AP 101 Motivo de la llamada: Cliente indcia que esta mañana llamo porque le hicieron el 29/06/2022 bajo un radicado 4347220001155655, pagaba 50.000 pesos pero con el incremento le subio, la factura era de 50.000 pesos permanente, le escalaron un radicado 4347230000173930</t>
   </si>
   <si>
     <t>MDM-PQR-36540021</t>
   </si>
   <si>
-    <t>Linea:6016770991 Nombre de quien se comunica:DORELY MATEUS SOTOMONTE   C√©dula: 52045905 N√∫mero de contacto: 3178201270   Email:    bolsadetransporte@gmail.com   Direcci√≥n: KR 99 72 22 Motivo de la llamada: cliente se comunica porque motivo le llega incrementada su factura</t>
+    <t>Linea:6016770991 Nombre de quien se comunica:DORELY MATEUS SOTOMONTE   Cédula: 52045905 Número de contacto: 3178201270   Email:    bolsadetransporte@gmail.com   Dirección: KR 99 72 22 Motivo de la llamada: cliente se comunica porque motivo le llega incrementada su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36541145</t>
   </si>
   <si>
-    <t>NOMBRE: KAREN JOHANNA GUARNIZO GARCIA   CC: 1030642401 CORREO: KAREN.SO.T@HOTMAIL.COM   CELULAR: 3138681012   DIRECCI√ìN:  CL 51C SUR 80I 16 MOTIVO DE LA LLAMADA: cliente se comunica porque indica que la factura le llego muy alta</t>
+    <t>NOMBRE: KAREN JOHANNA GUARNIZO GARCIA   CC: 1030642401 CORREO: KAREN.SO.T@HOTMAIL.COM   CELULAR: 3138681012   DIRECCIÓN:  CL 51C SUR 80I 16 MOTIVO DE LA LLAMADA: cliente se comunica porque indica que la factura le llego muy alta</t>
   </si>
   <si>
     <t>MDM-PQR-36544367</t>
   </si>
   <si>
-    <t>Linea:6016210788 Nombre de quien se comunica:CARLOS ARTURO MONZON GONZALEZ   C√©dula: 79319438   N√∫mero de contacto: 3108549334   Email:    CARLOSMONZON2004@GMAIL.COM   Direcci√≥n: CL 22D 87C 61 IN 2 AP 504 Motivo de la llamada: cliente se comunica para solicitar cambio de plan por incremento</t>
+    <t>Linea:6016210788 Nombre de quien se comunica:CARLOS ARTURO MONZON GONZALEZ   Cédula: 79319438   Número de contacto: 3108549334   Email:    CARLOSMONZON2004@GMAIL.COM   Dirección: CL 22D 87C 61 IN 2 AP 504 Motivo de la llamada: cliente se comunica para solicitar cambio de plan por incremento</t>
   </si>
   <si>
     <t>MDM-PQR-36544676</t>
   </si>
   <si>
-    <t>L√≠nea:6012939425 Nombre de quien se comunica: PABLO ENRIQUE GOMEZ RAMOS   C√©dula:79799155 N√∫mero de contacto:3057001785 Ema√≠l: pablo.gomezr@etb.com.co   Direcci√≥n: CL 40 SUR 72L 40 IN 6 AP 304  Motivo de la llamada: Cliente se comunica por ajuste por fallas.</t>
+    <t>Línea:6012939425 Nombre de quien se comunica: PABLO ENRIQUE GOMEZ RAMOS   Cédula:79799155 Número de contacto:3057001785 Emaíl: pablo.gomezr@etb.com.co   Dirección: CL 40 SUR 72L 40 IN 6 AP 304  Motivo de la llamada: Cliente se comunica por ajuste por fallas.</t>
   </si>
   <si>
     <t>MDM-PQR-36544737</t>
@@ -4202,49 +4219,49 @@
     <t>MDM-PQR-36545972</t>
   </si>
   <si>
-    <t>Cliente ANDREA MILENA PE√ëA LANCHEROS C√©dula de Ciudadan√≠a 52958489 L√≠nea: 6017735435 Cuenta de Facturaci√≥n: 12053387559 motivo consulta aumento en la factura</t>
+    <t>Cliente ANDREA MILENA PEÑA LANCHEROS Cédula de Ciudadanía 52958489 Línea: 6017735435 Cuenta de Facturación: 12053387559 motivo consulta aumento en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36546193</t>
   </si>
   <si>
-    <t>L√≠nea:6016406532 Nombre de quien se comunica:JOSE SANDER ABRIL CARDENAS   C√©dula:79528870   N√∫mero de contacto:3003343570   Email:paulaale0913@gmail.com   Direcci√≥n:CL 42G SUR 78D 68 PI 3 Motivo de la llamada: EL LCIENTE SE COMUNICA PARA CONCEPTOS  FACTURADOS</t>
+    <t>Línea:6016406532 Nombre de quien se comunica:JOSE SANDER ABRIL CARDENAS   Cédula:79528870   Número de contacto:3003343570   Email:paulaale0913@gmail.com   Dirección:CL 42G SUR 78D 68 PI 3 Motivo de la llamada: EL LCIENTE SE COMUNICA PARA CONCEPTOS  FACTURADOS</t>
   </si>
   <si>
     <t>MDM-PQR-36546824</t>
   </si>
   <si>
-    <t>Cliente PABLO CESAR TERAN SANTOS C√©dula de Ciudadan√≠a 79743704 L√≠nea: SR-26444897 Cuenta de Facturaci√≥n: 12054207202 motivo consulta por aumento en la factura</t>
+    <t>Cliente PABLO CESAR TERAN SANTOS Cédula de Ciudadanía 79743704 Línea: SR-26444897 Cuenta de Facturación: 12054207202 motivo consulta por aumento en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36547858</t>
   </si>
   <si>
-    <t>SG//LT: 6017223226 cuenta 12054347237//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia AJUSTE POR FAVORABILIDAD, donde se ajusta el cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $34,220 incluido IVA. VALOR REAL AJUSTE: $34,220 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017223226 cuenta 12054347237//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia AJUSTE POR FAVORABILIDAD, donde se ajusta el cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $34,220 incluido IVA. VALOR REAL AJUSTE: $34,220 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36548153</t>
   </si>
   <si>
-    <t>SG//LT: 6014107326 cuenta 12054375519// Cliente pide ajuste de la factura, indica que el 27/09/2022 bajo MDM-FIBRA-009983543 se realizo cambio de plan de SINGLE INTERNET 150M HOG FTTH V1 paso a  DUO 200M HOG FTTH V1 de $74.900 + 5.000 de WIFI PLUS TIPO 1 . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el servicio de DirecTVGO retirado desde 16/11/2022 y se evidencia RF-001337735 con retenci√≥n de FACTURACI√ìN / $11.800 / COBRO INOPORTUNO¬†. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $11,800 incluido IVA. VALOR REAL AJUSTE: $11,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6014107326 cuenta 12054375519// Cliente pide ajuste de la factura, indica que el 27/09/2022 bajo MDM-FIBRA-009983543 se realizo cambio de plan de SINGLE INTERNET 150M HOG FTTH V1 paso a  DUO 200M HOG FTTH V1 de $74.900 + 5.000 de WIFI PLUS TIPO 1 . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el servicio de DirecTVGO retirado desde 16/11/2022 y se evidencia RF-001337735 con retención de FACTURACIÓN / $11.800 / COBRO INOPORTUNO . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $11,800 incluido IVA. VALOR REAL AJUSTE: $11,800 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36548217</t>
   </si>
   <si>
-    <t>cancelaci√≥n servicios de HBO y PARAMOUNT PLUS</t>
+    <t>cancelación servicios de HBO y PARAMOUNT PLUS</t>
   </si>
   <si>
     <t>MDM-PQR-36548320</t>
   </si>
   <si>
-    <t>SG//LT: 6017158198 cuenta 12054281433// Cliente pide ajuste de la factura, indica solicitado el retiro del servicio de WIN SPORTS . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el servicio de WIN SPORTS retirado desde 20/12/2022¬†. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $29,900 incluido IVA. VALOR REAL AJUSTE: $29,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017158198 cuenta 12054281433// Cliente pide ajuste de la factura, indica solicitado el retiro del servicio de WIN SPORTS . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el servicio de WIN SPORTS retirado desde 20/12/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $29,900 incluido IVA. VALOR REAL AJUSTE: $29,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36548899</t>
   </si>
   <si>
-    <t>Cliente VALENTINA VASQUEZ ORDO√ëEZ C√©dula de Ciudadan√≠a 1233898836 L√≠nea: 6017922588 Cuenta de Facturaci√≥n: 12054126459 motivo consulta de la factura</t>
+    <t>Cliente VALENTINA VASQUEZ ORDOÑEZ Cédula de Ciudadanía 1233898836 Línea: 6017922588 Cuenta de Facturación: 12054126459 motivo consulta de la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36549468</t>
@@ -4256,7 +4273,7 @@
     <t>MDM-PQR-36550608</t>
   </si>
   <si>
-    <t>SG//LT: 6017113691 cuenta 12054350276// Cliente pide ajuste de la factura, indica solicitado el retiro del servicio de SVA HBO MAX  . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el servicio de SVA HBO MAX retirado desde 02/12/2022¬†. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $29,900 incluido IVA. VALOR REAL AJUSTE: $29,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017113691 cuenta 12054350276// Cliente pide ajuste de la factura, indica solicitado el retiro del servicio de SVA HBO MAX  . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el servicio de SVA HBO MAX retirado desde 02/12/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $29,900 incluido IVA. VALOR REAL AJUSTE: $29,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36550993</t>
@@ -4277,13 +4294,13 @@
     <t>MDM-PQR-36553356</t>
   </si>
   <si>
-    <t>Linea:6017151351 Nombre de quien se comunica:EDELMIRA VERA MORA   C√©dula: 27879806 N√∫mero de contacto: 3114897112   Email:    celin.vera17@gmail.com   Direcci√≥n: KR 136A 146 35 IN 5 Motivo de la llamada: cliente se comunica que no se le esta aplicando descuento de retencion</t>
+    <t>Linea:6017151351 Nombre de quien se comunica:EDELMIRA VERA MORA   Cédula: 27879806 Número de contacto: 3114897112   Email:    celin.vera17@gmail.com   Dirección: KR 136A 146 35 IN 5 Motivo de la llamada: cliente se comunica que no se le esta aplicando descuento de retencion</t>
   </si>
   <si>
     <t>MDM-PQR-36554753</t>
   </si>
   <si>
-    <t>JENIFER CASTELLANOS 1030553385 CC 6012659660 3106895441 jazz13_2@hotmail.com KR 97C 42F 52 SUR BR JAZMIN OCCIDENTAL LOCALIDAD KENNEDY compensaci√≥n por fallas de servicio</t>
+    <t>JENIFER CASTELLANOS 1030553385 CC 6012659660 3106895441 jazz13_2@hotmail.com KR 97C 42F 52 SUR BR JAZMIN OCCIDENTAL LOCALIDAD KENNEDY compensación por fallas de servicio</t>
   </si>
   <si>
     <t>MDM-PQR-36555204</t>
@@ -4301,31 +4318,31 @@
     <t>MDM-PQR-36555748</t>
   </si>
   <si>
-    <t>Cliente se comunica para solicitar la cancelaci√≥n por altos costos  WhatsApp // Cliente no responde los toques realizados // Se brinda guion por inactividad.</t>
+    <t>Cliente se comunica para solicitar la cancelación por altos costos  WhatsApp // Cliente no responde los toques realizados // Se brinda guion por inactividad.</t>
   </si>
   <si>
     <t>MDM-PQR-36556001</t>
   </si>
   <si>
-    <t xml:space="preserve"> L√≠nea:6017900291 Nombre de quien se comunica: JONATHAN MADRID MADRID C√©dula: 80759817 N√∫mero de contacto: 3015602103   Email:ingjmh@gmail.com   Direcci√≥n: KR 18A 103 88 AP 502 Motivo de la llamada:. FACTURACION CLIENTE INDICA QUE LE DIJERON QUE NO LE IBAN A INCREMENTAR LA FACTURA POR RETENCION</t>
+    <t xml:space="preserve"> Línea:6017900291 Nombre de quien se comunica: JONATHAN MADRID MADRID Cédula: 80759817 Número de contacto: 3015602103   Email:ingjmh@gmail.com   Dirección: KR 18A 103 88 AP 502 Motivo de la llamada:. FACTURACION CLIENTE INDICA QUE LE DIJERON QUE NO LE IBAN A INCREMENTAR LA FACTURA POR RETENCION</t>
   </si>
   <si>
     <t>MDM-PQR-36556281</t>
   </si>
   <si>
-    <t>L√≠nea:SR-27190841 Nombre de quien se comunica: JUAN FELIPE  C√©dula: 1121966245 N√∫mero de contacto: 3228076953  Email: JUANFELIPEHD@HOTMAIL.COM   Direcci√≥n: KR 89 19A 49 IN 15 AP 402 Motivo de la llamada:. FACTURACION</t>
+    <t>Línea:SR-27190841 Nombre de quien se comunica: JUAN FELIPE  Cédula: 1121966245 Número de contacto: 3228076953  Email: JUANFELIPEHD@HOTMAIL.COM   Dirección: KR 89 19A 49 IN 15 AP 402 Motivo de la llamada:. FACTURACION</t>
   </si>
   <si>
     <t>MDM-PQR-36556437</t>
   </si>
   <si>
-    <t>L√≠nea: SR-27247400 Nombre:  ALIET PAOLA ARCE CORDOBA   C√©dula: 1102885343 Celular: 3163982840 Direcci√≥n:  KR 11A 119 11 AP 301      Correo:   PAOALIETY@HOTMAIL.COM   Motivo de la llamada: Indica que la factura le lleg√≥ por un valor mas elevado. Solicita la cancelaci√≥n del servicio</t>
+    <t>Línea: SR-27247400 Nombre:  ALIET PAOLA ARCE CORDOBA   Cédula: 1102885343 Celular: 3163982840 Dirección:  KR 11A 119 11 AP 301      Correo:   PAOALIETY@HOTMAIL.COM   Motivo de la llamada: Indica que la factura le llegó por un valor mas elevado. Solicita la cancelación del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-36556673</t>
   </si>
   <si>
-    <t>CC: 51703456 NOMBRE:NOHORA MARITZA MORALES MARTINEZ   CORREO:nohoramorales94@hotmail.com   CELULAR: 3193128613   DIRECCI√ìN: CL 60A SUR 68 08 TO 1 AP 1208 CUENTA: 12051799590 L√çNEA:6017122021 MOTIVO: Retiro del incremento anual. Se iba a realizar el retiro del incremento pero el sistema no lo permite por lo que se escala por CRM, se va a generar el retiro por oferta de retenci√≥n en la fecha 2022/08/18, 11:04:35 am con el  RF-001181410, PARA QUE SE RETIRE EL INCREMENTO ANUAL.</t>
+    <t>CC: 51703456 NOMBRE:NOHORA MARITZA MORALES MARTINEZ   CORREO:nohoramorales94@hotmail.com   CELULAR: 3193128613   DIRECCIÓN: CL 60A SUR 68 08 TO 1 AP 1208 CUENTA: 12051799590 LÍNEA:6017122021 MOTIVO: Retiro del incremento anual. Se iba a realizar el retiro del incremento pero el sistema no lo permite por lo que se escala por CRM, se va a generar el retiro por oferta de retención en la fecha 2022/08/18, 11:04:35 am con el  RF-001181410, PARA QUE SE RETIRE EL INCREMENTO ANUAL.</t>
   </si>
   <si>
     <t>MDM-PQR-36556860</t>
@@ -4346,7 +4363,7 @@
     <t>MDM-PQR-36557781</t>
   </si>
   <si>
-    <t>BLANCA CECILIA PINEDA ACU√ëA   41606292 acostabrayan95@gmail.com   3204687045   DG 52 SUR 60F 31 CLIENTE SE COMUNICA PORQUE LE REALIZARON UN AUMENTO EN EL VALOR DE LA FACTURA</t>
+    <t>BLANCA CECILIA PINEDA ACUÑA   41606292 acostabrayan95@gmail.com   3204687045   DG 52 SUR 60F 31 CLIENTE SE COMUNICA PORQUE LE REALIZARON UN AUMENTO EN EL VALOR DE LA FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-36558843</t>
@@ -4358,7 +4375,7 @@
     <t>MDM-PQR-36559346</t>
   </si>
   <si>
-    <t>La se√±ora desea hacer la cancelaci√≥n del Directv Go.  Se le realiza la cancelaci√≥n del Directv Go   donde se relaciona la orden y me indica que no le han generado factura.</t>
+    <t>La señora desea hacer la cancelación del Directv Go.  Se le realiza la cancelación del Directv Go   donde se relaciona la orden y me indica que no le han generado factura.</t>
   </si>
   <si>
     <t>MDM-PQR-36562435</t>
@@ -4376,49 +4393,49 @@
     <t>MDM-PQR-36562496</t>
   </si>
   <si>
-    <t>Cliente con intensi√≥n de retiro abandona canal</t>
+    <t>Cliente con intensión de retiro abandona canal</t>
   </si>
   <si>
     <t>MDM-PQR-36562537</t>
   </si>
   <si>
-    <t>L√≠nea: Nombre de quien se comunica: heily  C√©dula: 52225481 N√∫mero de contacto:3134913954   Email: heily20@yahoo.com   Direcci√≥n:KR 72N 37B 59 SUR  Motivo de la llamada:. FACTURACION</t>
+    <t>Línea: Nombre de quien se comunica: heily  Cédula: 52225481 Número de contacto:3134913954   Email: heily20@yahoo.com   Dirección:KR 72N 37B 59 SUR  Motivo de la llamada:. FACTURACION</t>
   </si>
   <si>
     <t>MDM-PQR-36562835</t>
   </si>
   <si>
-    <t>Linea:SR-33399705 Nombre de quien se comunica:ANGELICA YISETH GOMEZ HURTADO   C√©dula: 1118196846 N√∫mero de contacto: 3215077823   Email:    angegh2402@gmail.com   Direcci√≥n: AK 45 128D 20 IN 5 AP 410 Motivo de la llamada: cliente se comunica para consultar de su factura</t>
+    <t>Linea:SR-33399705 Nombre de quien se comunica:ANGELICA YISETH GOMEZ HURTADO   Cédula: 1118196846 Número de contacto: 3215077823   Email:    angegh2402@gmail.com   Dirección: AK 45 128D 20 IN 5 AP 410 Motivo de la llamada: cliente se comunica para consultar de su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36563936</t>
   </si>
   <si>
-    <t>L√≠nea:6016874265 Nombre de quien se comunica:  CLAUDIA MARCELA CAVIELES HERNANDEZ   C√©dula: 1019111408 N√∫mero de contacto: 3212944306   Email:  claudiamcavielesh@live.com Direcci√≥n:CL 129C 105A 76  Motivo de la llamada:. FACTURA //  CANCELACION</t>
+    <t>Línea:6016874265 Nombre de quien se comunica:  CLAUDIA MARCELA CAVIELES HERNANDEZ   Cédula: 1019111408 Número de contacto: 3212944306   Email:  claudiamcavielesh@live.com Dirección:CL 129C 105A 76  Motivo de la llamada:. FACTURA //  CANCELACION</t>
   </si>
   <si>
     <t>MDM-PQR-36565359</t>
   </si>
   <si>
-    <t>"L√≠nea: Nombre de quien se comunica:RAFAEL MILLAN VACA ¬† C√©dula:80030026 N√∫mero de contacto:3123023854 Email:rmillan6@hotmail.com ¬† Direcci√≥n:DG 146 136A 79 IN 16 AP 1B¬† Motivo de la llamada:inconforme con incremento de factura."</t>
+    <t>"Línea: Nombre de quien se comunica:RAFAEL MILLAN VACA   Cédula:80030026 Número de contacto:3123023854 Email:rmillan6@hotmail.com   Dirección:DG 146 136A 79 IN 16 AP 1B  Motivo de la llamada:inconforme con incremento de factura."</t>
   </si>
   <si>
     <t>MDM-PQR-36566211</t>
   </si>
   <si>
-    <t>Cliente indica que hizo el pago la semana pasada pero a√∫n no la ve reflejada , el d√≠a  12/1/2023 por valor de $78,000</t>
+    <t>Cliente indica que hizo el pago la semana pasada pero aún no la ve reflejada , el día  12/1/2023 por valor de $78,000</t>
   </si>
   <si>
     <t>MDM-PQR-36566405</t>
   </si>
   <si>
-    <t>L√≠nea: 6012734730 Nombre de quien se comunica: GLORIA BUITRAGO BUSTOS C√©dula: 20270938   N√∫mero de contacto: 3012891192   Email: gloria.b.bustos85@hotmail.com   Direcci√≥n:KR 79B 51 16 SUR IN 5 AP 104 Motivo de la llamada:. FACTURACION CANCELACION POR MOTIVOS ECONOMICOS</t>
+    <t>Línea: 6012734730 Nombre de quien se comunica: GLORIA BUITRAGO BUSTOS Cédula: 20270938   Número de contacto: 3012891192   Email: gloria.b.bustos85@hotmail.com   Dirección:KR 79B 51 16 SUR IN 5 AP 104 Motivo de la llamada:. FACTURACION CANCELACION POR MOTIVOS ECONOMICOS</t>
   </si>
   <si>
     <t>MDM-PQR-36566823</t>
   </si>
   <si>
-    <t>nombre DERLY KATHERINNE SANCHEZ   cc:  52847676 linea:    6017261772 cel _ 3133124772   direcci√≥n KR 70B 3 45 SUR IN 4 AP 303 correo  SANKATHA1@GMAIL.COM   cuenta  12054145172 motivo de llamada cancela</t>
+    <t>nombre DERLY KATHERINNE SANCHEZ   cc:  52847676 linea:    6017261772 cel _ 3133124772   dirección KR 70B 3 45 SUR IN 4 AP 303 correo  SANKATHA1@GMAIL.COM   cuenta  12054145172 motivo de llamada cancela</t>
   </si>
   <si>
     <t>MDM-PQR-36567154</t>
@@ -4442,7 +4459,7 @@
     <t>MDM-PQR-36569414</t>
   </si>
   <si>
-    <t>SG//LT: 6012043541 cuenta 12053821987//Cliente pide ajuste de la factura, ya que el 04/12/2022 bajo MDM-FIBRA-010627971 se le realizo el traslado de los servicios pero se genera cobro adicional de Ofertas de Valor. SOLUCI√ìN DE ASEGURAMIENTO: Se deja caso escalado, para que se sincronice SUMA y REVCHAIN se elimine ese cargo de LLAMADA EN ESPERA . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,210 incluido IVA. VALOR REAL AJUSTE: $26,210 incluido IVA. DIFERENCIA $0</t>
+    <t>SG//LT: 6012043541 cuenta 12053821987//Cliente pide ajuste de la factura, ya que el 04/12/2022 bajo MDM-FIBRA-010627971 se le realizo el traslado de los servicios pero se genera cobro adicional de Ofertas de Valor. SOLUCIÓN DE ASEGURAMIENTO: Se deja caso escalado, para que se sincronice SUMA y REVCHAIN se elimine ese cargo de LLAMADA EN ESPERA . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,210 incluido IVA. VALOR REAL AJUSTE: $26,210 incluido IVA. DIFERENCIA $0</t>
   </si>
   <si>
     <t>MDM-PQR-36569597</t>
@@ -4460,7 +4477,7 @@
     <t>MDM-PQR-36573423</t>
   </si>
   <si>
-    <t>SG//LT: 6012512312 cuenta 675768701//Cliente pide ajuste de la factura, ya que no esta de acuerdo con el cobro del incremento de factura. SOLUCI√ìN DE ASEGURAMIENTO: Se deja caso escalado, para que se sincronice  REVCHAIN se elimine el cargo de Plan Incremento sin IVA BA FO AB ya que bajo RF-001387153 del d√≠a 21/01/2023 RETIRO INCREMENTO / $11.800,00 / N/A con orden RETIRO INCREMENTO (RINC) bajo MDM-RINC-011004899 del d√≠a 2101/2023 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $11,800 incluido IVA. VALOR REAL AJUSTE: $11,800 incluido IVA. DIFERENCIA $0// SE PENALIZA ASESOR NO REALIZA GESTI√ìN PARA DAR CIERRE DE CICLO.</t>
+    <t>SG//LT: 6012512312 cuenta 675768701//Cliente pide ajuste de la factura, ya que no esta de acuerdo con el cobro del incremento de factura. SOLUCIÓN DE ASEGURAMIENTO: Se deja caso escalado, para que se sincronice  REVCHAIN se elimine el cargo de Plan Incremento sin IVA BA FO AB ya que bajo RF-001387153 del día 21/01/2023 RETIRO INCREMENTO / $11.800,00 / N/A con orden RETIRO INCREMENTO (RINC) bajo MDM-RINC-011004899 del día 2101/2023 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $11,800 incluido IVA. VALOR REAL AJUSTE: $11,800 incluido IVA. DIFERENCIA $0// SE PENALIZA ASESOR NO REALIZA GESTIÓN PARA DAR CIERRE DE CICLO.</t>
   </si>
   <si>
     <t>MDM-PQR-36573510</t>
@@ -4472,7 +4489,7 @@
     <t>MDM-PQR-36574294</t>
   </si>
   <si>
-    <t>RESPUESTA RE-AJUSTE ULITMAS DOS FACTURAS MISMO CASO   BACK4/MIXTOS L√≠nea: 6017711833 Nombre de quien se comunica: LAURA NATALIA GONZALEZ MORA   C√©dula: 1015472860 Fecha de expedici√≥n:  N√∫mero de contacto: 3107990091 Email:  lnatacha98@gmail.com Direcci√≥n: KR 77C 52A 75 AP 201 Motivo de la llamada: cliente manifiesta que nunca autoriz√≥ la activaci√≥n de los servicios:  Identif. De llamadas, Cargo fijo llamada en espera,  Ofertas de Valor.  Pretenciones del cliente: 1. investigaci√≥n de la activaci√≥n de dichos servicios  2. el retiro del cobro de los mismos</t>
+    <t>RESPUESTA RE-AJUSTE ULITMAS DOS FACTURAS MISMO CASO   BACK4/MIXTOS Línea: 6017711833 Nombre de quien se comunica: LAURA NATALIA GONZALEZ MORA   Cédula: 1015472860 Fecha de expedición:  Número de contacto: 3107990091 Email:  lnatacha98@gmail.com Dirección: KR 77C 52A 75 AP 201 Motivo de la llamada: cliente manifiesta que nunca autorizó la activación de los servicios:  Identif. De llamadas, Cargo fijo llamada en espera,  Ofertas de Valor.  Pretenciones del cliente: 1. investigación de la activación de dichos servicios  2. el retiro del cobro de los mismos</t>
   </si>
   <si>
     <t>MDM-PQR-36574844</t>
@@ -4496,7 +4513,7 @@
     <t>MDM-PQR-36582613</t>
   </si>
   <si>
-    <t>L√≠nea: 6012353513 Nombre: MARTIN ALARCON C√©dula: 80141194 E-mail: markat081@hotmail.com   Celular: 3057491826   Direcci√≥n: KR 13 61 24 IN 4  Motivo: Cliente solicita cancelaci√≥n del servicio hogar por el incremento.</t>
+    <t>Línea: 6012353513 Nombre: MARTIN ALARCON Cédula: 80141194 E-mail: markat081@hotmail.com   Celular: 3057491826   Dirección: KR 13 61 24 IN 4  Motivo: Cliente solicita cancelación del servicio hogar por el incremento.</t>
   </si>
   <si>
     <t>MDM-PQR-36583685</t>
@@ -4526,7 +4543,7 @@
     <t>MDM-PQR-36586255</t>
   </si>
   <si>
-    <t>Linea:6012322403 Nombre de quien se comunica:LUZ MARINA MONTERO GARCIA   C√©dula: 41796262   N√∫mero de contacto: 3188257183   Email:    mvelazcomontero@gmail.com   Direcci√≥n: KR 34F 39B 25 SUR ET I AP 401 Motivo de la llamada: cliente se comunica para realizar cancelacion por incremento de ley indica que no puede pagar ese valor</t>
+    <t>Linea:6012322403 Nombre de quien se comunica:LUZ MARINA MONTERO GARCIA   Cédula: 41796262   Número de contacto: 3188257183   Email:    mvelazcomontero@gmail.com   Dirección: KR 34F 39B 25 SUR ET I AP 401 Motivo de la llamada: cliente se comunica para realizar cancelacion por incremento de ley indica que no puede pagar ese valor</t>
   </si>
   <si>
     <t>MDM-PQR-36586328</t>
@@ -4538,49 +4555,49 @@
     <t>MDM-PQR-36586636</t>
   </si>
   <si>
-    <t>6013457964 NUBIA PATRICIA GOMEZ LEON   52455306   patriciagomez78@gmail.com   3102878455   CL 137 91 80 IN 5 AP 503  cliente indica que la factura no esta llegado con el beneficio de retenci√≥n prometido</t>
+    <t>6013457964 NUBIA PATRICIA GOMEZ LEON   52455306   patriciagomez78@gmail.com   3102878455   CL 137 91 80 IN 5 AP 503  cliente indica que la factura no esta llegado con el beneficio de retención prometido</t>
   </si>
   <si>
     <t>MDM-PQR-36588406</t>
   </si>
   <si>
-    <t>Linea:6012930574 Nombre de quien se comunica:NELSON DE JESUS ZULUAGA TORO   C√©dula: 91510960 N√∫mero de contacto: 3203006644   Email:    nelsonzuluaga960@gmail.com   Direcci√≥n: KR 13A 2 77 SUR  Motivo de la llamada: cliente se comunica porque motivo le llega incrementada su factura</t>
+    <t>Linea:6012930574 Nombre de quien se comunica:NELSON DE JESUS ZULUAGA TORO   Cédula: 91510960 Número de contacto: 3203006644   Email:    nelsonzuluaga960@gmail.com   Dirección: KR 13A 2 77 SUR  Motivo de la llamada: cliente se comunica porque motivo le llega incrementada su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36589682</t>
   </si>
   <si>
-    <t>Linea:6012697809 Nombre de quien se comunica:GUIDO GAYON FIGUEROA   C√©dula: 80117297 N√∫mero de contacto: 3115943945   Email:    guidogayon@gmail.com   Direcci√≥n: CL 26 SUR 11 47 Motivo de la llamada: cliente se comunica que no se le esta aplicando oferta de retencion</t>
+    <t>Linea:6012697809 Nombre de quien se comunica:GUIDO GAYON FIGUEROA   Cédula: 80117297 Número de contacto: 3115943945   Email:    guidogayon@gmail.com   Dirección: CL 26 SUR 11 47 Motivo de la llamada: cliente se comunica que no se le esta aplicando oferta de retencion</t>
   </si>
   <si>
     <t>MDM-PQR-36592640</t>
   </si>
   <si>
-    <t>SG//LT: 6017161467 cuenta 12054419842// Cliente pide ajuste de la factura, indica se le cobran el servicio de SVA HBO MAX . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain servicio de SVA HBO MAX ya retirado desde 08/11/2022¬†. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017161467 cuenta 12054419842// Cliente pide ajuste de la factura, indica se le cobran el servicio de SVA HBO MAX . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain servicio de SVA HBO MAX ya retirado desde 08/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36593370</t>
   </si>
   <si>
-    <t>SG//LT: 6014421575 cuenta 12053948054// Cliente pide ajuste de la factura, indica que el 26/08/2022 bajo MDM-FIBRA-009651440 solicito RETIRO_BUNDLE_AUXILIAR (RBA) de DTV HBO PACK y DIRECTV GO FULL. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain servicio de DTV HBO PACK y DIRECTV GO FULL ya retirado desde 24/11/2022 bajo orden MDM-FIBRA-010370147 del d√≠a 03/11/2022¬†. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $81,750 incluido IVA. VALOR REAL AJUSTE: $81,750 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6014421575 cuenta 12053948054// Cliente pide ajuste de la factura, indica que el 26/08/2022 bajo MDM-FIBRA-009651440 solicito RETIRO_BUNDLE_AUXILIAR (RBA) de DTV HBO PACK y DIRECTV GO FULL. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain servicio de DTV HBO PACK y DIRECTV GO FULL ya retirado desde 24/11/2022 bajo orden MDM-FIBRA-010370147 del día 03/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $81,750 incluido IVA. VALOR REAL AJUSTE: $81,750 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36594064</t>
   </si>
   <si>
-    <t>SG//LT: 6014552872 cuenta 12054386582// Cliente pide ajuste de la factura, indica solicito el retiro de los servicios de SVA PARAMOUNT y DTV WIN SPORTS. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain servicio de SVA PARAMOUNT ya retirado desde 24/10/2022 y se evidencia el servicio de DTV WIN SPORTS retirado en revchain desde 24/11/2022¬†. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $29,900 incluido IVA. VALOR REAL AJUSTE: $29,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
+    <t>SG//LT: 6014552872 cuenta 12054386582// Cliente pide ajuste de la factura, indica solicito el retiro de los servicios de SVA PARAMOUNT y DTV WIN SPORTS. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain servicio de SVA PARAMOUNT ya retirado desde 24/10/2022 y se evidencia el servicio de DTV WIN SPORTS retirado en revchain desde 24/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $29,900 incluido IVA. VALOR REAL AJUSTE: $29,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
   </si>
   <si>
     <t>MDM-PQR-36594482</t>
   </si>
   <si>
-    <t>Linea:6013379717 Nombre de quien se comunica:OSCAR FABIAN ECHEVERRIA CHAVARRO   C√©dula: 1023861499 N√∫mero de contacto: 3123886381   Email:   OSKRITOLDS@HOTMAIL.COM    Direcci√≥n: CL 32 SUR 12D 62 Motivo de la llamada: cliente se comunica porque motivo le llega incrementada su factura</t>
+    <t>Linea:6013379717 Nombre de quien se comunica:OSCAR FABIAN ECHEVERRIA CHAVARRO   Cédula: 1023861499 Número de contacto: 3123886381   Email:   OSKRITOLDS@HOTMAIL.COM    Dirección: CL 32 SUR 12D 62 Motivo de la llamada: cliente se comunica porque motivo le llega incrementada su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36594876</t>
   </si>
   <si>
-    <t>SG//LT: 6017388723 cuenta 12054390587// Cliente pide ajuste de la factura, indica solicito el retiro de los servicios de DirecTV GO B√°sico y SVA DTV WINSPORTS bajo 4347220004351807 del d√≠a 07/10/2022. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain servicio de DirecTV GO B√°sico y SVA DTV WINSPORTS desde 24/11/2022¬†. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $66,570 incluido IVA. VALOR REAL AJUSTE: $66,570 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
+    <t>SG//LT: 6017388723 cuenta 12054390587// Cliente pide ajuste de la factura, indica solicito el retiro de los servicios de DirecTV GO Básico y SVA DTV WINSPORTS bajo 4347220004351807 del día 07/10/2022. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain servicio de DirecTV GO Básico y SVA DTV WINSPORTS desde 24/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $66,570 incluido IVA. VALOR REAL AJUSTE: $66,570 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
   </si>
   <si>
     <t>MDM-PQR-36596968</t>
@@ -4592,7 +4609,7 @@
     <t>MDM-PQR-36597531</t>
   </si>
   <si>
-    <t>"L√≠nea: SR-33657614  Nombre de quien se comunica: MARIA NUBIA HERNANDEZ RAMIREZ  C√©dula: 63507551 N√∫mero de contacto: 3204468202  Email: nbhernandez75@gmail.com Direcci√≥n: CL 155 14 80 IN 6 AP 201 Motivo de la llamada: cliente solicita retiro de hbo y le sigue facturando</t>
+    <t>"Línea: SR-33657614  Nombre de quien se comunica: MARIA NUBIA HERNANDEZ RAMIREZ  Cédula: 63507551 Número de contacto: 3204468202  Email: nbhernandez75@gmail.com Dirección: CL 155 14 80 IN 6 AP 201 Motivo de la llamada: cliente solicita retiro de hbo y le sigue facturando</t>
   </si>
   <si>
     <t>MDM-PQR-36598244</t>
@@ -4604,19 +4621,19 @@
     <t>MDM-PQR-36599311</t>
   </si>
   <si>
-    <t>NOMBRE: CHADIA CAROLINA RUIZ ARRIETA CC: 1082373416 CELULAR: 3006612701 DIRECCI√ìN: KR 5 ESTE 47B 66 CORREO: RUIZCHADIA@GMAIL.COM MOTIVO: INCONFORMIDAD INCREMENTO ANUAL</t>
+    <t>NOMBRE: CHADIA CAROLINA RUIZ ARRIETA CC: 1082373416 CELULAR: 3006612701 DIRECCIÓN: KR 5 ESTE 47B 66 CORREO: RUIZCHADIA@GMAIL.COM MOTIVO: INCONFORMIDAD INCREMENTO ANUAL</t>
   </si>
   <si>
     <t>MDM-PQR-36599577</t>
   </si>
   <si>
-    <t>SG//LT: 6017326952 cuenta 12054385166// Cliente pide ajuste de la factura, indica solicito el retiro de los servicios de SVA PARAMOUNT y SVA HBO MAX ya que no sabia que deb√≠a cancelarlos para que no le generara cobro a la factura. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain servicio de SVA PARAMOUNT y SVA HBO MAX retirados desde 24/11/2022¬†. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $47,700 incluido IVA. VALOR REAL AJUSTE: $47,700 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
+    <t>SG//LT: 6017326952 cuenta 12054385166// Cliente pide ajuste de la factura, indica solicito el retiro de los servicios de SVA PARAMOUNT y SVA HBO MAX ya que no sabia que debía cancelarlos para que no le generara cobro a la factura. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain servicio de SVA PARAMOUNT y SVA HBO MAX retirados desde 24/11/2022 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $47,700 incluido IVA. VALOR REAL AJUSTE: $47,700 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
   </si>
   <si>
     <t>MDM-PQR-36600079</t>
   </si>
   <si>
-    <t>Cliente RUBEN DARIO OLAYA C√©dula de Ciudadan√≠a 7711507 L√≠nea: 6017318021 Cuenta de Facturaci√≥n: 12054102033 motivo consulta aumento en la factura</t>
+    <t>Cliente RUBEN DARIO OLAYA Cédula de Ciudadanía 7711507 Línea: 6017318021 Cuenta de Facturación: 12054102033 motivo consulta aumento en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36600329</t>
@@ -4628,13 +4645,13 @@
     <t>MDM-PQR-36600856</t>
   </si>
   <si>
-    <t xml:space="preserve"> Linea:6017655998 Nombre de quien se comunica:CIRO ANTONIO MORALES TORO   C√©dula: 79347688   N√∫mero de contacto: 3112501959   Email:    CAMORALES510@GMAIL.COM   Direcci√≥n: KR 24 5 12 AP 202  Motivo de la llamada: cliente se comunica porque motivo se genera incremento de servicios</t>
+    <t xml:space="preserve"> Linea:6017655998 Nombre de quien se comunica:CIRO ANTONIO MORALES TORO   Cédula: 79347688   Número de contacto: 3112501959   Email:    CAMORALES510@GMAIL.COM   Dirección: KR 24 5 12 AP 202  Motivo de la llamada: cliente se comunica porque motivo se genera incremento de servicios</t>
   </si>
   <si>
     <t>MDM-PQR-36601922</t>
   </si>
   <si>
-    <t xml:space="preserve"> este mes me llego un valor m√°s alto de lo que debo pagar norm√°ndote</t>
+    <t xml:space="preserve"> este mes me llego un valor más alto de lo que debo pagar normándote</t>
   </si>
   <si>
     <t>MDM-PQR-36603224</t>
@@ -4646,13 +4663,13 @@
     <t>MDM-PQR-36603694</t>
   </si>
   <si>
-    <t>L√≠nea:6012469612 Nombre de quien se comunica:BERNARDA RUEDA DE TELLEZ   C√©dula:41547447   N√∫mero de contacto:3212525764   Email:BERNARDARUEDATELLEZ@HOTMAIL.COM   Direcci√≥n:KR 15 6 26 SUR Motivo de la llamada:Cliente indica que le incremento la factura</t>
+    <t>Línea:6012469612 Nombre de quien se comunica:BERNARDA RUEDA DE TELLEZ   Cédula:41547447   Número de contacto:3212525764   Email:BERNARDARUEDATELLEZ@HOTMAIL.COM   Dirección:KR 15 6 26 SUR Motivo de la llamada:Cliente indica que le incremento la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36603981</t>
   </si>
   <si>
-    <t>L√≠nea: 6017921012 Nombre de quien se comunica: NIXA FENNEY CHARRY GUZMAN   C√©dula: 28815388  N√∫mero de contacto: 3232736505   Email: STEFYGERENA21@GMAIL.COM   Direcci√≥n: CL 58 19 56 AP 201 Motivo de la llamada:. FACTURACION // CANCELACION AUMENTO TARIFA</t>
+    <t>Línea: 6017921012 Nombre de quien se comunica: NIXA FENNEY CHARRY GUZMAN   Cédula: 28815388  Número de contacto: 3232736505   Email: STEFYGERENA21@GMAIL.COM   Dirección: CL 58 19 56 AP 201 Motivo de la llamada:. FACTURACION // CANCELACION AUMENTO TARIFA</t>
   </si>
   <si>
     <t>MDM-PQR-36604991</t>
@@ -4664,7 +4681,7 @@
     <t>MDM-PQR-36606600</t>
   </si>
   <si>
-    <t>"L√≠nea:6012360403 ¬† Nombre de quien se comunica:Vrenice Romero Monrroy C√©dula:3065217 ¬† N√∫mero de contacto:3138747453 ¬† Email:fabian.garavitobeltran@gmail.com ¬† Direcci√≥n:AC 63 75 35 IN 2 AP 1002 Motivo de la llamada: ."  Cliente inconforme con cobro de servicio ya que aumento demasiado</t>
+    <t>"Línea:6012360403   Nombre de quien se comunica:Vrenice Romero Monrroy Cédula:3065217   Número de contacto:3138747453   Email:fabian.garavitobeltran@gmail.com   Dirección:AC 63 75 35 IN 2 AP 1002 Motivo de la llamada: ."  Cliente inconforme con cobro de servicio ya que aumento demasiado</t>
   </si>
   <si>
     <t>MDM-PQR-36607009</t>
@@ -4682,13 +4699,13 @@
     <t>MDM-PQR-36608753</t>
   </si>
   <si>
-    <t>SG//LT: SR-25217769 cuenta 12054165896//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia AJUSTE POR FAVORABILIDAD, donde se ajusta el cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $117,470 incluido IVA. VALOR REAL AJUSTE: $117,470 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: SR-25217769 cuenta 12054165896//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia AJUSTE POR FAVORABILIDAD, donde se ajusta el cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $117,470 incluido IVA. VALOR REAL AJUSTE: $117,470 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36609644</t>
   </si>
   <si>
-    <t>SG//LT: SR-32003662 cuenta 12054426202// Cliente pide ajuste de la factura, indica solicito el retiro del servicio de SVA HBO MAX en el mes de septiembre. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el retiro del servicio de SVA HBO MAX desde 24/12/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
+    <t>SG//LT: SR-32003662 cuenta 12054426202// Cliente pide ajuste de la factura, indica solicito el retiro del servicio de SVA HBO MAX en el mes de septiembre. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el retiro del servicio de SVA HBO MAX desde 24/12/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
   </si>
   <si>
     <t>MDM-PQR-36610822</t>
@@ -4700,7 +4717,7 @@
     <t>MDM-PQR-36612359</t>
   </si>
   <si>
-    <t>Cliente CAROL PHARIDE GONZALEZ MARTINEZ C√©dula de Ciudadan√≠a 52759530 L√≠nea: 6016453852 Cuenta de Facturaci√≥n: 12053804263 motivo consulta aumento en la factura</t>
+    <t>Cliente CAROL PHARIDE GONZALEZ MARTINEZ Cédula de Ciudadanía 52759530 Línea: 6016453852 Cuenta de Facturación: 12053804263 motivo consulta aumento en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36617975</t>
@@ -4712,13 +4729,13 @@
     <t>MDM-PQR-36618458</t>
   </si>
   <si>
-    <t>NOMBRE: JAVIER EFRAIN NARVAEZ CARRASQUILLA   CC: 73168835 CELULAR: 3114153847  3005415231 DIRECCI√ìN: CL 56 30 30 AP 201  CORREO: yisethdevoz01@hotmail.com   MOTIVO: INCONFORMIDAD INCREMENTO ANUAL</t>
+    <t>NOMBRE: JAVIER EFRAIN NARVAEZ CARRASQUILLA   CC: 73168835 CELULAR: 3114153847  3005415231 DIRECCIÓN: CL 56 30 30 AP 201  CORREO: yisethdevoz01@hotmail.com   MOTIVO: INCONFORMIDAD INCREMENTO ANUAL</t>
   </si>
   <si>
     <t>MDM-PQR-36619583</t>
   </si>
   <si>
-    <t>L√≠nea:6017612595 Nombre de quien se comunica: JENIFER DANIELA CARDENAS ZARTA   C√©dula:1014856253 N√∫mero de contacto:3103733799   Email:daniiica1023@gmail.com   Direcci√≥n:DG 146 118 41 IN 7 AP 625 Motivo de la llamada: Cliente indica que solicito el traslado sin embargo le indicaron que no habia cobertura ftth, solicito la cancelaci√≥n del servicio, le llego una factura por $ 996.000 con el servicio cancelado</t>
+    <t>Línea:6017612595 Nombre de quien se comunica: JENIFER DANIELA CARDENAS ZARTA   Cédula:1014856253 Número de contacto:3103733799   Email:daniiica1023@gmail.com   Dirección:DG 146 118 41 IN 7 AP 625 Motivo de la llamada: Cliente indica que solicito el traslado sin embargo le indicaron que no habia cobertura ftth, solicito la cancelación del servicio, le llego una factura por $ 996.000 con el servicio cancelado</t>
   </si>
   <si>
     <t>MDM-PQR-36620817</t>
@@ -4730,7 +4747,7 @@
     <t>MDM-PQR-36621270</t>
   </si>
   <si>
-    <t>Linea:SR-31896293  Nombre de quien se comunica:ANGELA PATRICIA CADENA RAMIREZ   C√©dula: 1088217888 N√∫mero de contacto:3004893639    Email:    ANGELACADENARAMIREZ@GMAIL.COM   Direcci√≥n: KR 69B 25 45 IN 2 AP 305  Motivo de la llamada: cliente se comunica porque motivo llega incrementada su factura</t>
+    <t>Linea:SR-31896293  Nombre de quien se comunica:ANGELA PATRICIA CADENA RAMIREZ   Cédula: 1088217888 Número de contacto:3004893639    Email:    ANGELACADENARAMIREZ@GMAIL.COM   Dirección: KR 69B 25 45 IN 2 AP 305  Motivo de la llamada: cliente se comunica porque motivo llega incrementada su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36622491</t>
@@ -4742,13 +4759,13 @@
     <t>MDM-PQR-36622602</t>
   </si>
   <si>
-    <t xml:space="preserve">  Linea:SR-30953326 Nombre de quien se comunica:ELMER ANDREY BARBOSA BARBOSA   C√©dula: 1072718865 N√∫mero de contacto: 3165809897   Email:    ANDREW2406BARBOSA@GMAIL.COM   Direcci√≥n: CL 11A 78D 11 IN 46 AP 401 Motivo de la llamada: cliente se comunica por el incremento de factura</t>
+    <t xml:space="preserve">  Linea:SR-30953326 Nombre de quien se comunica:ELMER ANDREY BARBOSA BARBOSA   Cédula: 1072718865 Número de contacto: 3165809897   Email:    ANDREW2406BARBOSA@GMAIL.COM   Dirección: CL 11A 78D 11 IN 46 AP 401 Motivo de la llamada: cliente se comunica por el incremento de factura</t>
   </si>
   <si>
     <t>MDM-PQR-36622964</t>
   </si>
   <si>
-    <t>WhatsApp//DGO Pero necesito que no se me descuente lo que me est√°n cobrando desde octubre por que ese servicio qued√≥ desactivado desde ese momento y me lo siguieron cobrando Por qu√© no se utiliza Por eso se activo solo Hbo max//  Wilman El√≠as otalora cruz .cc 80206959 Cel 3008820150 wilmanotalora@gmail.com Carrera 54 b sur 24 45 17 agosto de 2000</t>
+    <t>WhatsApp//DGO Pero necesito que no se me descuente lo que me están cobrando desde octubre por que ese servicio quedó desactivado desde ese momento y me lo siguieron cobrando Por qué no se utiliza Por eso se activo solo Hbo max//  Wilman Elías otalora cruz .cc 80206959 Cel 3008820150 wilmanotalora@gmail.com Carrera 54 b sur 24 45 17 agosto de 2000</t>
   </si>
   <si>
     <t>MDM-PQR-36623778</t>
@@ -4766,13 +4783,13 @@
     <t>MDM-PQR-36625231</t>
   </si>
   <si>
-    <t>(FECHA EXPEDICI√ìN DEL DOCUMENTO DEL TITULAR (20/10/1983 )/ MOTIVOS ECONOMICOS (EJ: TRASLADO INTERNO, ECON√ìMICO)// OFERTA DE RETENCI√ìN B√ÅSICA / RF/  ORDEN / 011083483 / VALOR  EJ:90000) / TIEMPO INDEFINIDO</t>
+    <t>(FECHA EXPEDICIÓN DEL DOCUMENTO DEL TITULAR (20/10/1983 )/ MOTIVOS ECONOMICOS (EJ: TRASLADO INTERNO, ECONÓMICO)// OFERTA DE RETENCIÓN BÁSICA / RF/  ORDEN / 011083483 / VALOR  EJ:90000) / TIEMPO INDEFINIDO</t>
   </si>
   <si>
     <t>MDM-PQR-36627703</t>
   </si>
   <si>
-    <t>ERNESTO BARRERO 1020796853 6016713324 FACTURA INCREMENTO DE LEY // CLIENTE NO ESTA DE ACUERDO, SE GENERA RETIRO DE INCREMENTO DE LEY.  . La cuenta 12053482373 tiene una Orden de Retiro de Incremento incompleta. N√∫mero Orden: MDM-RINC-011084985 4347230000210237</t>
+    <t>ERNESTO BARRERO 1020796853 6016713324 FACTURA INCREMENTO DE LEY // CLIENTE NO ESTA DE ACUERDO, SE GENERA RETIRO DE INCREMENTO DE LEY.  . La cuenta 12053482373 tiene una Orden de Retiro de Incremento incompleta. Número Orden: MDM-RINC-011084985 4347230000210237</t>
   </si>
   <si>
     <t>MDM-PQR-36629716</t>
@@ -4790,7 +4807,7 @@
     <t>MDM-PQR-36629866</t>
   </si>
   <si>
-    <t>Linea:6017259851 Nombre de quien se comunica:NINI YOHANNA TORO CONDE   C√©dula: 38551066 N√∫mero de contacto: 3213213736   Email:    niniyohannatoroc@hotmail.com   Direcci√≥n: KR 71B BIS 12 30 IN 9 AP 202 Motivo de la llamada: cliente se comunica incremento de su factura</t>
+    <t>Linea:6017259851 Nombre de quien se comunica:NINI YOHANNA TORO CONDE   Cédula: 38551066 Número de contacto: 3213213736   Email:    niniyohannatoroc@hotmail.com   Dirección: KR 71B BIS 12 30 IN 9 AP 202 Motivo de la llamada: cliente se comunica incremento de su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36629946</t>
@@ -4808,7 +4825,7 @@
     <t>MDM-PQR-36631854</t>
   </si>
   <si>
-    <t>WHATSAPP//ANDRES FELIPE MONSALVE ARBELAEZ //INCREMENTO DE   FACTURA  Y  CANCELACI√ìN</t>
+    <t>WHATSAPP//ANDRES FELIPE MONSALVE ARBELAEZ //INCREMENTO DE   FACTURA  Y  CANCELACIÓN</t>
   </si>
   <si>
     <t>MDM-PQR-36632025</t>
@@ -4823,13 +4840,13 @@
     <t>MDM-PQR-36635317</t>
   </si>
   <si>
-    <t>Nombre: FABIOLA ANDREA DIAZ BELTRAN cedula: 1069759657 celular:  3153895594  Correo: diazbfabiola@gmail.com direcci√≥n: CL 12B 23 17 PI 2 linea: SR-34278690 motivo: CANCELACION DE  WINSPORT</t>
+    <t>Nombre: FABIOLA ANDREA DIAZ BELTRAN cedula: 1069759657 celular:  3153895594  Correo: diazbfabiola@gmail.com dirección: CL 12B 23 17 PI 2 linea: SR-34278690 motivo: CANCELACION DE  WINSPORT</t>
   </si>
   <si>
     <t>MDM-PQR-36636430</t>
   </si>
   <si>
-    <t>Linea:6017734791 Nombre de quien se comunica:BLANCA HERMINDA CORTES DE LINARES   C√©dula: 41383972 N√∫mero de contacto: 3144593673   Email: YODYCRUZ1@GMAIL.COM      Direcci√≥n: KR 141A 144 58 BQ 4 CA 26 Motivo de la llamada: cliente se comunica para consultar factura</t>
+    <t>Linea:6017734791 Nombre de quien se comunica:BLANCA HERMINDA CORTES DE LINARES   Cédula: 41383972 Número de contacto: 3144593673   Email: YODYCRUZ1@GMAIL.COM      Dirección: KR 141A 144 58 BQ 4 CA 26 Motivo de la llamada: cliente se comunica para consultar factura</t>
   </si>
   <si>
     <t>MDM-PQR-36636463</t>
@@ -4841,31 +4858,31 @@
     <t>MDM-PQR-36636811</t>
   </si>
   <si>
-    <t>Tel: 6014553573 Cc: 1022406787 Cel: 3197450863       Clente: JONATHAN RAMIRO RIA√ëO LUNA       Direcci√≥n: KR 81 16 38 Correo: jonathan.2030@outlook.es           Motivo: Notifica que genero la solicitud de cancelacion del servicio de Directv Go y me llego factura completa con el servicio de Directv Go</t>
+    <t>Tel: 6014553573 Cc: 1022406787 Cel: 3197450863       Clente: JONATHAN RAMIRO RIAÑO LUNA       Dirección: KR 81 16 38 Correo: jonathan.2030@outlook.es           Motivo: Notifica que genero la solicitud de cancelacion del servicio de Directv Go y me llego factura completa con el servicio de Directv Go</t>
   </si>
   <si>
     <t>MDM-PQR-36637311</t>
   </si>
   <si>
-    <t>Nombre: ADRIANA MILENA BUITRAGO QUINTERO cedula: 1049617656 celular:  3212440106 Correo: ADRIANABUITRAGOQ@HOTMAIL.COM direcci√≥n: KR 72C 22A 74 TO 6 IN 3 AP 721 linea: 6012494295 motivo: COCNEPTOS FACTURADOS</t>
+    <t>Nombre: ADRIANA MILENA BUITRAGO QUINTERO cedula: 1049617656 celular:  3212440106 Correo: ADRIANABUITRAGOQ@HOTMAIL.COM dirección: KR 72C 22A 74 TO 6 IN 3 AP 721 linea: 6012494295 motivo: COCNEPTOS FACTURADOS</t>
   </si>
   <si>
     <t>MDM-PQR-36638719</t>
   </si>
   <si>
-    <t>Cliente indica que su factura le llega por un mayor valor , la cual no est√° de acuerdo con el cobro ya que dice que en diciembre pago un alza de 61.000 , pero en saww registra el pago por 55.000 el d√≠a  27/12/2022, cliente a√∫n insiste  que pago fue  61.000  y que la asesora   que le atendi√≥ dijo que era un alza de tarifas , entonces por eso el cliente dice que en diciembre se le increment√≥ el valor tambi√©n y en enero fue exagerado el cobro, cliente con intensi√≥n de retiro</t>
+    <t>Cliente indica que su factura le llega por un mayor valor , la cual no está de acuerdo con el cobro ya que dice que en diciembre pago un alza de 61.000 , pero en saww registra el pago por 55.000 el día  27/12/2022, cliente aún insiste  que pago fue  61.000  y que la asesora   que le atendió dijo que era un alza de tarifas , entonces por eso el cliente dice que en diciembre se le incrementó el valor también y en enero fue exagerado el cobro, cliente con intensión de retiro</t>
   </si>
   <si>
     <t>MDM-PQR-36639116</t>
   </si>
   <si>
-    <t>NOMBRE: IVONNE ALEXANDRA LONDO√ëO CARRILLO C.C.  DIRECCION:CL 143A 128 51 IN 12 AP 404 TELEFONO: 6013483056 CELULAR:  3012834234   CORREO: ivon.alexandra.lc@gmail.com  MOTIVO: incremento de mi factura</t>
+    <t>NOMBRE: IVONNE ALEXANDRA LONDOÑO CARRILLO C.C.  DIRECCION:CL 143A 128 51 IN 12 AP 404 TELEFONO: 6013483056 CELULAR:  3012834234   CORREO: ivon.alexandra.lc@gmail.com  MOTIVO: incremento de mi factura</t>
   </si>
   <si>
     <t>MDM-PQR-36639792</t>
   </si>
   <si>
-    <t>Linea: Nombre de quien se comunica:MARIA CAMILA AVILA MARTINEZ   C√©dula: 1014264059   N√∫mero de contacto: 3204181999   Email:    GLORIAMARTINEZ20@HOTMAIL.COM   Direcci√≥n: CL 69A BIS 90 61 Motivo de la llamada: cliente se comunica para consultar factura</t>
+    <t>Linea: Nombre de quien se comunica:MARIA CAMILA AVILA MARTINEZ   Cédula: 1014264059   Número de contacto: 3204181999   Email:    GLORIAMARTINEZ20@HOTMAIL.COM   Dirección: CL 69A BIS 90 61 Motivo de la llamada: cliente se comunica para consultar factura</t>
   </si>
   <si>
     <t>MDM-PQR-36640459</t>
@@ -4877,7 +4894,7 @@
     <t>MDM-PQR-36644028</t>
   </si>
   <si>
-    <t>Facebook/JULY CASTRO CASTRO CASTRO /cliente reporta aumento de tarifa //T√©lefono Fijo:SR-30849908// Celular: 3012793015   //Direcci√≥n: KR 111 135 36</t>
+    <t>Facebook/JULY CASTRO CASTRO CASTRO /cliente reporta aumento de tarifa //Télefono Fijo:SR-30849908// Celular: 3012793015   //Dirección: KR 111 135 36</t>
   </si>
   <si>
     <t>MDM-PQR-36647796</t>
@@ -4889,49 +4906,49 @@
     <t>MDM-PQR-36650013</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica:SAMARY MISAA GALVAN   C√©dula: 1100545569 N√∫mero de contacto: 3107696347   Email:    SAMYMISAA0731@HOTMAIL.ES   Direcci√≥n: KR 5 32 55 AP 404 Motivo de la llamada: cliente se comunica porque el incremento de ley</t>
+    <t>Nombre de quien se comunica:SAMARY MISAA GALVAN   Cédula: 1100545569 Número de contacto: 3107696347   Email:    SAMYMISAA0731@HOTMAIL.ES   Dirección: KR 5 32 55 AP 404 Motivo de la llamada: cliente se comunica porque el incremento de ley</t>
   </si>
   <si>
     <t>MDM-PQR-36651148</t>
   </si>
   <si>
-    <t>Titular se acerca porque pidi√≥ cancelaci√≥n en mes de octubre porque tenia que irse de la ciudad y hasta el momento le siguen cobrando.</t>
+    <t>Titular se acerca porque pidió cancelación en mes de octubre porque tenia que irse de la ciudad y hasta el momento le siguen cobrando.</t>
   </si>
   <si>
     <t>MDM-PQR-36651392</t>
   </si>
   <si>
-    <t>Linea:6016254216 Nombre de quien se comunica:PAOLA GALVEZ OSORIO   C√©dula: 65746913 N√∫mero de contacto: 3002120232   Email:    paogalvezosorio@gmail.com   Direcci√≥n: AK 7 46 75 TO B AP 406 Motivo de la llamada: cliente se comunica porque el incremento de ley</t>
+    <t>Linea:6016254216 Nombre de quien se comunica:PAOLA GALVEZ OSORIO   Cédula: 65746913 Número de contacto: 3002120232   Email:    paogalvezosorio@gmail.com   Dirección: AK 7 46 75 TO B AP 406 Motivo de la llamada: cliente se comunica porque el incremento de ley</t>
   </si>
   <si>
     <t>MDM-PQR-36652103</t>
   </si>
   <si>
-    <t>Linea:CL 7A BIS C 79C 06 AP 301  Nombre de quien se comunica:SARAHY DIAZ ESTEVEZ   C√©dula: 1032508710 N√∫mero de contacto: 3105532616   Email:   SARAHYDIAZESTEVEZ010400@GMAIL.COM    Direcci√≥n: CL 7A BIS C 79C 06 AP 301  Motivo de la llamada: cliente se comunica porque motivo el incremento de su factura</t>
+    <t>Linea:CL 7A BIS C 79C 06 AP 301  Nombre de quien se comunica:SARAHY DIAZ ESTEVEZ   Cédula: 1032508710 Número de contacto: 3105532616   Email:   SARAHYDIAZESTEVEZ010400@GMAIL.COM    Dirección: CL 7A BIS C 79C 06 AP 301  Motivo de la llamada: cliente se comunica porque motivo el incremento de su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36653186</t>
   </si>
   <si>
-    <t>Linea:6013652247 Nombre de quien se comunica:SANDY JULIETH ROJANO PADILLA   C√©dula: 1082976407 N√∫mero de contacto: 3117047012   Email:    SANDYROJANOPADILLA@GMAIL.COM   Direcci√≥n: CL 74A 60 23 Motivo de la llamada: cliente se comunica para consultar factura</t>
+    <t>Linea:6013652247 Nombre de quien se comunica:SANDY JULIETH ROJANO PADILLA   Cédula: 1082976407 Número de contacto: 3117047012   Email:    SANDYROJANOPADILLA@GMAIL.COM   Dirección: CL 74A 60 23 Motivo de la llamada: cliente se comunica para consultar factura</t>
   </si>
   <si>
     <t>MDM-PQR-36653862</t>
   </si>
   <si>
-    <t>L√≠nea:6014429878 Nombre de quien se comunica:EUFEMIA LARA AGUILAR   C√©dula:39530303   N√∫mero de contacto:3138666431   Email:ojosdegato63@hotmail.com   Direcci√≥n:} KR 110 BIS 65B 43 Motivo de la llamada:. cliente solicita la cancelaci√≥n del servicio por el incremento por lo que se hace el retiro del incremento 4347230000221785</t>
+    <t>Línea:6014429878 Nombre de quien se comunica:EUFEMIA LARA AGUILAR   Cédula:39530303   Número de contacto:3138666431   Email:ojosdegato63@hotmail.com   Dirección:} KR 110 BIS 65B 43 Motivo de la llamada:. cliente solicita la cancelación del servicio por el incremento por lo que se hace el retiro del incremento 4347230000221785</t>
   </si>
   <si>
     <t>MDM-PQR-36654069</t>
   </si>
   <si>
-    <t>L√≠nea:6012047731 Nombre de quien se comunica:JORGE CASTRO  C√©dula:6753154 N√∫mero de contacto:3115914776   Email:jorge_castro110@hotmail.com   Direcci√≥n:TV 72I BIS 48A 10 SUR Motivo de la llamada:.cliente solicita la cancelaci√≥n del servicio por el incremento por lo que se hace el retiro del incremento 4347230000221954</t>
+    <t>Línea:6012047731 Nombre de quien se comunica:JORGE CASTRO  Cédula:6753154 Número de contacto:3115914776   Email:jorge_castro110@hotmail.com   Dirección:TV 72I BIS 48A 10 SUR Motivo de la llamada:.cliente solicita la cancelación del servicio por el incremento por lo que se hace el retiro del incremento 4347230000221954</t>
   </si>
   <si>
     <t>MDM-PQR-36654226</t>
   </si>
   <si>
-    <t>NOMBRE  VANESSA ALEJANDRA AREVALO FANDI√ëO   CEDULA 1020810545 CORREO vaarevalo65@gmail.com   FIJO CEL 3053719031   DIRECCION KR 8C 186 67 IN 1 AP 101 MOTIVO  CLIENTE SE COMUNICA POR QUE  NO ESTA DEACUERO CON EL COBRO DE LA FACTURA QUE LE LLEGO  *</t>
+    <t>NOMBRE  VANESSA ALEJANDRA AREVALO FANDIÑO   CEDULA 1020810545 CORREO vaarevalo65@gmail.com   FIJO CEL 3053719031   DIRECCION KR 8C 186 67 IN 1 AP 101 MOTIVO  CLIENTE SE COMUNICA POR QUE  NO ESTA DEACUERO CON EL COBRO DE LA FACTURA QUE LE LLEGO  *</t>
   </si>
   <si>
     <t>MDM-PQR-36655266</t>
@@ -4955,7 +4972,7 @@
     <t>MDM-PQR-36656855</t>
   </si>
   <si>
-    <t>Cliente indica que tiene problema sobre servicios , ya que le dicen a etb en repetidas ocasiones para el env√≠o de la factura de manera f√≠sica , cliente con intensi√≥n de retiro si etb no le env√≠a la factura</t>
+    <t>Cliente indica que tiene problema sobre servicios , ya que le dicen a etb en repetidas ocasiones para el envío de la factura de manera física , cliente con intensión de retiro si etb no le envía la factura</t>
   </si>
   <si>
     <t>MDM-PQR-36658255</t>
@@ -4967,7 +4984,7 @@
     <t>MDM-PQR-36660514</t>
   </si>
   <si>
-    <t>ASEGURAMIENTO COMDATA   Titular: JUAN GUILLERMO VASQUEZ ACERO   CC: 1020797133 L√≠nea: 6013085655 Celular: 3164946761 Correo: juanvasquez721@gmail.com   Direcci√≥n: CL 79B 5 72 AP 501 Observaci√≥n: La se√±ora patricia se comunica indicando que no tiene servicio, pero que ella genero su ultimo pago el d√≠a 26/01/2023, solicita se le reactive el servicio y se le genere cambio de contrase√±a wifi.</t>
+    <t>ASEGURAMIENTO COMDATA   Titular: JUAN GUILLERMO VASQUEZ ACERO   CC: 1020797133 Línea: 6013085655 Celular: 3164946761 Correo: juanvasquez721@gmail.com   Dirección: CL 79B 5 72 AP 501 Observación: La señora patricia se comunica indicando que no tiene servicio, pero que ella genero su ultimo pago el día 26/01/2023, solicita se le reactive el servicio y se le genere cambio de contraseña wifi.</t>
   </si>
   <si>
     <t>MDM-PQR-36661571</t>
@@ -4985,13 +5002,13 @@
     <t>MDM-PQR-36667140</t>
   </si>
   <si>
-    <t>L√≠nea: 6017172644 Nombre: MARISOL C√©dula: 51937968 E-mail: myomayusa@hotmail.com   Celular: 3212886501 Direcci√≥n: DG 77B 116B 42 TO 1 IN 4 AP 1103 Motivo: Cliente se comunica para confirmar porque se le aumento la factura si ella tiene una oferta del un descuento del 40% y en las √∫ltima 2 facturas no se lo han aplicado</t>
+    <t>Línea: 6017172644 Nombre: MARISOL Cédula: 51937968 E-mail: myomayusa@hotmail.com   Celular: 3212886501 Dirección: DG 77B 116B 42 TO 1 IN 4 AP 1103 Motivo: Cliente se comunica para confirmar porque se le aumento la factura si ella tiene una oferta del un descuento del 40% y en las última 2 facturas no se lo han aplicado</t>
   </si>
   <si>
     <t>MDM-PQR-36673308</t>
   </si>
   <si>
-    <t>WHatsapp // Indica que no aplicado un descuento y la factura llego m√°s alta</t>
+    <t>WHatsapp // Indica que no aplicado un descuento y la factura llego más alta</t>
   </si>
   <si>
     <t>MDM-PQR-36673840</t>
@@ -5003,13 +5020,13 @@
     <t>MDM-PQR-36673959</t>
   </si>
   <si>
-    <t>6017174696 // VALENTINA NIETO // Cliente solicita le sea retirado el cobro de HBO PACK ya que solicito la cancelacion y a√∫n se lo siguen facturando</t>
+    <t>6017174696 // VALENTINA NIETO // Cliente solicita le sea retirado el cobro de HBO PACK ya que solicito la cancelacion y aún se lo siguen facturando</t>
   </si>
   <si>
     <t>MDM-PQR-36674454</t>
   </si>
   <si>
-    <t>Se realiza escalamiento por retenci√≥n // cliente se comunica ya que a ella la retuvieron ofreciendole un descuento en el cual estaba pagando 130.900  a pagar 85.000 // lo cual no fue pactado el acuerdo</t>
+    <t>Se realiza escalamiento por retención // cliente se comunica ya que a ella la retuvieron ofreciendole un descuento en el cual estaba pagando 130.900  a pagar 85.000 // lo cual no fue pactado el acuerdo</t>
   </si>
   <si>
     <t>MDM-PQR-36678623</t>
@@ -5021,7 +5038,7 @@
     <t>MDM-PQR-36679130</t>
   </si>
   <si>
-    <t>√≠nea:6016263934  Nombre de quien se comunica: ANDREA CAROLINA GUTIERREZ SARRIA   C√©dula:1019098212   N√∫mero de contacto:3016280270   Email:agutierrezsar@gmail.com   Direcci√≥n:KR 87C 22 81 IN 65  Motivo de la llamada: ACTURA SE EL INCREMENTO</t>
+    <t>ínea:6016263934  Nombre de quien se comunica: ANDREA CAROLINA GUTIERREZ SARRIA   Cédula:1019098212   Número de contacto:3016280270   Email:agutierrezsar@gmail.com   Dirección:KR 87C 22 81 IN 65  Motivo de la llamada: ACTURA SE EL INCREMENTO</t>
   </si>
   <si>
     <t>MDM-PQR-36683507</t>
@@ -5033,19 +5050,19 @@
     <t>MDM-PQR-36684450</t>
   </si>
   <si>
-    <t>Linea:6017647524 Nombre de quien se comunica:HAYDI SALINAS SIERRA   C√©dula: 39748511 N√∫mero de contacto: 3124242768   Email:    AN.FELIPE12@HOTMAIL.COM   Direcci√≥n: CL 20C 111A 19 Motivo de la llamada: cliente se comunica porque motivo el incremento de su factura</t>
+    <t>Linea:6017647524 Nombre de quien se comunica:HAYDI SALINAS SIERRA   Cédula: 39748511 Número de contacto: 3124242768   Email:    AN.FELIPE12@HOTMAIL.COM   Dirección: CL 20C 111A 19 Motivo de la llamada: cliente se comunica porque motivo el incremento de su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36685799</t>
   </si>
   <si>
-    <t>Linea:6016758618 Nombre de quien se comunica:OLGA PATRICIA HERNANDEZ LEMUS   C√©dula: 51989997 N√∫mero de contacto: 3213789336   Email:    mundonissan@hotmail.com   Direcci√≥n: KR 12H 31A 27 SUR LC 1  Motivo de la llamada: cliente se comunica porque motivo le llega incrementada su factura</t>
+    <t>Linea:6016758618 Nombre de quien se comunica:OLGA PATRICIA HERNANDEZ LEMUS   Cédula: 51989997 Número de contacto: 3213789336   Email:    mundonissan@hotmail.com   Dirección: KR 12H 31A 27 SUR LC 1  Motivo de la llamada: cliente se comunica porque motivo le llega incrementada su factura</t>
   </si>
   <si>
     <t>MDM-PQR-36687615</t>
   </si>
   <si>
-    <t>"L√≠nea: Nombre de quien se comunica:SOFIA CAROLINA HERNANDEZ PEREZ   C√©dula:1121950203 N√∫mero de contacto:3044722094 Email:SOCAHEPE@HOTMAIL.COM   Direcci√≥n:CL 187 55B 90 IN 10 AP 402 Motivo de la llamada:Se comunica para solicitar ajuste en la factura del hogar ."</t>
+    <t>"Línea: Nombre de quien se comunica:SOFIA CAROLINA HERNANDEZ PEREZ   Cédula:1121950203 Número de contacto:3044722094 Email:SOCAHEPE@HOTMAIL.COM   Dirección:CL 187 55B 90 IN 10 AP 402 Motivo de la llamada:Se comunica para solicitar ajuste en la factura del hogar ."</t>
   </si>
   <si>
     <t>MDM-PQR-36688599</t>
@@ -5057,7 +5074,7 @@
     <t>MDM-PQR-36688749</t>
   </si>
   <si>
-    <t>Linea:6012734694 Nombre de quien se comunica:CARLOS GILBERTO PARDO SALINAS   C√©dula: 79474733 N√∫mero de contacto: 3167573927   Email:    carlospardo218@hotmail.com   Direcci√≥n: KR 73 40 31 SUR BQ 9 IN 1 AP 303 Motivo de la llamada: cliente se comunica para solicitar y un cambio de plan mas economico</t>
+    <t>Linea:6012734694 Nombre de quien se comunica:CARLOS GILBERTO PARDO SALINAS   Cédula: 79474733 Número de contacto: 3167573927   Email:    carlospardo218@hotmail.com   Dirección: KR 73 40 31 SUR BQ 9 IN 1 AP 303 Motivo de la llamada: cliente se comunica para solicitar y un cambio de plan mas economico</t>
   </si>
   <si>
     <t>MDM-PQR-36688819</t>
@@ -5069,13 +5086,13 @@
     <t>MDM-PQR-36689010</t>
   </si>
   <si>
-    <t>JHON HERNANDEZ 1022365379 6012490862 3213648813 KR 69D 1 45 SUR IN 1 AP 203  jetzerokido@gmail.com   FACTURA MES ENERO -  MDM-FIBRA-010823221   CANCELACION_VOLUNTARIA (TESR)   Fecha de Ejecuci√≥n:2/1/2023 .</t>
+    <t>JHON HERNANDEZ 1022365379 6012490862 3213648813 KR 69D 1 45 SUR IN 1 AP 203  jetzerokido@gmail.com   FACTURA MES ENERO -  MDM-FIBRA-010823221   CANCELACION_VOLUNTARIA (TESR)   Fecha de Ejecución:2/1/2023 .</t>
   </si>
   <si>
     <t>MDM-PQR-36689474</t>
   </si>
   <si>
-    <t>Linea:6017903546 Nombre de quien se comunica:GLORIA INES PINZON   C√©dula: 52016440   N√∫mero de contacto: 3128286327   Email:    gloriaipinzon1@gmail.com   Direcci√≥n: KR 80B 6 25 BQ 9 AP 235 Motivo de la llamada: cliente se comunica para consultar factura de este mes</t>
+    <t>Linea:6017903546 Nombre de quien se comunica:GLORIA INES PINZON   Cédula: 52016440   Número de contacto: 3128286327   Email:    gloriaipinzon1@gmail.com   Dirección: KR 80B 6 25 BQ 9 AP 235 Motivo de la llamada: cliente se comunica para consultar factura de este mes</t>
   </si>
   <si>
     <t>MDM-PQR-36690141</t>
@@ -5087,7 +5104,7 @@
     <t>MDM-PQR-36693022</t>
   </si>
   <si>
-    <t>L√≠nea: 6013101529 Nombre:  MARYURY C√©dula: 1010240070 Celular: 3133451723 Direcci√≥n:  KR 19 BIS 9 82 PI 2      Correo:  espinhamendez@gmail.com  Motivo de la llamada: Cliente indica wue suspendi√≥ el servicio hasta el 21 de enero, solicita cancelar el servicio de manera definitiva</t>
+    <t>Línea: 6013101529 Nombre:  MARYURY Cédula: 1010240070 Celular: 3133451723 Dirección:  KR 19 BIS 9 82 PI 2      Correo:  espinhamendez@gmail.com  Motivo de la llamada: Cliente indica wue suspendió el servicio hasta el 21 de enero, solicita cancelar el servicio de manera definitiva</t>
   </si>
   <si>
     <t>MDM-PQR-36693347</t>
@@ -5099,7 +5116,7 @@
     <t>MDM-PQR-36693741</t>
   </si>
   <si>
-    <t>L√≠nea:6016777086  Nombre de quien se comunica: MARIA FERNANDA  C√©dula: 31982483 N√∫mero de contacto: 3187909986   Email: mafelin80@gmail.com   Direcci√≥n: CL 6C 82A 57 IN 1 AP 408 Motivo de la llamada:. ENVIO FACTURA // CANCELACION DEL SERVICIO</t>
+    <t>Línea:6016777086  Nombre de quien se comunica: MARIA FERNANDA  Cédula: 31982483 Número de contacto: 3187909986   Email: mafelin80@gmail.com   Dirección: CL 6C 82A 57 IN 1 AP 408 Motivo de la llamada:. ENVIO FACTURA // CANCELACION DEL SERVICIO</t>
   </si>
   <si>
     <t>MDM-PQR-36694959</t>
@@ -5117,7 +5134,7 @@
     <t>MDM-PQR-36695148</t>
   </si>
   <si>
-    <t xml:space="preserve"> L√≠nea: 6016474212 Nombre de quien se comunica:  SANDY MARCELA DAZA GARNICA   C√©dula:1032417485 N√∫mero de contacto:3105664068   Email:sandydaza88@gmail.com   Direcci√≥n:CL 64G 98A 24 PI 4  Motivo de la llamada:. FACTURACION</t>
+    <t xml:space="preserve"> Línea: 6016474212 Nombre de quien se comunica:  SANDY MARCELA DAZA GARNICA   Cédula:1032417485 Número de contacto:3105664068   Email:sandydaza88@gmail.com   Dirección:CL 64G 98A 24 PI 4  Motivo de la llamada:. FACTURACION</t>
   </si>
   <si>
     <t>MDM-PQR-36695373</t>
@@ -5141,13 +5158,13 @@
     <t>MDM-PQR-36696077</t>
   </si>
   <si>
-    <t>"L√≠nea: 6013474828 Nombre de quien se comunica: YUDI ARISTELIA GONZALES RAMIREZ C√©dula: 52338515 N√∫mero de contacto: 3177968048 Email: archivaldogr2012@gmail.com Direcci√≥n: CL 137 108A 02 PI 2 Motivo de la llamada: cliente indica la factura le llego por un valor mas alto</t>
+    <t>"Línea: 6013474828 Nombre de quien se comunica: YUDI ARISTELIA GONZALES RAMIREZ Cédula: 52338515 Número de contacto: 3177968048 Email: archivaldogr2012@gmail.com Dirección: CL 137 108A 02 PI 2 Motivo de la llamada: cliente indica la factura le llego por un valor mas alto</t>
   </si>
   <si>
     <t>MDM-PQR-36696233</t>
   </si>
   <si>
-    <t>rosalia 1071302418 L√≠nea: 2792150 Nombre de quien se comunica:ANA LUCIA CARRILLO RIVEROS   C√©dula: 52037177   N√∫mero de contacto: 3105533032  Email: analucia492@hotmail.com   Direcci√≥n: CL 56 SUR 2 17 PI 1 Motivo de la llamada: factura alta</t>
+    <t>rosalia 1071302418 Línea: 2792150 Nombre de quien se comunica:ANA LUCIA CARRILLO RIVEROS   Cédula: 52037177   Número de contacto: 3105533032  Email: analucia492@hotmail.com   Dirección: CL 56 SUR 2 17 PI 1 Motivo de la llamada: factura alta</t>
   </si>
   <si>
     <t>MDM-PQR-36698236</t>
@@ -5165,19 +5182,19 @@
     <t>MDM-PQR-36703784</t>
   </si>
   <si>
-    <t>"L√≠nea:6016277703 Nombre de quien se comunica: LUISA FERNANDA PINEDA SANCHEZ   C√©dula:1104700740 N√∫mero de contacto:3507159296 Email: DEIBYSA_@HOTMAIL.COM   Direcci√≥n: CL 15 SUR 16 74 AP 401 Motivo de la llamada: Titular solicita cancelaci√≥n del servicio."</t>
+    <t>"Línea:6016277703 Nombre de quien se comunica: LUISA FERNANDA PINEDA SANCHEZ   Cédula:1104700740 Número de contacto:3507159296 Email: DEIBYSA_@HOTMAIL.COM   Dirección: CL 15 SUR 16 74 AP 401 Motivo de la llamada: Titular solicita cancelación del servicio."</t>
   </si>
   <si>
     <t>MDM-PQR-36703892</t>
   </si>
   <si>
-    <t>L√≠nea: Nombre de quien se comunica: MARIA DEL CARMEN MARTINEZ AMAYA C√©dula: 41617422 N√∫mero de contacto: 3123351830 Email: NA  Direcci√≥n: CL 64H 86 76  Motivo de la llamada: SE COMUNICA PORQUE EL 30/08/2022, SE COMUNICO PARA CANCELAR LA LINEA, EN RETENCIONES LE DIJERON QUE LE IBAN A DEJAR SU PLAN A 50.000</t>
+    <t>Línea: Nombre de quien se comunica: MARIA DEL CARMEN MARTINEZ AMAYA Cédula: 41617422 Número de contacto: 3123351830 Email: NA  Dirección: CL 64H 86 76  Motivo de la llamada: SE COMUNICA PORQUE EL 30/08/2022, SE COMUNICO PARA CANCELAR LA LINEA, EN RETENCIONES LE DIJERON QUE LE IBAN A DEJAR SU PLAN A 50.000</t>
   </si>
   <si>
     <t>MDM-PQR-36705203</t>
   </si>
   <si>
-    <t>L√≠nea:6017391420 Nombre de quien se comunica:JUAN CARLOS GONZALEZ NIETO   C√©dula:93378189 N√∫mero de contacto:3134276123 Email:jucago5111@gmail.com   Direcci√≥n:CL 161A 16C 72 AP 405  Motivo de la llamada:.cliente se comunica solicitando la cancelaci√≥n del servicio por lo que se le genera el retiro del incremento de ley con CUN 4347230000239299</t>
+    <t>Línea:6017391420 Nombre de quien se comunica:JUAN CARLOS GONZALEZ NIETO   Cédula:93378189 Número de contacto:3134276123 Email:jucago5111@gmail.com   Dirección:CL 161A 16C 72 AP 405  Motivo de la llamada:.cliente se comunica solicitando la cancelación del servicio por lo que se le genera el retiro del incremento de ley con CUN 4347230000239299</t>
   </si>
   <si>
     <t>MDM-PQR-36706815</t>
@@ -5201,7 +5218,7 @@
     <t>MDM-PQR-36715253</t>
   </si>
   <si>
-    <t>REDES SOCIALES // @GinnaMurciaV // Twitter     L√≠nea:  6012989905 // Nombre de quien se comunica: GINNA CONSTANZA MUERCIA VALDERRAMA   / /C√©dula: 1052384651 //N√∫mero de contacto: 3183970217   // Email:  ginski6@gmail.com   // Direcci√≥n: KR 105 16F 40 //Por que se comunica el cliente: Ajuste factura cobro de hbo como regalo ya hab√≠an ajustado y vuelve el cobro y ahora el doble, requiere cancelar servicio.</t>
+    <t>REDES SOCIALES // @GinnaMurciaV // Twitter     Línea:  6012989905 // Nombre de quien se comunica: GINNA CONSTANZA MUERCIA VALDERRAMA   / /Cédula: 1052384651 //Número de contacto: 3183970217   // Email:  ginski6@gmail.com   // Dirección: KR 105 16F 40 //Por que se comunica el cliente: Ajuste factura cobro de hbo como regalo ya habían ajustado y vuelve el cobro y ahora el doble, requiere cancelar servicio.</t>
   </si>
   <si>
     <t>MDM-PQR-36715666</t>
@@ -5219,13 +5236,13 @@
     <t>MDM-PQR-36718538</t>
   </si>
   <si>
-    <t>"L√≠nea: SR-30920304 Nombre de quien se comunica: SANTIAGO ANDRES LOZANO OSORIO C√©dula: 1001332016 N√∫mero de contacto: 3158781886 Email: SANTIAGOALOZANO21@GMAIL.COM Direcci√≥n: CL 40D SUR 80G 22 MJ 1 Motivo de la llamada: cliente indica la factura le llego por un valor mas alto y quire cancelar hbo max</t>
+    <t>"Línea: SR-30920304 Nombre de quien se comunica: SANTIAGO ANDRES LOZANO OSORIO Cédula: 1001332016 Número de contacto: 3158781886 Email: SANTIAGOALOZANO21@GMAIL.COM Dirección: CL 40D SUR 80G 22 MJ 1 Motivo de la llamada: cliente indica la factura le llego por un valor mas alto y quire cancelar hbo max</t>
   </si>
   <si>
     <t>MDM-PQR-36719893</t>
   </si>
   <si>
-    <t>se  comunica la se√±ora nancy  indica que ha  tenido  fallas del  servicio  y que  ella   ha llamado  a  cancelar  y que le  han  dado  retencion  con descuento de  manera escalonada  y que la   factura  se le   incremento de ley</t>
+    <t>se  comunica la señora nancy  indica que ha  tenido  fallas del  servicio  y que  ella   ha llamado  a  cancelar  y que le  han  dado  retencion  con descuento de  manera escalonada  y que la   factura  se le   incremento de ley</t>
   </si>
   <si>
     <t>MDM-PQR-36721067</t>
@@ -5237,25 +5254,25 @@
     <t>MDM-PQR-36721391</t>
   </si>
   <si>
-    <t>L√≠nea: Nombre de quien se comunica: JESSICA LASSO  C√©dula: 1069752169 N√∫mero de contacto: 3213069856 Email: jessiklasso.10@gmail.com Direcci√≥n: KR 22A 31 30 SUR Motivo de la llamada: SE COMUNICA PORQUE ESTA MOLESTA POR EL INCREMENTO EN SU FACTURA.</t>
+    <t>Línea: Nombre de quien se comunica: JESSICA LASSO  Cédula: 1069752169 Número de contacto: 3213069856 Email: jessiklasso.10@gmail.com Dirección: KR 22A 31 30 SUR Motivo de la llamada: SE COMUNICA PORQUE ESTA MOLESTA POR EL INCREMENTO EN SU FACTURA.</t>
   </si>
   <si>
     <t>MDM-PQR-36721878</t>
   </si>
   <si>
-    <t>L√≠nea:6014498518 Nombre de quien se comunica: MARIA DEL PILAR OLIVERA   C√©dula: 53043716   N√∫mero de contacto: 3125004155   Email: adrianakarol82@hotmail.com   Direcci√≥n: KR 1B 41 10 SUR Motivo de la llamada: Cliente solicita ajuste por fallas</t>
+    <t>Línea:6014498518 Nombre de quien se comunica: MARIA DEL PILAR OLIVERA   Cédula: 53043716   Número de contacto: 3125004155   Email: adrianakarol82@hotmail.com   Dirección: KR 1B 41 10 SUR Motivo de la llamada: Cliente solicita ajuste por fallas</t>
   </si>
   <si>
     <t>MDM-PQR-36722494</t>
   </si>
   <si>
-    <t>Quiere que le confirmemos la promoci√≥n que le habian asignado en el mes de enero Cancelaci√≥n del servicio</t>
+    <t>Quiere que le confirmemos la promoción que le habian asignado en el mes de enero Cancelación del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-36722888</t>
   </si>
   <si>
-    <t>SG//LT: 6012665666 cuenta 12053540196/// Cliente pide ajuste de la factura, indica que el 12/11/2022 bajo MDM-FIBRA-010447007 solicito CANCELACI√ìN_VOLUNTARIA (TESR) la cual Fecha Ejecuci√≥n Orden Activaci√≥n: 01/12/2023. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el retiro del servicio de los servicios desde 30/11/2023. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $63,082 incluido IVA. VALOR REAL AJUSTE: $63,782 incluido IVA. DIFERENCIA $-700/ AJUSTE CORRECTO .</t>
+    <t>SG//LT: 6012665666 cuenta 12053540196/// Cliente pide ajuste de la factura, indica que el 12/11/2022 bajo MDM-FIBRA-010447007 solicito CANCELACIÓN_VOLUNTARIA (TESR) la cual Fecha Ejecución Orden Activación: 01/12/2023. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el retiro del servicio de los servicios desde 30/11/2023. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $63,082 incluido IVA. VALOR REAL AJUSTE: $63,782 incluido IVA. DIFERENCIA $-700/ AJUSTE CORRECTO .</t>
   </si>
   <si>
     <t>MDM-PQR-36723163</t>
@@ -5273,19 +5290,19 @@
     <t>MDM-PQR-36724062</t>
   </si>
   <si>
-    <t>SG//LT: 6016888220 cuenta 12054281807// cliente solicita ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia RF-001389811 del d√≠a 23/01/2022 reteniendo al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016888220 cuenta 12054281807// cliente solicita ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: se cierra caso, ya que se evidencia RF-001389811 del día 23/01/2022 reteniendo al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36724285</t>
   </si>
   <si>
-    <t>"L√≠nea: 6017722515 Nombre de quien se comunica: MARIA ALEIDA TOVAR DE SANCHEZ C√©dula: 41564352 N√∫mero de contacto: 3007703199 Email: kellysanchezt@hotmail.com  Direcci√≥n: CL 24C 69 59 IN 6 AP 403  Motivo de la llamada: Solicito cancelacion del win+ pero le llego cobro completo el mes pasado y se lo retiraron enseguida no entiende porque se le cobraron</t>
+    <t>"Línea: 6017722515 Nombre de quien se comunica: MARIA ALEIDA TOVAR DE SANCHEZ Cédula: 41564352 Número de contacto: 3007703199 Email: kellysanchezt@hotmail.com  Dirección: CL 24C 69 59 IN 6 AP 403  Motivo de la llamada: Solicito cancelacion del win+ pero le llego cobro completo el mes pasado y se lo retiraron enseguida no entiende porque se le cobraron</t>
   </si>
   <si>
     <t>MDM-PQR-36724832</t>
   </si>
   <si>
-    <t>Cliente solicita la cancelaci√≥n de win sport, ya que no recuerda las condiciones de su plan</t>
+    <t>Cliente solicita la cancelación de win sport, ya que no recuerda las condiciones de su plan</t>
   </si>
   <si>
     <t>MDM-PQR-36727969</t>
@@ -5297,7 +5314,7 @@
     <t>MDM-PQR-36728004</t>
   </si>
   <si>
-    <t>Cliente indica que en diciembre le llamaron y le dieron beneficio para bajar el plan por 145,000  y en el mes de enero se le increment√≥ 233,7000, la cual no est√° de  acuerdo con el valor donde solicit√≥ la cancelaci√≥n del servicio en un centro de servicios, por tanto quiere volver a revaluar opciones de cambio de plan   para no retirarse sel servici</t>
+    <t>Cliente indica que en diciembre le llamaron y le dieron beneficio para bajar el plan por 145,000  y en el mes de enero se le incrementó 233,7000, la cual no está de  acuerdo con el valor donde solicitó la cancelación del servicio en un centro de servicios, por tanto quiere volver a revaluar opciones de cambio de plan   para no retirarse sel servici</t>
   </si>
   <si>
     <t>MDM-PQR-36730075</t>
@@ -5321,7 +5338,7 @@
     <t>MDM-PQR-36734162</t>
   </si>
   <si>
-    <t>Nombre:  ANA LUISA HERNANDEZ MENDOZA   N√∫mero de identificaci√≥n: 1102814395 Direcci√≥n:  CL 146 12A 53 AP 704  Correo: analuisahm27@gmail.com   N√∫mero de contacto:  3013819078   Motivo de la llamada: cliente se comunica para cancelar servicio de paramount y hbo</t>
+    <t>Nombre:  ANA LUISA HERNANDEZ MENDOZA   Número de identificación: 1102814395 Dirección:  CL 146 12A 53 AP 704  Correo: analuisahm27@gmail.com   Número de contacto:  3013819078   Motivo de la llamada: cliente se comunica para cancelar servicio de paramount y hbo</t>
   </si>
   <si>
     <t>MDM-PQR-36734380</t>
@@ -5333,13 +5350,13 @@
     <t>MDM-PQR-36734506</t>
   </si>
   <si>
-    <t>Cliente se acerca ya que ke generaron factura del mes de enero donde ella solicito la cancelaci√≥n el 30 de diciembre de 2022</t>
+    <t>Cliente se acerca ya que ke generaron factura del mes de enero donde ella solicito la cancelación el 30 de diciembre de 2022</t>
   </si>
   <si>
     <t>MDM-PQR-36737176</t>
   </si>
   <si>
-    <t>SG//LT: 6017904148 cuenta 12054371419//Cliente pide ajuste de la factura, ya que desde el mes de septiembre 2022 solicitando el retiro de DirecTVGO. SOLUCI√ìN DE ASEGURAMIENTO: se deja caso en seguimiento 31/01/2023, puesto que se evidencia orden MDM-FIBRA-010910398 de RETIRO_BUNDLE_AUXILIAR (RBA) del d√≠a 12/01/2023 con Fecha de Ejecuci√≥n: 09/02/2023 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $42,500 incluido IVA. VALOR REAL AJUSTE: $42,500 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. AJUST5E BAJO LEY DE FAVORABILIDAD.</t>
+    <t>SG//LT: 6017904148 cuenta 12054371419//Cliente pide ajuste de la factura, ya que desde el mes de septiembre 2022 solicitando el retiro de DirecTVGO. SOLUCIÓN DE ASEGURAMIENTO: se deja caso en seguimiento 31/01/2023, puesto que se evidencia orden MDM-FIBRA-010910398 de RETIRO_BUNDLE_AUXILIAR (RBA) del día 12/01/2023 con Fecha de Ejecución: 09/02/2023 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $42,500 incluido IVA. VALOR REAL AJUSTE: $42,500 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO. AJUST5E BAJO LEY DE FAVORABILIDAD.</t>
   </si>
   <si>
     <t>MDM-PQR-36737465</t>
@@ -5351,19 +5368,19 @@
     <t>MDM-PQR-36737981</t>
   </si>
   <si>
-    <t>NombreCARLOS ANTONIO POVEDA SEGURA  Celular 3505130854  UENHogares Y Mipymes   Tipo DocumentoCC  DepartamentoBOGOTA  Segmento UENHogares   N√∫mero Documento79407322  CiudadBOGOTA D.C.  SegmentoHogares   Emailcarlospoveda9@hotmail.com  Direcci√≥nCL 100 9A 95  OF212 CategoriaPLATINO  T√©lefono Fijo 6016359541  Campa√±a Activa Esquema Atencion  CLIENTE SE COMUNICA INDICANDO QUE DESEA CONFIRMAR PORQU√â LA FACTURA LE LLEG√ì ALTA Y ESTADO DE CUENTA DEL SERVICIO</t>
+    <t>NombreCARLOS ANTONIO POVEDA SEGURA  Celular 3505130854  UENHogares Y Mipymes   Tipo DocumentoCC  DepartamentoBOGOTA  Segmento UENHogares   Número Documento79407322  CiudadBOGOTA D.C.  SegmentoHogares   Emailcarlospoveda9@hotmail.com  DirecciónCL 100 9A 95  OF212 CategoriaPLATINO  Télefono Fijo 6016359541  Campaña Activa Esquema Atencion  CLIENTE SE COMUNICA INDICANDO QUE DESEA CONFIRMAR PORQUÉ LA FACTURA LE LLEGÓ ALTA Y ESTADO DE CUENTA DEL SERVICIO</t>
   </si>
   <si>
     <t>MDM-PQR-36738253</t>
   </si>
   <si>
-    <t>"L√≠nea:6014573983 Nombre de quien se comunica:LUZ ESTELA BEJARANO TORRES ¬† C√©dula:39562118 ¬† N√∫mero de contacto:3142020189 ¬† Email:sebasreinoso9603@gmail.com ¬† Direcci√≥n:CL 165 54C 48 IN 9 Motivo de la llamada: ."  cliente indica que le brindaron oferta en $120.000 pero no se esta aplicando</t>
+    <t>"Línea:6014573983 Nombre de quien se comunica:LUZ ESTELA BEJARANO TORRES   Cédula:39562118   Número de contacto:3142020189   Email:sebasreinoso9603@gmail.com   Dirección:CL 165 54C 48 IN 9 Motivo de la llamada: ."  cliente indica que le brindaron oferta en $120.000 pero no se esta aplicando</t>
   </si>
   <si>
     <t>MDM-PQR-36739597</t>
   </si>
   <si>
-    <t>SG//LT: 6016367429 cuenta 1788998//Cliente pide ajuste de la factura, indica el valor e u oferta es de $84,900. SOLUCI√ìN DE ASEGURAMIENTO: Se deja caso escalado, solicitando la sincronizaci√≥n de SUMA/REVCHAIN ya que se realizo el tramite de CAMBIO_PLAN (PRCH) bajo MDM-FIBRA-011002207 del d√≠a 20/01/2023 y as√≠ poder retirar el servicio de HBO MAX EMPAQUETADO y Plan Win Sports Online Empaquetado los cuales generan cargos adicionales a la factura, se evidencia tambi√©n descuento del 25,0000% desde 20/01/23 hasta 28/02/23. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $36,070 incluido IVA. VALOR REAL AJUSTE: $36,070 incluido IVA. DIFERENCIA $0</t>
+    <t>SG//LT: 6016367429 cuenta 1788998//Cliente pide ajuste de la factura, indica el valor e u oferta es de $84,900. SOLUCIÓN DE ASEGURAMIENTO: Se deja caso escalado, solicitando la sincronización de SUMA/REVCHAIN ya que se realizo el tramite de CAMBIO_PLAN (PRCH) bajo MDM-FIBRA-011002207 del día 20/01/2023 y así poder retirar el servicio de HBO MAX EMPAQUETADO y Plan Win Sports Online Empaquetado los cuales generan cargos adicionales a la factura, se evidencia también descuento del 25,0000% desde 20/01/23 hasta 28/02/23. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $36,070 incluido IVA. VALOR REAL AJUSTE: $36,070 incluido IVA. DIFERENCIA $0</t>
   </si>
   <si>
     <t>MDM-PQR-36740019</t>
@@ -5381,19 +5398,19 @@
     <t>MDM-PQR-36750021</t>
   </si>
   <si>
-    <t>AJUSTE DE FACTURA AJUSTE DE FACTURA DESCUENTO 20% O RECONEXI√ìN / $37450 (si es por descuento dejar el 50% o valor de reconexi√≥n) / (Permanente o Tiempo Restante si es por un descuento) /11/01/2011 / INCONFORMIDAD POR FACTURA O FAVORABILIDAD  DUO 200M HOG FTTH V1//el cliente  se  acerca con Intenci√≥n de retiro, ya que genero un cambio de tecnolog√≠a  a   DUO 200M HOG FTTH V1 con promoci√≥n del  mes 1,3,6,9 del  50%, pero  no se le aplic√≥, sele v√°lida en el sistema  ya le hicieron el  ajuste  respectivo ajuste  respectivo, pero se escala  a gestor se escala  a gestor, ya que   no se le aplic√≥ la promoci√≥n    NOMBRE:  LUZ ESTHER CEBALLOS CAMARGO   C√âDULA: 51652817 CELULAR:   3124165813   DIRECCI√ìN:DG 32 G SUR 13A 16  EMAIL: documentosdigitales@etb.com.co CUENTA:2444311 L√çNEA:  6012095310     TIPO DE  SOLICITUD: CONCEPTO DE AJUSTE  POR  PROMOCI√ìN NO APLICADA MDM-PQR-36750021 RF-001407797</t>
+    <t>AJUSTE DE FACTURA AJUSTE DE FACTURA DESCUENTO 20% O RECONEXIÓN / $37450 (si es por descuento dejar el 50% o valor de reconexión) / (Permanente o Tiempo Restante si es por un descuento) /11/01/2011 / INCONFORMIDAD POR FACTURA O FAVORABILIDAD  DUO 200M HOG FTTH V1//el cliente  se  acerca con Intención de retiro, ya que genero un cambio de tecnología  a   DUO 200M HOG FTTH V1 con promoción del  mes 1,3,6,9 del  50%, pero  no se le aplicó, sele válida en el sistema  ya le hicieron el  ajuste  respectivo ajuste  respectivo, pero se escala  a gestor se escala  a gestor, ya que   no se le aplicó la promoción    NOMBRE:  LUZ ESTHER CEBALLOS CAMARGO   CÉDULA: 51652817 CELULAR:   3124165813   DIRECCIÓN:DG 32 G SUR 13A 16  EMAIL: documentosdigitales@etb.com.co CUENTA:2444311 LÍNEA:  6012095310     TIPO DE  SOLICITUD: CONCEPTO DE AJUSTE  POR  PROMOCIÓN NO APLICADA MDM-PQR-36750021 RF-001407797</t>
   </si>
   <si>
     <t>MDM-PQR-36754008</t>
   </si>
   <si>
-    <t>SG//LT: 6017161374 cuenta 12054095239// cliente solicita ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso ajuste no a plica, ya que se evidencia RF-001400748 del d√≠a 27/01/2022 reteniendo al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO.// se penaliza asesor, puesto que no cumple con la pol√≠tica de exoneraci√≥n VALOR DE RECONEXI√ìN POR MORA, bajo MDM-PQR-34032995, ya se hab√≠a realizado el d√≠a 27/09/2022 ajuste por mismo concepto.</t>
+    <t>SG//LT: 6017161374 cuenta 12054095239// cliente solicita ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso ajuste no a plica, ya que se evidencia RF-001400748 del día 27/01/2022 reteniendo al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO.// se penaliza asesor, puesto que no cumple con la política de exoneración VALOR DE RECONEXIÓN POR MORA, bajo MDM-PQR-34032995, ya se había realizado el día 27/09/2022 ajuste por mismo concepto.</t>
   </si>
   <si>
     <t>MDM-PQR-36754455</t>
   </si>
   <si>
-    <t>SG//LT: SR-34808561 cuenta 12054332840// cliente solicita ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia RF-001401328 del d√≠a 28/01/2022 reteniendo al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $18,000 incluido IVA. VALOR REAL AJUSTE: $18,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: SR-34808561 cuenta 12054332840// cliente solicita ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia RF-001401328 del día 28/01/2022 reteniendo al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $18,000 incluido IVA. VALOR REAL AJUSTE: $18,000 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36757427</t>
@@ -5411,7 +5428,7 @@
     <t>MDM-PQR-36759065</t>
   </si>
   <si>
-    <t>SG//LT: 6017688784 cuenta 12054240486//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: se deja caso en seguimiento 01/02/2023, porque se evidencia orden de CANCELACI√ìN_VOLUNTARIA (TESR) bajo MDM-FIBRA-011074940 del d√≠a 26/01/2023 con Fecha de Ejecuci√≥n: 09/02/2023, se evidencia RF-001398152 del d√≠a 26/01/2023 retenci√≥n de ajuste por concepto de reconexi√≥n¬†el cual no aplica. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO.//Se penaliza asesor, puesto que no cumple con la pol√≠tica de exoneraci√≥n VALOR DE RECONEXI√ìN POR MORA, bajo MDM-PQR-33953193, ya se hab√≠a realizado el d√≠a 24/09/2022 ajuste por mismo concepto y se evidencia MDM-PQR-35368124 del d√≠a 29/11/2022 (AJUSTE BAJO LEY DE FAVORABILIDAD), Por tal motivo no aplica ajuste de reconexi√≥n.</t>
+    <t>SG//LT: 6017688784 cuenta 12054240486//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: se deja caso en seguimiento 01/02/2023, porque se evidencia orden de CANCELACIÓN_VOLUNTARIA (TESR) bajo MDM-FIBRA-011074940 del día 26/01/2023 con Fecha de Ejecución: 09/02/2023, se evidencia RF-001398152 del día 26/01/2023 retención de ajuste por concepto de reconexión el cual no aplica. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $26,000/ AJUSTE INCORRECTO.//Se penaliza asesor, puesto que no cumple con la política de exoneración VALOR DE RECONEXIÓN POR MORA, bajo MDM-PQR-33953193, ya se había realizado el día 24/09/2022 ajuste por mismo concepto y se evidencia MDM-PQR-35368124 del día 29/11/2022 (AJUSTE BAJO LEY DE FAVORABILIDAD), Por tal motivo no aplica ajuste de reconexión.</t>
   </si>
   <si>
     <t>MDM-PQR-36759094</t>
@@ -5429,13 +5446,13 @@
     <t>MDM-PQR-36759767</t>
   </si>
   <si>
-    <t>CLIENTE SE ACERCA A CENTRO DE SERVICIOS A SOLICITAR LA CANCELACI√ìN DEL SERVICIO POR COSTOS BAJO LA L√çNEA 6012937404 UY CUENTA DE FACTURACI√ìN 1452251</t>
+    <t>CLIENTE SE ACERCA A CENTRO DE SERVICIOS A SOLICITAR LA CANCELACIÓN DEL SERVICIO POR COSTOS BAJO LA LÍNEA 6012937404 UY CUENTA DE FACTURACIÓN 1452251</t>
   </si>
   <si>
     <t>MDM-PQR-36759917</t>
   </si>
   <si>
-    <t>Cliente se comunica indicando que el asesor qued√≥ en llamarle para ofrecerle un descuento del 50%  por  4  meses , sin embargo nunca se comunic√≥ con el y quiere sber en que estado se encuentra la gesti√≥n ,</t>
+    <t>Cliente se comunica indicando que el asesor quedó en llamarle para ofrecerle un descuento del 50%  por  4  meses , sin embargo nunca se comunicó con el y quiere sber en que estado se encuentra la gestión ,</t>
   </si>
   <si>
     <t>MDM-PQR-36760429</t>
@@ -5447,7 +5464,7 @@
     <t>MDM-PQR-36763532</t>
   </si>
   <si>
-    <t>Radicado No. 3759 Datos Cliente Nombre del cliente: wilfred smith sanchez cadena T√©lefono de Servicio ETB del Cliente: 6017902046 T√©lefono M√≥vil de Contacto del Cliente 3057069892 Resumen del caso: En el plan empleados que tengo esta mal facturado. no esta el descuento del 50%  ________________________________________ Datos Empleado Nombre Empleado: WILFRED SMITH SANCHEZ CADENA Correo Empleado: wilfred.sanchezc@etb.com.co N√∫mero de ETB Empleado: 36452 Cargo Empleado: AYUDANTE EMPALMADOR Area Empleado: DIRECCION ASEGURAMIENTO DE SERVICIOS MASIVOS Vicepresidencia: VICEPRESIDENCIA EXPERIENCIA</t>
+    <t>Radicado No. 3759 Datos Cliente Nombre del cliente: wilfred smith sanchez cadena Télefono de Servicio ETB del Cliente: 6017902046 Télefono Móvil de Contacto del Cliente 3057069892 Resumen del caso: En el plan empleados que tengo esta mal facturado. no esta el descuento del 50%  ________________________________________ Datos Empleado Nombre Empleado: WILFRED SMITH SANCHEZ CADENA Correo Empleado: wilfred.sanchezc@etb.com.co Número de ETB Empleado: 36452 Cargo Empleado: AYUDANTE EMPALMADOR Area Empleado: DIRECCION ASEGURAMIENTO DE SERVICIOS MASIVOS Vicepresidencia: VICEPRESIDENCIA EXPERIENCIA</t>
   </si>
   <si>
     <t>MDM-PQR-36774615</t>
@@ -5456,25 +5473,25 @@
     <t>MDM-PQR-36781455</t>
   </si>
   <si>
-    <t>Linea:6012280120 Nombre de quien se comunica:JOHN FREDY VELANDIA VEGA   C√©dula: 79713338 N√∫mero de contacto: 3196666178   Email:    VELANDIA.JHON@HOTMAIL.COM   Direcci√≥n: CL 57G SUR 78M 38 Motivo de la llamada: cliente se para solicitar cancelacion de servicio</t>
+    <t>Linea:6012280120 Nombre de quien se comunica:JOHN FREDY VELANDIA VEGA   Cédula: 79713338 Número de contacto: 3196666178   Email:    VELANDIA.JHON@HOTMAIL.COM   Dirección: CL 57G SUR 78M 38 Motivo de la llamada: cliente se para solicitar cancelacion de servicio</t>
   </si>
   <si>
     <t>MDM-PQR-36781656</t>
   </si>
   <si>
-    <t>Linea:6014491929 Nombre de quien se comunica:JOHAN SEBASTIAN MARTINEZ CARDOSO   C√©dula: 1233511768 N√∫mero de contacto: 3245942079   Email:    sijohan4@gmail.com   Direcci√≥n: KR 69D 4 31 SUR CA 119 Motivo de la llamada:retiro de hbo max</t>
+    <t>Linea:6014491929 Nombre de quien se comunica:JOHAN SEBASTIAN MARTINEZ CARDOSO   Cédula: 1233511768 Número de contacto: 3245942079   Email:    sijohan4@gmail.com   Dirección: KR 69D 4 31 SUR CA 119 Motivo de la llamada:retiro de hbo max</t>
   </si>
   <si>
     <t>MDM-PQR-36782424</t>
   </si>
   <si>
-    <t>L√≠nea:  Nombre: SORANNY MURGAS BOLA√ëO   C√©dula: 39142961 E-mail: SORANY25JUANPABLO@GMAIL.COM   Celular: 3209788500   Direcci√≥n: KR 110 22K 23 Motivo: Cliente solicita cancelaci√≥n del servicio hogar por el incremento</t>
+    <t>Línea:  Nombre: SORANNY MURGAS BOLAÑO   Cédula: 39142961 E-mail: SORANY25JUANPABLO@GMAIL.COM   Celular: 3209788500   Dirección: KR 110 22K 23 Motivo: Cliente solicita cancelación del servicio hogar por el incremento</t>
   </si>
   <si>
     <t>MDM-PQR-36790638</t>
   </si>
   <si>
-    <t>L√≠nea: 6016312537 Nombre:  GERMAN JARAMILLO C√©dula: 1019054741 Celular: 3167429916 Direcci√≥n: CL 118 21 05 AP 202       Correo:  germancho.jara@gmail.com    Motivo de la llamada: Solicita confirmar el plan ofrecido por retenciones ya que le hicieron un descuento y desea aplicar la tarifa de las 300</t>
+    <t>Línea: 6016312537 Nombre:  GERMAN JARAMILLO Cédula: 1019054741 Celular: 3167429916 Dirección: CL 118 21 05 AP 202       Correo:  germancho.jara@gmail.com    Motivo de la llamada: Solicita confirmar el plan ofrecido por retenciones ya que le hicieron un descuento y desea aplicar la tarifa de las 300</t>
   </si>
   <si>
     <t>MDM-PQR-36791136</t>
@@ -5492,7 +5509,7 @@
     <t>MDM-PQR-36796109</t>
   </si>
   <si>
-    <t>SG//LT: 6012009187 cuenta 12054246203// Cliente pide ajuste de la factura, indica venia solicitando el retiro del servicio de DirecTVGO ya que no fue posible porque su c√©dula estaba bloqueada. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el retiro del servicio de DirecTVGO desde 16/11/2022 bajo orden MDM-FIBRA-010459867 de RETIRO_BUNDLE_AUXILIAR (RBA) del d√≠a 15/11/2022. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $246,170 incluido IVA. VALOR REAL AJUSTE: $246,170 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
+    <t>SG//LT: 6012009187 cuenta 12054246203// Cliente pide ajuste de la factura, indica venia solicitando el retiro del servicio de DirecTVGO ya que no fue posible porque su cédula estaba bloqueada. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain el retiro del servicio de DirecTVGO desde 16/11/2022 bajo orden MDM-FIBRA-010459867 de RETIRO_BUNDLE_AUXILIAR (RBA) del día 15/11/2022. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $246,170 incluido IVA. VALOR REAL AJUSTE: $246,170 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
   </si>
   <si>
     <t>MDM-PQR-36796764</t>
@@ -5504,19 +5521,19 @@
     <t>MDM-PQR-36796951</t>
   </si>
   <si>
-    <t>L√≠nea:6016408891   Nombre de quien se comunica:JOSE ALFREDO SEGURA BERNAL   C√©dula:79880896 N√∫mero de contacto:3176431443 Email:JSEGURA.10@HOTMAIL.COM  Direcci√≥n:CL 144 127C 62 IN 20 AP 202  Motivo de la llamada:  EL CLIENTE SE COMUNICA POR EL ALTO COSTO DE SU FACTURA  Y DESEA RETIRAR LOS BONDUL AUXILIARES COMO PARAMON+ Y HBO MAX  YA QUE EL CLIENTE NO LE INTERESA</t>
+    <t>Línea:6016408891   Nombre de quien se comunica:JOSE ALFREDO SEGURA BERNAL   Cédula:79880896 Número de contacto:3176431443 Email:JSEGURA.10@HOTMAIL.COM  Dirección:CL 144 127C 62 IN 20 AP 202  Motivo de la llamada:  EL CLIENTE SE COMUNICA POR EL ALTO COSTO DE SU FACTURA  Y DESEA RETIRAR LOS BONDUL AUXILIARES COMO PARAMON+ Y HBO MAX  YA QUE EL CLIENTE NO LE INTERESA</t>
   </si>
   <si>
     <t>MDM-PQR-36799558</t>
   </si>
   <si>
-    <t>nit 901413826 nombre COMPA√ëIA DE ADMINISTRACION EMPRESARIAL Y FINANCIERA DE COLOMBIA S.A.S   EL MOTIVO DE LA LLAMADA EL CLIENTE LLAMA PARA PARA RETIRRA LOS SVA ADICIONALES COMO LIONGAS HBO+ Y DIRECTIVY</t>
+    <t>nit 901413826 nombre COMPAÑIA DE ADMINISTRACION EMPRESARIAL Y FINANCIERA DE COLOMBIA S.A.S   EL MOTIVO DE LA LLAMADA EL CLIENTE LLAMA PARA PARA RETIRRA LOS SVA ADICIONALES COMO LIONGAS HBO+ Y DIRECTIVY</t>
   </si>
   <si>
     <t>MDM-PQR-36802998</t>
   </si>
   <si>
-    <t>Cliente se contacta porque indica que su factura increment√≥ sin previo aviso.</t>
+    <t>Cliente se contacta porque indica que su factura incrementó sin previo aviso.</t>
   </si>
   <si>
     <t>MDM-PQR-36803813</t>
@@ -5534,7 +5551,7 @@
     <t>MDM-PQR-36807193</t>
   </si>
   <si>
-    <t>Cliente indica que el  3181282022 llam√≥ para cancelar servicios que tiene con etb y un asesor le atendi√≥ y le dijo con n√∫mero de radicad con una tarifa preferencial para que no se retirara, la tarifa fue por  pero en el mes de enero no se vi√≥ reflejado  147,700 la cual no fue lo acordado 4347220005010078</t>
+    <t>Cliente indica que el  3181282022 llamó para cancelar servicios que tiene con etb y un asesor le atendió y le dijo con número de radicad con una tarifa preferencial para que no se retirara, la tarifa fue por  pero en el mes de enero no se vió reflejado  147,700 la cual no fue lo acordado 4347220005010078</t>
   </si>
   <si>
     <t>MDM-PQR-36809836</t>
@@ -5558,7 +5575,7 @@
     <t>MDM-PQR-36817906</t>
   </si>
   <si>
-    <t>NOMBRE: ANGELA GAITAN CARDONA (EDUARDO RUBIANO CC: 19459034)  CC: 51836300 TEL: 6016268020 CTA: 8734966 DIR: CL 128 18 47 AP 401 CEL: 3174306821 CORREO: angean16@yahoo.com OBSERVACI√ìN: CLIENTE SOLICITA INF DE LA FACT</t>
+    <t>NOMBRE: ANGELA GAITAN CARDONA (EDUARDO RUBIANO CC: 19459034)  CC: 51836300 TEL: 6016268020 CTA: 8734966 DIR: CL 128 18 47 AP 401 CEL: 3174306821 CORREO: angean16@yahoo.com OBSERVACIÓN: CLIENTE SOLICITA INF DE LA FACT</t>
   </si>
   <si>
     <t>MDM-PQR-36819313</t>
@@ -5570,7 +5587,7 @@
     <t>MDM-PQR-36821239</t>
   </si>
   <si>
-    <t>NOMBRE: RICARDO TORRES VILLAREAL (MARLYN LEGUIZAMON CC: 1013611887) CC: 79924216 TEL: 6012173686  CTA: 12053916433 DIR: KR 27A 1C 44 CEL: 3194923433 CORREO: tejidosmodana@hotmail.com  OBSERVACI√ìN: CLIENTE SOLICITA INF DE LA FACT</t>
+    <t>NOMBRE: RICARDO TORRES VILLAREAL (MARLYN LEGUIZAMON CC: 1013611887) CC: 79924216 TEL: 6012173686  CTA: 12053916433 DIR: KR 27A 1C 44 CEL: 3194923433 CORREO: tejidosmodana@hotmail.com  OBSERVACIÓN: CLIENTE SOLICITA INF DE LA FACT</t>
   </si>
   <si>
     <t>MDM-PQR-36821617</t>
@@ -5582,13 +5599,13 @@
     <t>MDM-PQR-36821868</t>
   </si>
   <si>
-    <t>cliente consulta por que su factura est√° por un valor mas alto</t>
+    <t>cliente consulta por que su factura está por un valor mas alto</t>
   </si>
   <si>
     <t>MDM-PQR-36823846</t>
   </si>
   <si>
-    <t>03/02/2023 10:17:13 a. m.//JUAN MIGUEL OSUNA 1020790630//Cliente se comunica porque le llego factura aunque solicito cancelaci√≥n</t>
+    <t>03/02/2023 10:17:13 a. m.//JUAN MIGUEL OSUNA 1020790630//Cliente se comunica porque le llego factura aunque solicito cancelación</t>
   </si>
   <si>
     <t>MDM-PQR-36825084</t>
@@ -5627,7 +5644,7 @@
     <t>MDM-PQR-36828286</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: WILLIAM DAVID OTALVARO HERNZANDEZ   C√©dula:  1020823020 N√∫mero de contacto:3022919837  Email:samphotolu15@gmail.com   Direcci√≥n:CL 188A 12 66  Motivo de la llamada: CLIENTE SE CUMUNICA SOLCIITANDO INF DE ESTADO DE FACTURA</t>
+    <t>Nombre de quien se comunica: WILLIAM DAVID OTALVARO HERNZANDEZ   Cédula:  1020823020 Número de contacto:3022919837  Email:samphotolu15@gmail.com   Dirección:CL 188A 12 66  Motivo de la llamada: CLIENTE SE CUMUNICA SOLCIITANDO INF DE ESTADO DE FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-36828433</t>
@@ -5660,25 +5677,25 @@
     <t>MDM-PQR-36832365</t>
   </si>
   <si>
-    <t>Cliente: Me est√°n cobrando once mil pesos de m√°s del plan adquirido y quiero conocer el motivo//  Judy Julieth Ram√≠rez Ruiz cc: 1030608130 tel. 6016752419 cel. 3112845492-3213305963 Jjramirezr@educacionbogota.edu.co</t>
+    <t>Cliente: Me están cobrando once mil pesos de más del plan adquirido y quiero conocer el motivo//  Judy Julieth Ramírez Ruiz cc: 1030608130 tel. 6016752419 cel. 3112845492-3213305963 Jjramirezr@educacionbogota.edu.co</t>
   </si>
   <si>
     <t>MDM-PQR-36833761</t>
   </si>
   <si>
-    <t>"L√≠nea: 6012743993 Nombre de quien se comunica: MARGOT RUBIANO ROZO C√©dula: 35518937 N√∫mero de contacto: 3153541994  Email: margotrubiano@hotmail.com Direcci√≥n: KR 20 128B 88 IN 8 Motivo de la llamada: cliente indica le ofrecieron un descuento y no le han realizar ajuste tiene radicado MDM-PQR-36685487</t>
+    <t>"Línea: 6012743993 Nombre de quien se comunica: MARGOT RUBIANO ROZO Cédula: 35518937 Número de contacto: 3153541994  Email: margotrubiano@hotmail.com Dirección: KR 20 128B 88 IN 8 Motivo de la llamada: cliente indica le ofrecieron un descuento y no le han realizar ajuste tiene radicado MDM-PQR-36685487</t>
   </si>
   <si>
     <t>MDM-PQR-36834248</t>
   </si>
   <si>
-    <t>"L√≠nea: Nombre de quien se comunica: DIEGO FERNANDO BOBADILLA SEGURA   C√©dula: 80762273   N√∫mero de contacto: Email:diegofernandobobadillasegura@gmail.com   Direcci√≥n: AK 80 42C 08 SUR Motivo de la llamada:."  CONCEPTOS DE FACTURACION</t>
+    <t>"Línea: Nombre de quien se comunica: DIEGO FERNANDO BOBADILLA SEGURA   Cédula: 80762273   Número de contacto: Email:diegofernandobobadillasegura@gmail.com   Dirección: AK 80 42C 08 SUR Motivo de la llamada:."  CONCEPTOS DE FACTURACION</t>
   </si>
   <si>
     <t>MDM-PQR-36834691</t>
   </si>
   <si>
-    <t>L√≠nea: 6012006571  Nombre: MARIA DEL PILAR GUTIERREZ CALDAS  C√©dula: 51794841 Cel: 3142760780  Correo: cgutierrezpilar@hotmail.com  Direcci√≥n: CL 169 48A 31 BQ 3 AP 111  Motivo De Llamada: No le llega la factura por el valor acordado</t>
+    <t>Línea: 6012006571  Nombre: MARIA DEL PILAR GUTIERREZ CALDAS  Cédula: 51794841 Cel: 3142760780  Correo: cgutierrezpilar@hotmail.com  Dirección: CL 169 48A 31 BQ 3 AP 111  Motivo De Llamada: No le llega la factura por el valor acordado</t>
   </si>
   <si>
     <t>MDM-PQR-36835710</t>
@@ -5690,31 +5707,31 @@
     <t>MDM-PQR-36837262</t>
   </si>
   <si>
-    <t>SG//LT: 6013089878 cuenta 12054087441//Cliente radica queja el 26/12/2022 bajo CUN 4347220004977747    1. Escucha de la llamada , 2. Ajuste respectivo de la factura. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $34,840, incluido IVA, VALOR REAL AJUSTE $34,840 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6013089878 cuenta 12054087441//Cliente radica queja el 26/12/2022 bajo CUN 4347220004977747    1. Escucha de la llamada , 2. Ajuste respectivo de la factura. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $34,840, incluido IVA, VALOR REAL AJUSTE $34,840 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36837886</t>
   </si>
   <si>
-    <t>SG//LT: 6017619369 cuenta 12054336750// cliente solicita ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, se evidencia AJUSTE BAJO LEY DE FAVORABILIDAD reteniendo al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0 /AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017619369 cuenta 12054336750// cliente solicita ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, se evidencia AJUSTE BAJO LEY DE FAVORABILIDAD reteniendo al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0 /AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36838789</t>
   </si>
   <si>
-    <t>LINEA:6015664949 NOMBRE DE QUIEN SE COMUNICA:LUZ NEIDA NI√ëO SALCEDO   CEDULA: 30187484 NUMERO DE CONTACTO</t>
+    <t>LINEA:6015664949 NOMBRE DE QUIEN SE COMUNICA:LUZ NEIDA NIÑO SALCEDO   CEDULA: 30187484 NUMERO DE CONTACTO</t>
   </si>
   <si>
     <t>MDM-PQR-36839563</t>
   </si>
   <si>
-    <t>LINEA ESPECIAL // CARLOS JULIO // 2:47 p.¬†m., 2/2/2023] Carlos Julio: Hola Carlos Julio [2:47 p.¬†m., 2/2/2023] Carlos Julio: Me ayuda con este referido de Alex que quiere que le act√≠venos la tv [2:47 p.¬†m., 2/2/2023] Carlos Julio: Necesito tomar adicional a los servicios de internet y telefon√≠a, televisi√≥n. Pero me dicen que solo aplica a clientes nuevos [2:47 p.¬†m., 2/2/2023] Carlos Julio: Sandra Ferreira 3164434239 [2:47 p.¬†m., 2/2/2023] Carlos Julio: Ay√∫dame a que Jose meta la tv</t>
+    <t>LINEA ESPECIAL // CARLOS JULIO // 2:47 p. m., 2/2/2023] Carlos Julio: Hola Carlos Julio [2:47 p. m., 2/2/2023] Carlos Julio: Me ayuda con este referido de Alex que quiere que le actívenos la tv [2:47 p. m., 2/2/2023] Carlos Julio: Necesito tomar adicional a los servicios de internet y telefonía, televisión. Pero me dicen que solo aplica a clientes nuevos [2:47 p. m., 2/2/2023] Carlos Julio: Sandra Ferreira 3164434239 [2:47 p. m., 2/2/2023] Carlos Julio: Ayúdame a que Jose meta la tv</t>
   </si>
   <si>
     <t>MDM-PQR-36840067</t>
   </si>
   <si>
-    <t>SG//LT: 6016792742 cuenta 12054067519// cliente solicita ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia RF-001386175 del d√≠a 20/01/2023 reteniendo al usuario. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0 /AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016792742 cuenta 12054067519// cliente solicita ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia RF-001386175 del día 20/01/2023 reteniendo al usuario. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $26,000 incluido IVA. VALOR REAL AJUSTE: $26,000 incluido IVA. DIFERENCIA $0 /AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36840791</t>
@@ -5726,7 +5743,7 @@
     <t>MDM-PQR-36843320</t>
   </si>
   <si>
-    <t>EDIFICIO OPTIMUS APARTMENTS 901472808 NIT 6013777777 3057999999 optimus.admon2020@gmail.com CALLE 61 NUMERO 9A-39 cancelaci√≥n</t>
+    <t>EDIFICIO OPTIMUS APARTMENTS 901472808 NIT 6013777777 3057999999 optimus.admon2020@gmail.com CALLE 61 NUMERO 9A-39 cancelación</t>
   </si>
   <si>
     <t>MDM-PQR-36843827</t>
@@ -5750,7 +5767,7 @@
     <t>MDM-PQR-36850921</t>
   </si>
   <si>
-    <t>Cliente no esta conforme con el cobro generado en su factura sobre mes de enero , cliente menciona que gener√≥ su pago la semana pasada  y quiere sabre porque tiene un nuevo cobro</t>
+    <t>Cliente no esta conforme con el cobro generado en su factura sobre mes de enero , cliente menciona que generó su pago la semana pasada  y quiere sabre porque tiene un nuevo cobro</t>
   </si>
   <si>
     <t>MDM-PQR-36850941</t>
@@ -5762,19 +5779,19 @@
     <t>MDM-PQR-36851877</t>
   </si>
   <si>
-    <t>"L√≠nea: 6012886717 Nombre de quien se comunica: EMINEN MARTINEZ CHAVEZ  C√©dula: 1193566564 N√∫mero de contacto: 3116623770 Email: eminenmartinez2412@gmail.com Direcci√≥n: KR 78B 47A 47 SUR Motivo de la llamada: cliente indica QUIERE CANCELAR EL SERVICIO POR COSTOS</t>
+    <t>"Línea: 6012886717 Nombre de quien se comunica: EMINEN MARTINEZ CHAVEZ  Cédula: 1193566564 Número de contacto: 3116623770 Email: eminenmartinez2412@gmail.com Dirección: KR 78B 47A 47 SUR Motivo de la llamada: cliente indica QUIERE CANCELAR EL SERVICIO POR COSTOS</t>
   </si>
   <si>
     <t>MDM-PQR-36854269</t>
   </si>
   <si>
-    <t>L√≠nea: 6017293962 Nombre: ANA JOAQUINA LAITON ORTIZ  C√©dula: 39668215 Cel: 3177648190  Correo: juanse_56@hotmail.com Direcci√≥n: AC 45 22 18 OF 504  Motivo De Llamada: Indica q la factura le llega errada</t>
+    <t>Línea: 6017293962 Nombre: ANA JOAQUINA LAITON ORTIZ  Cédula: 39668215 Cel: 3177648190  Correo: juanse_56@hotmail.com Dirección: AC 45 22 18 OF 504  Motivo De Llamada: Indica q la factura le llega errada</t>
   </si>
   <si>
     <t>MDM-PQR-36856931</t>
   </si>
   <si>
-    <t>NOMBRE: Angie Toro CC: 1006774019 LINEA: 3208430927 MOTIVO DE LA LLAMADA: cliente con facturaci√≥n mas costosa</t>
+    <t>NOMBRE: Angie Toro CC: 1006774019 LINEA: 3208430927 MOTIVO DE LA LLAMADA: cliente con facturación mas costosa</t>
   </si>
   <si>
     <t>MDM-PQR-36858017</t>
@@ -5798,7 +5815,7 @@
     <t>MDM-PQR-36862939</t>
   </si>
   <si>
-    <t>L√≠nea:6013203481 Nombre de quien se comunica:RUBIELA ARIAS TOVAR  C√©dula:52065121 N√∫mero de contacto:3144005524 Email:marcelita_204_@hotmail.com Direcci√≥n:CL 87C SUR 9 04 ESTE Motivo de la llamada:Cliente manifiesta inconformidad por incremento de la resolucion, manifiesta intencion de cancelacion.</t>
+    <t>Línea:6013203481 Nombre de quien se comunica:RUBIELA ARIAS TOVAR  Cédula:52065121 Número de contacto:3144005524 Email:marcelita_204_@hotmail.com Dirección:CL 87C SUR 9 04 ESTE Motivo de la llamada:Cliente manifiesta inconformidad por incremento de la resolucion, manifiesta intencion de cancelacion.</t>
   </si>
   <si>
     <t>MDM-PQR-36864656</t>
@@ -5822,19 +5839,19 @@
     <t>MDM-PQR-36883896</t>
   </si>
   <si>
-    <t>Juan Pardo 1032500809 6016799930 3209999999 documentosdigitales@etb.com.co//Cliente se comunica porque le llego factura aun que realizo cancelaci√≥n del servicio</t>
+    <t>Juan Pardo 1032500809 6016799930 3209999999 documentosdigitales@etb.com.co//Cliente se comunica porque le llego factura aun que realizo cancelación del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-36884357</t>
   </si>
   <si>
-    <t>cliente indica lleva mas de 30 anos con el servicio, no se puede escribir la palabra correctamente. Y necesita proceso de retenci√≥n, que le bajen a la factura o que le quiten incremento de ley lo cual para el asesor no es posible, solicita un ajuste</t>
+    <t>cliente indica lleva mas de 30 anos con el servicio, no se puede escribir la palabra correctamente. Y necesita proceso de retención, que le bajen a la factura o que le quiten incremento de ley lo cual para el asesor no es posible, solicita un ajuste</t>
   </si>
   <si>
     <t>MDM-PQR-36885552</t>
   </si>
   <si>
-    <t>Linea:6017631599 Nombre de quien se comunica:SUSANA RODRIGUEZ ESCOBAR   C√©dula: 21060841 N√∫mero de contacto: 3214953223 Email:    susurodriguez563@gmail.com   Direcci√≥n: CL 63 SUR 70D 75 BQ 4 AP 603 Motivo de la llamada: cliente se comunica que le llega incrementada se factura</t>
+    <t>Linea:6017631599 Nombre de quien se comunica:SUSANA RODRIGUEZ ESCOBAR   Cédula: 21060841 Número de contacto: 3214953223 Email:    susurodriguez563@gmail.com   Dirección: CL 63 SUR 70D 75 BQ 4 AP 603 Motivo de la llamada: cliente se comunica que le llega incrementada se factura</t>
   </si>
   <si>
     <t>MDM-PQR-36886915</t>
@@ -5846,19 +5863,19 @@
     <t>MDM-PQR-36887577</t>
   </si>
   <si>
-    <t>L√≠nea: 6016159225 / 12053874177 Nombre de quien se comunica: YOMARY MILA MILA SUAREZ   CC. 52375645   N√∫mero de contacto:  3208421997   Email: nicolasgomezmila@gmail.com   Direcci√≥n: TV 73 11B 33 BQ 1 IN 2 AP 502 Motivo de la llamada: SOLICITO CANCELACION LA SEMANA PASADA Y DESEA RETRACTARSE.  SERVICIO ACTIVO // SOLICITA CAMBIO DE PLAN</t>
+    <t>Línea: 6016159225 / 12053874177 Nombre de quien se comunica: YOMARY MILA MILA SUAREZ   CC. 52375645   Número de contacto:  3208421997   Email: nicolasgomezmila@gmail.com   Dirección: TV 73 11B 33 BQ 1 IN 2 AP 502 Motivo de la llamada: SOLICITO CANCELACION LA SEMANA PASADA Y DESEA RETRACTARSE.  SERVICIO ACTIVO // SOLICITA CAMBIO DE PLAN</t>
   </si>
   <si>
     <t>MDM-PQR-36888339</t>
   </si>
   <si>
-    <t>R000-Se ha presentado un error interno en el servidor. Reint√©ntalo m√°s tarde</t>
+    <t>R000-Se ha presentado un error interno en el servidor. Reinténtalo más tarde</t>
   </si>
   <si>
     <t>MDM-PQR-36888508</t>
   </si>
   <si>
-    <t>SG//LT: 6016554306 cuenta 675298117//Cliente radica queja el 29/12/2022 bajo CUN 4347220004999496,1. Se le, realice la devoluci√≥n de dinero y 2. Que se le expida paz y salvo para evitar que se sigan generando cobros. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $46,580, incluido IVA, VALOR REAL AJUSTE $46,580 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6016554306 cuenta 675298117//Cliente radica queja el 29/12/2022 bajo CUN 4347220004999496,1. Se le, realice la devolución de dinero y 2. Que se le expida paz y salvo para evitar que se sigan generando cobros. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $46,580, incluido IVA, VALOR REAL AJUSTE $46,580 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36888580</t>
@@ -5882,25 +5899,25 @@
     <t>MDM-PQR-36893486</t>
   </si>
   <si>
-    <t>L√≠nea: 6016774292  Nombre de quien se comunica: JUAN DAVID VARGAS PINZON   C√©dula: 1001216709   N√∫mero de contacto: 3133236087   Email: jvargaspinzon13@gmail.com   Direcci√≥n: CL 22C 73 64 IN 2 AP 705 Motivo de la llamada: CLIENTE SE COMUNICA INDICANDO QUE NO LE GENERARON DTO POR BENEFICIO POR RETENCION// CLIENTE CON PROCESO DE TRASLADO // PERDIO BENEFICIO // SOLCITA CANCELACION</t>
+    <t>Línea: 6016774292  Nombre de quien se comunica: JUAN DAVID VARGAS PINZON   Cédula: 1001216709   Número de contacto: 3133236087   Email: jvargaspinzon13@gmail.com   Dirección: CL 22C 73 64 IN 2 AP 705 Motivo de la llamada: CLIENTE SE COMUNICA INDICANDO QUE NO LE GENERARON DTO POR BENEFICIO POR RETENCION// CLIENTE CON PROCESO DE TRASLADO // PERDIO BENEFICIO // SOLCITA CANCELACION</t>
   </si>
   <si>
     <t>MDM-PQR-36894209</t>
   </si>
   <si>
-    <t>L√≠nea:  Nombre de quien se comunica: DANIEL ESTEBAN LEON CARO   CC. 1016034231 N√∫mero de contacto: 3017527157   Email: danes.leon@hotmail.com   Direcci√≥n:  CL 129 54 75 IN 2 AP 504 Motivo de la llamada: NECESITA CONOCER LOS MESES PROMOCIONALES DE SU SERVICIO.</t>
+    <t>Línea:  Nombre de quien se comunica: DANIEL ESTEBAN LEON CARO   CC. 1016034231 Número de contacto: 3017527157   Email: danes.leon@hotmail.com   Dirección:  CL 129 54 75 IN 2 AP 504 Motivo de la llamada: NECESITA CONOCER LOS MESES PROMOCIONALES DE SU SERVICIO.</t>
   </si>
   <si>
     <t>MDM-PQR-36900666</t>
   </si>
   <si>
-    <t>Linea:6017189730 Nombre de quien se comunica:JENNIFER ANDREA CARDENAS ROYERO   C√©dula: 1030528851 N√∫mero de contacto: 3187346975   Email:    jennifercardenasroyero@hotmail.com   Direcci√≥n: CL 168 65 82 IN 3 AP 103 Motivo de la llamada: cliente se comunica que se le esta cobrando servicio de hbo pack cuando se le ofrecio 2 a√±os gratis</t>
+    <t>Linea:6017189730 Nombre de quien se comunica:JENNIFER ANDREA CARDENAS ROYERO   Cédula: 1030528851 Número de contacto: 3187346975   Email:    jennifercardenasroyero@hotmail.com   Dirección: CL 168 65 82 IN 3 AP 103 Motivo de la llamada: cliente se comunica que se le esta cobrando servicio de hbo pack cuando se le ofrecio 2 años gratis</t>
   </si>
   <si>
     <t>MDM-PQR-36900993</t>
   </si>
   <si>
-    <t>SG//LT: 6016870591 cuenta 12053196633// Cliente pide ajuste de la factura, indica se le ofreci√≥ PROMOCI√ìN DESCUENTO 100% PRORRATEO + 50% MESES 1,3,5,7 FTTH por orden de CAMBIO_TECNOLOG√çA_MIGRADO (CCTEC) bajo MDM-FIBRA-008265568 del d√≠a 21/04/2022. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia se aplica descuento del 50% hasta el mes de agosto 2022 faltando el ultimo mes 7 de la oferta escalonada seria el mes de octubre, pero se evidencia reclamaci√≥n del d√≠a 19/12/2022 y as√≠ donde asesor procede a realizar ajuste a la factura . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $37,450 incluido IVA. VALOR REAL AJUSTE: $37,450 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
+    <t>SG//LT: 6016870591 cuenta 12053196633// Cliente pide ajuste de la factura, indica se le ofreció PROMOCIÓN DESCUENTO 100% PRORRATEO + 50% MESES 1,3,5,7 FTTH por orden de CAMBIO_TECNOLOGÍA_MIGRADO (CCTEC) bajo MDM-FIBRA-008265568 del día 21/04/2022. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia se aplica descuento del 50% hasta el mes de agosto 2022 faltando el ultimo mes 7 de la oferta escalonada seria el mes de octubre, pero se evidencia reclamación del día 19/12/2022 y así donde asesor procede a realizar ajuste a la factura . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $37,450 incluido IVA. VALOR REAL AJUSTE: $37,450 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
   </si>
   <si>
     <t>MDM-PQR-36901520</t>
@@ -5924,19 +5941,19 @@
     <t>MDM-PQR-36903833</t>
   </si>
   <si>
-    <t>SG//LT: 6012797519 cuenta 7807097891//Cliente pide ajuste de la factura, ya que indica se le ofreci√≥ una oferta de $54,900. SOLUCI√ìN DE ASEGURAMIENTO: se deja caso en seguimiento 06/02/2023, ya que se evidencia orden de CAMBIO_TECNOLOG√çA (CTEC) bajo MDM-FIBRA-011188678 del d√≠a 04/02/2023 con Fecha Agenda: 11/02/2023 . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $21,100 incluido IVA. VALOR REAL AJUSTE: $21,100 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012797519 cuenta 7807097891//Cliente pide ajuste de la factura, ya que indica se le ofreció una oferta de $54,900. SOLUCIÓN DE ASEGURAMIENTO: se deja caso en seguimiento 06/02/2023, ya que se evidencia orden de CAMBIO_TECNOLOGÍA (CTEC) bajo MDM-FIBRA-011188678 del día 04/02/2023 con Fecha Agenda: 11/02/2023 . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $21,100 incluido IVA. VALOR REAL AJUSTE: $21,100 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36904761</t>
   </si>
   <si>
-    <t>ALLISON NICOL ACU√ëA FONTECHA  1000125062  3106787594 6016422396   12054625654  TV 78N BIS 50 26 SUR Llamo el 18 de enero para cancelar los servicio de hbo y paramount  y se los estan cobrando</t>
+    <t>ALLISON NICOL ACUÑA FONTECHA  1000125062  3106787594 6016422396   12054625654  TV 78N BIS 50 26 SUR Llamo el 18 de enero para cancelar los servicio de hbo y paramount  y se los estan cobrando</t>
   </si>
   <si>
     <t>MDM-PQR-36904785</t>
   </si>
   <si>
-    <t>SG//LT: 6013119298 cuenta 675945726// Cliente pide ajuste de la factura, indica que el 22/11/2022 bajo RF-001312459 se le ofreci√≥ oferta. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia oferta de 89,900 y cargos correctos en revchain . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $96,139 incluido IVA. VALOR REAL AJUSTE: $963,139 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
+    <t>SG//LT: 6013119298 cuenta 675945726// Cliente pide ajuste de la factura, indica que el 22/11/2022 bajo RF-001312459 se le ofreció oferta. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia oferta de 89,900 y cargos correctos en revchain . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $96,139 incluido IVA. VALOR REAL AJUSTE: $963,139 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO .</t>
   </si>
   <si>
     <t>MDM-PQR-36906286</t>
@@ -5954,7 +5971,7 @@
     <t>MDM-PQR-36913721</t>
   </si>
   <si>
-    <t>WhatsApp // Cliente se comunica para hacer cancelaci√≥n de servicios adicionales.</t>
+    <t>WhatsApp // Cliente se comunica para hacer cancelación de servicios adicionales.</t>
   </si>
   <si>
     <t>MDM-PQR-36915662</t>
@@ -5972,13 +5989,13 @@
     <t>MDM-PQR-36916875</t>
   </si>
   <si>
-    <t>EVELIA CARRE√ëO LIZARAZO  23574186 CC  6017620715  3124807533  ysepulveda1998@hotmail.com 12054128969  TV 78N BIS 50 53 SUR El plan de ella era de 50 mil y se incremento el valor en 6 mil mas</t>
+    <t>EVELIA CARREÑO LIZARAZO  23574186 CC  6017620715  3124807533  ysepulveda1998@hotmail.com 12054128969  TV 78N BIS 50 53 SUR El plan de ella era de 50 mil y se incremento el valor en 6 mil mas</t>
   </si>
   <si>
     <t>MDM-PQR-36917050</t>
   </si>
   <si>
-    <t>"L√≠nea:6012161699 Nombre de quien se comunica: AURORA PINEDA RODRIGUEZ   C√©dula:40038728 N√∫mero de contacto:3208929612 Email: auris0725@yahoo.es Direcci√≥n: CL 144 13 15 IN 3 AP 303 Motivo de la llamada: Usuario manifiesta inconformidad solo cambio de plan, para dejar solo el servicio de internet, bajo n√∫mero de radicado MDM-PQR-36500789, sin embargo, no efectuaron dicho cambio. ."</t>
+    <t>"Línea:6012161699 Nombre de quien se comunica: AURORA PINEDA RODRIGUEZ   Cédula:40038728 Número de contacto:3208929612 Email: auris0725@yahoo.es Dirección: CL 144 13 15 IN 3 AP 303 Motivo de la llamada: Usuario manifiesta inconformidad solo cambio de plan, para dejar solo el servicio de internet, bajo número de radicado MDM-PQR-36500789, sin embargo, no efectuaron dicho cambio. ."</t>
   </si>
   <si>
     <t>MDM-PQR-36917258</t>
@@ -5990,7 +6007,7 @@
     <t>MDM-PQR-36920076</t>
   </si>
   <si>
-    <t>linea :  6013460950 nombre :    OSCAR ANTONIO MU√ëOZ MONCADA   cedula : 80211136 numero : 3217010337 email : oamm420@gmail.com   direccion :  KR 68D 64F 34 BQ 16 EN 3 AP 302 motivo : se comunica ya que quiere hacer la cancelacion del win sports</t>
+    <t>linea :  6013460950 nombre :    OSCAR ANTONIO MUÑOZ MONCADA   cedula : 80211136 numero : 3217010337 email : oamm420@gmail.com   direccion :  KR 68D 64F 34 BQ 16 EN 3 AP 302 motivo : se comunica ya que quiere hacer la cancelacion del win sports</t>
   </si>
   <si>
     <t>MDM-PQR-36922075</t>
@@ -6038,13 +6055,13 @@
     <t>MDM-PQR-36936343</t>
   </si>
   <si>
-    <t>Line: 6017649031 ?? Who¬¥s calling Name: CESAR ALFREDO ALVARADO GARCIA   ?? ID Number:  19066018 ?? Contact Cellphone: 3158588253   ?? Email: ceort@hotmail.com   ?? Address:  CL 131 6 24 AP 503 ?? Call Motive: Cliente esta inconforme con el cobro de sus servicios.</t>
+    <t>Line: 6017649031 ?? Who´s calling Name: CESAR ALFREDO ALVARADO GARCIA   ?? ID Number:  19066018 ?? Contact Cellphone: 3158588253   ?? Email: ceort@hotmail.com   ?? Address:  CL 131 6 24 AP 503 ?? Call Motive: Cliente esta inconforme con el cobro de sus servicios.</t>
   </si>
   <si>
     <t>MDM-PQR-36936933</t>
   </si>
   <si>
-    <t>"L√≠nea:6014361217 ¬† Nombre de quien se comunica:JOHANA C√©dula:19127359 N√∫mero de contacto:3102900468 ¬† Email:johanamor_10@hotmail.com ¬† Direcci√≥n:KR 72A 64J 29¬† Motivo de la llamada:OFERTA EN $37,000."</t>
+    <t>"Línea:6014361217   Nombre de quien se comunica:JOHANA Cédula:19127359 Número de contacto:3102900468   Email:johanamor_10@hotmail.com   Dirección:KR 72A 64J 29  Motivo de la llamada:OFERTA EN $37,000."</t>
   </si>
   <si>
     <t>MDM-PQR-36940685</t>
@@ -6056,31 +6073,31 @@
     <t>MDM-PQR-36942401</t>
   </si>
   <si>
-    <t>L√≠nea: 6013081445 12054175360 Nombre de quien se comunica: MANUELA SALAZAR RAMOS   C√©dula:  1016103143   N√∫mero de contacto: 3042398724   Email: M_SALAZARR98@HOTMAIL.COM Motivo de la llamada: Cliente se comunica manifestando que presenta incrementos en su facturacion,  solicita la cancelacion</t>
+    <t>Línea: 6013081445 12054175360 Nombre de quien se comunica: MANUELA SALAZAR RAMOS   Cédula:  1016103143   Número de contacto: 3042398724   Email: M_SALAZARR98@HOTMAIL.COM Motivo de la llamada: Cliente se comunica manifestando que presenta incrementos en su facturacion,  solicita la cancelacion</t>
   </si>
   <si>
     <t>MDM-PQR-36942500</t>
   </si>
   <si>
-    <t>SG//LT: 6012185641 cuenta 12053997809//Cliente pide ajuste de la factura, indica que el 06/09/2022 bajo RF-001212117 se le ofreci√≥ RETENCI√ìN B√ÅSICA HOGARES / $ 50.000 /PERMANENTE). SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain descuento de 38,0000% parametrizado en revchain desde 17/01/2023, se evidencia servicio suspendido por pago. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $33,430 incluido IVA. VALOR REAL AJUSTE: $33,430 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012185641 cuenta 12053997809//Cliente pide ajuste de la factura, indica que el 06/09/2022 bajo RF-001212117 se le ofreció RETENCIÓN BÁSICA HOGARES / $ 50.000 /PERMANENTE). SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain descuento de 38,0000% parametrizado en revchain desde 17/01/2023, se evidencia servicio suspendido por pago. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $33,430 incluido IVA. VALOR REAL AJUSTE: $33,430 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36943321</t>
   </si>
   <si>
-    <t>SG//LT: 6012443408 cuenta 675558648//Cliente pide ajuste de la factura, indica se le ofreci√≥ oferta de $89,900. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain cargos por el valor de $89,900 y se evidencia el retiro del servicio de DirecTVGO desde 31/01/2023 bajo orden MDM-FIBRA-011096024 del d√≠a 28/01/2023. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $74,990 incluido IVA. VALOR REAL AJUSTE: $74,990 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6012443408 cuenta 675558648//Cliente pide ajuste de la factura, indica se le ofreció oferta de $89,900. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, ya que se evidencia en revchain cargos por el valor de $89,900 y se evidencia el retiro del servicio de DirecTVGO desde 31/01/2023 bajo orden MDM-FIBRA-011096024 del día 28/01/2023. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $74,990 incluido IVA. VALOR REAL AJUSTE: $74,990 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-36946173</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica:YANETH ROSALBA GONZALEZ TRIANA   C√©dula:52185892   N√∫mero de contacto:3133949894   Email:yanethrogonzalez@gmail.com  Direcci√≥n:AC 153 97B 30 IN G CA 10  Motivo de la llamada: pregunta si su hbo ya fue retirado y si en su proxima factura no se vera reflejado pero el retito va estar el 24 enero</t>
+    <t>Nombre de quien se comunica:YANETH ROSALBA GONZALEZ TRIANA   Cédula:52185892   Número de contacto:3133949894   Email:yanethrogonzalez@gmail.com  Dirección:AC 153 97B 30 IN G CA 10  Motivo de la llamada: pregunta si su hbo ya fue retirado y si en su proxima factura no se vera reflejado pero el retito va estar el 24 enero</t>
   </si>
   <si>
     <t>MDM-PQR-36946523</t>
   </si>
   <si>
-    <t>LINEA ESPECIAL // CARLOS JULIO // [7:36 a.¬†m., 8/2/2023] Carlos Julio: Buenos d√≠as. Tengo un problema desde el a√±o pasado con un cliente. Le vendimos un servicio y cancel√≥ otro y aunque le he ayudado var√≠as veces con la cancelaci√≥n le seguimos cobrando, te paso los datos para ver si me puedes ayudar a que no le cobremos m√°s y de ser posible le abonemos lo pagado de M√°s a su cuenta. [7:36 a.¬†m., 8/2/2023] Carlos Julio: La l√≠nea en cuesti√≥n es:  6017326938 A nombre de: Felipe de La Vega  Cc 79,983.584</t>
+    <t>LINEA ESPECIAL // CARLOS JULIO // [7:36 a. m., 8/2/2023] Carlos Julio: Buenos días. Tengo un problema desde el año pasado con un cliente. Le vendimos un servicio y canceló otro y aunque le he ayudado varías veces con la cancelación le seguimos cobrando, te paso los datos para ver si me puedes ayudar a que no le cobremos más y de ser posible le abonemos lo pagado de Más a su cuenta. [7:36 a. m., 8/2/2023] Carlos Julio: La línea en cuestión es:  6017326938 A nombre de: Felipe de La Vega  Cc 79,983.584</t>
   </si>
   <si>
     <t>MDM-PQR-36947551</t>
@@ -6104,7 +6121,7 @@
     <t>MDM-PQR-36951473</t>
   </si>
   <si>
-    <t>Nombre: Sebastian Escobar  Cedula: 1032422247 tel√©fono: 3176388004 Direcci√≥n: CL 104A 45A 60 AP 407  Motivo de llamada: Cliente se comunica para solicitar incremento de factura.</t>
+    <t>Nombre: Sebastian Escobar  Cedula: 1032422247 teléfono: 3176388004 Dirección: CL 104A 45A 60 AP 407  Motivo de llamada: Cliente se comunica para solicitar incremento de factura.</t>
   </si>
   <si>
     <t>MDM-PQR-36952176</t>
@@ -6116,13 +6133,13 @@
     <t>MDM-PQR-36957172</t>
   </si>
   <si>
-    <t>Cliente se contacta porque recibi√≥ factura y ya hab√≠a solicitado la cancelaci√≥n.</t>
+    <t>Cliente se contacta porque recibió factura y ya había solicitado la cancelación.</t>
   </si>
   <si>
     <t>MDM-PQR-36957326</t>
   </si>
   <si>
-    <t>L√≠nea: 6013546908 Nombre de quien se comunica: ADRIANA EDITH DELGADO ABRIL   C√©dula: 20391682   N√∫mero de contacto: 3124517058   Email: diegoalejandrog88@gmail.com   Direcci√≥n: CL 24F 85B 72 Motivo de la llamada: cliente desea ajuste de factura por hbo y paramount ya que le llego cobro</t>
+    <t>Línea: 6013546908 Nombre de quien se comunica: ADRIANA EDITH DELGADO ABRIL   Cédula: 20391682   Número de contacto: 3124517058   Email: diegoalejandrog88@gmail.com   Dirección: CL 24F 85B 72 Motivo de la llamada: cliente desea ajuste de factura por hbo y paramount ya que le llego cobro</t>
   </si>
   <si>
     <t>MDM-PQR-36957643</t>
@@ -6140,7 +6157,7 @@
     <t>MDM-PQR-36961383</t>
   </si>
   <si>
-    <t>Cliente NILSON JOSE NOVOA DIAZ C√©dula de Ciudadan√≠a 79644801 Id PQR MDM-PQR-36961383 L√≠nea: 6013229811 Cuenta de Facturaci√≥n: 12053649704 ID Servicio: SR-8816622</t>
+    <t>Cliente NILSON JOSE NOVOA DIAZ Cédula de Ciudadanía 79644801 Id PQR MDM-PQR-36961383 Línea: 6013229811 Cuenta de Facturación: 12053649704 ID Servicio: SR-8816622</t>
   </si>
   <si>
     <t>MDM-PQR-36961980</t>
@@ -6152,13 +6169,13 @@
     <t>MDM-PQR-36966705</t>
   </si>
   <si>
-    <t>NOMBRE: ERICK MICHAEL GARRIDO QUICAZA (LADY LOPEZ CC: 1023976062) CC: 80810703 TEL: 6013247419 CTA: 12054330638 DIR: KR 4 ESTE 27A 74 SUR CEL: 3208259840 CORREO: alejaleidy5@gmail.com OBSERVACI√ìN: CLIENTE SOLICITA INF FACT</t>
+    <t>NOMBRE: ERICK MICHAEL GARRIDO QUICAZA (LADY LOPEZ CC: 1023976062) CC: 80810703 TEL: 6013247419 CTA: 12054330638 DIR: KR 4 ESTE 27A 74 SUR CEL: 3208259840 CORREO: alejaleidy5@gmail.com OBSERVACIÓN: CLIENTE SOLICITA INF FACT</t>
   </si>
   <si>
     <t>MDM-PQR-36971185</t>
   </si>
   <si>
-    <t>L√≠nea: 6012105541 Nombre de quien se comunica: LUZ PAOLA LOPEZ C√©dula: 1073825940 N√∫mero de contacto: 3112197292   Email: judithpaez123@gmail.com Direcci√≥n: KR 87 86 77 Motivo de la llamada: Cliente se comunica para consultar aumento en factura</t>
+    <t>Línea: 6012105541 Nombre de quien se comunica: LUZ PAOLA LOPEZ Cédula: 1073825940 Número de contacto: 3112197292   Email: judithpaez123@gmail.com Dirección: KR 87 86 77 Motivo de la llamada: Cliente se comunica para consultar aumento en factura</t>
   </si>
   <si>
     <t>MDM-PQR-36971741</t>
@@ -6188,7 +6205,7 @@
     <t>MDM-PQR-36980490</t>
   </si>
   <si>
-    <t>L√≠nea: 6016738866 Nombre de quien se comunica: NANCY RAQUEL IBARRA PALACIOS   C√©dula: 52266819 Fecha de expedici√≥n: N√∫mero de contacto: 3178589929 Email: nvnccy@gmail.com  Direcci√≥n: KR 13A 28 21 TO A AP 1608 Motivo de la llamada: TITULAR INDICA QUE LA FACTURA 132.000 Y EL VALOR 87.900 ESO FUE LO ACORDADO. cancelo pat¬øramaunt + y HBO</t>
+    <t>Línea: 6016738866 Nombre de quien se comunica: NANCY RAQUEL IBARRA PALACIOS   Cédula: 52266819 Fecha de expedición: Número de contacto: 3178589929 Email: nvnccy@gmail.com  Dirección: KR 13A 28 21 TO A AP 1608 Motivo de la llamada: TITULAR INDICA QUE LA FACTURA 132.000 Y EL VALOR 87.900 ESO FUE LO ACORDADO. cancelo pat¿ramaunt + y HBO</t>
   </si>
   <si>
     <t>MDM-PQR-36981879</t>
@@ -6224,19 +6241,19 @@
     <t>MDM-PQR-36987130</t>
   </si>
   <si>
-    <t>L√≠nea: 6013844100  Nombre: ANDRES GAMBOA JEREZ  C√©dula: 1016023127 Cel: 3043576088  Correo: ANDRESGAMBOAJ1704@GMAIL.COM  Direcci√≥n: CL 55A 85K 28  Motivo De Llamada: Solicita ajuste de la factura ya que le llega por valor errado</t>
+    <t>Línea: 6013844100  Nombre: ANDRES GAMBOA JEREZ  Cédula: 1016023127 Cel: 3043576088  Correo: ANDRESGAMBOAJ1704@GMAIL.COM  Dirección: CL 55A 85K 28  Motivo De Llamada: Solicita ajuste de la factura ya que le llega por valor errado</t>
   </si>
   <si>
     <t>MDM-PQR-36989145</t>
   </si>
   <si>
-    <t xml:space="preserve"> L√≠nea: 6014428035 Nombre de quien se comunica: leonardo lopez C√©dula: 35486885 N√∫mero de contacto: 3212323718   Email: lenejeliz@gmail.com   Direcci√≥n: KR 9 BIS 40 42 SUR PI 2  Motivo de la llamada: incremento</t>
+    <t xml:space="preserve"> Línea: 6014428035 Nombre de quien se comunica: leonardo lopez Cédula: 35486885 Número de contacto: 3212323718   Email: lenejeliz@gmail.com   Dirección: KR 9 BIS 40 42 SUR PI 2  Motivo de la llamada: incremento</t>
   </si>
   <si>
     <t>MDM-PQR-36990299</t>
   </si>
   <si>
-    <t>"L√≠nea:6016552768 Nombre de quien se comunica:IRENE SALAZAR FERRO C√©dula:53000422 N√∫mero de contacto:3227297249 ¬† Email:i.salazar.ferro@gmail.com ¬† Direcci√≥n:CL 77 9 76 AP 103¬† Motivo de la llamada:." Solicita compensacion por fallas presentadas en enero</t>
+    <t>"Línea:6016552768 Nombre de quien se comunica:IRENE SALAZAR FERRO Cédula:53000422 Número de contacto:3227297249   Email:i.salazar.ferro@gmail.com   Dirección:CL 77 9 76 AP 103  Motivo de la llamada:." Solicita compensacion por fallas presentadas en enero</t>
   </si>
   <si>
     <t>MDM-PQR-36997362</t>
@@ -6248,7 +6265,7 @@
     <t>MDM-PQR-36999387</t>
   </si>
   <si>
-    <t>Linea:SR-31932053 Nombre de quien se comunica:LILIANA OSORIO MU√ëOZ   C√©dula: 1070010381 N√∫mero de contacto: 3118841265   Email:    JADECILLA012131@HOTMAIL.COM   Direcci√≥n: KR 137 132D 44 Motivo de la llamada: cliente se comunica para consultar factura</t>
+    <t>Linea:SR-31932053 Nombre de quien se comunica:LILIANA OSORIO MUÑOZ   Cédula: 1070010381 Número de contacto: 3118841265   Email:    JADECILLA012131@HOTMAIL.COM   Dirección: KR 137 132D 44 Motivo de la llamada: cliente se comunica para consultar factura</t>
   </si>
   <si>
     <t>MDM-PQR-37002914</t>
@@ -6272,7 +6289,7 @@
     <t>MDM-PQR-37008014</t>
   </si>
   <si>
-    <t>Nombre: GERSON BLADIMIR RODRIGUEZ GALVIZ cedula: 1127063610 celular: 3227578806 correo: GALVIZGERSON621@GMAIL.COM direcci√≥n: KR 58B BIS 131A 16 linea: 6017811538 motivo: cocneptos facturados</t>
+    <t>Nombre: GERSON BLADIMIR RODRIGUEZ GALVIZ cedula: 1127063610 celular: 3227578806 correo: GALVIZGERSON621@GMAIL.COM dirección: KR 58B BIS 131A 16 linea: 6017811538 motivo: cocneptos facturados</t>
   </si>
   <si>
     <t>MDM-PQR-37009557</t>
@@ -6308,7 +6325,7 @@
     <t>MDM-PQR-37019494</t>
   </si>
   <si>
-    <t>NOMBRE:KAREN MILENA GONZALEZ TINOCO   CC:1000931478   CEL:3132054845   CORREO:milena-13-18@hotmail.com   DIRECCION:CL 32 0 43 ESTE AP 101 MOTIVO: Quiere cancelaci√≥n del servicio por el incremente ,no esta de acuerdo .</t>
+    <t>NOMBRE:KAREN MILENA GONZALEZ TINOCO   CC:1000931478   CEL:3132054845   CORREO:milena-13-18@hotmail.com   DIRECCION:CL 32 0 43 ESTE AP 101 MOTIVO: Quiere cancelación del servicio por el incremente ,no esta de acuerdo .</t>
   </si>
   <si>
     <t>MDM-PQR-37022010</t>
@@ -6344,7 +6361,7 @@
     <t>MDM-PQR-37028012</t>
   </si>
   <si>
-    <t>L√≠nea: 6016351501 Nombre de quien se comunica:  CAMILA GALINDO C√©dula: 1020841011 Tel√©fono: 3227505742 Email: cg742249@gmail.com Direcci√≥n: CL 186 15 58 AP 102  Motivo de llamada: SE COMUNICA PORQUE EN OCTUBRE LE HICIERON RETENCION Y DICE QUE NO LE ESTAN APLICANDO EL DESCUENTO OFRECIDO EN SUS FACTURAS.</t>
+    <t>Línea: 6016351501 Nombre de quien se comunica:  CAMILA GALINDO Cédula: 1020841011 Teléfono: 3227505742 Email: cg742249@gmail.com Dirección: CL 186 15 58 AP 102  Motivo de llamada: SE COMUNICA PORQUE EN OCTUBRE LE HICIERON RETENCION Y DICE QUE NO LE ESTAN APLICANDO EL DESCUENTO OFRECIDO EN SUS FACTURAS.</t>
   </si>
   <si>
     <t>MDM-PQR-37030156</t>
@@ -6353,13 +6370,13 @@
     <t>MDM-PQR-37030563</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica:ALVARO ARZAYUS CASAS C√©dula:79487063   N√∫mero de contacto:3164472892   Email:alvaro.arzayus@gmail.com Direcci√≥n:AK 50 58A 78 AP 201 Motivo de la llamada: CANCELACION DEL SERVICIO SE LE HACE EL DEVOLUCION DE LA LLAMADA PORQUE SE CORTA</t>
+    <t>Nombre de quien se comunica:ALVARO ARZAYUS CASAS Cédula:79487063   Número de contacto:3164472892   Email:alvaro.arzayus@gmail.com Dirección:AK 50 58A 78 AP 201 Motivo de la llamada: CANCELACION DEL SERVICIO SE LE HACE EL DEVOLUCION DE LA LLAMADA PORQUE SE CORTA</t>
   </si>
   <si>
     <t>MDM-PQR-37033354</t>
   </si>
   <si>
-    <t>SRA NORA MOLESTA PORWQUE LE LLEGO LA FACTURA MAS DE LOS PACTADO EL DIA 12 DE NERO CON BENEFICIO DE TARIFA 90 MIL PERMANENTE, SE ENVIA FACTURA EXTEMPORANEA QUE ESTA BIEN PERO EN SAAW NO NO ESTA LA CAMPA√ëA OFRECIDA SE SUBE POR CRM</t>
+    <t>SRA NORA MOLESTA PORWQUE LE LLEGO LA FACTURA MAS DE LOS PACTADO EL DIA 12 DE NERO CON BENEFICIO DE TARIFA 90 MIL PERMANENTE, SE ENVIA FACTURA EXTEMPORANEA QUE ESTA BIEN PERO EN SAAW NO NO ESTA LA CAMPAÑA OFRECIDA SE SUBE POR CRM</t>
   </si>
   <si>
     <t>MDM-PQR-37033614</t>
@@ -6389,7 +6406,7 @@
     <t>MDM-PQR-37049066</t>
   </si>
   <si>
-    <t>linea: 6016114226 12054315682 nombre de quien se comunica: LEIDY DAYHIANA CIFUENTES RAMIREZ   CC. 1119887276 Tel:    3222556945   email: PRINCESAZARA24@LIVE.COM.AR   direccion: CL 51 71B 20 AP 501  Motivo de la llamada: Cliente se comunica solicitando servicio de adecuacion ya que el modem lo dejaron instalado en el cuarto de una ni√±a con problemas de corazon y desea que quede en un pasillo.</t>
+    <t>linea: 6016114226 12054315682 nombre de quien se comunica: LEIDY DAYHIANA CIFUENTES RAMIREZ   CC. 1119887276 Tel:    3222556945   email: PRINCESAZARA24@LIVE.COM.AR   direccion: CL 51 71B 20 AP 501  Motivo de la llamada: Cliente se comunica solicitando servicio de adecuacion ya que el modem lo dejaron instalado en el cuarto de una niña con problemas de corazon y desea que quede en un pasillo.</t>
   </si>
   <si>
     <t>MDM-PQR-37049432</t>
@@ -6413,7 +6430,7 @@
     <t>MDM-PQR-37051134</t>
   </si>
   <si>
-    <t>(FECHA EXPEDICI√ìN DEL DOCUMENTO DEL TITULAR (30/03/1987))/ MOTIVOS ( ECON√ìMICO)// OFERTA DE RETENCI√ìN B√ÅSICA / RF-001429128/  ORDEN / VALOR (90000) / TIEMPO INDEFINIDO</t>
+    <t>(FECHA EXPEDICIÓN DEL DOCUMENTO DEL TITULAR (30/03/1987))/ MOTIVOS ( ECONÓMICO)// OFERTA DE RETENCIÓN BÁSICA / RF-001429128/  ORDEN / VALOR (90000) / TIEMPO INDEFINIDO</t>
   </si>
   <si>
     <t>MDM-PQR-37054173</t>
@@ -6449,7 +6466,7 @@
     <t>MDM-PQR-37058969</t>
   </si>
   <si>
-    <t>L√≠nea: 6014557104  Nombre: LUIS ENRIQUE LEON LEON C√©dula: 39744769  1016096027 Cel: 3208114713 Correo: lucholeon97@hotmail.com Direcci√≥n: KR 81D 8B 27 PI 5  Motivo De Llamada: Genero la cancelaci√≥n del servicio y ahora le llega factura</t>
+    <t>Línea: 6014557104  Nombre: LUIS ENRIQUE LEON LEON Cédula: 39744769  1016096027 Cel: 3208114713 Correo: lucholeon97@hotmail.com Dirección: KR 81D 8B 27 PI 5  Motivo De Llamada: Genero la cancelación del servicio y ahora le llega factura</t>
   </si>
   <si>
     <t>MDM-PQR-37059622</t>
@@ -6473,7 +6490,7 @@
     <t>MDM-PQR-37071647</t>
   </si>
   <si>
-    <t>N√∫mero de Documento 1020798470 Nombres PAULA DELGADO Tel√©fono Fijo 6016666666 Celular 3005984479 Email mariapdelgadoc@hotmail.com //INCREMENTO DE FACTURA</t>
+    <t>Número de Documento 1020798470 Nombres PAULA DELGADO Teléfono Fijo 6016666666 Celular 3005984479 Email mariapdelgadoc@hotmail.com //INCREMENTO DE FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-37073015</t>
@@ -6485,7 +6502,7 @@
     <t>MDM-PQR-37073038</t>
   </si>
   <si>
-    <t>Linea:6012179884 Nombre de quien se comunica:NUBIA ESPERANZA FORERO BEJARANO   C√©dula: 52038139 N√∫mero de contacto: 3175947076   Email:    nuesfobe@gmail.com   Direcci√≥n: AC 116 54 23 AP 504 Motivo de la llamada: cliente se comunica que le esta llegando factura cuando ella genero solicitud de cancelacion de servicio</t>
+    <t>Linea:6012179884 Nombre de quien se comunica:NUBIA ESPERANZA FORERO BEJARANO   Cédula: 52038139 Número de contacto: 3175947076   Email:    nuesfobe@gmail.com   Dirección: AC 116 54 23 AP 504 Motivo de la llamada: cliente se comunica que le esta llegando factura cuando ella genero solicitud de cancelacion de servicio</t>
   </si>
   <si>
     <t>MDM-PQR-37077328</t>
@@ -6497,19 +6514,19 @@
     <t>MDM-PQR-37077467</t>
   </si>
   <si>
-    <t>Cliente indica que gener√≥ el pago de la factura y solicita la activaci√≥n del servicio, cliente pregunta por proceso de cancelaci√≥n si ya se  encuentra en curso</t>
+    <t>Cliente indica que generó el pago de la factura y solicita la activación del servicio, cliente pregunta por proceso de cancelación si ya se  encuentra en curso</t>
   </si>
   <si>
     <t>MDM-PQR-37079019</t>
   </si>
   <si>
-    <t>Cliente quiere generar la cancelaci√≥n del servicio por el valor elevado en su recibo, sin capacidad de pago</t>
+    <t>Cliente quiere generar la cancelación del servicio por el valor elevado en su recibo, sin capacidad de pago</t>
   </si>
   <si>
     <t>MDM-PQR-37079236</t>
   </si>
   <si>
-    <t>NOMBRE CLIENTE: ALICIA FUENTES MARI√ëO   / LINEA SERVICIO: 6013466694 / TEL. CONTACTO: 3108756611 / E-MAIL: juanpablodavila@hotmail.com   / DIRECCION: CL 94A 21 13 AP 204  / MOTIVO DE RETIRO: BAJAR PRECIO DE SU SERVICIO OSCALVSER</t>
+    <t>NOMBRE CLIENTE: ALICIA FUENTES MARIÑO   / LINEA SERVICIO: 6013466694 / TEL. CONTACTO: 3108756611 / E-MAIL: juanpablodavila@hotmail.com   / DIRECCION: CL 94A 21 13 AP 204  / MOTIVO DE RETIRO: BAJAR PRECIO DE SU SERVICIO OSCALVSER</t>
   </si>
   <si>
     <t>MDM-PQR-37080318</t>
@@ -6533,7 +6550,7 @@
     <t>MDM-PQR-37086652</t>
   </si>
   <si>
-    <t>LINEA: 6017629494 NOMBRE: JUAN CARLOS TRIANA CEDULA: 80056834 NUMERO DE CONTACTO: 3132184111 EMAIL: juanka834@hotmail.com DIRECCION: KR 67 10 35 PI 2  MOTIVO DE LLAMADA: SOLICITA CANCELACION DE SERVICIO   N√∫mero de Orden MDM-FIBRA-011311302 CUN 4347230000379084 Bundle Seleccionado DUO 200M HOG FTTH V1 Tecnolog√≠a FTTH Valor del Servicio $ 79,900.00 Nombre Oferta Anterior DUO 200M HOG FTTH V1 Nombre Servicios Auxiliares Anteriores DIRECTV GO BASICO Precio Oferta Anterior $ 185,590.00</t>
+    <t>LINEA: 6017629494 NOMBRE: JUAN CARLOS TRIANA CEDULA: 80056834 NUMERO DE CONTACTO: 3132184111 EMAIL: juanka834@hotmail.com DIRECCION: KR 67 10 35 PI 2  MOTIVO DE LLAMADA: SOLICITA CANCELACION DE SERVICIO   Número de Orden MDM-FIBRA-011311302 CUN 4347230000379084 Bundle Seleccionado DUO 200M HOG FTTH V1 Tecnología FTTH Valor del Servicio $ 79,900.00 Nombre Oferta Anterior DUO 200M HOG FTTH V1 Nombre Servicios Auxiliares Anteriores DIRECTV GO BASICO Precio Oferta Anterior $ 185,590.00</t>
   </si>
   <si>
     <t>MDM-PQR-37087341</t>
@@ -6545,7 +6562,7 @@
     <t>MDM-PQR-37087500</t>
   </si>
   <si>
-    <t>"L√≠nea:6016225457 Nombre de quien se comunica:IVAN TOVAR PERDOMO ¬† C√©dula:12107888 N√∫mero de contacto:3153335239 Email:iva.top@hotmail.com ¬† Direcci√≥n:KR 22 141 31 AP 705¬† Motivo de la llamada:cliente inconforme con incremento generado ya que hace 6 meses acordo una tarifa fija durante un a√±o en lacual no se esta dando cumplimiento ya que factura se incremento."</t>
+    <t>"Línea:6016225457 Nombre de quien se comunica:IVAN TOVAR PERDOMO   Cédula:12107888 Número de contacto:3153335239 Email:iva.top@hotmail.com   Dirección:KR 22 141 31 AP 705  Motivo de la llamada:cliente inconforme con incremento generado ya que hace 6 meses acordo una tarifa fija durante un año en lacual no se esta dando cumplimiento ya que factura se incremento."</t>
   </si>
   <si>
     <t>MDM-PQR-37088285</t>
@@ -6584,7 +6601,7 @@
     <t>MDM-PQR-37103725</t>
   </si>
   <si>
-    <t>L√≠nea:6017165266 Nombre de quien se comunica: ALVARO ALFONSO PE√ëA CASTRO   C√©dula:80353950 N√∫mero de contacto:3017307796   Email: alvaro206358@gmail.com   Direcci√≥n:KR 13A 20 28 Motivo de la llamada:cliente se comunica para realizar  cancelacion de su servicio ya que no utiliza el servicio.</t>
+    <t>Línea:6017165266 Nombre de quien se comunica: ALVARO ALFONSO PEÑA CASTRO   Cédula:80353950 Número de contacto:3017307796   Email: alvaro206358@gmail.com   Dirección:KR 13A 20 28 Motivo de la llamada:cliente se comunica para realizar  cancelacion de su servicio ya que no utiliza el servicio.</t>
   </si>
   <si>
     <t>MDM-PQR-37107128</t>
@@ -6596,7 +6613,7 @@
     <t>MDM-PQR-37107455</t>
   </si>
   <si>
-    <t>CLIENTE SE COMUNICA INDICANDO QUE EL A√ëOS PASADO LE HABIAN OFRECIDO UNA PROMOCION DE $60000.E INDICA QUE NO SE LE HA VISTO EN FACTURA Y HA PAGADO NORMAL</t>
+    <t>CLIENTE SE COMUNICA INDICANDO QUE EL AÑOS PASADO LE HABIAN OFRECIDO UNA PROMOCION DE $60000.E INDICA QUE NO SE LE HA VISTO EN FACTURA Y HA PAGADO NORMAL</t>
   </si>
   <si>
     <t>MDM-PQR-37110212</t>
@@ -6614,7 +6631,7 @@
     <t>MDM-PQR-37111748</t>
   </si>
   <si>
-    <t>Tercero autorizado LUZ DARY MEDRANO ACOSTA indica que le generaron suspenci√≥n del servicio debido a que no genero el pago de la factura hasta realizar ajuste de la factura, ya que le en los periodos de 25 de noviembre al 24 de diciembre y del 25 de diciembre al 24 de enero le cobranron los servico de HBO yPAramoun cuando ella el dia 0+5 de noviembre solicito la cancelaci√≥n del servicio. se encuentra molesta indiac que no se va a hacer cargo de futuro cobro de reconexi√≥n del servicio.</t>
+    <t>Tercero autorizado LUZ DARY MEDRANO ACOSTA indica que le generaron suspención del servicio debido a que no genero el pago de la factura hasta realizar ajuste de la factura, ya que le en los periodos de 25 de noviembre al 24 de diciembre y del 25 de diciembre al 24 de enero le cobranron los servico de HBO yPAramoun cuando ella el dia 0+5 de noviembre solicito la cancelación del servicio. se encuentra molesta indiac que no se va a hacer cargo de futuro cobro de reconexión del servicio.</t>
   </si>
   <si>
     <t>MDM-PQR-37111910</t>
@@ -6632,19 +6649,19 @@
     <t>MDM-PQR-37113535</t>
   </si>
   <si>
-    <t>(22/09/2014)/ MOTIVOS VIAJE INTERNACIONAL)// CANCELACI√ìN/ RF 000123074 / ORDEN MDM-MOV-2658146</t>
+    <t>(22/09/2014)/ MOTIVOS VIAJE INTERNACIONAL)// CANCELACIÓN/ RF 000123074 / ORDEN MDM-MOV-2658146</t>
   </si>
   <si>
     <t>MDM-PQR-37115093</t>
   </si>
   <si>
-    <t>"L√≠nea:6012308640 Nombre de quien se comunica:CARLOTA ARANZALES SANABRIA ¬† C√©dula:20089224 ¬† N√∫mero de contacto:3112145177 ¬† Email:luzmyrians@hotmail.com ¬† Direcci√≥n:CL 48A SUR 72D 62 Motivo de la llamada: ."  recibio oferta  4meses por $39.950  pero factura no llego por ese valor</t>
+    <t>"Línea:6012308640 Nombre de quien se comunica:CARLOTA ARANZALES SANABRIA   Cédula:20089224   Número de contacto:3112145177   Email:luzmyrians@hotmail.com   Dirección:CL 48A SUR 72D 62 Motivo de la llamada: ."  recibio oferta  4meses por $39.950  pero factura no llego por ese valor</t>
   </si>
   <si>
     <t>MDM-PQR-37121158</t>
   </si>
   <si>
-    <t>PROCESO RETENIDO / NOMBRE CLIENTE: JULY AMPARO JIMENEZ CABRERA   / FECHA DE EXPEDICION 27/3/2001 / MOTIVO DE RETIRO: COMPETENCIA / LINEA SERVICIO: 6016862316 / TEL. CONTACTO: 3123603551 / E-MAIL: yuyam.2@hotmail.com / DIRECCION: KR 86 146 61 BQ B IN 4 AP 302 / La cliente quiere una reducci√≥n de su factura , debido a que encuentra mejores planes en la competencia, se le ofreci√≥ un plan promocional basico por 55.000, la cliente acepto la retenci√≥n.  OSCALVSE</t>
+    <t>PROCESO RETENIDO / NOMBRE CLIENTE: JULY AMPARO JIMENEZ CABRERA   / FECHA DE EXPEDICION 27/3/2001 / MOTIVO DE RETIRO: COMPETENCIA / LINEA SERVICIO: 6016862316 / TEL. CONTACTO: 3123603551 / E-MAIL: yuyam.2@hotmail.com / DIRECCION: KR 86 146 61 BQ B IN 4 AP 302 / La cliente quiere una reducción de su factura , debido a que encuentra mejores planes en la competencia, se le ofreció un plan promocional basico por 55.000, la cliente acepto la retención.  OSCALVSE</t>
   </si>
   <si>
     <t>MDM-PQR-37123714</t>
@@ -6662,7 +6679,7 @@
     <t>MDM-PQR-37127144</t>
   </si>
   <si>
-    <t>Cliente solicita la cancelaci√≥n del servicio, sin embargo en sistema el cliente presenta el estado de "Retiro por pago"</t>
+    <t>Cliente solicita la cancelación del servicio, sin embargo en sistema el cliente presenta el estado de "Retiro por pago"</t>
   </si>
   <si>
     <t>MDM-PQR-37127946</t>
@@ -6674,31 +6691,31 @@
     <t>MDM-PQR-37128576</t>
   </si>
   <si>
-    <t>L√≠nea:6017900969 Nombre de quien se comunica:DAVID ORTEGON SUAREZ   C√©dula:80161834 N√∫mero de contacto:3013659580 Email:davidfloyd@gmail.com   Direcci√≥n:CL 9 3 44  Motivo de la llamada:Cliente solicita cambio de plan o cancelacion .</t>
+    <t>Línea:6017900969 Nombre de quien se comunica:DAVID ORTEGON SUAREZ   Cédula:80161834 Número de contacto:3013659580 Email:davidfloyd@gmail.com   Dirección:CL 9 3 44  Motivo de la llamada:Cliente solicita cambio de plan o cancelacion .</t>
   </si>
   <si>
     <t>MDM-PQR-37128609</t>
   </si>
   <si>
-    <t>"L√≠nea:6017168374 ¬† Nombre de quien se comunica:CLAUDIA MARCELA GUTIERREZ LOAIZA ¬† C√©dula:52183241 N√∫mero de contacto:3222004006 ¬† Email:clamagu8@hotmail.com ¬† Direcci√≥n:CL 191A 11A 92 TO 1 AP 1202¬† Motivo de la llamada:solicita cancelar servicio ya cuenta con otro."</t>
+    <t>"Línea:6017168374   Nombre de quien se comunica:CLAUDIA MARCELA GUTIERREZ LOAIZA   Cédula:52183241 Número de contacto:3222004006   Email:clamagu8@hotmail.com   Dirección:CL 191A 11A 92 TO 1 AP 1202  Motivo de la llamada:solicita cancelar servicio ya cuenta con otro."</t>
   </si>
   <si>
     <t>MDM-PQR-37128895</t>
   </si>
   <si>
-    <t>"L√≠nea: 6016312494  Nombre de quien se comunica: DAVID ANDRES AVILA ESPINOSA   C√©dula:1026551759 N√∫mero de contacto:3112661642 Email: daae18@hotmail.com   Direcci√≥n: CL 30 SUR 12L 05 BQ B IN 3 AP 201 Motivo de la llamada:  Cliente manifiesta inconformidad le esta llegando un mensaje que tiene una deuda pendiente y se encuentra al d√≠a. ."</t>
+    <t>"Línea: 6016312494  Nombre de quien se comunica: DAVID ANDRES AVILA ESPINOSA   Cédula:1026551759 Número de contacto:3112661642 Email: daae18@hotmail.com   Dirección: CL 30 SUR 12L 05 BQ B IN 3 AP 201 Motivo de la llamada:  Cliente manifiesta inconformidad le esta llegando un mensaje que tiene una deuda pendiente y se encuentra al día. ."</t>
   </si>
   <si>
     <t>MDM-PQR-37129455</t>
   </si>
   <si>
-    <t>Linea:6017610839 Nombre de quien se comunica:ANAMARIA ORTIZ RODRIGUEZ   C√©dula: 1019058992   N√∫mero de contacto: 3503490355   Email:    amorodriguez91@hotmail.com   Direcci√≥n: KR 12 71 32 OF 501 Motivo de la llamada: cliente se comunica que realizo cancelacion de servicio y la misma le esta llegando factura</t>
+    <t>Linea:6017610839 Nombre de quien se comunica:ANAMARIA ORTIZ RODRIGUEZ   Cédula: 1019058992   Número de contacto: 3503490355   Email:    amorodriguez91@hotmail.com   Dirección: KR 12 71 32 OF 501 Motivo de la llamada: cliente se comunica que realizo cancelacion de servicio y la misma le esta llegando factura</t>
   </si>
   <si>
     <t>MDM-PQR-37131337</t>
   </si>
   <si>
-    <t>linea: 6013785509 12054363242 nombre de quien se comunica: JORGE LUIS  DIAZ RAMIREZ CE. 764259 Tel: 3058003562   email: jld1212@gmail.com   Direccion:  KR 101 82 52 IN 1 AP 110  Motivo de la llamada: Cliente se comunica manifestando que refleja incrementos en su facturacion correspondiente alas palataformas de Directv go, HBO y PARAMOUNT el cual habia solicitado cancelar desde el a√±o pasado y ahora nuevamente refleja incrementos y desconoce este cobro.</t>
+    <t>linea: 6013785509 12054363242 nombre de quien se comunica: JORGE LUIS  DIAZ RAMIREZ CE. 764259 Tel: 3058003562   email: jld1212@gmail.com   Direccion:  KR 101 82 52 IN 1 AP 110  Motivo de la llamada: Cliente se comunica manifestando que refleja incrementos en su facturacion correspondiente alas palataformas de Directv go, HBO y PARAMOUNT el cual habia solicitado cancelar desde el año pasado y ahora nuevamente refleja incrementos y desconoce este cobro.</t>
   </si>
   <si>
     <t>MDM-PQR-37133535</t>
@@ -6710,13 +6727,13 @@
     <t>MDM-PQR-37136933</t>
   </si>
   <si>
-    <t>L√≠nea: 6017185552 Nombre de quien se comunica: PIEDAD GOMEZ  C√©dula: 51858819 Tel√©fono: 3002121605 Email: piagoci@hotmail.com Direcci√≥n: KR 54 137 09 IN 58 Motivo de llamada: SE COMUNICA PORQUE LE LLEGA SMS QUE TIENE DEUDA PENDIENTE DE $ 302.607 DE LA CUENTA 7709871.</t>
+    <t>Línea: 6017185552 Nombre de quien se comunica: PIEDAD GOMEZ  Cédula: 51858819 Teléfono: 3002121605 Email: piagoci@hotmail.com Dirección: KR 54 137 09 IN 58 Motivo de llamada: SE COMUNICA PORQUE LE LLEGA SMS QUE TIENE DEUDA PENDIENTE DE $ 302.607 DE LA CUENTA 7709871.</t>
   </si>
   <si>
     <t>MDM-PQR-37139871</t>
   </si>
   <si>
-    <t>nombre: JEFHER RODRIGO CAVIEDES/ ANDREA cc: 80810458 linea: 6017127350  celu: 3043537980  direcci√≥n: KR 29D 28 26 SUR correo:andre1708_@hotmail.com cuenta: 12054350066 motivo de llamada ESTADO DE CUENTA</t>
+    <t>nombre: JEFHER RODRIGO CAVIEDES/ ANDREA cc: 80810458 linea: 6017127350  celu: 3043537980  dirección: KR 29D 28 26 SUR correo:andre1708_@hotmail.com cuenta: 12054350066 motivo de llamada ESTADO DE CUENTA</t>
   </si>
   <si>
     <t>MDM-PQR-37140440</t>
@@ -6740,13 +6757,13 @@
     <t>MDM-PQR-37150170</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nombre de quien se comunica:ANDRES FELIPE ARANGO PAEZ   C√©dula: 1015423134 N√∫mero de contacto:  Email:    Direcci√≥n:  Motivo de la llamada: cliente indica que tuvo un incremento de 5000 mil pesos en la factura, e indica que esta pagando mas por el HBO</t>
+    <t xml:space="preserve"> Nombre de quien se comunica:ANDRES FELIPE ARANGO PAEZ   Cédula: 1015423134 Número de contacto:  Email:    Dirección:  Motivo de la llamada: cliente indica que tuvo un incremento de 5000 mil pesos en la factura, e indica que esta pagando mas por el HBO</t>
   </si>
   <si>
     <t>MDM-PQR-37152742</t>
   </si>
   <si>
-    <t>CLIENTE SE COMUNICA A CANCELAR SU SERVICIO, SE HACE LA DEBIDA GESTI√ìN Y LOS OFRECIMIENTOS ACORDES AL MOTIVO DE CANCELACI√ì, SE COMPORTA UN POCO ALTERADO Y CUELGA LA LLAMADA, SE HACE DEVOLUCI√ìN PERO NO SE DA RESPUESTA A LA INSISTENCIA</t>
+    <t>CLIENTE SE COMUNICA A CANCELAR SU SERVICIO, SE HACE LA DEBIDA GESTIÓN Y LOS OFRECIMIENTOS ACORDES AL MOTIVO DE CANCELACIÓ, SE COMPORTA UN POCO ALTERADO Y CUELGA LA LLAMADA, SE HACE DEVOLUCIÓN PERO NO SE DA RESPUESTA A LA INSISTENCIA</t>
   </si>
   <si>
     <t>MDM-PQR-37168050</t>
@@ -6776,19 +6793,19 @@
     <t>MDM-PQR-37170505</t>
   </si>
   <si>
-    <t>Nombre:   RUBEN FRANCISCO CACERES HERNANDEZ   C√©dula: 1023894237 tel√©fono: 3059016974 Direcci√≥n:  CL 73 65 39 Motivo de llamada: cliente solicita Cancelaci√≥n de servicio</t>
+    <t>Nombre:   RUBEN FRANCISCO CACERES HERNANDEZ   Cédula: 1023894237 teléfono: 3059016974 Dirección:  CL 73 65 39 Motivo de llamada: cliente solicita Cancelación de servicio</t>
   </si>
   <si>
     <t>MDM-PQR-37171216</t>
   </si>
   <si>
-    <t>PROCESO NO RETENIDO / NOMBRE CLIENTE: WISTON STEVEN HURTADO GUERRERO   / FECHA DE EXPEDICION 18/5/2008 / MOTIVO DE RETIRO: CONCEPTO FACTURADO / LINEA SERVICIO: 6012093613 / TEL. CONTACTO: 3108872776 / E-MAIL: genarohg94@gmail.com  / DIRECCION: KR 23 32 43 SUR  / El cliente se comunica debido a que tiene una deuda pendiente de el numero de factura 310730106, el cual corresponde al mes de diciembre, se pide a el area de facturaci√≥n, que pueda gestionar ese cobro, debido a que se encuentra su servicio en suspensi√≥n, como el servicio esta cancelado, no se puede realizar nada.  OSCALVSE</t>
+    <t>PROCESO NO RETENIDO / NOMBRE CLIENTE: WISTON STEVEN HURTADO GUERRERO   / FECHA DE EXPEDICION 18/5/2008 / MOTIVO DE RETIRO: CONCEPTO FACTURADO / LINEA SERVICIO: 6012093613 / TEL. CONTACTO: 3108872776 / E-MAIL: genarohg94@gmail.com  / DIRECCION: KR 23 32 43 SUR  / El cliente se comunica debido a que tiene una deuda pendiente de el numero de factura 310730106, el cual corresponde al mes de diciembre, se pide a el area de facturación, que pueda gestionar ese cobro, debido a que se encuentra su servicio en suspensión, como el servicio esta cancelado, no se puede realizar nada.  OSCALVSE</t>
   </si>
   <si>
     <t>MDM-PQR-37171499</t>
   </si>
   <si>
-    <t>(FECHA EXPEDICI√ìN DEL DOCUMENTO DEL TITULAR (09/12/2002))/ MOTIVOS(ECON√ìMICO)// OFERTA DE RETENCI√ìN B√ÅSICA / RF/  ORDEN MDM-PQR-37171499/ VALOR (550000) / TIEMPO INDEFINIDO/ DESCUENTO MANUAL SI</t>
+    <t>(FECHA EXPEDICIÓN DEL DOCUMENTO DEL TITULAR (09/12/2002))/ MOTIVOS(ECONÓMICO)// OFERTA DE RETENCIÓN BÁSICA / RF/  ORDEN MDM-PQR-37171499/ VALOR (550000) / TIEMPO INDEFINIDO/ DESCUENTO MANUAL SI</t>
   </si>
   <si>
     <t>MDM-PQR-37175773</t>
@@ -6836,7 +6853,7 @@
     <t>MDM-PQR-37186029</t>
   </si>
   <si>
-    <t>numero de linea:6016710023 Nombre de quien se comunica: Herry Gomez  Bernal   C√©dula: 28585037 N√∫mero de contacto: 3142985873  Email: henry65@gmail.com  Direcci√≥n:  CL 156 7F 50 IN 3 Motivo de la llamada: cliente se comunica para que le corriga su factura ya que se le esta cobrando el servicio de  HBO PACK</t>
+    <t>numero de linea:6016710023 Nombre de quien se comunica: Herry Gomez  Bernal   Cédula: 28585037 Número de contacto: 3142985873  Email: henry65@gmail.com  Dirección:  CL 156 7F 50 IN 3 Motivo de la llamada: cliente se comunica para que le corriga su factura ya que se le esta cobrando el servicio de  HBO PACK</t>
   </si>
   <si>
     <t>MDM-PQR-37193886</t>
@@ -6854,13 +6871,13 @@
     <t>MDM-PQR-37195133</t>
   </si>
   <si>
-    <t>QUEJA: CLIENTE ARGUMENTA QUE LE EST√ÅN GENERANDO COBRO DE HBO MAX - PARAMOUNT +</t>
+    <t>QUEJA: CLIENTE ARGUMENTA QUE LE ESTÁN GENERANDO COBRO DE HBO MAX - PARAMOUNT +</t>
   </si>
   <si>
     <t>MDM-PQR-37196140</t>
   </si>
   <si>
-    <t>PROCESO RETENIDO / NOMBRE CLIENTE: SANDRA GIMENA MOLINA BELLO   / FECHA DE EXPEDICION 14/2/1996 / MOTIVO DE RETIRO: INCREMENTO DEL SERVICIO / LINEA SERVICIO: 6017684857 / TEL. CONTACTO: 3148297923 / E-MAIL: sanacu3@gmail.com   / DIRECCION: AK 14 52 79 AP 202 / El cliente tuvo un incremento en su factura de 60,364 subio a 73,453, quiere una reducci√≥n en su factura, por lo cual se le ofrece un 30 % de descuento para que su factura baje al valor pagado anteriormente , procede a continuar con el servicio.  OSCALVSE</t>
+    <t>PROCESO RETENIDO / NOMBRE CLIENTE: SANDRA GIMENA MOLINA BELLO   / FECHA DE EXPEDICION 14/2/1996 / MOTIVO DE RETIRO: INCREMENTO DEL SERVICIO / LINEA SERVICIO: 6017684857 / TEL. CONTACTO: 3148297923 / E-MAIL: sanacu3@gmail.com   / DIRECCION: AK 14 52 79 AP 202 / El cliente tuvo un incremento en su factura de 60,364 subio a 73,453, quiere una reducción en su factura, por lo cual se le ofrece un 30 % de descuento para que su factura baje al valor pagado anteriormente , procede a continuar con el servicio.  OSCALVSE</t>
   </si>
   <si>
     <t>MDM-PQR-37200622</t>
@@ -6872,7 +6889,7 @@
     <t>MDM-PQR-37204768</t>
   </si>
   <si>
-    <t>LA CLIENTE LLAMA PARA HACER LA CANCELACI√ìN PUESTO QUE LOS TECNICOS NO HAN IDO A HACER EL RESPECTIVO TRASLADO. DENTRO DE LA PQR SE EVIDENCIA LA VISITA TECNICA PARA EL D√çA DE LUNES 20/02/2023, SE LE DEVOLVER√Å LA LLAMADA PARA RESPONDER ANTE LA PETICI√ìN DE LA VISITA TECNICA. DE LO COTRARIO SE LE HAR√Å UNA NUEVA VISITA.</t>
+    <t>LA CLIENTE LLAMA PARA HACER LA CANCELACIÓN PUESTO QUE LOS TECNICOS NO HAN IDO A HACER EL RESPECTIVO TRASLADO. DENTRO DE LA PQR SE EVIDENCIA LA VISITA TECNICA PARA EL DÍA DE LUNES 20/02/2023, SE LE DEVOLVERÁ LA LLAMADA PARA RESPONDER ANTE LA PETICIÓN DE LA VISITA TECNICA. DE LO COTRARIO SE LE HARÁ UNA NUEVA VISITA.</t>
   </si>
   <si>
     <t>MDM-PQR-37205231</t>
@@ -6884,19 +6901,19 @@
     <t>MDM-PQR-37206280</t>
   </si>
   <si>
-    <t>Linea:6013844233 Nombre de quien se comunica:LUIS ALBERTO GUTIERREZ GOMEZ   C√©dula: 1007624842 FE 07/03/2019 N√∫mero de contacto: 3102184889   Email:    candygomez3201@gmail.com   Direcci√≥n: CL 22J 111A 27 Motivo de la llamada: cliente se comunica que le llega incrementada su factura</t>
+    <t>Linea:6013844233 Nombre de quien se comunica:LUIS ALBERTO GUTIERREZ GOMEZ   Cédula: 1007624842 FE 07/03/2019 Número de contacto: 3102184889   Email:    candygomez3201@gmail.com   Dirección: CL 22J 111A 27 Motivo de la llamada: cliente se comunica que le llega incrementada su factura</t>
   </si>
   <si>
     <t>MDM-PQR-37208626</t>
   </si>
   <si>
-    <t>NINFA BRI√ëEZ CULMA C√©dula de Ciudadan√≠a 38237722 Id PQR MDM-PQR-37208626 L√≠nea: 6016692742 Cuenta de Facturaci√≥n: 8755234 ID Servicio: 1-DR5XRJT  desea valdiar en cuanto va llegar la factura</t>
+    <t>NINFA BRIÑEZ CULMA Cédula de Ciudadanía 38237722 Id PQR MDM-PQR-37208626 Línea: 6016692742 Cuenta de Facturación: 8755234 ID Servicio: 1-DR5XRJT  desea valdiar en cuanto va llegar la factura</t>
   </si>
   <si>
     <t>MDM-PQR-37215133</t>
   </si>
   <si>
-    <t>FABIO ESCANDON SANCHEZ C√©dula de Ciudadan√≠a 3100947 Id PQR MDM-PQR-37215133 L√≠nea: 6016790731 Cuenta de Facturaci√≥n: 3303106 ID Servicio: 1-KOAE5IA DESEA VALDIAR  DE QUE FUE LA PLATA QUE LE DEBITARON EN SU SERVICIO</t>
+    <t>FABIO ESCANDON SANCHEZ Cédula de Ciudadanía 3100947 Id PQR MDM-PQR-37215133 Línea: 6016790731 Cuenta de Facturación: 3303106 ID Servicio: 1-KOAE5IA DESEA VALDIAR  DE QUE FUE LA PLATA QUE LE DEBITARON EN SU SERVICIO</t>
   </si>
   <si>
     <t>MDM-PQR-37219943</t>
@@ -6908,7 +6925,7 @@
     <t>MDM-PQR-37220211</t>
   </si>
   <si>
-    <t>Linea:6012504052 Nombre de quien se comunicaYANETH BARRERA VENEGAS  : C√©dula: 39615276 N√∫mero de contacto: 3185286785   Email:    YABAVE@HOTMAIL.COM   Direcci√≥n: KR 65 75A 25 Motivo de la llamada: cliente se comunica porque motivo del incremento</t>
+    <t>Linea:6012504052 Nombre de quien se comunicaYANETH BARRERA VENEGAS  : Cédula: 39615276 Número de contacto: 3185286785   Email:    YABAVE@HOTMAIL.COM   Dirección: KR 65 75A 25 Motivo de la llamada: cliente se comunica porque motivo del incremento</t>
   </si>
   <si>
     <t>MDM-PQR-37221029</t>
@@ -6938,7 +6955,7 @@
     <t>MDM-PQR-37236680</t>
   </si>
   <si>
-    <t>L√≠nea:  Nombre de quien se comunica: ROSSMAN PINTO C√©dula: 80121923 Tel√©fono: 3143413657 Email: roccolister@gmail.com   Direcci√≥n: DG 77B 116B 55 IN 7 AP 601 Motivo de llamada: SE COMUNICA PORQUE EL NO HA UTILIZADO HBO MAX, DICE QUE HACE 1 MES LLAMO Y EN ESTA FACTURA NUEVAMENTE SE LE ESTA GENERANDO COBRO EN ESTA FACTURA.</t>
+    <t>Línea:  Nombre de quien se comunica: ROSSMAN PINTO Cédula: 80121923 Teléfono: 3143413657 Email: roccolister@gmail.com   Dirección: DG 77B 116B 55 IN 7 AP 601 Motivo de llamada: SE COMUNICA PORQUE EL NO HA UTILIZADO HBO MAX, DICE QUE HACE 1 MES LLAMO Y EN ESTA FACTURA NUEVAMENTE SE LE ESTA GENERANDO COBRO EN ESTA FACTURA.</t>
   </si>
   <si>
     <t>MDM-PQR-37236929</t>
@@ -6962,7 +6979,7 @@
     <t>MDM-PQR-37240866</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nombre de quien se comunica:   MARIA EUGENIA PEREZ CARDONA   C√©dula: 41641475 N√∫mero de contacto: 3208536050 Email: eugenia5460@gmail.com          Direcci√≥n: CL 46 28 38 AP 303 Motivo de la llamada: cliente indica que no se le aplico el descuento por retencion para la factura de febrero.</t>
+    <t xml:space="preserve"> Nombre de quien se comunica:   MARIA EUGENIA PEREZ CARDONA   Cédula: 41641475 Número de contacto: 3208536050 Email: eugenia5460@gmail.com          Dirección: CL 46 28 38 AP 303 Motivo de la llamada: cliente indica que no se le aplico el descuento por retencion para la factura de febrero.</t>
   </si>
   <si>
     <t>MDM-PQR-37240967</t>
@@ -6974,19 +6991,19 @@
     <t>MDM-PQR-37242578</t>
   </si>
   <si>
-    <t>SG//LT: SR-31976137 cuenta 12054426164//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexi√≥n. SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia AJUSTE POR FAVORABILIDAD, donde se ajusta el cobro de reconexi√≥n. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $24,200 incluido IVA. VALOR REAL AJUSTE: $24,200 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: SR-31976137 cuenta 12054426164//Cliente pide ajuste de la factura, ya que reclama por el cobro de reconexión. SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, porque se evidencia AJUSTE POR FAVORABILIDAD, donde se ajusta el cobro de reconexión. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $24,200 incluido IVA. VALOR REAL AJUSTE: $24,200 incluido IVA. DIFERENCIA $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-37244983</t>
   </si>
   <si>
-    <t>SG//LT: 6013119410 cuenta 1750787//Cliente pide ajuste de la factura, ya que indica hab√≠a solicitado el retiro de los servicios de DTV HBO PACK , DTV WINSPORTS se evidencia bajo MDM-PQR-33171763 del d√≠a 20/08/2022  y MDM-PQR-33881597 del d√≠a 21/09/2022 . SOLUCI√ìN DE ASEGURAMIENTO: se deja caso en seguimiento 21/02/2023, ya que se evidencia orden de RETIRO_SVA (RSER) bajo MDM-FIBRA-011238163 del d√≠a 08/02/2023 y se evidencia RF-001421489 del d√≠a 08/02/2023 con retenci√≥n OFERTA RETENCI√ìN B√ÅSICA / $55.000,00 / PERMANENTE . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $51,990 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $51,990/ AJUSTE INCORRECTO.//SE PENALIZA ASESOR YA QUE REALIZA AJUSTE DE FACTURA DONDE TOMA EL CONCEPTO DE RECONEXION Y NO SE EVIDENCIA RF NI FAVORABILIDAD, SI SOLO SE LE RECLAMABA COBROS DE SERVICIOS DE TV ADICIONALES.</t>
+    <t>SG//LT: 6013119410 cuenta 1750787//Cliente pide ajuste de la factura, ya que indica había solicitado el retiro de los servicios de DTV HBO PACK , DTV WINSPORTS se evidencia bajo MDM-PQR-33171763 del día 20/08/2022  y MDM-PQR-33881597 del día 21/09/2022 . SOLUCIÓN DE ASEGURAMIENTO: se deja caso en seguimiento 21/02/2023, ya que se evidencia orden de RETIRO_SVA (RSER) bajo MDM-FIBRA-011238163 del día 08/02/2023 y se evidencia RF-001421489 del día 08/02/2023 con retención OFERTA RETENCIÓN BÁSICA / $55.000,00 / PERMANENTE . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $51,990 incluido IVA. VALOR REAL AJUSTE: $0 incluido IVA. DIFERENCIA $51,990/ AJUSTE INCORRECTO.//SE PENALIZA ASESOR YA QUE REALIZA AJUSTE DE FACTURA DONDE TOMA EL CONCEPTO DE RECONEXION Y NO SE EVIDENCIA RF NI FAVORABILIDAD, SI SOLO SE LE RECLAMABA COBROS DE SERVICIOS DE TV ADICIONALES.</t>
   </si>
   <si>
     <t>MDM-PQR-37245642</t>
   </si>
   <si>
-    <t>L√≠nea: Nombre de quien se comunica:NANCY MOLANO CHIQUIZA   C√©dula:35510993 N√∫mero de contacto:3158030302 Email:nancyamolano229@hotmail.com   Direcci√≥n:KR 59 130 42 Motivo de la llamada:Se comunica para solicitar el retiro del Hbo ya que se acabo la oferta de los dos primeros meses y se los estan cobrando, generando aumento en la factura  .</t>
+    <t>Línea: Nombre de quien se comunica:NANCY MOLANO CHIQUIZA   Cédula:35510993 Número de contacto:3158030302 Email:nancyamolano229@hotmail.com   Dirección:KR 59 130 42 Motivo de la llamada:Se comunica para solicitar el retiro del Hbo ya que se acabo la oferta de los dos primeros meses y se los estan cobrando, generando aumento en la factura  .</t>
   </si>
   <si>
     <t>MDM-PQR-37250390</t>
@@ -7004,7 +7021,7 @@
     <t>MDM-PQR-37255113</t>
   </si>
   <si>
-    <t>L√≠nea:6012079789 Nombre:KAREN VIVIANA RUIZ ARIZA   C√©dula:1010247452 N√∫mero:3112417888    Correo: karen31viviana@hotmail.com Motivo de llamada:Cliente indica que no se le cumpli√≥ el 100% que descuento que se le indico en su respuesta en el periodo facturado febrero/2023.</t>
+    <t>Línea:6012079789 Nombre:KAREN VIVIANA RUIZ ARIZA   Cédula:1010247452 Número:3112417888    Correo: karen31viviana@hotmail.com Motivo de llamada:Cliente indica que no se le cumplió el 100% que descuento que se le indico en su respuesta en el periodo facturado febrero/2023.</t>
   </si>
   <si>
     <t>MDM-PQR-37255938</t>
@@ -7016,7 +7033,7 @@
     <t>MDM-PQR-37257602</t>
   </si>
   <si>
-    <t>Linea:6017390954 Nombre de quien se comunica:YUDY ALEXANDRA MORENO OSORIO   C√©dula: 52887939 N√∫mero de contacto: 3214306134   Email:    yudym815@hotmail.com   Direcci√≥n: KR 93D 42 32 SUR Motivo de la llamada: cliente se comunica que solicita cancelacion de servicio y le llega factura</t>
+    <t>Linea:6017390954 Nombre de quien se comunica:YUDY ALEXANDRA MORENO OSORIO   Cédula: 52887939 Número de contacto: 3214306134   Email:    yudym815@hotmail.com   Dirección: KR 93D 42 32 SUR Motivo de la llamada: cliente se comunica que solicita cancelacion de servicio y le llega factura</t>
   </si>
   <si>
     <t>MDM-PQR-37259687</t>
@@ -7034,7 +7051,7 @@
     <t>MDM-PQR-37261584</t>
   </si>
   <si>
-    <t>El se√±or MANUEL RODRIGUEZ se comunica solicitando la cancelacion del servicio porque le estan cobrndo mas de lo que le avian dicho cuando realizo el cambio del plan</t>
+    <t>El señor MANUEL RODRIGUEZ se comunica solicitando la cancelacion del servicio porque le estan cobrndo mas de lo que le avian dicho cuando realizo el cambio del plan</t>
   </si>
   <si>
     <t>MDM-PQR-37263053</t>
@@ -7079,7 +7096,7 @@
     <t>MDM-PQR-37271518</t>
   </si>
   <si>
-    <t>NOMBRE: JUAN FERNANDO CABRERA CARDENAS  CC: 1015392999 TEL: 6016406834 CTA: 12052242750 DIR: KR 54 64A 75 IN 11 AP 503 CEL: 3007783754 CORREO: juanchoksda_20@gmail.com OBSERVACI√ìN: CLIENTE SOLICITA INF DE LA FACT</t>
+    <t>NOMBRE: JUAN FERNANDO CABRERA CARDENAS  CC: 1015392999 TEL: 6016406834 CTA: 12052242750 DIR: KR 54 64A 75 IN 11 AP 503 CEL: 3007783754 CORREO: juanchoksda_20@gmail.com OBSERVACIÓN: CLIENTE SOLICITA INF DE LA FACT</t>
   </si>
   <si>
     <t>MDM-PQR-37273534</t>
@@ -7091,7 +7108,7 @@
     <t>MDM-PQR-37274510</t>
   </si>
   <si>
-    <t xml:space="preserve"> pero te aseguro que la otra factura ya te llega con el descuento que te ofreci√≥ mi compa√±era ///2023/01/26, 09:05:30 am RF-001396094 Retenido Oferta escalera retenci√≥n L (no cuenta control) Aceptado 12053691626 6012699744 FTTH///Cliente obtiene 30% de descuento sobre su plan contratado</t>
+    <t xml:space="preserve"> pero te aseguro que la otra factura ya te llega con el descuento que te ofreció mi compañera ///2023/01/26, 09:05:30 am RF-001396094 Retenido Oferta escalera retención L (no cuenta control) Aceptado 12053691626 6012699744 FTTH///Cliente obtiene 30% de descuento sobre su plan contratado</t>
   </si>
   <si>
     <t>MDM-PQR-37279184</t>
@@ -7109,7 +7126,7 @@
     <t>MDM-PQR-37281188</t>
   </si>
   <si>
-    <t>WhatsApp// Mira me hicieron un cambio de plan Y me dijeron que el costo mensual era 128 o 138 con el hbo Y me llaga la factura por 189mil pesos y otra global por m√°s de 300 mil</t>
+    <t>WhatsApp// Mira me hicieron un cambio de plan Y me dijeron que el costo mensual era 128 o 138 con el hbo Y me llaga la factura por 189mil pesos y otra global por más de 300 mil</t>
   </si>
   <si>
     <t>MDM-PQR-37281391</t>
@@ -7136,13 +7153,13 @@
     <t>MDM-PQR-37286442</t>
   </si>
   <si>
-    <t>numero de linea: 6014425830  Nombre de quien se comunica:  MILEN ALEYDI ROMAN CABRERA   C√©dula: 30718427 N√∫mero de contacto: 3157845309  Email: milemroman07@hotmail.com Direcci√≥n:  DG 86A 101 40 IN 5 AP 502 Motivo de la llamada: cliente desea ajuste de factura ya que se le dio un veneficio de retiro de incremento de ley</t>
+    <t>numero de linea: 6014425830  Nombre de quien se comunica:  MILEN ALEYDI ROMAN CABRERA   Cédula: 30718427 Número de contacto: 3157845309  Email: milemroman07@hotmail.com Dirección:  DG 86A 101 40 IN 5 AP 502 Motivo de la llamada: cliente desea ajuste de factura ya que se le dio un veneficio de retiro de incremento de ley</t>
   </si>
   <si>
     <t>MDM-PQR-37287730</t>
   </si>
   <si>
-    <t>Nombre VANESSA PACHECO  Celular 3007079041   Email vapago2@hotmail.com  Direcci√≥nCL 135 15 11 AP 207  motivo: CLIENTE SE COMUNICA YA QUE QUERIA CANCELAR EL PARAMONT</t>
+    <t>Nombre VANESSA PACHECO  Celular 3007079041   Email vapago2@hotmail.com  DirecciónCL 135 15 11 AP 207  motivo: CLIENTE SE COMUNICA YA QUE QUERIA CANCELAR EL PARAMONT</t>
   </si>
   <si>
     <t>MDM-PQR-37287992</t>
@@ -7166,7 +7183,7 @@
     <t>MDM-PQR-37289683</t>
   </si>
   <si>
-    <t>LINEA: 6016153039 NOMBRE: HECTOR IVAN BRAVO BRAVO   CEDULA: 1014262893 NUMERO DE CONTACTO : 3014464556   EMAIL: hectorivanbravo@outlook.com DIRECCION: CL 70A 70B 49  MOTIVO DE LLAMADA: DESCUENTO NO APLICADO 22/09/22 4347220004202959 CAMBIO DE PLAN   PROMOCI√ìN DESCUENTO 100% PRORRATEO + 50% MESES 1,3,6,9 FTTH  SE CONFIRMA PLN A Observaciones:OFERTA DE PLANTA CON PROMOCION CAPTURA / $37450 / 4 MESES ESCALONADOS / 15/02/2013 / ECONOMICO</t>
+    <t>LINEA: 6016153039 NOMBRE: HECTOR IVAN BRAVO BRAVO   CEDULA: 1014262893 NUMERO DE CONTACTO : 3014464556   EMAIL: hectorivanbravo@outlook.com DIRECCION: CL 70A 70B 49  MOTIVO DE LLAMADA: DESCUENTO NO APLICADO 22/09/22 4347220004202959 CAMBIO DE PLAN   PROMOCIÓN DESCUENTO 100% PRORRATEO + 50% MESES 1,3,6,9 FTTH  SE CONFIRMA PLN A Observaciones:OFERTA DE PLANTA CON PROMOCION CAPTURA / $37450 / 4 MESES ESCALONADOS / 15/02/2013 / ECONOMICO</t>
   </si>
   <si>
     <t>MDM-PQR-37290321</t>
@@ -7187,13 +7204,13 @@
     <t>MDM-PQR-37293528</t>
   </si>
   <si>
-    <t>NOMBRE :  DIANA MARCELA ESLAVA NU√ëEZ   CEDULA :  1018475912 NUMERO :  3125365232 EMAIL :  annis_nunez@hotmail.com DIRECCION :  KR 51A 42A 31 SUR MOTIVO DE LLAMADA  : desea la cancelacion del win sport</t>
+    <t>NOMBRE :  DIANA MARCELA ESLAVA NUÑEZ   CEDULA :  1018475912 NUMERO :  3125365232 EMAIL :  annis_nunez@hotmail.com DIRECCION :  KR 51A 42A 31 SUR MOTIVO DE LLAMADA  : desea la cancelacion del win sport</t>
   </si>
   <si>
     <t>MDM-PQR-37294870</t>
   </si>
   <si>
-    <t>WHATSAPP// PAULA ANDREA FERNANDEZ MARTINEZ// SE COMUNICA PARA VALOIDAR UN AJUSTE DE SU FACTURACI√ìN DE INCREMENTO DE LEY //</t>
+    <t>WHATSAPP// PAULA ANDREA FERNANDEZ MARTINEZ// SE COMUNICA PARA VALOIDAR UN AJUSTE DE SU FACTURACIÓN DE INCREMENTO DE LEY //</t>
   </si>
   <si>
     <t>MDM-PQR-37296492</t>
@@ -7229,7 +7246,7 @@
     <t>MDM-PQR-37305475</t>
   </si>
   <si>
-    <t>L√≠nea: 6017134301 Nombre de quien se comunica: CESAR AUGUSTO BARRERA MEDINA   C√©dula: 19362980  N√∫mero de contacto: 3142408098   Email: cesarabm@hotmail.com   Direcci√≥n: KR 53A 49A 30 SUR PI 2 Motivo de la llamada: cleitne se comuncia indicando que le genraron un proceso de retencion y que la fac le lelga por el mismo valro anterio</t>
+    <t>Línea: 6017134301 Nombre de quien se comunica: CESAR AUGUSTO BARRERA MEDINA   Cédula: 19362980  Número de contacto: 3142408098   Email: cesarabm@hotmail.com   Dirección: KR 53A 49A 30 SUR PI 2 Motivo de la llamada: cleitne se comuncia indicando que le genraron un proceso de retencion y que la fac le lelga por el mismo valro anterio</t>
   </si>
   <si>
     <t>MDM-PQR-37306796</t>
@@ -7253,7 +7270,7 @@
     <t>MDM-PQR-37314881</t>
   </si>
   <si>
-    <t xml:space="preserve">  "L√≠nea: 6017735490 Nombre de quien se comunica: MARIA CAMILA ALJURE CORTES    C√©dula:1019009647   N√∫mero de contacto: 3204928327    Email:  mariacaljure@hotmail.com   Direcci√≥n: CL 127A 49 67 IN 7 AP 401  Motivo de la llamada:." se comunicaron con la cliente del area de cross , para brindarle el paquete 300 megas el cual acepto CUN: 4347230000202178 , pero le indicaron que el servicio le quedaba por valor de $ 89.900,00  y para su sorpresa le llega por valor de $ 95.900,00.</t>
+    <t xml:space="preserve">  "Línea: 6017735490 Nombre de quien se comunica: MARIA CAMILA ALJURE CORTES    Cédula:1019009647   Número de contacto: 3204928327    Email:  mariacaljure@hotmail.com   Dirección: CL 127A 49 67 IN 7 AP 401  Motivo de la llamada:." se comunicaron con la cliente del area de cross , para brindarle el paquete 300 megas el cual acepto CUN: 4347230000202178 , pero le indicaron que el servicio le quedaba por valor de $ 89.900,00  y para su sorpresa le llega por valor de $ 95.900,00.</t>
   </si>
   <si>
     <t>MDM-PQR-37315098</t>
@@ -7265,7 +7282,7 @@
     <t>MDM-PQR-37316971</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica: SOFIA ORTIZ BARBIER C√©dula: 1032483980 N√∫mero de contacto: 3202031169   Email: sofi_ortiz96@hotmail.com   Direcci√≥n:  KR 18 91 63 AP 205 Motivo de la llamada: cancelacion de paramount+</t>
+    <t>Nombre de quien se comunica: SOFIA ORTIZ BARBIER Cédula: 1032483980 Número de contacto: 3202031169   Email: sofi_ortiz96@hotmail.com   Dirección:  KR 18 91 63 AP 205 Motivo de la llamada: cancelacion de paramount+</t>
   </si>
   <si>
     <t>MDM-PQR-37317780</t>
@@ -7277,7 +7294,7 @@
     <t>MDM-PQR-37318563</t>
   </si>
   <si>
-    <t>L√≠nea: 6017914992 Cuenta: 12054477388 Nombre de quien se comunica: PAULA ANDREA LAVERDE COCOMA   C√©dula: 1024562259 N√∫mero de contacto: 3209971342   Email: LIVE.RACION@HOTMAIL.COM   Direcci√≥n: CL 17 SUR 27 43 TO 3 AP 801  Motivo de la llamada: Cliente se comunica indicando que a finales del mes de enero se comunic√≥ para cancelar el servicio, cliente indica que el servicio est√° cancelado pero que le lleg√≥ la factura cobrando el servicio del mes, se le indica que el servicio sigue activo por lo que se solicita: 1.Grabaci√≥n de llamada del mes de enero donde se evidencia que efectivamente se comunic√≥ para cancelar el servicio. 2. el servicio quede completamente cancelado</t>
+    <t>Línea: 6017914992 Cuenta: 12054477388 Nombre de quien se comunica: PAULA ANDREA LAVERDE COCOMA   Cédula: 1024562259 Número de contacto: 3209971342   Email: LIVE.RACION@HOTMAIL.COM   Dirección: CL 17 SUR 27 43 TO 3 AP 801  Motivo de la llamada: Cliente se comunica indicando que a finales del mes de enero se comunicó para cancelar el servicio, cliente indica que el servicio está cancelado pero que le llegó la factura cobrando el servicio del mes, se le indica que el servicio sigue activo por lo que se solicita: 1.Grabación de llamada del mes de enero donde se evidencia que efectivamente se comunicó para cancelar el servicio. 2. el servicio quede completamente cancelado</t>
   </si>
   <si>
     <t>MDM-PQR-37322054</t>
@@ -7307,13 +7324,13 @@
     <t>MDM-PQR-37332337</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica:JULIAN MARTINEZ GAITAN   C√©dula:80097323   N√∫mero de contacto:3192403471   Email:JULIOMIXX@GMAIL.COM Direcci√≥n:CL 86A 49D 36 Motivo de la llamada: INCREMENTO DE TARIFARIO, ENVIO DE CONTRATO</t>
+    <t>Nombre de quien se comunica:JULIAN MARTINEZ GAITAN   Cédula:80097323   Número de contacto:3192403471   Email:JULIOMIXX@GMAIL.COM Dirección:CL 86A 49D 36 Motivo de la llamada: INCREMENTO DE TARIFARIO, ENVIO DE CONTRATO</t>
   </si>
   <si>
     <t>MDM-PQR-37336692</t>
   </si>
   <si>
-    <t>L√≠nea:  Nombre de quien se comunica: RUBIELA CASTELLANOS  C√©dula: 51767006 Tel√©fono: 3153217130 Email: rucapi02@yahoo.es   Direcci√≥n: KR 73A 40C 84 SUR AP 402 Motivo de llamada: SE COMUNICA PORQUE HIZO CAMBIO DE PLAN A 200 MG LE DIJERON QUE IBA A TENER HBO MAX GRATIS  PERO EN LA FACTURA SE ESTA COBRANDO 12.541</t>
+    <t>Línea:  Nombre de quien se comunica: RUBIELA CASTELLANOS  Cédula: 51767006 Teléfono: 3153217130 Email: rucapi02@yahoo.es   Dirección: KR 73A 40C 84 SUR AP 402 Motivo de llamada: SE COMUNICA PORQUE HIZO CAMBIO DE PLAN A 200 MG LE DIJERON QUE IBA A TENER HBO MAX GRATIS  PERO EN LA FACTURA SE ESTA COBRANDO 12.541</t>
   </si>
   <si>
     <t>MDM-PQR-37345622</t>
@@ -7325,19 +7342,19 @@
     <t>MDM-PQR-37345683</t>
   </si>
   <si>
-    <t>L√≠nea: 6013481946 Nombre de quien se comunica: DIANA ROCIO VELANDIA ARIZA   C√©dula: 1032413045   N√∫mero de contacto: 3107585525   Email: DIANAV2906@HOTMAIL.COM   Direcci√≥n: TV 60 59 24 SUR ET 1 IN 1 AP 102 Motivo de la llamada: cliente se comuncia indicando que na facatura le lelga por un valor nio acrodafo con el area de retencion</t>
+    <t>Línea: 6013481946 Nombre de quien se comunica: DIANA ROCIO VELANDIA ARIZA   Cédula: 1032413045   Número de contacto: 3107585525   Email: DIANAV2906@HOTMAIL.COM   Dirección: TV 60 59 24 SUR ET 1 IN 1 AP 102 Motivo de la llamada: cliente se comuncia indicando que na facatura le lelga por un valor nio acrodafo con el area de retencion</t>
   </si>
   <si>
     <t>MDM-PQR-37352177</t>
   </si>
   <si>
-    <t>N√∫mero de Documento: 51959583 Nombres: ROMELIA VALDERRAMA SANCHEZ Tel√©fono Fijo: 6016727813 Celular: 3209999999 Email: documentosdigitales@etb.com.co //La factura le llego por $0 //la cliente tiene una solicitud de cancelaci√≥n del 11/01/2023, donde le manifiestan que la cancelaci√≥n le quedaba con fecha de corte /01/02/2023</t>
+    <t>Número de Documento: 51959583 Nombres: ROMELIA VALDERRAMA SANCHEZ Teléfono Fijo: 6016727813 Celular: 3209999999 Email: documentosdigitales@etb.com.co //La factura le llego por $0 //la cliente tiene una solicitud de cancelación del 11/01/2023, donde le manifiestan que la cancelación le quedaba con fecha de corte /01/02/2023</t>
   </si>
   <si>
     <t>MDM-PQR-37352293</t>
   </si>
   <si>
-    <t>nombre:  DIANA CAROLINA PINZON SILVA   cc: 1018499455 celular: 3105972347   correo: DIANI1997-12@HOTMAIL.COM   direcci√≥n: CL 181C 13 54 IN 3 AP 201 linea: 6016204477  motivo: FEHCA DE VENCIMIENTO DE CLAUSULA</t>
+    <t>nombre:  DIANA CAROLINA PINZON SILVA   cc: 1018499455 celular: 3105972347   correo: DIANI1997-12@HOTMAIL.COM   dirección: CL 181C 13 54 IN 3 AP 201 linea: 6016204477  motivo: FEHCA DE VENCIMIENTO DE CLAUSULA</t>
   </si>
   <si>
     <t>MDM-PQR-37353430</t>
@@ -7349,7 +7366,7 @@
     <t>MDM-PQR-37356357</t>
   </si>
   <si>
-    <t>cliente:ASTRID JANNETH MENDOZA NU√ëEZ   cedula:52052379 contactos:3158225933   correo:astridja03@gmail.com CL 22A 52 07 TO C AP 401  solicitud:dice que le cobrqan de mas por unos paquetes que no pidio   solucion:se retira paramount y hbo max</t>
+    <t>cliente:ASTRID JANNETH MENDOZA NUÑEZ   cedula:52052379 contactos:3158225933   correo:astridja03@gmail.com CL 22A 52 07 TO C AP 401  solicitud:dice que le cobrqan de mas por unos paquetes que no pidio   solucion:se retira paramount y hbo max</t>
   </si>
   <si>
     <t>MDM-PQR-37358204</t>
@@ -7361,13 +7378,13 @@
     <t>MDM-PQR-37359072</t>
   </si>
   <si>
-    <t>L√≠nea:6012647571  Nombre de quien se comunica: NESTOR ANDRES ALVAREZ BARBOSA   C√©dula:1022370327   N√∫mero de contacto: 3114700120   Email:nestorartelaser@hotmail.com   Direcci√≥n: DG 51A SUR 61B 47  Motivo de la llamada: Cliente indica que solicito retiro de Hbo y Paramount.</t>
+    <t>Línea:6012647571  Nombre de quien se comunica: NESTOR ANDRES ALVAREZ BARBOSA   Cédula:1022370327   Número de contacto: 3114700120   Email:nestorartelaser@hotmail.com   Dirección: DG 51A SUR 61B 47  Motivo de la llamada: Cliente indica que solicito retiro de Hbo y Paramount.</t>
   </si>
   <si>
     <t>MDM-PQR-37360322</t>
   </si>
   <si>
-    <t>L√≠nea: 6017180313 Nombre de quien se comunica: PABLO ARVEY GIL REYES   C√©dula: 80000008  //06/12/1996 N√∫mero de contacto: 3184471780   Email: ing_pablogil@yahoo.es   Direcci√≥n:  AK 68 5 17 TO 2 AP 808 Motivo de la llamada: CLIENTE SE COMUNICA POR DESCUENTO DE RETENCI√ìN</t>
+    <t>Línea: 6017180313 Nombre de quien se comunica: PABLO ARVEY GIL REYES   Cédula: 80000008  //06/12/1996 Número de contacto: 3184471780   Email: ing_pablogil@yahoo.es   Dirección:  AK 68 5 17 TO 2 AP 808 Motivo de la llamada: CLIENTE SE COMUNICA POR DESCUENTO DE RETENCIÓN</t>
   </si>
   <si>
     <t>MDM-PQR-37363282</t>
@@ -7421,37 +7438,37 @@
     <t>MDM-PQR-37372373</t>
   </si>
   <si>
-    <t>CORREO:dazafabiola@hotmail.es                    CELULAR:3232375797   DIRECCION:KR 57 BIS 57B 17 BQ 50 AP 301     MOTIVO LLAMADA: Cliente se comunica indicando que realizo la cancelacion el dia 24/02/2023 y anteriormente a solicitud realizo la cancelaci√≥n del servicio por la pagina web.</t>
+    <t>CORREO:dazafabiola@hotmail.es                    CELULAR:3232375797   DIRECCION:KR 57 BIS 57B 17 BQ 50 AP 301     MOTIVO LLAMADA: Cliente se comunica indicando que realizo la cancelacion el dia 24/02/2023 y anteriormente a solicitud realizo la cancelación del servicio por la pagina web.</t>
   </si>
   <si>
     <t>MDM-PQR-37374668</t>
   </si>
   <si>
-    <t>Cliente JUAN SEBASTIAN MATTA RAMOS C√©dula de Ciudadan√≠a 1022420850 L√≠nea: 6017617279 Se comunica titular consultando el motivo por el cual el valor de su factura increment√≥</t>
+    <t>Cliente JUAN SEBASTIAN MATTA RAMOS Cédula de Ciudadanía 1022420850 Línea: 6017617279 Se comunica titular consultando el motivo por el cual el valor de su factura incrementó</t>
   </si>
   <si>
     <t>MDM-PQR-37375273</t>
   </si>
   <si>
-    <t>L√≠nea:6012020849 Nombre de quien se comunica:CARMEN CARDENAS RUIZ   C√©dula:23315158 N√∫mero de contacto:3105558841 Email:andresfelipecardenas91@gmail.com   Direcci√≥n:CL 18 SUR 52 42 Motivo de la llamada:Se comunica para indicar que hace un mes se comunico para solicitar el retiro del servicio porque presentaba fallas y le iban a dar oferta de retenci√≥n por valor de 74.900 pero le llego la factura por valor de 106.880 con radicado 4347230000284377.</t>
+    <t>Línea:6012020849 Nombre de quien se comunica:CARMEN CARDENAS RUIZ   Cédula:23315158 Número de contacto:3105558841 Email:andresfelipecardenas91@gmail.com   Dirección:CL 18 SUR 52 42 Motivo de la llamada:Se comunica para indicar que hace un mes se comunico para solicitar el retiro del servicio porque presentaba fallas y le iban a dar oferta de retención por valor de 74.900 pero le llego la factura por valor de 106.880 con radicado 4347230000284377.</t>
   </si>
   <si>
     <t>MDM-PQR-37375564</t>
   </si>
   <si>
-    <t>Linea: 6012611794   Nombre: FLOR ANGELA HERNANDEZ cc de titular: 19341198   Celular de contacto: 3126394165   Email de contacto:  ruben.peraltat@gmail.com   Direcci√≥n: TV 54 1A 21 SUR  Motivo llamada:  INDICA QUE  BRINDARON OFERTA PETRO NO SE ESTA APLICANDO</t>
+    <t>Linea: 6012611794   Nombre: FLOR ANGELA HERNANDEZ cc de titular: 19341198   Celular de contacto: 3126394165   Email de contacto:  ruben.peraltat@gmail.com   Dirección: TV 54 1A 21 SUR  Motivo llamada:  INDICA QUE  BRINDARON OFERTA PETRO NO SE ESTA APLICANDO</t>
   </si>
   <si>
     <t>MDM-PQR-37380399</t>
   </si>
   <si>
-    <t>Nombre: WILMER ALEXANDER AVELLANEDA MARTINEZ   C√©dula: 1070965412   Correo: avellanedawilmer3@gmail.com Celular: 3243674774   Direcci√≥n: KR 100B 24F 30 PI 2 Motivo de llamada: Cliente se comunica porque solicito cancelar el servicio por no cobertura en la nueva direcci√≥n y le indicaron que no se le generar√≠an cobros por cancelaci√≥n anticipada.</t>
+    <t>Nombre: WILMER ALEXANDER AVELLANEDA MARTINEZ   Cédula: 1070965412   Correo: avellanedawilmer3@gmail.com Celular: 3243674774   Dirección: KR 100B 24F 30 PI 2 Motivo de llamada: Cliente se comunica porque solicito cancelar el servicio por no cobertura en la nueva dirección y le indicaron que no se le generarían cobros por cancelación anticipada.</t>
   </si>
   <si>
     <t>MDM-PQR-37380688</t>
   </si>
   <si>
-    <t>******************************************** Nombre: LUZ ELVA RINCON BLANCO   Cedula: 23349962 Correo:  lucerito1307@hotmail.com  Direcci√≥n Antigua: KR 65 79A 80 BQ B AP 301  Direcci√≥n Nueva: N/A Tel√©fono: 3156974824 Fecha de Expedici√≥n: N/A N√∫mero de Conexi√≥n: 6016757619 Motivo: Indica que solicit√≥ cancelar el servicio pero le siguen llegando facturaciones</t>
+    <t>******************************************** Nombre: LUZ ELVA RINCON BLANCO   Cedula: 23349962 Correo:  lucerito1307@hotmail.com  Dirección Antigua: KR 65 79A 80 BQ B AP 301  Dirección Nueva: N/A Teléfono: 3156974824 Fecha de Expedición: N/A Número de Conexión: 6016757619 Motivo: Indica que solicitó cancelar el servicio pero le siguen llegando facturaciones</t>
   </si>
   <si>
     <t>MDM-PQR-37380855</t>
@@ -7469,7 +7486,7 @@
     <t>MDM-PQR-37382402</t>
   </si>
   <si>
-    <t>chat// consulta de factura generada con solicitud de cancelaci√≥n.</t>
+    <t>chat// consulta de factura generada con solicitud de cancelación.</t>
   </si>
   <si>
     <t>MDM-PQR-37382867</t>
@@ -7487,7 +7504,7 @@
     <t>MDM-PQR-37384521</t>
   </si>
   <si>
-    <t>Linea:6013222153  Nombre de quien se comunica:LEL LUZ DIAZ CHIQUINQUIRA   C√©dula: 68301595 N√∫mero de contacto: 3012388896   Email:    llchdiaz7@gmail.com   Direcci√≥n: KR 51B BIS 40B 16 SUR Motivo de la llamada: cliente se comunica que no se le esta aplicando descuento</t>
+    <t>Linea:6013222153  Nombre de quien se comunica:LEL LUZ DIAZ CHIQUINQUIRA   Cédula: 68301595 Número de contacto: 3012388896   Email:    llchdiaz7@gmail.com   Dirección: KR 51B BIS 40B 16 SUR Motivo de la llamada: cliente se comunica que no se le esta aplicando descuento</t>
   </si>
   <si>
     <t>MDM-PQR-37386068</t>
@@ -7499,7 +7516,7 @@
     <t>MDM-PQR-37386317</t>
   </si>
   <si>
-    <t xml:space="preserve"> NOMBRE-NICOLAS QUI√ëONES CARDENAS CELULAR-3194947992   CEDULA-1070923565 MOTIVO DE LA LLAMADA- cancelacion</t>
+    <t xml:space="preserve"> NOMBRE-NICOLAS QUIÑONES CARDENAS CELULAR-3194947992   CEDULA-1070923565 MOTIVO DE LA LLAMADA- cancelacion</t>
   </si>
   <si>
     <t>MDM-PQR-37386775</t>
@@ -7523,19 +7540,19 @@
     <t>MDM-PQR-37387194</t>
   </si>
   <si>
-    <t>L√≠nea: 6014150173 Nombre de quien se comunica: ELSA AURORA ALARCON ROBAYO   C√©dula: 51728498 N√∫mero de contacto: 3112951415   Email: amalarconal@gmail.com   Direcci√≥n: CL 22K 96F 23 IN 4  Motivo de la llamada: USUARIO SOLICITA CANCELACION DEL 1 DECO 216649.</t>
+    <t>Línea: 6014150173 Nombre de quien se comunica: ELSA AURORA ALARCON ROBAYO   Cédula: 51728498 Número de contacto: 3112951415   Email: amalarconal@gmail.com   Dirección: CL 22K 96F 23 IN 4  Motivo de la llamada: USUARIO SOLICITA CANCELACION DEL 1 DECO 216649.</t>
   </si>
   <si>
     <t>MDM-PQR-37388973</t>
   </si>
   <si>
-    <t>Linea:6017327215 Nombre de quien se comunica:SERGIO ALEJANDRO PRADA CASTIBLANCO   C√©dula: 1018461990 N√∫mero de contacto: 3112230447   Email:    sergioapc1893@gmail.com   Direcci√≥n: TV 90F BIS 88A 45 Motivo de la llamada: cliente se omunica que solicito retiro de hbo max y le llega factura incrementada cuando realizo cambio de plan</t>
+    <t>Linea:6017327215 Nombre de quien se comunica:SERGIO ALEJANDRO PRADA CASTIBLANCO   Cédula: 1018461990 Número de contacto: 3112230447   Email:    sergioapc1893@gmail.com   Dirección: TV 90F BIS 88A 45 Motivo de la llamada: cliente se omunica que solicito retiro de hbo max y le llega factura incrementada cuando realizo cambio de plan</t>
   </si>
   <si>
     <t>MDM-PQR-37389209</t>
   </si>
   <si>
-    <t>SG//LT: 6017317487 cuenta 12052705270//Cliente pide ajuste de la factura, indica que el 03/09/2022 bajo RF-001208190 se le ofreci√≥  tarifa preferencial ( $85.000 ) fuera de adicionales de WIN SPORTS + H $29.900 IVA incluido y  SVA AP WIFI PLUS $5.000 IVA incluido . SOLUCI√ìN DE ASEGURAMIENTO: Se deja caso escalado, solicitando a gestor fijo descuento manual de 45,4778% y as√≠ garantizar la oferta de $85,000 fuera de adicionales . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $3,900 incluido IVA. VALOR REAL AJUSTE: $6,200 incluido IVA. DIFERENCIA $-2,300.// SE PENALIZA ASESOR NO REALIZA GESTI√ìN PARA DAR CIERRE DE CICLO.</t>
+    <t>SG//LT: 6017317487 cuenta 12052705270//Cliente pide ajuste de la factura, indica que el 03/09/2022 bajo RF-001208190 se le ofreció  tarifa preferencial ( $85.000 ) fuera de adicionales de WIN SPORTS + H $29.900 IVA incluido y  SVA AP WIFI PLUS $5.000 IVA incluido . SOLUCIÓN DE ASEGURAMIENTO: Se deja caso escalado, solicitando a gestor fijo descuento manual de 45,4778% y así garantizar la oferta de $85,000 fuera de adicionales . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $3,900 incluido IVA. VALOR REAL AJUSTE: $6,200 incluido IVA. DIFERENCIA $-2,300.// SE PENALIZA ASESOR NO REALIZA GESTIÓN PARA DAR CIERRE DE CICLO.</t>
   </si>
   <si>
     <t>MDM-PQR-37389372</t>
@@ -7547,7 +7564,7 @@
     <t>MDM-PQR-37389529</t>
   </si>
   <si>
-    <t xml:space="preserve"> LINEA   NOMBRE DE QUIEN SE COMUNICA raul MOTORIZADOS EXPRESS S A S   CEDULA  830012843-5   NUMERO DE CONTACTO EMAILgtefinanciero@motorizadosexpress.com.co  DIRECCION Direcci√≥nKR 80 B 24 C 15 LC 201  MOTIVO DE LLAMADA  llego factura por 90.000 tiene pqr donde le quedo a mitad de precio    compensacion 36438964</t>
+    <t xml:space="preserve"> LINEA   NOMBRE DE QUIEN SE COMUNICA raul MOTORIZADOS EXPRESS S A S   CEDULA  830012843-5   NUMERO DE CONTACTO EMAILgtefinanciero@motorizadosexpress.com.co  DIRECCION DirecciónKR 80 B 24 C 15 LC 201  MOTIVO DE LLAMADA  llego factura por 90.000 tiene pqr donde le quedo a mitad de precio    compensacion 36438964</t>
   </si>
   <si>
     <t>MDM-PQR-37392214</t>
@@ -7559,13 +7576,13 @@
     <t>MDM-PQR-37392225</t>
   </si>
   <si>
-    <t>SG//LT: 6017156994 cuenta 12053657173//Cliente pide ajuste de la factura, indica que el 28/01/2023 bajo RF-001401031 se le ofreci√≥  20% de descuento sobre su plan contratado fuera de adicionales . SOLUCI√ìN DE ASEGURAMIENTO: Se deja caso escalado, solicitando a gestor fijo descuento manual de 26,1076% y as√≠ garantizar la oferta de $135,919 fuera de adicionales, se evidencia cobro de 2 ARRIENDO DECO $20,000 IVA incluido, AJUSTE BAJO LEY DE FAVORABILIDAD . JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $34,040 incluido IVA. VALOR REAL AJUSTE: $34,040 incluido IVA. DIFERENCIA $0.// SE PENALIZA ASESOR NO REALIZA GESTI√ìN PARA DAR CIERRE DE CICLO.</t>
+    <t>SG//LT: 6017156994 cuenta 12053657173//Cliente pide ajuste de la factura, indica que el 28/01/2023 bajo RF-001401031 se le ofreció  20% de descuento sobre su plan contratado fuera de adicionales . SOLUCIÓN DE ASEGURAMIENTO: Se deja caso escalado, solicitando a gestor fijo descuento manual de 26,1076% y así garantizar la oferta de $135,919 fuera de adicionales, se evidencia cobro de 2 ARRIENDO DECO $20,000 IVA incluido, AJUSTE BAJO LEY DE FAVORABILIDAD . JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $34,040 incluido IVA. VALOR REAL AJUSTE: $34,040 incluido IVA. DIFERENCIA $0.// SE PENALIZA ASESOR NO REALIZA GESTIÓN PARA DAR CIERRE DE CICLO.</t>
   </si>
   <si>
     <t>MDM-PQR-37394790</t>
   </si>
   <si>
-    <t>L√≠nea:  Nombre de quien se comunica: CLARA NERINA ROJAS LEON C√©dula: 41724701 Tel√©fono: 3102107168 Email: acabadosurtigres@hotmail.com Direcci√≥n: AK 68 38 38 SUR Motivo de llamada:  14/01/2023 SOLICITO LA CANCELACION DEL SERVICIO CON RADICADO 4347230000095866, PERO LE LLEGO OTRA FACTURA 379.500</t>
+    <t>Línea:  Nombre de quien se comunica: CLARA NERINA ROJAS LEON Cédula: 41724701 Teléfono: 3102107168 Email: acabadosurtigres@hotmail.com Dirección: AK 68 38 38 SUR Motivo de llamada:  14/01/2023 SOLICITO LA CANCELACION DEL SERVICIO CON RADICADO 4347230000095866, PERO LE LLEGO OTRA FACTURA 379.500</t>
   </si>
   <si>
     <t>MDM-PQR-37395055</t>
@@ -7589,13 +7606,13 @@
     <t>MDM-PQR-37397663</t>
   </si>
   <si>
-    <t>Nombre de quien se comunica:LIZ ADRIANA GUEVARA RAMIREZ   C√©dula:51955760 N√∫mero de contacto:3118545930  Email:lizadrianaguevara@yahoo.es   Direcci√≥n:CL 97A 57 34 Motivo de la llamada:  cliente se comun8ica porque tenia una retenccion para que pagara solo 55.000</t>
+    <t>Nombre de quien se comunica:LIZ ADRIANA GUEVARA RAMIREZ   Cédula:51955760 Número de contacto:3118545930  Email:lizadrianaguevara@yahoo.es   Dirección:CL 97A 57 34 Motivo de la llamada:  cliente se comun8ica porque tenia una retenccion para que pagara solo 55.000</t>
   </si>
   <si>
     <t>MDM-PQR-37399532</t>
   </si>
   <si>
-    <t>SG//LT: 6016131073 cuenta 12054042426//Cliente pide ajuste de la factura, indica que el 22/01/2023 bajo RF-001388554 se le ofreci√≥  DESCUENTO / $55.000 PERMANENTE . SOLUCI√ìN DE ASEGURAMIENTO: Se deja caso escalado, solicitando a gestor fijo descuento manual de 26,5688% y as√≠ garantizar la oferta de $55,000. JUSTIFICACI√ìN DE PENALIZACI√ìN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0.// SE PENALIZA ASESOR NO REALIZA GESTI√ìN PARA DAR CIERRE DE CICLO.</t>
+    <t>SG//LT: 6016131073 cuenta 12054042426//Cliente pide ajuste de la factura, indica que el 22/01/2023 bajo RF-001388554 se le ofreció  DESCUENTO / $55.000 PERMANENTE . SOLUCIÓN DE ASEGURAMIENTO: Se deja caso escalado, solicitando a gestor fijo descuento manual de 26,5688% y así garantizar la oferta de $55,000. JUSTIFICACIÓN DE PENALIZACIÓN AJUSTE: VALOR AJUSTADO EN FRONT $19,900 incluido IVA. VALOR REAL AJUSTE: $19,900 incluido IVA. DIFERENCIA $0.// SE PENALIZA ASESOR NO REALIZA GESTIÓN PARA DAR CIERRE DE CICLO.</t>
   </si>
   <si>
     <t>MDM-PQR-37400303</t>
@@ -7607,7 +7624,7 @@
     <t>MDM-PQR-37400678</t>
   </si>
   <si>
-    <t>SG//LT: 6017721257 cuenta 12054343063//Cliente radica queja el 01/02/2023 bajo CUN 4347230000263176 ,cliente se comunica afirmando que bajo los radicados 4347220004459161 y 4347220004459171 se hab√≠a llegado a generar retiro de los servicios de directv go y hbo pack y winsport solicitando que se lleve a acabo la escucha de la llamada en la cual se genera dichos tramites afirmando que en este caso no se deber√≠a de llegar a generar el cobro por estos servicios adicionales en la facturaci√≥n actual afirmando que en este caso bajo el requerimiento  000000005284 se le ajusto la factura del ciclo de facturaci√≥n anterior . SOLUCI√ìN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACI√ìN DE PENALIZACI√ìN: VALOR AJUSTADO EN FRONT: $72,800, incluido IVA, VALOR REAL AJUSTE $72,800 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
+    <t>SG//LT: 6017721257 cuenta 12054343063//Cliente radica queja el 01/02/2023 bajo CUN 4347230000263176 ,cliente se comunica afirmando que bajo los radicados 4347220004459161 y 4347220004459171 se había llegado a generar retiro de los servicios de directv go y hbo pack y winsport solicitando que se lleve a acabo la escucha de la llamada en la cual se genera dichos tramites afirmando que en este caso no se debería de llegar a generar el cobro por estos servicios adicionales en la facturación actual afirmando que en este caso bajo el requerimiento  000000005284 se le ajusto la factura del ciclo de facturación anterior . SOLUCIÓN DE ASEGURAMIENTO: Se cierra caso, este fue gestionado por escrita, deben garantizar cierre de ciclo. JUSTIFICACIÓN DE PENALIZACIÓN: VALOR AJUSTADO EN FRONT: $72,800, incluido IVA, VALOR REAL AJUSTE $72,800 incluido IVA, DIFERENCIA: $0/ AJUSTE CORRECTO.</t>
   </si>
   <si>
     <t>MDM-PQR-37401973</t>
@@ -7619,13 +7636,13 @@
     <t>MDM-PQR-37402155</t>
   </si>
   <si>
-    <t>nombre: LUCILA SILVA cc: 20311299 linea: 6017776658 celular: 3123640295 direcci√≥n: KR 79D 58C 51 SUR  correo: stelmorsilva@hotmail.com cuenta : 7053233263 motivo de llamada: factura / ajuste por fallas</t>
+    <t>nombre: LUCILA SILVA cc: 20311299 linea: 6017776658 celular: 3123640295 dirección: KR 79D 58C 51 SUR  correo: stelmorsilva@hotmail.com cuenta : 7053233263 motivo de llamada: factura / ajuste por fallas</t>
   </si>
   <si>
     <t>MDM-PQR-37403420</t>
   </si>
   <si>
-    <t>nombre: MARISOL ANGELICA CRUZ RODRIGUEZ   cc: 52469368   linea: 6012669449 celular: 3214330874  direcci√≥n: KR 7B 138 68 AP 602 correo: ENGEL24980@YAHOO.COM cuenta : 12054451053 motivo de llamada: factura</t>
+    <t>nombre: MARISOL ANGELICA CRUZ RODRIGUEZ   cc: 52469368   linea: 6012669449 celular: 3214330874  dirección: KR 7B 138 68 AP 602 correo: ENGEL24980@YAHOO.COM cuenta : 12054451053 motivo de llamada: factura</t>
   </si>
   <si>
     <t>MDM-PQR-37407092</t>
@@ -7637,7 +7654,7 @@
     <t>MDM-PQR-37408531</t>
   </si>
   <si>
-    <t>cliente indica que solicito v√≠a telef√≥nica el 01/02/2023 el retiro de los adicionales HBO- PARAMOUNT pero que se siguen generando el cobro de estos en la factura</t>
+    <t>cliente indica que solicito vía telefónica el 01/02/2023 el retiro de los adicionales HBO- PARAMOUNT pero que se siguen generando el cobro de estos en la factura</t>
   </si>
   <si>
     <t>MDM-PQR-37408664</t>
@@ -7655,19 +7672,19 @@
     <t>MDM-PQR-37410668</t>
   </si>
   <si>
-    <t>Cliente LUIS FERNANDO CORDOBA TORRES C√©dula de Ciudadan√≠a 79907562 L√≠nea: 6016795199// MANIFIESTA QUE GENERO LA CANCELACI√ìN DEL SERVICIO Y LE ESTA LLEGANDO FACTURA</t>
+    <t>Cliente LUIS FERNANDO CORDOBA TORRES Cédula de Ciudadanía 79907562 Línea: 6016795199// MANIFIESTA QUE GENERO LA CANCELACIÓN DEL SERVICIO Y LE ESTA LLEGANDO FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-37411449</t>
   </si>
   <si>
-    <t>L√≠nea:  6016560611 Nombre de quien se comunica:  LEIDI  MONTOYA    C√©dula:    31397206 N√∫mero de contacto:  3208006986   Email:  LADY8MONTOYA@HOTMAIL.COM   Direcci√≥n:  CL 71 BIS 92 13 AP 402 Motivo de la llamada:.  FACTUACION ,  ESTEMES PGARAI A 55. 00 Y N O ES ASI   FECHA  NOVEDAD RETENCIOENS 24 DE FEBRERO   $55.000  FECHA DE CORTE  8 DECADA MES</t>
+    <t>Línea:  6016560611 Nombre de quien se comunica:  LEIDI  MONTOYA    Cédula:    31397206 Número de contacto:  3208006986   Email:  LADY8MONTOYA@HOTMAIL.COM   Dirección:  CL 71 BIS 92 13 AP 402 Motivo de la llamada:.  FACTUACION ,  ESTEMES PGARAI A 55. 00 Y N O ES ASI   FECHA  NOVEDAD RETENCIOENS 24 DE FEBRERO   $55.000  FECHA DE CORTE  8 DECADA MES</t>
   </si>
   <si>
     <t>MDM-PQR-37411559</t>
   </si>
   <si>
-    <t>cliente solicitra ionformaci√≥n de factura</t>
+    <t>cliente solicitra ionformación de factura</t>
   </si>
   <si>
     <t>MDM-PQR-37411789</t>
@@ -7679,7 +7696,7 @@
     <t>MDM-PQR-37411858</t>
   </si>
   <si>
-    <t>L√≠nea: 6017252541 Nombre de quien se comunica: JUAN MARTIN VELOZA   C√©dula: 79113347 N√∫mero de contacto: 3132253415 Email: jvelozan@gmail.com Direcci√≥n:   CL 2C 38A 52 Motivo de la llamada: Cliente manifiesta inconformidad con los cargos generados a la factura de esta mes, ya que no corresponden a la oferta que se le indico por el incremento de megas.   cliente manifiesta intencion de cancelacion.</t>
+    <t>Línea: 6017252541 Nombre de quien se comunica: JUAN MARTIN VELOZA   Cédula: 79113347 Número de contacto: 3132253415 Email: jvelozan@gmail.com Dirección:   CL 2C 38A 52 Motivo de la llamada: Cliente manifiesta inconformidad con los cargos generados a la factura de esta mes, ya que no corresponden a la oferta que se le indico por el incremento de megas.   cliente manifiesta intencion de cancelacion.</t>
   </si>
   <si>
     <t>MDM-PQR-37414359</t>
@@ -7703,7 +7720,7 @@
     <t>MDM-PQR-37415440</t>
   </si>
   <si>
-    <t>L√≠nea: 6016373315 Nombre de quien se comunica: MIGUEL OCHICA MERCHAN   C√©dula: 9521461 N√∫mero de contacto: 3102407577   Email: cataochica@gmail.com   Direcci√≥n: CL 173A 20A 32 IN 10 AP 437  Motivo de la llamada: se comunica tercero a hacer la cancelacion del servicio</t>
+    <t>Línea: 6016373315 Nombre de quien se comunica: MIGUEL OCHICA MERCHAN   Cédula: 9521461 Número de contacto: 3102407577   Email: cataochica@gmail.com   Dirección: CL 173A 20A 32 IN 10 AP 437  Motivo de la llamada: se comunica tercero a hacer la cancelacion del servicio</t>
   </si>
   <si>
     <t>MDM-PQR-37417288</t>
@@ -7736,7 +7753,7 @@
     <t>MDM-PQR-37423688</t>
   </si>
   <si>
-    <t>LINEA:   6017388873 NOMBRE: Nicol√°s Trujillo C.C.   1019122951 CEL.  3153285608   COR.  nicolas.trujilloal@gmail.com   DIR.   KR 49A 86B 28   MOTIVO:  Cliente indica que le lleg√≥ factura por   $89000   y ten√≠a que llegarle por $75000.</t>
+    <t>LINEA:   6017388873 NOMBRE: Nicolás Trujillo C.C.   1019122951 CEL.  3153285608   COR.  nicolas.trujilloal@gmail.com   DIR.   KR 49A 86B 28   MOTIVO:  Cliente indica que le llegó factura por   $89000   y tenía que llegarle por $75000.</t>
   </si>
   <si>
     <t>MDM-PQR-37424946</t>
@@ -7748,7 +7765,7 @@
     <t>MDM-PQR-37429139</t>
   </si>
   <si>
-    <t>nombre: LORENA PATRICIA BALLESTEROS cc: 1020782075 linea: 6017628223 celu: 3185287827 direcci√≥n: KR 13A 150 06 AP 201 correo: lorenaballesteros1992@gmail.com  cuenta: 12054341063 motivo de llamada ajuste por fallas en el mes de fecbrero</t>
+    <t>nombre: LORENA PATRICIA BALLESTEROS cc: 1020782075 linea: 6017628223 celu: 3185287827 dirección: KR 13A 150 06 AP 201 correo: lorenaballesteros1992@gmail.com  cuenta: 12054341063 motivo de llamada ajuste por fallas en el mes de fecbrero</t>
   </si>
   <si>
     <t>MDM-PQR-37429140</t>
@@ -7766,13 +7783,13 @@
     <t>MDM-PQR-37429142</t>
   </si>
   <si>
-    <t>LÃ_nea:  6012672030  Nombre de quiÃ©n se comunica: JOTGE ENRRIQUE RIAX RODRIGUEZ C.C  79119463 LEILA RODRIGUEZ RUIZ   CÃ©dula: 20541074 NÃºmero de contacto: 3132079182   Correo: ruizrod0257@hotmail.com   DirecciÃ_n: KR 111A 19A 52 Motivo de llamada: CLIENTE SE COMUNICA PARA AJUSTE DE LA FACTURA POR FALLA A FINALES DE FEBRERO Y SE LE RESTABLECIO EN LOS PRIMERO DE MARZO</t>
+    <t>L̟nea:  6012672030  Nombre de qui̩n se comunica: JOTGE ENRRIQUE RIAX RODRIGUEZ C.C  79119463 LEILA RODRIGUEZ RUIZ   C̩dula: 20541074 N̼mero de contacto: 3132079182   Correo: ruizrod0257@hotmail.com   Direcci̟n: KR 111A 19A 52 Motivo de llamada: CLIENTE SE COMUNICA PARA AJUSTE DE LA FACTURA POR FALLA A FINALES DE FEBRERO Y SE LE RESTABLECIO EN LOS PRIMERO DE MARZO</t>
   </si>
   <si>
     <t>MDM-PQR-37429143</t>
   </si>
   <si>
-    <t>CLIENTE SOLICITA COMPENSACIÃ“N POR TIEMPO SIN SERVICIO. PRESENTA FALLA EN EL SERVICIO DE INTERNET DESDE EL DÃçA 10/02/2023 HASTA EL 18/02/2023. 1.MDM-PQR-36964073//2. MDM-PQR-37023309 //3.MDM-PQR-3702734 // 4.MDM-PQR-37044079 // 5.MDM-PQR-37061941 // 5.MDM-PQR-37112982.</t>
+    <t>CLIENTE SOLICITA COMPENSACI̒N POR TIEMPO SIN SERVICIO. PRESENTA FALLA EN EL SERVICIO DE INTERNET DESDE EL D̍A 10/02/2023 HASTA EL 18/02/2023. 1.MDM-PQR-36964073//2. MDM-PQR-37023309 //3.MDM-PQR-3702734 // 4.MDM-PQR-37044079 // 5.MDM-PQR-37061941 // 5.MDM-PQR-37112982.</t>
   </si>
   <si>
     <t>MDM-PQR-37429144</t>
@@ -7808,7 +7825,7 @@
     <t>MDM-PQR-37429149</t>
   </si>
   <si>
-    <t>WHATSAPP// SOLICITA COMPENSACIÃ“N POR FALLA TÃ‰CNICA</t>
+    <t>WHATSAPP// SOLICITA COMPENSACI̒N POR FALLA T̤CNICA</t>
   </si>
   <si>
     <t>MDM-PQR-37429150</t>
@@ -7820,13 +7837,13 @@
     <t>MDM-PQR-37429151</t>
   </si>
   <si>
-    <t>LÃ_nea:  6013633202 Nombre de quien se comunica: Alexandra leÃ_n  CÃ©dula: 52020547 NÃºmero de contacto: 3106952941   Email: documentosdigitales@etb.com.co   DirecciÃ_n: CL 40C SUR 7B 10 ESTE Motivo de la llamada: ajuste por fallas</t>
+    <t>L̟nea:  6013633202 Nombre de quien se comunica: Alexandra le̟n  C̩dula: 52020547 N̼mero de contacto: 3106952941   Email: documentosdigitales@etb.com.co   Direcci̟n: CL 40C SUR 7B 10 ESTE Motivo de la llamada: ajuste por fallas</t>
   </si>
   <si>
     <t>MDM-PQR-37429152</t>
   </si>
   <si>
-    <t>Celular: 3138785810   Motivo de llamada: La seÃ±ora Elizabeth indica que duro varios dÃ_as sin servicio y solicita ajuste de la factura, se le explica como se toma el ajuste de facturas por fallas, cliente accede</t>
+    <t>Celular: 3138785810   Motivo de llamada: La se̱ora Elizabeth indica que duro varios d̟as sin servicio y solicita ajuste de la factura, se le explica como se toma el ajuste de facturas por fallas, cliente accede</t>
   </si>
   <si>
     <t>MDM-PQR-37429153</t>
@@ -7868,7 +7885,7 @@
     <t>MDM-PQR-37429159</t>
   </si>
   <si>
-    <t>LÃ_nea: 6014487724 Nombre de quien se comunica: Oscar  CÃ©dula: 24383760 NÃºmero: 3112556940 Email: oscaralexandergomezoagg@gmail.com   DirecciÃ_n: CL 6 A 88 D 60 IN 18 AP 501  Motivo de la llamada: Cliente se comunica ya que indica tuvo una falla con su servicio por 2 meses y no se ha hecho la compensacion de la falla</t>
+    <t>L̟nea: 6014487724 Nombre de quien se comunica: Oscar  C̩dula: 24383760 N̼mero: 3112556940 Email: oscaralexandergomezoagg@gmail.com   Direcci̟n: CL 6 A 88 D 60 IN 18 AP 501  Motivo de la llamada: Cliente se comunica ya que indica tuvo una falla con su servicio por 2 meses y no se ha hecho la compensacion de la falla</t>
   </si>
   <si>
     <t>MDM-PQR-37429160</t>
@@ -7886,43 +7903,43 @@
     <t>MDM-PQR-37429162</t>
   </si>
   <si>
-    <t>Linea: 6013651251 Nombre: Yaqueline Corredor  Cedula:52039860 Celular: 3015065748 Correo: jackeline123c@gmail.com DirecciÃ_n: DG 69B SUR 18K 64 Motivo de llamada: Tuvieron una falla por aproximadamente 1 mes</t>
+    <t>Linea: 6013651251 Nombre: Yaqueline Corredor  Cedula:52039860 Celular: 3015065748 Correo: jackeline123c@gmail.com Direcci̟n: DG 69B SUR 18K 64 Motivo de llamada: Tuvieron una falla por aproximadamente 1 mes</t>
   </si>
   <si>
     <t>MDM-PQR-37429163</t>
   </si>
   <si>
-    <t>CLIENTE SOLICITA COMPENSACIÃ“N POR FALLAS</t>
+    <t>CLIENTE SOLICITA COMPENSACI̒N POR FALLAS</t>
   </si>
   <si>
     <t>MDM-PQR-37429164</t>
   </si>
   <si>
-    <t>NOMBRE: ESPERANZA IBAÃ‘EZ ABELLA CEDULA: 39540212 CELULAR: 3142391558 CORREO: espe20@hotmail.es DIRECCION: KR 82A 6B 74 CA 79  MOTIVO DE LA LLAMADA: CLIENTE SE COMUNICA, PORQUE A PRESENTADO FALLAS EN EL SERVICIO Y DICE QUE NO SE LE A REALIZADO EL RESPECTIVO AJUSTE</t>
+    <t>NOMBRE: ESPERANZA IBA̔EZ ABELLA CEDULA: 39540212 CELULAR: 3142391558 CORREO: espe20@hotmail.es DIRECCION: KR 82A 6B 74 CA 79  MOTIVO DE LA LLAMADA: CLIENTE SE COMUNICA, PORQUE A PRESENTADO FALLAS EN EL SERVICIO Y DICE QUE NO SE LE A REALIZADO EL RESPECTIVO AJUSTE</t>
   </si>
   <si>
     <t>MDM-PQR-37429165</t>
   </si>
   <si>
-    <t>clienta solicita informaciÃ_n de su factura por que presento falla masiva se le indica periodos de compensacion de los dias que presento falla</t>
+    <t>clienta solicita informaci̟n de su factura por que presento falla masiva se le indica periodos de compensacion de los dias que presento falla</t>
   </si>
   <si>
     <t>MDM-PQR-37429166</t>
   </si>
   <si>
-    <t>WHATSSAP // ANDREA DEL PILAR BELTRAN BAUTISTA. CÃ©dula de CiudadanÃ_a 52856808. CLIENTE SE COMUNICA PARA SOLICITAR COMPENSACIÃ“N POR FALLA. SE LE ORIENTA LA MISAM SE APLICA EN LAS 3 SIGUIENTES FACTURAS A QUE SE SOLUCIONE LA FALLA.</t>
+    <t>WHATSSAP // ANDREA DEL PILAR BELTRAN BAUTISTA. C̩dula de Ciudadan̟a 52856808. CLIENTE SE COMUNICA PARA SOLICITAR COMPENSACI̒N POR FALLA. SE LE ORIENTA LA MISAM SE APLICA EN LAS 3 SIGUIENTES FACTURAS A QUE SE SOLUCIONE LA FALLA.</t>
   </si>
   <si>
     <t>MDM-PQR-37429167</t>
   </si>
   <si>
-    <t>LINEA   6012069781 CC 20132663 NOMBRE DE QUIEN SE COMUNICA SATURIA VILLATE ORTIZ    CEL 3124043604   EMAIL  DIRECCION  CL 45 SUR 7A 26 ESTE  MOTIVO DE LLAMADA cliente solicita compnesacion Â´por fallas tecnicas</t>
+    <t>LINEA   6012069781 CC 20132663 NOMBRE DE QUIEN SE COMUNICA SATURIA VILLATE ORTIZ    CEL 3124043604   EMAIL  DIRECCION  CL 45 SUR 7A 26 ESTE  MOTIVO DE LLAMADA cliente solicita compnesacion 嫰or fallas tecnicas</t>
   </si>
   <si>
     <t>MDM-PQR-37429168</t>
   </si>
   <si>
-    <t>"LÃ_nea:6012950091 Â  Nombre de quien se comunica:DAGOBERTO HERNANDEZ PEÃ‘A Â  CÃ©dula:19289409 NÃºmero de contacto:3115610455 Â  Email:no.cque16@gmail.com Â  DirecciÃ_n:CL 25C 81A 12Â  Motivo de la llamada: Solicita compensacion por fallas en mayo  ."</t>
+    <t>"L̟nea:6012950091 加Nombre de quien se comunica:DAGOBERTO HERNANDEZ PE̔A 加C̩dula:19289409 N̼mero de contacto:3115610455 加Email:no.cque16@gmail.com 加Direcci̟n:CL 25C 81A 12加Motivo de la llamada: Solicita compensacion por fallas en mayo  ."</t>
   </si>
   <si>
     <t>MDM-PQR-37429169</t>
@@ -7934,13 +7951,13 @@
     <t>MDM-PQR-37429170</t>
   </si>
   <si>
-    <t>"LÃ_nea:6016455195 Â  Nombre de quien se comunica:  CÃ©dula:1015412126 Â  NÃºmero de contacto:3125887286 Â  Email:camilojimenezgacha@gmail.com Â  DirecciÃ_n:CL 70A 20 62Â  Motivo de la llamada: solicita compensaciÃ_n por fallas.</t>
+    <t>"L̟nea:6016455195 加Nombre de quien se comunica:  C̩dula:1015412126 加N̼mero de contacto:3125887286 加Email:camilojimenezgacha@gmail.com 加Direcci̟n:CL 70A 20 62加Motivo de la llamada: solicita compensaci̟n por fallas.</t>
   </si>
   <si>
     <t>MDM-PQR-37429171</t>
   </si>
   <si>
-    <t>LÃ_nea: Nombre de quien se comunica:ARACELIS CARRILLO   CÃ©dula:36622451 NÃºmero de contacto:3107839879 Email:aracelycarrillo58@gmail.com   DirecciÃ_n:KR 7C 33 36 SUR Motivo de la llamada:Se comunica  para validar ajuste de las fallas presentadas desde el 22 abril hasta el 16 de Mayo en la factura .</t>
+    <t>L̟nea: Nombre de quien se comunica:ARACELIS CARRILLO   C̩dula:36622451 N̼mero de contacto:3107839879 Email:aracelycarrillo58@gmail.com   Direcci̟n:KR 7C 33 36 SUR Motivo de la llamada:Se comunica  para validar ajuste de las fallas presentadas desde el 22 abril hasta el 16 de Mayo en la factura .</t>
   </si>
   <si>
     <t>MDM-PQR-37429172</t>
@@ -7952,19 +7969,19 @@
     <t>MDM-PQR-37429173</t>
   </si>
   <si>
-    <t>LÃ_nea:6012897233 Nombre de quien se comunica: JULIO EDUARDO PINZON USME   CÃ©dula:17053701 NÃºmero de contacto:3016311069 CorreoN/A DirecciÃ_n:  KR 10C ESTE 23A 13 SUR Motivo de la llamada: Cliente se comunica por ajuste por fallas.</t>
+    <t>L̟nea:6012897233 Nombre de quien se comunica: JULIO EDUARDO PINZON USME   C̩dula:17053701 N̼mero de contacto:3016311069 CorreoN/A Direcci̟n:  KR 10C ESTE 23A 13 SUR Motivo de la llamada: Cliente se comunica por ajuste por fallas.</t>
   </si>
   <si>
     <t>MDM-PQR-37429174</t>
   </si>
   <si>
-    <t>informaciÃ_n de compensaciÃ_n por falla</t>
+    <t>informaci̟n de compensaci̟n por falla</t>
   </si>
   <si>
     <t>MDM-PQR-37429175</t>
   </si>
   <si>
-    <t>compensaciÃ_n por falla tÃ©cnica</t>
+    <t>compensaci̟n por falla t̩cnica</t>
   </si>
   <si>
     <t>MDM-PQR-37429176</t>
@@ -7976,7 +7993,7 @@
     <t>MDM-PQR-37429177</t>
   </si>
   <si>
-    <t>LÃ_nea: 6013716697 Nombre: YERFESON HERNAN MARTINEZ MUÃ‘OZ CÃ©dula: 1033691013 Cel: 3195105403 Correo: yefersonmarin22@hotmail.com  DirecciÃ_n: KR 18K BIS 69B 19 SUR  Motivo De Llamada: Solicita compensaciÃ_n en la factura por falla q duro como 20 dÃ_as</t>
+    <t>L̟nea: 6013716697 Nombre: YERFESON HERNAN MARTINEZ MU̔OZ C̩dula: 1033691013 Cel: 3195105403 Correo: yefersonmarin22@hotmail.com  Direcci̟n: KR 18K BIS 69B 19 SUR  Motivo De Llamada: Solicita compensaci̟n en la factura por falla q duro como 20 d̟as</t>
   </si>
   <si>
     <t>MDM-PQR-37429178</t>
@@ -7985,7 +8002,7 @@
     <t>MDM-PQR-37429179</t>
   </si>
   <si>
-    <t>Cliente JANETH ROCIO MEDINA QUITO CÃ©dula de CiudadanÃ_a 52011464 Id PQR MDM-PQR-39271027 LÃ_nea: 6016785172 Cuenta de FacturaciÃ_n: 12053703509 ID Servicio: SR-40154202 // SE COMUNICA CLIENTE CON EL FIN DE AJUSTAR LA FACTURA POR FALLA EN EL SERVICIO EN EL MES DE MARZO</t>
+    <t>Cliente JANETH ROCIO MEDINA QUITO C̩dula de Ciudadan̟a 52011464 Id PQR MDM-PQR-39271027 L̟nea: 6016785172 Cuenta de Facturaci̟n: 12053703509 ID Servicio: SR-40154202 // SE COMUNICA CLIENTE CON EL FIN DE AJUSTAR LA FACTURA POR FALLA EN EL SERVICIO EN EL MES DE MARZO</t>
   </si>
   <si>
     <t>MDM-PQR-37429180</t>
@@ -8009,7 +8026,7 @@
     <t>MDM-PQR-37429183</t>
   </si>
   <si>
-    <t>ADRIANA PATRICIA NUÃ‘EZ PEREZ// Solicita informaciÃ_n de incremento de factura , ya que presento falla en el servicio durante un mes</t>
+    <t>ADRIANA PATRICIA NU̔EZ PEREZ// Solicita informaci̟n de incremento de factura , ya que presento falla en el servicio durante un mes</t>
   </si>
   <si>
     <t>MDM-PQR-37429184</t>
@@ -8027,7 +8044,7 @@
     <t>MDM-PQR-37429186</t>
   </si>
   <si>
-    <t>CLIENTE SOLICITA COMPENSACIÃ“N POR FALLA</t>
+    <t>CLIENTE SOLICITA COMPENSACI̒N POR FALLA</t>
   </si>
   <si>
     <t>MDM-PQR-37429187</t>
@@ -8081,25 +8098,25 @@
     <t>MDM-PQR-37429195</t>
   </si>
   <si>
-    <t>LÃ_nea: 6016266675  Nombre de quien se comunica: YOHANI PINZON OJEDA     CÃ©dula: 1033732867 NÃºmero de contacto: 3114945353   Email: yohani240901@gmail.com   DirecciÃ_n: CL 70N SUR 19D 30 Motivo de la llamada: cliente se comunica para validar compensaciÃ_n por fallas</t>
+    <t>L̟nea: 6016266675  Nombre de quien se comunica: YOHANI PINZON OJEDA     C̩dula: 1033732867 N̼mero de contacto: 3114945353   Email: yohani240901@gmail.com   Direcci̟n: CL 70N SUR 19D 30 Motivo de la llamada: cliente se comunica para validar compensaci̟n por fallas</t>
   </si>
   <si>
     <t>MDM-PQR-37429196</t>
   </si>
   <si>
-    <t>WHATSAPP  Nombre: Maria  CC 1022956512 Linea 7643721 Correo Johanitta16@gmail.com Motivo: solicita informaciÃ_n sobre factura de mes, debido a que le cobraron factura normal y por 28 dias no ha tenido servicio, se informa compensaciÃ_n e indica que se comunica luego debido a que no le han brindando soluciÃ_n en la falla</t>
+    <t>WHATSAPP  Nombre: Maria  CC 1022956512 Linea 7643721 Correo Johanitta16@gmail.com Motivo: solicita informaci̟n sobre factura de mes, debido a que le cobraron factura normal y por 28 dias no ha tenido servicio, se informa compensaci̟n e indica que se comunica luego debido a que no le han brindando soluci̟n en la falla</t>
   </si>
   <si>
     <t>MDM-PQR-37429197</t>
   </si>
   <si>
-    <t>LÃ_nea: Cuenta de FacturaciÃ_n: 12054533568 CLIENTE REQUIERE INFORMACIÃ“N DE AJUSTE POR FALLAS EN EL MES DE MAYO Y JUNIO 2023 INDICA YA LE FUNCIONA EL SERVICIO.</t>
+    <t>L̟nea: Cuenta de Facturaci̟n: 12054533568 CLIENTE REQUIERE INFORMACI̒N DE AJUSTE POR FALLAS EN EL MES DE MAYO Y JUNIO 2023 INDICA YA LE FUNCIONA EL SERVICIO.</t>
   </si>
   <si>
     <t>MDM-PQR-37429198</t>
   </si>
   <si>
-    <t>WHATSAPP// MARLON STEVEN MOLANO MATIZ// SE COMUNICA PARA VALIDAR SU SERVICIO Y COMPENSACIÃ“N POR FALLAS EN EL SERVICIO //</t>
+    <t>WHATSAPP// MARLON STEVEN MOLANO MATIZ// SE COMUNICA PARA VALIDAR SU SERVICIO Y COMPENSACI̒N POR FALLAS EN EL SERVICIO //</t>
   </si>
   <si>
     <t>MDM-PQR-37429199</t>
@@ -8111,13 +8128,13 @@
     <t>MDM-PQR-37429200</t>
   </si>
   <si>
-    <t>LINEA:      6017243667 NOMBRE:   Darwin Bautista C.C.     1115912580 CEL.     3125110858 COR:     no DIR:      CL 56A SUR 27 75 BQ 1 AP 401   MOTIVO:    Cliente indica que no tuvieron servicio de internet por 15 dÃ_as por falla masiva y le ha llegado la factura por todo el mes, la falla fue el 21 de mayo.</t>
+    <t>LINEA:      6017243667 NOMBRE:   Darwin Bautista C.C.     1115912580 CEL.     3125110858 COR:     no DIR:      CL 56A SUR 27 75 BQ 1 AP 401   MOTIVO:    Cliente indica que no tuvieron servicio de internet por 15 d̟as por falla masiva y le ha llegado la factura por todo el mes, la falla fue el 21 de mayo.</t>
   </si>
   <si>
     <t>MDM-PQR-37429201</t>
   </si>
   <si>
-    <t>Cliente DAVID RICARDO MORENO RAMIREZ CÃ©dula de CiudadanÃ_a 1026271330 Id PQR MDM-PQR-39311358 LÃ_nea: 6017323115 Motivo: Cliente se comunica para pedir ajuste por fallas tecnicas</t>
+    <t>Cliente DAVID RICARDO MORENO RAMIREZ C̩dula de Ciudadan̟a 1026271330 Id PQR MDM-PQR-39311358 L̟nea: 6017323115 Motivo: Cliente se comunica para pedir ajuste por fallas tecnicas</t>
   </si>
   <si>
     <t>MDM-PQR-37429202</t>
@@ -8132,31 +8149,31 @@
     <t>MDM-PQR-37429204</t>
   </si>
   <si>
-    <t>"LÃ_nea:c6012065104 Nombre de quien se comunica:ANA ISABEL GOMEZ ARDILA Â / 41696486   CÃ©dula:41696486 NÃºmero de contacto:3118905764 Â  Email: DirecciÃ_n:CL 30B S 1 33Â  Motivo de la llamada: soliccita bajar costos y compensacion por fallas</t>
+    <t>"L̟nea:c6012065104 Nombre de quien se comunica:ANA ISABEL GOMEZ ARDILA 劯 41696486   C̩dula:41696486 N̼mero de contacto:3118905764 加Email: Direcci̟n:CL 30B S 1 33加Motivo de la llamada: soliccita bajar costos y compensacion por fallas</t>
   </si>
   <si>
     <t>MDM-PQR-37429205</t>
   </si>
   <si>
-    <t>REDES SOCIALES // SweetNata2 // TWITTER  Cliente solicita compensaciÃ_n por fallas tÃ©cnicas</t>
+    <t>REDES SOCIALES // SweetNata2 // TWITTER  Cliente solicita compensaci̟n por fallas t̩cnicas</t>
   </si>
   <si>
     <t>MDM-PQR-37429206</t>
   </si>
   <si>
-    <t>LÃ_nea: 6013146073 Nombre: WILLIAM CUELLAR DUARTE CÃ©dula: 5993860 Cel: 3182529192 Correo: williamcuellard@hotmail.com DirecciÃ_n: CL 134F 53B 48 CA 2 Motivo De Llamada: Solicita que se le genere compensaciÃ_n en la factura por fallas en el servicio</t>
+    <t>L̟nea: 6013146073 Nombre: WILLIAM CUELLAR DUARTE C̩dula: 5993860 Cel: 3182529192 Correo: williamcuellard@hotmail.com Direcci̟n: CL 134F 53B 48 CA 2 Motivo De Llamada: Solicita que se le genere compensaci̟n en la factura por fallas en el servicio</t>
   </si>
   <si>
     <t>MDM-PQR-37429207</t>
   </si>
   <si>
-    <t>NOMBRE: MARIA ANTIGUA MUÃ‘OZ VERGARA   CEDULA:5164438 NUMERO DE CUENTA: 810421 CELULAR :3143628735   CORREO: mariavergara12.81@hotmail.com   DIRECCION: KR 11 104 43 SUR  MOTIVO: EL CLIENTE SE COMUNICA POR QUE LE REALIZAN EL REAJUSTE DE FACTURA POR LOS DIAS DE FALLA QUE TUVO EN EL MES DE MARZO</t>
+    <t>NOMBRE: MARIA ANTIGUA MU̔OZ VERGARA   CEDULA:5164438 NUMERO DE CUENTA: 810421 CELULAR :3143628735   CORREO: mariavergara12.81@hotmail.com   DIRECCION: KR 11 104 43 SUR  MOTIVO: EL CLIENTE SE COMUNICA POR QUE LE REALIZAN EL REAJUSTE DE FACTURA POR LOS DIAS DE FALLA QUE TUVO EN EL MES DE MARZO</t>
   </si>
   <si>
     <t>MDM-PQR-37429208</t>
   </si>
   <si>
-    <t>COMPENSACIÃ“N POR FALLA TÃ‰CNICA</t>
+    <t>COMPENSACI̒N POR FALLA T̤CNICA</t>
   </si>
   <si>
     <t>MDM-PQR-37429209</t>
@@ -8198,7 +8215,7 @@
     <t>MDM-PQR-37429215</t>
   </si>
   <si>
-    <t>CLIENTE  SOLICITA  AJUSTE DE  LA  FACTURA  POR  FALLAS MASIVAS   Apreciado cliente, presentamos una falla en el sector por lo que puede percibir ausencia o degradaciÃ_n de sus servicios. nuestro personal tÃ©cnico se encuentra trabajando en la soluciÃ_n y se estima que su servicio sea restablecido el 14/06 a las 09:11 Horas. Te presentamos excusas y te comunicaremos del avance y soluciÃ_n de la falla asociada al cun:4347230001365587.</t>
+    <t>CLIENTE  SOLICITA  AJUSTE DE  LA  FACTURA  POR  FALLAS MASIVAS   Apreciado cliente, presentamos una falla en el sector por lo que puede percibir ausencia o degradaci̟n de sus servicios. nuestro personal t̩cnico se encuentra trabajando en la soluci̟n y se estima que su servicio sea restablecido el 14/06 a las 09:11 Horas. Te presentamos excusas y te comunicaremos del avance y soluci̟n de la falla asociada al cun:4347230001365587.</t>
   </si>
   <si>
     <t>MDM-PQR-37429216</t>
@@ -8216,19 +8233,19 @@
     <t>MDM-PQR-37429218</t>
   </si>
   <si>
-    <t>whatsapp// solicitud compensaciÃ_n fallas</t>
+    <t>whatsapp// solicitud compensaci̟n fallas</t>
   </si>
   <si>
     <t>MDM-PQR-37429219</t>
   </si>
   <si>
-    <t>Se le indica a el cliente informaciÃ_n compensaciÃ_n por falla tecnica.</t>
+    <t>Se le indica a el cliente informaci̟n compensaci̟n por falla tecnica.</t>
   </si>
   <si>
     <t>MDM-PQR-37429220</t>
   </si>
   <si>
-    <t>Cliente se comunica solicitando la informaciÃ_n del tiempo de compensaciÃ_n en la factura que le llego, ya que informa que duro 20 dias sin el servicio por falla masiva.</t>
+    <t>Cliente se comunica solicitando la informaci̟n del tiempo de compensaci̟n en la factura que le llego, ya que informa que duro 20 dias sin el servicio por falla masiva.</t>
   </si>
   <si>
     <t>MDM-PQR-37429221</t>
@@ -8240,19 +8257,19 @@
     <t>MDM-PQR-37429222</t>
   </si>
   <si>
-    <t>LÃ_nea:6013621078  CÃ©dula: 4110420   PQR: 1.MDM-PQR-38755086 2.MDM-PQR-38754870  3.MDM-PQR-38620019 4.MDM-PQR-38030204 5.MDM-PQR-38102955  6.MDM-PQR-38195592 7.MDM-PQR-38559407   Correo electrÃ_nico: fernando.1279@hotmail.com   Celular: 3134690026   Observaciones:  cliente solcita el descuento de su factura por todo el tiempo sin servicio de las fallas de meses de abril y mayo</t>
+    <t>L̟nea:6013621078  C̩dula: 4110420   PQR: 1.MDM-PQR-38755086 2.MDM-PQR-38754870  3.MDM-PQR-38620019 4.MDM-PQR-38030204 5.MDM-PQR-38102955  6.MDM-PQR-38195592 7.MDM-PQR-38559407   Correo electr̟nico: fernando.1279@hotmail.com   Celular: 3134690026   Observaciones:  cliente solcita el descuento de su factura por todo el tiempo sin servicio de las fallas de meses de abril y mayo</t>
   </si>
   <si>
     <t>MDM-PQR-37429223</t>
   </si>
   <si>
-    <t>Cliente se acerca a centro de servicios a solicitar informaciÃ_n de la facturaciÃ_n del mes de junio ya que le indicaron se le realizarÃ_a compensaciÃ_n por las fallas tÃ©cnicas presentadas en el servicio, porque indica que duro 5 meses sin servicio</t>
+    <t>Cliente se acerca a centro de servicios a solicitar informaci̟n de la facturaci̟n del mes de junio ya que le indicaron se le realizar̟a compensaci̟n por las fallas t̩cnicas presentadas en el servicio, porque indica que duro 5 meses sin servicio</t>
   </si>
   <si>
     <t>MDM-PQR-37429224</t>
   </si>
   <si>
-    <t>"LÃ_nea:6012076393 Â  Nombre de quien se comunica:LIZ RODRIGUEZ CÃ©dula:201516 NÃºmero de contacto:3138673671 Â  Email:sicologa.pily@gmail.com DirecciÃ_n:CL 39A SUR 4 85 ESTEÂ  Motivo de la llamada:Solicita compensacion por fallas."</t>
+    <t>"L̟nea:6012076393 加Nombre de quien se comunica:LIZ RODRIGUEZ C̩dula:201516 N̼mero de contacto:3138673671 加Email:sicologa.pily@gmail.com Direcci̟n:CL 39A SUR 4 85 ESTE加Motivo de la llamada:Solicita compensacion por fallas."</t>
   </si>
   <si>
     <t>MDM-PQR-37429225</t>
@@ -8264,7 +8281,7 @@
     <t>MDM-PQR-37429226</t>
   </si>
   <si>
-    <t>LÃ_nea:6017143585 Nombre de quien se comunica:Luz Marina / JORGE AGUSTIN MELLIZO MORA   CÃ©dula:19143030 NÃºmero de contacto:3127089622 Email:doralicech@hotmail.com   DirecciÃ_n:CL 50C SUR 11C 19 AP 204 Motivo de la llamada:Se comunica para validar que lleva con fallas desde  el principio  del aÃ±o de la linea pero ha generado el pago normal y no tiene el servicio  MDM-PQR-37792290 fallas del 21/3/2023 al 25/03/2023, MDM-PQR-38363521  del 20/4/2023 al 22/04/2023, MDM-PQR-38867521  del 17/5/2023 al 11/06/2023.</t>
+    <t>L̟nea:6017143585 Nombre de quien se comunica:Luz Marina / JORGE AGUSTIN MELLIZO MORA   C̩dula:19143030 N̼mero de contacto:3127089622 Email:doralicech@hotmail.com   Direcci̟n:CL 50C SUR 11C 19 AP 204 Motivo de la llamada:Se comunica para validar que lleva con fallas desde  el principio  del a̱o de la linea pero ha generado el pago normal y no tiene el servicio  MDM-PQR-37792290 fallas del 21/3/2023 al 25/03/2023, MDM-PQR-38363521  del 20/4/2023 al 22/04/2023, MDM-PQR-38867521  del 17/5/2023 al 11/06/2023.</t>
   </si>
   <si>
     <t>MDM-PQR-37429227</t>
@@ -8276,13 +8293,13 @@
     <t>MDM-PQR-37429228</t>
   </si>
   <si>
-    <t>Nombre: GLORIA JANETH ALARCON ALARCON   Cedula: 51554390   Celular: 3103277349       Correo: jricardov_07@hotmail.com        direcciÃ_n: CL 3 11A 25  Motivo: Cliente se comunica por que no tiene servicio y le estan generando factura</t>
+    <t>Nombre: GLORIA JANETH ALARCON ALARCON   Cedula: 51554390   Celular: 3103277349       Correo: jricardov_07@hotmail.com        direcci̟n: CL 3 11A 25  Motivo: Cliente se comunica por que no tiene servicio y le estan generando factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429229</t>
   </si>
   <si>
-    <t>clienta solicita informaciÃ_n referente a facturaciÃ_n y compensaciÃ_n de fallas que presento con el anterior servicio</t>
+    <t>clienta solicita informaci̟n referente a facturaci̟n y compensaci̟n de fallas que presento con el anterior servicio</t>
   </si>
   <si>
     <t>MDM-PQR-37429230</t>
@@ -8294,7 +8311,7 @@
     <t>MDM-PQR-37429231</t>
   </si>
   <si>
-    <t>LÃ_nea: 6013633155 Nombre de quien se comunica: esperanza fonseca  CÃ©dula: 51944725 NÃºmero de contacto: 3134817814   Email:  DirecciÃ_n: KR 9 ESTE 28C 60 SUR Motivo de la llamada: ajuste de factura por fallas</t>
+    <t>L̟nea: 6013633155 Nombre de quien se comunica: esperanza fonseca  C̩dula: 51944725 N̼mero de contacto: 3134817814   Email:  Direcci̟n: KR 9 ESTE 28C 60 SUR Motivo de la llamada: ajuste de factura por fallas</t>
   </si>
   <si>
     <t>MDM-PQR-37429232</t>
@@ -8318,13 +8335,13 @@
     <t>MDM-PQR-37429235</t>
   </si>
   <si>
-    <t>cc52359632 NombreMARTHA JANETH GONZALEZ GALINDO  Celular 3229272542     NÃºmero Documento52359632 Emaillinavalery02@gmail.com   DirecciÃ_nKR 11 39 37 SUR  TÃ©lefono Fijo 3228142641   motivo : informacion de factura</t>
+    <t>cc52359632 NombreMARTHA JANETH GONZALEZ GALINDO  Celular 3229272542     N̼mero Documento52359632 Emaillinavalery02@gmail.com   Direcci̟nKR 11 39 37 SUR  T̩lefono Fijo 3228142641   motivo : informacion de factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429236</t>
   </si>
   <si>
-    <t>WHATSAPP// EXPLICACIÃ“N DE FACTURA</t>
+    <t>WHATSAPP// EXPLICACI̒N DE FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-37429237</t>
@@ -8348,7 +8365,7 @@
     <t>MDM-PQR-37429240</t>
   </si>
   <si>
-    <t>NOMBRE: PAULA ALEJANDRA AVENDAÃ‘O CASTAÃ‘O CC:  1233494754 CELULAR: 3202942694   TELEFONO: 6017628046 EMAIL: alejacast1@outlook.com   DIRECCION:CL 80 BIS SUR 94 75 MZ 9 TO 27 AP 201 MOTIVO:  informacion factura</t>
+    <t>NOMBRE: PAULA ALEJANDRA AVENDA̔O CASTA̔O CC:  1233494754 CELULAR: 3202942694   TELEFONO: 6017628046 EMAIL: alejacast1@outlook.com   DIRECCION:CL 80 BIS SUR 94 75 MZ 9 TO 27 AP 201 MOTIVO:  informacion factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429241</t>
@@ -8390,7 +8407,7 @@
     <t>MDM-PQR-37429248</t>
   </si>
   <si>
-    <t>CC: 79594580 NOMBRE:  JOSE ALVARO RIAÃ‘O ORJUELA    CORREO: ingjaro2012@gmail.com    CELULAR:  3142902985   CUENTA: 12053809506 LÃçNEA:  6017344710 MOTIVO: facturas explicaciÃ_n</t>
+    <t>CC: 79594580 NOMBRE:  JOSE ALVARO RIA̔O ORJUELA    CORREO: ingjaro2012@gmail.com    CELULAR:  3142902985   CUENTA: 12053809506 L̍NEA:  6017344710 MOTIVO: facturas explicaci̟n</t>
   </si>
   <si>
     <t>MDM-PQR-37429249</t>
@@ -8402,19 +8419,19 @@
     <t>MDM-PQR-37429250</t>
   </si>
   <si>
-    <t>CC: 80228592 NOMBRE:   WILSON ORLANDO MARIN GIL   CORREO:   PAMELIAGIL@YAHOO.ES   CELULAR:  3212653298   CUENTA: 12054368071 LÃçNEA:  6017660648   MOTIVO: $ facturas</t>
+    <t>CC: 80228592 NOMBRE:   WILSON ORLANDO MARIN GIL   CORREO:   PAMELIAGIL@YAHOO.ES   CELULAR:  3212653298   CUENTA: 12054368071 L̍NEA:  6017660648   MOTIVO: $ facturas</t>
   </si>
   <si>
     <t>MDM-PQR-37429251</t>
   </si>
   <si>
-    <t>WILLIAM ALEXANDER GUTIERREZ SOSA 71337847 6017183702 explicaciÃ_n de la factura</t>
+    <t>WILLIAM ALEXANDER GUTIERREZ SOSA 71337847 6017183702 explicaci̟n de la factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429252</t>
   </si>
   <si>
-    <t xml:space="preserve">    . LÃ_nea: 6013230576     . Nombre de quien se comunica: AYDE CRUZ      . CÃ©dula: 1030642661     . TelÃ©fono: 3213041437     . Correo: xargossx@gmail.com     . DirecciÃ_n: KR 82B 42B 18 SUR     . Motivo de la llamada: SE COMUNICA PORQUE SOLICITA INFORMACION SOBRE EL AUMENTO EN SU FACTURA.</t>
+    <t xml:space="preserve">    . L̟nea: 6013230576     . Nombre de quien se comunica: AYDE CRUZ      . C̩dula: 1030642661     . Tel̩fono: 3213041437     . Correo: xargossx@gmail.com     . Direcci̟n: KR 82B 42B 18 SUR     . Motivo de la llamada: SE COMUNICA PORQUE SOLICITA INFORMACION SOBRE EL AUMENTO EN SU FACTURA.</t>
   </si>
   <si>
     <t>MDM-PQR-37429253</t>
@@ -8423,7 +8440,7 @@
     <t>MDM-PQR-37429254</t>
   </si>
   <si>
-    <t>NOMBRE: SANDRA ROCIO NIÃ‘O BAUTISTA   CEDULA: 51966576 CORREO: sebasdana2024@hotmail.com   DIRECCION: KR 100 55A 15 SUR IN F CA 7  TELEFONO FIJO: 6013464577  CELULAR: 3152847703   MOTIVO DE LLAMADA: INFORMACION SOBRE FACTURACION</t>
+    <t>NOMBRE: SANDRA ROCIO NI̔O BAUTISTA   CEDULA: 51966576 CORREO: sebasdana2024@hotmail.com   DIRECCION: KR 100 55A 15 SUR IN F CA 7  TELEFONO FIJO: 6013464577  CELULAR: 3152847703   MOTIVO DE LLAMADA: INFORMACION SOBRE FACTURACION</t>
   </si>
   <si>
     <t>MDM-PQR-37429255</t>
@@ -8450,7 +8467,7 @@
     <t>MDM-PQR-37429259</t>
   </si>
   <si>
-    <t>Ws// Cliente se comunica por informaciÃ_n de factura alta.</t>
+    <t>Ws// Cliente se comunica por informaci̟n de factura alta.</t>
   </si>
   <si>
     <t>MDM-PQR-37429260</t>
@@ -8474,7 +8491,7 @@
     <t>MDM-PQR-37429263</t>
   </si>
   <si>
-    <t>Chat bot // DAVID BUSTOS // Cliente solicita informaciÃ_n de su factura</t>
+    <t>Chat bot // DAVID BUSTOS // Cliente solicita informaci̟n de su factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429264</t>
@@ -8489,7 +8506,7 @@
     <t>MDM-PQR-37429266</t>
   </si>
   <si>
-    <t>paola ** LIGIA PEÃ‘A ESCOBAR   51632282  3508864674   explicacion de factura</t>
+    <t>paola ** LIGIA PE̔A ESCOBAR   51632282  3508864674   explicacion de factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429267</t>
@@ -8552,7 +8569,7 @@
     <t>MDM-PQR-37429277</t>
   </si>
   <si>
-    <t>NOMBRE: LOLA YANETH PEÃ‘ALOZA MARTINEZ CC: 52635585 CELULAR: 3114566106 TELEFONO: EMAIL: loyaser@hotmail.es DIRECCION:KR 13A 15 43 SUR MOTIVO: informacion factura</t>
+    <t>NOMBRE: LOLA YANETH PE̔ALOZA MARTINEZ CC: 52635585 CELULAR: 3114566106 TELEFONO: EMAIL: loyaser@hotmail.es DIRECCION:KR 13A 15 43 SUR MOTIVO: informacion factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429278</t>
@@ -8579,13 +8596,13 @@
     <t>MDM-PQR-37429283</t>
   </si>
   <si>
-    <t>INFORMACIÃ“N DE FACTURA</t>
+    <t>INFORMACI̒N DE FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-37429284</t>
   </si>
   <si>
-    <t>"LÃ_nea: 6017323648 Nombre de quien se comunicaLUISA LUCERO ROJAS   CÃ©dula: 52090467 NÃºmero de contacto: 3132594232       Email: LUCCE.ROJAS@GMAIL.COM   DirecciÃ_n:    CL 61 2 31 AP 505 Motivo de la llamada:."   QUIERE EXPLICACION DE SU FACTURA</t>
+    <t>"L̟nea: 6017323648 Nombre de quien se comunicaLUISA LUCERO ROJAS   C̩dula: 52090467 N̼mero de contacto: 3132594232       Email: LUCCE.ROJAS@GMAIL.COM   Direcci̟n:    CL 61 2 31 AP 505 Motivo de la llamada:."   QUIERE EXPLICACION DE SU FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-37429285</t>
@@ -8606,7 +8623,7 @@
     <t>MDM-PQR-37429288</t>
   </si>
   <si>
-    <t>LÃ_nea: 6012654825 Nombre de quien se comunica:INVERSIONES WDS SAS   CÃ©dula:901651640   NÃºmero de contacto:3152645956   Email:jaromerofan@gmail.com   DirecciÃ_n:CL 27A SUR 35A 44 Motivo de la llamada: INFOMRACION DE SU FACTURA</t>
+    <t>L̟nea: 6012654825 Nombre de quien se comunica:INVERSIONES WDS SAS   C̩dula:901651640   N̼mero de contacto:3152645956   Email:jaromerofan@gmail.com   Direcci̟n:CL 27A SUR 35A 44 Motivo de la llamada: INFOMRACION DE SU FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-37429289</t>
@@ -8627,7 +8644,7 @@
     <t>MDM-PQR-37429292</t>
   </si>
   <si>
-    <t>InfotmaciÃ_n facturaciÃ_n</t>
+    <t>Infotmaci̟n facturaci̟n</t>
   </si>
   <si>
     <t>MDM-PQR-37429293</t>
@@ -8660,7 +8677,7 @@
     <t>MDM-PQR-37429299</t>
   </si>
   <si>
-    <t>INFORMCIÃ’N DE FACTURA</t>
+    <t>INFORMCI̕N DE FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-37429300</t>
@@ -8675,7 +8692,7 @@
     <t>MDM-PQR-37429302</t>
   </si>
   <si>
-    <t>SERGIO STIVEN PATIÃ‘O RODRIGUEZ  CEDULA:1033784060   DIRECCION:CL 58 SUR 41 33 PI 4 serbtw@hotmail.com  CELULAR:3015248964   MOTIVO: INFORMACION</t>
+    <t>SERGIO STIVEN PATI̔O RODRIGUEZ  CEDULA:1033784060   DIRECCION:CL 58 SUR 41 33 PI 4 serbtw@hotmail.com  CELULAR:3015248964   MOTIVO: INFORMACION</t>
   </si>
   <si>
     <t>MDM-PQR-37429303</t>
@@ -8696,7 +8713,7 @@
     <t>MDM-PQR-37429306</t>
   </si>
   <si>
-    <t>WHATSAPP//  EXPLICACIÃ“N DE FACTURA</t>
+    <t>WHATSAPP//  EXPLICACI̒N DE FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-37429307</t>
@@ -8714,19 +8731,19 @@
     <t>MDM-PQR-37429309</t>
   </si>
   <si>
-    <t>NOMBRE  FLOR ANGELA CAÃ‘ON CAÃ‘ON CC 24197295 LINEA 5713654489  CORREO 0 DIRECCION CL 66 BIS SUR 10B 24 ESTE  MOTIVO cliente se comunica por informacion de su factura</t>
+    <t>NOMBRE  FLOR ANGELA CA̔ON CA̔ON CC 24197295 LINEA 5713654489  CORREO 0 DIRECCION CL 66 BIS SUR 10B 24 ESTE  MOTIVO cliente se comunica por informacion de su factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429310</t>
   </si>
   <si>
-    <t>ExplicaciÃ_n de factura</t>
+    <t>Explicaci̟n de factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429311</t>
   </si>
   <si>
-    <t>ExplicaciÃ_n de factura.</t>
+    <t>Explicaci̟n de factura.</t>
   </si>
   <si>
     <t>MDM-PQR-37429312</t>
@@ -8750,7 +8767,7 @@
     <t>MDM-PQR-37429315</t>
   </si>
   <si>
-    <t>Nombre: JUAN MANUEL MACIAS MORENO   Cedula: 1053724666   Celular: 3209388849          Correo: juanmacias92@gmail.com        direcciÃ_n: KR 11 73A 10 SUR  Motivo: Cliente se comunica para explicaciÃ_n sobre la factura.</t>
+    <t>Nombre: JUAN MANUEL MACIAS MORENO   Cedula: 1053724666   Celular: 3209388849          Correo: juanmacias92@gmail.com        direcci̟n: KR 11 73A 10 SUR  Motivo: Cliente se comunica para explicaci̟n sobre la factura.</t>
   </si>
   <si>
     <t>MDM-PQR-37429316</t>
@@ -8771,19 +8788,19 @@
     <t>MDM-PQR-37429319</t>
   </si>
   <si>
-    <t>Nombre: AYDEE ROSALIA DEL CARMEN RUIZ PINTO   Cedula: 23606205   Celular:  3102630721        Correo: AYDEERUIZPINTO@GMAIL.COM       direcciÃ_n: CL 22C 28 78 AP 505 Motivo: Cliente se comunica para explicaciÃ_n sobre factura.</t>
+    <t>Nombre: AYDEE ROSALIA DEL CARMEN RUIZ PINTO   Cedula: 23606205   Celular:  3102630721        Correo: AYDEERUIZPINTO@GMAIL.COM       direcci̟n: CL 22C 28 78 AP 505 Motivo: Cliente se comunica para explicaci̟n sobre factura.</t>
   </si>
   <si>
     <t>MDM-PQR-37429320</t>
   </si>
   <si>
-    <t>CHAT// EXPLICACIÃ“N DE FACTURA</t>
+    <t>CHAT// EXPLICACI̒N DE FACTURA</t>
   </si>
   <si>
     <t>MDM-PQR-37429321</t>
   </si>
   <si>
-    <t>InformaciÃ_n facturacion</t>
+    <t>Informaci̟n facturacion</t>
   </si>
   <si>
     <t>MDM-PQR-37429322</t>
@@ -8813,7 +8830,7 @@
     <t>MDM-PQR-37429327</t>
   </si>
   <si>
-    <t>WhatsApp//explicaciÃ_n de factura</t>
+    <t>WhatsApp//explicaci̟n de factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429328</t>
@@ -8939,13 +8956,13 @@
     <t>MDM-PQR-37429356</t>
   </si>
   <si>
-    <t>InformaciÃ_n de factura</t>
+    <t>Informaci̟n de factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429357</t>
   </si>
   <si>
-    <t>Se le indica a el cliente explicaciÃ_n de factura.</t>
+    <t>Se le indica a el cliente explicaci̟n de factura.</t>
   </si>
   <si>
     <t>MDM-PQR-37429358</t>
@@ -8966,7 +8983,7 @@
     <t>MDM-PQR-37429361</t>
   </si>
   <si>
-    <t>chat// explicaciÃ_n de factura</t>
+    <t>chat// explicaci̟n de factura</t>
   </si>
   <si>
     <t>MDM-PQR-37429362</t>
@@ -9046,6 +9063,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tipificacion (1)" connectionId="1" xr16:uid="{3182310B-5189-474F-A573-AD20E2DC464F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9344,14 +9365,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4875561-F2D5-5645-939F-264DC73BE5E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD4DDCB-18C5-F94C-BE35-34A9E24A1882}">
   <dimension ref="A1:C1629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1629"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
